--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\landfiredisturbance\specifications\3_MechRemove\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LANDFIRE\landfiredisturbance-clone\specifications\3_MechRemove\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -956,12 +956,6 @@
     <t>Low Time Step 1 (311) Rules</t>
   </si>
   <si>
-    <t>Moderate Severity MechRemove</t>
-  </si>
-  <si>
-    <t>High Severity MechRemove</t>
-  </si>
-  <si>
     <t>Time Step 2 (312) Rules</t>
   </si>
   <si>
@@ -1280,9 +1274,6 @@
     <t>* = 1/0.25</t>
   </si>
   <si>
-    <t>Low Severity Mech Remove</t>
-  </si>
-  <si>
     <t xml:space="preserve"> * = 0 (MAKE EMPTY)</t>
   </si>
   <si>
@@ -1314,6 +1305,15 @@
   </si>
   <si>
     <t>Time Step 3 (333) Rules</t>
+  </si>
+  <si>
+    <t>Low Severity Mech Remove (31)</t>
+  </si>
+  <si>
+    <t>Moderate Severity MechRemove (32)</t>
+  </si>
+  <si>
+    <t>High Severity MechRemove (33)</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2159,7 @@
         <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -2173,7 +2173,7 @@
         <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -2187,7 +2187,7 @@
         <v>313</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -2201,7 +2201,7 @@
         <v>321</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -2215,7 +2215,7 @@
         <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -2229,7 +2229,7 @@
         <v>323</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -2243,7 +2243,7 @@
         <v>331</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2257,7 +2257,7 @@
         <v>332</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2271,7 +2271,7 @@
         <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -2454,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K952"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,24 +2477,24 @@
     <row r="1" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1" s="22" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25" t="s">
-        <v>279</v>
+        <v>397</v>
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="32"/>
       <c r="I1" s="25" t="s">
-        <v>280</v>
+        <v>398</v>
       </c>
       <c r="J1" s="23"/>
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>12</v>
@@ -2529,7 +2529,7 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>258</v>
@@ -2547,7 +2547,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>10</v>
@@ -2581,7 +2581,7 @@
         <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>259</v>
@@ -2607,7 +2607,7 @@
         <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>259</v>
@@ -2625,7 +2625,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>10</v>
@@ -2659,7 +2659,7 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>259</v>
@@ -2685,7 +2685,7 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>259</v>
@@ -2703,7 +2703,7 @@
         <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>1</v>
@@ -2738,16 +2738,16 @@
         <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2763,7 +2763,7 @@
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E22" s="29"/>
     </row>
@@ -2788,7 +2788,7 @@
         <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
@@ -2800,7 +2800,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E24" s="29"/>
       <c r="G24" s="28"/>
@@ -2811,7 +2811,7 @@
         <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
@@ -2821,7 +2821,7 @@
         <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E26" s="29"/>
     </row>
@@ -2830,7 +2830,7 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2838,7 +2838,7 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
         <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2878,7 +2878,7 @@
         <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2894,7 +2894,7 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E35" s="29"/>
       <c r="J35" s="28"/>
@@ -2905,7 +2905,7 @@
         <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>259</v>
@@ -2940,27 +2940,27 @@
         <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>260</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="27" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="27" t="s">
         <v>269</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K37" s="29"/>
     </row>
@@ -2969,7 +2969,7 @@
         <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E38" s="29"/>
       <c r="H38" s="29"/>
@@ -2980,7 +2980,7 @@
         <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>259</v>
@@ -3015,27 +3015,27 @@
         <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>260</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="27" t="s">
         <v>1</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="27" t="s">
         <v>269</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K40" s="29"/>
     </row>
@@ -3044,7 +3044,7 @@
         <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D41" s="28"/>
       <c r="G41" s="28"/>
@@ -3056,7 +3056,7 @@
         <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>259</v>
@@ -3091,7 +3091,7 @@
         <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>259</v>
@@ -3126,27 +3126,27 @@
         <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>259</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="27" t="s">
         <v>260</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="27" t="s">
         <v>1</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K44" s="29"/>
     </row>
@@ -3155,7 +3155,7 @@
         <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D45" s="28"/>
       <c r="J45" s="28"/>
@@ -3166,7 +3166,7 @@
         <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>259</v>
@@ -3201,7 +3201,7 @@
         <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>259</v>
@@ -3236,27 +3236,27 @@
         <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>259</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="27" t="s">
         <v>260</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="27" t="s">
         <v>1</v>
       </c>
       <c r="J48" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K48" s="29"/>
     </row>
@@ -3265,7 +3265,7 @@
         <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>259</v>
@@ -3294,7 +3294,7 @@
         <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>259</v>
@@ -3323,7 +3323,7 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>259</v>
@@ -3352,7 +3352,7 @@
         <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>259</v>
@@ -3381,7 +3381,7 @@
         <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>259</v>
@@ -3410,13 +3410,13 @@
         <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>260</v>
@@ -3425,7 +3425,7 @@
         <v>275</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H54" s="29" t="s">
         <v>260</v>
@@ -3434,7 +3434,7 @@
         <v>277</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K54" s="29" t="s">
         <v>260</v>
@@ -3445,13 +3445,13 @@
         <v>209</v>
       </c>
       <c r="B55" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>260</v>
@@ -3460,7 +3460,7 @@
         <v>275</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H55" s="29" t="s">
         <v>260</v>
@@ -3469,7 +3469,7 @@
         <v>277</v>
       </c>
       <c r="J55" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K55" s="29" t="s">
         <v>260</v>
@@ -3480,13 +3480,13 @@
         <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C56" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E56" s="29" t="s">
         <v>260</v>
@@ -3495,7 +3495,7 @@
         <v>275</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H56" s="29" t="s">
         <v>260</v>
@@ -3504,7 +3504,7 @@
         <v>277</v>
       </c>
       <c r="J56" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K56" s="29" t="s">
         <v>260</v>
@@ -3515,34 +3515,34 @@
         <v>211</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F57" s="27" t="s">
         <v>275</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I57" s="27" t="s">
         <v>277</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K57" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3550,34 +3550,34 @@
         <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F58" s="27" t="s">
         <v>275</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I58" s="27" t="s">
         <v>277</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K58" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3585,34 +3585,34 @@
         <v>213</v>
       </c>
       <c r="B59" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F59" s="27" t="s">
         <v>275</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I59" s="27" t="s">
         <v>277</v>
       </c>
       <c r="J59" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K59" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3620,7 +3620,7 @@
         <v>155</v>
       </c>
       <c r="B60" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3636,25 +3636,25 @@
         <v>157</v>
       </c>
       <c r="B62" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C62" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F62" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="H62" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="I62" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="F62" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="H62" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="I62" s="27" t="s">
-        <v>382</v>
-      </c>
       <c r="K62" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3662,7 +3662,7 @@
         <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3670,7 +3670,7 @@
         <v>153</v>
       </c>
       <c r="B64" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3678,16 +3678,16 @@
         <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K65" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,7 +3711,7 @@
         <v>151</v>
       </c>
       <c r="B68" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>259</v>
@@ -3736,7 +3736,7 @@
         <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C70" s="27" t="s">
         <v>259</v>
@@ -3753,7 +3753,7 @@
         <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>259</v>
@@ -3770,7 +3770,7 @@
         <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3786,7 +3786,7 @@
         <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3794,7 +3794,7 @@
         <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3802,7 +3802,7 @@
         <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>126</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3818,7 +3818,7 @@
         <v>127</v>
       </c>
       <c r="B78" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3826,7 +3826,7 @@
         <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>259</v>
@@ -3852,7 +3852,7 @@
         <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C80" s="27" t="s">
         <v>259</v>
@@ -3878,7 +3878,7 @@
         <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>259</v>
@@ -3904,7 +3904,7 @@
         <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C82" s="27" t="s">
         <v>259</v>
@@ -3930,7 +3930,7 @@
         <v>132</v>
       </c>
       <c r="B83" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>259</v>
@@ -3956,7 +3956,7 @@
         <v>133</v>
       </c>
       <c r="B84" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C84" s="27" t="s">
         <v>259</v>
@@ -3982,7 +3982,7 @@
         <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C85" s="27" t="s">
         <v>259</v>
@@ -4001,7 +4001,7 @@
         <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C86" s="27" t="s">
         <v>259</v>
@@ -4020,7 +4020,7 @@
         <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>259</v>
@@ -4041,7 +4041,7 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>259</v>
@@ -4061,7 +4061,7 @@
         <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C89" s="27" t="s">
         <v>259</v>
@@ -4080,7 +4080,7 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C90" s="27" t="s">
         <v>259</v>
@@ -4092,7 +4092,7 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D91" s="28"/>
     </row>
@@ -4101,7 +4101,7 @@
         <v>110</v>
       </c>
       <c r="B92" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C92" s="27" t="s">
         <v>259</v>
@@ -4120,7 +4120,7 @@
         <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C93" s="27" t="s">
         <v>259</v>
@@ -4132,7 +4132,7 @@
         <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D94" s="28"/>
     </row>
@@ -7488,7 +7488,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>12</v>
@@ -7503,10 +7503,10 @@
         <v>278</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>16</v>
@@ -7587,7 +7587,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>258</v>
@@ -7690,7 +7690,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>10</v>
@@ -7896,7 +7896,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="31"/>
@@ -7995,7 +7995,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>259</v>
@@ -8098,7 +8098,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>259</v>
@@ -8201,7 +8201,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>10</v>
@@ -8389,7 +8389,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="31"/>
@@ -8479,7 +8479,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>259</v>
@@ -8573,7 +8573,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>259</v>
@@ -8667,7 +8667,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="31"/>
@@ -8763,7 +8763,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="31"/>
@@ -8859,7 +8859,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="31"/>
@@ -8955,7 +8955,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>1</v>
@@ -9055,7 +9055,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>1</v>
@@ -9155,7 +9155,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="31"/>
@@ -9248,7 +9248,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="31"/>
@@ -9341,7 +9341,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="31"/>
@@ -9434,7 +9434,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="31"/>
@@ -9524,7 +9524,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
@@ -9614,7 +9614,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="31"/>
@@ -9704,7 +9704,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
@@ -9794,7 +9794,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="31"/>
@@ -9884,7 +9884,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="31"/>
@@ -9980,7 +9980,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="31"/>
@@ -10076,7 +10076,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="31"/>
@@ -10172,7 +10172,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="31"/>
@@ -10271,7 +10271,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="31"/>
@@ -10370,7 +10370,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="31"/>
@@ -10469,7 +10469,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="31"/>
@@ -10562,7 +10562,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="31"/>
@@ -10655,7 +10655,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="31"/>
@@ -10760,7 +10760,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>259</v>
@@ -10878,13 +10878,13 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>260</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4">
@@ -10992,7 +10992,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="31"/>
@@ -11088,7 +11088,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>259</v>
@@ -11197,13 +11197,13 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>260</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="4">
@@ -11302,7 +11302,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
@@ -11404,7 +11404,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>259</v>
@@ -11519,7 +11519,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>259</v>
@@ -11634,13 +11634,13 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>259</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="4">
@@ -11745,7 +11745,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="28"/>
@@ -11844,7 +11844,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>259</v>
@@ -11956,7 +11956,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>259</v>
@@ -12068,13 +12068,13 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>259</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="4">
@@ -12179,7 +12179,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>259</v>
@@ -12290,7 +12290,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>259</v>
@@ -12401,7 +12401,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>259</v>
@@ -12512,7 +12512,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>259</v>
@@ -12623,7 +12623,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>259</v>
@@ -12734,13 +12734,13 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>260</v>
@@ -12848,13 +12848,13 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>260</v>
@@ -12962,13 +12962,13 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>260</v>
@@ -13076,25 +13076,25 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C56" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F56" s="44">
         <v>0.9</v>
       </c>
       <c r="G56" s="43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I56" s="11">
         <v>5</v>
@@ -13184,25 +13184,25 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F57" s="44">
         <v>0.9</v>
       </c>
       <c r="G57" s="43" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I57" s="11">
         <v>11</v>
@@ -13292,25 +13292,25 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F58" s="44">
         <v>0.9</v>
       </c>
       <c r="G58" s="43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I58" s="11">
         <v>0</v>
@@ -13400,7 +13400,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="31"/>
@@ -13495,7 +13495,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="31"/>
@@ -13590,17 +13590,17 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D61" s="31"/>
       <c r="E61" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G61" s="45"/>
       <c r="H61" s="38">
@@ -13691,7 +13691,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="31"/>
@@ -13790,7 +13790,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="31"/>
@@ -13889,17 +13889,17 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C64" s="27"/>
       <c r="D64" s="31"/>
       <c r="E64" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F64" s="44"/>
       <c r="G64" s="45"/>
       <c r="H64" s="37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I64" s="11">
         <v>115</v>
@@ -13992,7 +13992,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C65" s="27"/>
       <c r="D65" s="31"/>
@@ -14079,7 +14079,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="31"/>
@@ -14166,7 +14166,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="31"/>
@@ -14253,7 +14253,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C68" s="27" t="s">
         <v>259</v>
@@ -14362,7 +14362,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>259</v>
@@ -14471,7 +14471,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C70" s="27" t="s">
         <v>259</v>
@@ -14580,7 +14580,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="31"/>
@@ -14670,7 +14670,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="31"/>
@@ -14760,7 +14760,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="31"/>
@@ -14850,7 +14850,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C74" s="27"/>
       <c r="D74" s="31"/>
@@ -14946,7 +14946,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="31"/>
@@ -15039,7 +15039,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="31"/>
@@ -15129,7 +15129,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="31"/>
@@ -15216,7 +15216,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C78" s="27" t="s">
         <v>259</v>
@@ -15315,7 +15315,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>259</v>
@@ -15414,7 +15414,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C80" s="27" t="s">
         <v>259</v>
@@ -15528,7 +15528,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>259</v>
@@ -15642,7 +15642,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C82" s="27" t="s">
         <v>259</v>
@@ -15744,7 +15744,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>259</v>
@@ -15846,7 +15846,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C84" s="27" t="s">
         <v>259</v>
@@ -15943,7 +15943,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C85" s="27" t="s">
         <v>259</v>
@@ -16040,7 +16040,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C86" s="27" t="s">
         <v>259</v>
@@ -16149,7 +16149,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>259</v>
@@ -16258,7 +16258,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>259</v>
@@ -16349,7 +16349,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C89" s="27" t="s">
         <v>259</v>
@@ -16440,7 +16440,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C90" s="27"/>
       <c r="D90" s="28"/>
@@ -16527,7 +16527,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C91" s="27" t="s">
         <v>259</v>
@@ -16621,7 +16621,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C92" s="27" t="s">
         <v>259</v>
@@ -16715,7 +16715,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C93" s="27"/>
       <c r="D93" s="28"/>
@@ -21132,7 +21132,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>12</v>
@@ -21144,13 +21144,13 @@
         <v>14</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>16</v>
@@ -21231,7 +21231,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>261</v>
@@ -21334,7 +21334,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>10</v>
@@ -21437,7 +21437,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>11</v>
@@ -21540,7 +21540,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="31"/>
@@ -21639,7 +21639,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>260</v>
@@ -21742,7 +21742,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>260</v>
@@ -21845,7 +21845,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>10</v>
@@ -21939,7 +21939,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>11</v>
@@ -22033,7 +22033,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="31"/>
@@ -22123,7 +22123,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>260</v>
@@ -22217,7 +22217,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>260</v>
@@ -22311,7 +22311,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="31"/>
@@ -22409,7 +22409,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="31"/>
@@ -22507,7 +22507,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="31"/>
@@ -22605,7 +22605,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="31"/>
@@ -22703,10 +22703,10 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
@@ -22803,7 +22803,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="31"/>
@@ -22896,7 +22896,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="31"/>
@@ -22989,7 +22989,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="31"/>
@@ -23082,7 +23082,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="31"/>
@@ -23172,7 +23172,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
@@ -23262,7 +23262,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
@@ -23352,7 +23352,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="31"/>
@@ -23442,7 +23442,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="31"/>
@@ -23532,7 +23532,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="31"/>
@@ -23628,7 +23628,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="31"/>
@@ -23724,7 +23724,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="31"/>
@@ -23820,7 +23820,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="31"/>
@@ -23919,7 +23919,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="31"/>
@@ -24018,7 +24018,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="31"/>
@@ -24117,7 +24117,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="31"/>
@@ -24210,7 +24210,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="31"/>
@@ -24303,7 +24303,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="31"/>
@@ -24408,7 +24408,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>260</v>
@@ -24526,13 +24526,13 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4">
@@ -24640,7 +24640,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="31"/>
@@ -24736,7 +24736,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>260</v>
@@ -24845,13 +24845,13 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="4">
@@ -24950,7 +24950,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
@@ -25052,7 +25052,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>260</v>
@@ -25167,7 +25167,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>260</v>
@@ -25282,13 +25282,13 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>260</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="4">
@@ -25393,7 +25393,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="31"/>
@@ -25492,7 +25492,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>260</v>
@@ -25604,7 +25604,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>260</v>
@@ -25716,13 +25716,13 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="27">
@@ -25824,7 +25824,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>260</v>
@@ -25935,7 +25935,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>260</v>
@@ -26046,7 +26046,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>260</v>
@@ -26157,7 +26157,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>260</v>
@@ -26268,7 +26268,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>260</v>
@@ -26379,13 +26379,13 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>275</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>260</v>
@@ -26493,13 +26493,13 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>275</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>260</v>
@@ -26607,13 +26607,13 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>275</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>260</v>
@@ -26721,25 +26721,25 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C56" s="27" t="s">
         <v>275</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F56" s="42">
         <v>0.8</v>
       </c>
       <c r="G56" s="43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I56" s="11">
         <v>5</v>
@@ -26829,25 +26829,25 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>275</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F57" s="42">
         <v>0.8</v>
       </c>
       <c r="G57" s="43" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I57" s="11">
         <v>11</v>
@@ -26937,25 +26937,25 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>275</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F58" s="42">
         <v>0.8</v>
       </c>
       <c r="G58" s="43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I58" s="11">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="31"/>
@@ -27140,7 +27140,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="31"/>
@@ -27235,14 +27235,14 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D61" s="31"/>
       <c r="E61" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>263</v>
@@ -27336,7 +27336,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="31"/>
@@ -27435,7 +27435,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="31"/>
@@ -27534,12 +27534,12 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C64" s="27"/>
       <c r="D64" s="31"/>
       <c r="E64" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="8"/>
@@ -27637,7 +27637,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C65" s="27"/>
       <c r="D65" s="31"/>
@@ -27724,7 +27724,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="31"/>
@@ -27811,7 +27811,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="31"/>
@@ -27898,7 +27898,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C68" s="27" t="s">
         <v>260</v>
@@ -28007,7 +28007,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>260</v>
@@ -28116,7 +28116,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C70" s="27" t="s">
         <v>260</v>
@@ -28225,7 +28225,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="31"/>
@@ -28315,7 +28315,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="31"/>
@@ -28405,7 +28405,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="31"/>
@@ -28495,7 +28495,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C74" s="27"/>
       <c r="D74" s="31"/>
@@ -28591,7 +28591,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="31"/>
@@ -28684,7 +28684,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="31"/>
@@ -28774,7 +28774,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="31"/>
@@ -28861,7 +28861,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C78" s="27" t="s">
         <v>260</v>
@@ -28960,7 +28960,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>260</v>
@@ -29059,7 +29059,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C80" s="27" t="s">
         <v>260</v>
@@ -29173,7 +29173,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>260</v>
@@ -29287,7 +29287,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C82" s="27" t="s">
         <v>260</v>
@@ -29389,7 +29389,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>260</v>
@@ -29491,7 +29491,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C84" s="27" t="s">
         <v>260</v>
@@ -29588,7 +29588,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C85" s="27" t="s">
         <v>260</v>
@@ -29685,7 +29685,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C86" s="27" t="s">
         <v>260</v>
@@ -29794,7 +29794,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>260</v>
@@ -29903,7 +29903,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>260</v>
@@ -29994,7 +29994,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C89" s="27"/>
       <c r="D89" s="31"/>
@@ -30081,7 +30081,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C90" s="27"/>
       <c r="D90" s="31"/>
@@ -30168,7 +30168,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C91" s="27" t="s">
         <v>260</v>
@@ -30262,7 +30262,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C92" s="27"/>
       <c r="D92" s="31"/>
@@ -30352,7 +30352,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C93" s="27"/>
       <c r="D93" s="31"/>
@@ -34758,7 +34758,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>12</v>
@@ -34770,13 +34770,13 @@
         <v>14</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>16</v>
@@ -34857,7 +34857,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>262</v>
@@ -34960,7 +34960,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>10</v>
@@ -35063,7 +35063,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>11</v>
@@ -35166,7 +35166,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="31"/>
@@ -35265,7 +35265,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>1</v>
@@ -35368,7 +35368,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>1</v>
@@ -35471,7 +35471,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>10</v>
@@ -35565,7 +35565,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>11</v>
@@ -35659,7 +35659,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="31"/>
@@ -35749,7 +35749,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>1</v>
@@ -35843,7 +35843,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>1</v>
@@ -35937,7 +35937,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="31"/>
@@ -36035,7 +36035,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="31"/>
@@ -36133,7 +36133,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="31"/>
@@ -36231,7 +36231,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="31"/>
@@ -36329,10 +36329,10 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
@@ -36429,7 +36429,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="31"/>
@@ -36522,7 +36522,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="31"/>
@@ -36615,7 +36615,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="31"/>
@@ -36708,7 +36708,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="31"/>
@@ -36798,7 +36798,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
@@ -36888,7 +36888,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
@@ -36978,7 +36978,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="31"/>
@@ -37068,7 +37068,7 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="31"/>
@@ -37158,7 +37158,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="31"/>
@@ -37254,7 +37254,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="31"/>
@@ -37350,7 +37350,7 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="31"/>
@@ -37446,7 +37446,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="31"/>
@@ -37545,7 +37545,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="31"/>
@@ -37644,7 +37644,7 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="31"/>
@@ -37743,7 +37743,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="31"/>
@@ -37836,7 +37836,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="31"/>
@@ -37929,7 +37929,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
@@ -38034,7 +38034,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>1</v>
@@ -38152,13 +38152,13 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>269</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="4">
@@ -38266,7 +38266,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="31"/>
@@ -38362,7 +38362,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>1</v>
@@ -38471,13 +38471,13 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>269</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="4">
@@ -38576,7 +38576,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
@@ -38678,7 +38678,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>1</v>
@@ -38793,7 +38793,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>1</v>
@@ -38908,13 +38908,13 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="4">
@@ -39019,7 +39019,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="28"/>
@@ -39118,7 +39118,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>1</v>
@@ -39230,7 +39230,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>1</v>
@@ -39342,13 +39342,13 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="4">
@@ -39450,7 +39450,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>259</v>
@@ -39562,7 +39562,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>259</v>
@@ -39674,7 +39674,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>259</v>
@@ -39786,7 +39786,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>259</v>
@@ -39898,7 +39898,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>259</v>
@@ -40010,13 +40010,13 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C53" s="27" t="s">
         <v>277</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>260</v>
@@ -40124,13 +40124,13 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>277</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>260</v>
@@ -40238,13 +40238,13 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C55" s="27" t="s">
         <v>277</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>260</v>
@@ -40352,25 +40352,25 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C56" s="27" t="s">
         <v>277</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F56" s="4">
         <v>0.55000000000000004</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I56" s="11">
         <v>5</v>
@@ -40460,25 +40460,25 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>277</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F57" s="4">
         <v>0.55000000000000004</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I57" s="11">
         <v>11</v>
@@ -40568,25 +40568,25 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>277</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F58" s="4">
         <v>0.55000000000000004</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I58" s="11">
         <v>0</v>
@@ -40676,7 +40676,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="31"/>
@@ -40769,7 +40769,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="31"/>
@@ -40862,14 +40862,14 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D61" s="31"/>
       <c r="E61" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>265</v>
@@ -40963,7 +40963,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="31"/>
@@ -41062,7 +41062,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="31"/>
@@ -41161,12 +41161,12 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C64" s="27"/>
       <c r="D64" s="31"/>
       <c r="E64" s="29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="5"/>
@@ -41264,7 +41264,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C65" s="27"/>
       <c r="D65" s="31"/>
@@ -41351,7 +41351,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="31"/>
@@ -41438,7 +41438,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="31"/>
@@ -41525,7 +41525,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C68" s="27" t="s">
         <v>1</v>
@@ -41634,7 +41634,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>1</v>
@@ -41743,7 +41743,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C70" s="27" t="s">
         <v>1</v>
@@ -41852,7 +41852,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="31"/>
@@ -41942,7 +41942,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="31"/>
@@ -42032,7 +42032,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="31"/>
@@ -42122,7 +42122,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C74" s="27"/>
       <c r="D74" s="31"/>
@@ -42218,7 +42218,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="31"/>
@@ -42311,7 +42311,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="31"/>
@@ -42401,7 +42401,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="31"/>
@@ -42488,7 +42488,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C78" s="27" t="s">
         <v>260</v>
@@ -42589,7 +42589,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C79" s="27" t="s">
         <v>260</v>
@@ -42690,7 +42690,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C80" s="27" t="s">
         <v>260</v>
@@ -42804,7 +42804,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>260</v>
@@ -42918,7 +42918,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C82" s="27" t="s">
         <v>260</v>
@@ -43022,7 +43022,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C83" s="27" t="s">
         <v>260</v>
@@ -43126,7 +43126,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C84" s="27" t="s">
         <v>1</v>
@@ -43223,7 +43223,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C85" s="27" t="s">
         <v>1</v>
@@ -43320,7 +43320,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C86" s="27" t="s">
         <v>1</v>
@@ -43429,7 +43429,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>1</v>
@@ -43538,7 +43538,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>1</v>
@@ -43629,7 +43629,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C89" s="27"/>
       <c r="D89" s="31"/>
@@ -43716,7 +43716,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C90" s="27"/>
       <c r="D90" s="31"/>
@@ -43803,7 +43803,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C91" s="27" t="s">
         <v>1</v>
@@ -43897,7 +43897,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C92" s="27"/>
       <c r="D92" s="31"/>
@@ -43987,7 +43987,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C93" s="27"/>
       <c r="D93" s="31"/>

--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="450">
   <si>
     <t>* = 1.1</t>
   </si>
@@ -1229,15 +1229,6 @@
     <t xml:space="preserve"> + = 0.25*OTree_Density + 0.25*MTree_Density</t>
   </si>
   <si>
-    <t>MAKE EMPTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.5*OTree_Density + 0.5*MTree_Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.75*OTree_Density + 0.75*MTree_Density</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + = SStump_Density</t>
   </si>
   <si>
@@ -1248,12 +1239,6 @@
   </si>
   <si>
     <t>* = 1/0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * = 0 (MAKE EMPTY)</t>
-  </si>
-  <si>
-    <t>* = 0 (MAKE EMPTY)</t>
   </si>
   <si>
     <t>* = 1/0.1</t>
@@ -1446,6 +1431,42 @@
   </si>
   <si>
     <t>FB_0291_FCCS_333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | = 0</t>
+  </si>
+  <si>
+    <t>| + = SWood_1000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_10_000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_GT10_000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_1000hr * 0.5</t>
+  </si>
+  <si>
+    <t>| + = SWood_10_000hr * 0.5</t>
+  </si>
+  <si>
+    <t>| + = SWood_GT10_000hr * 0.5</t>
+  </si>
+  <si>
+    <t>| = 0</t>
+  </si>
+  <si>
+    <t>| + = 0.25*OTree_Density + 0.25*MTree_Density</t>
+  </si>
+  <si>
+    <t>| + = 0.5*OTree_Density + 0.5*MTree_Density</t>
+  </si>
+  <si>
+    <t>| + = 0.75*OTree_Density + 0.75*MTree_Density</t>
+  </si>
+  <si>
+    <t>| + = SStump_Density</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2296,7 @@
         <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2289,7 +2310,7 @@
         <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -2303,7 +2324,7 @@
         <v>313</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -2317,7 +2338,7 @@
         <v>321</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2331,7 +2352,7 @@
         <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2345,7 +2366,7 @@
         <v>323</v>
       </c>
       <c r="B12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -2359,7 +2380,7 @@
         <v>331</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -2373,7 +2394,7 @@
         <v>332</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -2387,7 +2408,7 @@
         <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -2570,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3012,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>257</v>
@@ -3044,21 +3065,21 @@
         <v>257</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="21" t="s">
         <v>263</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K36" s="23"/>
     </row>
@@ -3087,7 +3108,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>257</v>
@@ -3119,21 +3140,21 @@
         <v>257</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="21" t="s">
         <v>263</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K39" s="23"/>
     </row>
@@ -3230,21 +3251,21 @@
         <v>256</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="21" t="s">
         <v>257</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K43" s="23"/>
     </row>
@@ -3340,21 +3361,21 @@
         <v>256</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="21" t="s">
         <v>257</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K47" s="23"/>
     </row>
@@ -3370,21 +3391,21 @@
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>257</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I48" s="21" t="s">
         <v>256</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3399,21 +3420,21 @@
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>257</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I49" s="21" t="s">
         <v>256</v>
       </c>
       <c r="J49" s="22"/>
       <c r="K49" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3428,21 +3449,21 @@
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>257</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I50" s="21" t="s">
         <v>256</v>
       </c>
       <c r="J50" s="22"/>
       <c r="K50" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3457,21 +3478,21 @@
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>257</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I51" s="21" t="s">
         <v>256</v>
       </c>
       <c r="J51" s="22"/>
       <c r="K51" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3486,21 +3507,21 @@
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>257</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I52" s="21" t="s">
         <v>256</v>
       </c>
       <c r="J52" s="22"/>
       <c r="K52" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3514,7 +3535,7 @@
         <v>267</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>257</v>
@@ -3523,7 +3544,7 @@
         <v>268</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H53" s="23" t="s">
         <v>257</v>
@@ -3532,7 +3553,7 @@
         <v>269</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K53" s="23" t="s">
         <v>257</v>
@@ -3549,7 +3570,7 @@
         <v>267</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>257</v>
@@ -3558,7 +3579,7 @@
         <v>268</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H54" s="23" t="s">
         <v>257</v>
@@ -3567,7 +3588,7 @@
         <v>269</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K54" s="23" t="s">
         <v>257</v>
@@ -3584,7 +3605,7 @@
         <v>267</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>257</v>
@@ -3593,7 +3614,7 @@
         <v>268</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H55" s="23" t="s">
         <v>257</v>
@@ -3602,7 +3623,7 @@
         <v>269</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K55" s="23" t="s">
         <v>257</v>
@@ -3619,28 +3640,28 @@
         <v>267</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>366</v>
+        <v>442</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>268</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>366</v>
+        <v>442</v>
       </c>
       <c r="I56" s="21" t="s">
         <v>269</v>
       </c>
       <c r="J56" s="34" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>366</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3654,28 +3675,28 @@
         <v>267</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>268</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="I57" s="21" t="s">
         <v>269</v>
       </c>
       <c r="J57" s="34" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>367</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3689,28 +3710,28 @@
         <v>267</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>268</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="I58" s="21" t="s">
         <v>269</v>
       </c>
       <c r="J58" s="34" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>368</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3737,22 +3758,22 @@
         <v>336</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>369</v>
+        <v>446</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>370</v>
+        <v>445</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>371</v>
+        <v>447</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>370</v>
+        <v>445</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>372</v>
+        <v>448</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>370</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3779,13 +3800,13 @@
         <v>339</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3930,13 +3951,13 @@
         <v>256</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F78" s="21" t="s">
         <v>257</v>
       </c>
       <c r="H78" s="35" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I78" s="21" t="s">
         <v>257</v>
@@ -3959,13 +3980,13 @@
         <v>256</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F79" s="21" t="s">
         <v>257</v>
       </c>
       <c r="H79" s="35" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I79" s="21" t="s">
         <v>257</v>
@@ -3988,19 +4009,19 @@
         <v>256</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F80" s="21" t="s">
         <v>257</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I80" s="21" t="s">
         <v>257</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4014,19 +4035,19 @@
         <v>256</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F81" s="21" t="s">
         <v>257</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I81" s="21" t="s">
         <v>257</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4040,13 +4061,13 @@
         <v>256</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F82" s="21" t="s">
         <v>257</v>
       </c>
       <c r="H82" s="35" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I82" s="21" t="s">
         <v>257</v>
@@ -4069,13 +4090,13 @@
         <v>256</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>257</v>
       </c>
       <c r="H83" s="35" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I83" s="21" t="s">
         <v>257</v>
@@ -7620,73 +7641,73 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J1" t="s">
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="N1" t="s">
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="T1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="U1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="X1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Y1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Z1" t="s">
         <v>26</v>
       </c>
       <c r="AA1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AB1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AC1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -12913,7 +12934,7 @@
         <v>0.9</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>366</v>
@@ -13012,7 +13033,7 @@
         <v>0.9</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>367</v>
@@ -13111,7 +13132,7 @@
         <v>0.9</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>368</v>
@@ -13679,7 +13700,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="39"/>
       <c r="E64" s="31" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F64" s="11">
         <v>115</v>
@@ -16502,73 +16523,73 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J1" t="s">
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N1" t="s">
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="P1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="T1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="U1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="X1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Y1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Z1" t="s">
         <v>26</v>
       </c>
       <c r="AA1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AB1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AC1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -21801,7 +21822,7 @@
         <v>0.8</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>366</v>
@@ -21900,7 +21921,7 @@
         <v>0.8</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>367</v>
@@ -21999,7 +22020,7 @@
         <v>0.8</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>368</v>
@@ -25339,8 +25360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25372,85 +25393,85 @@
         <v>276</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J1" t="s">
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="N1" t="s">
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="P1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="T1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="U1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="X1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Y1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Z1" t="s">
         <v>26</v>
       </c>
       <c r="AA1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AB1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AC1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -30683,7 +30704,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>366</v>
@@ -30782,7 +30803,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>367</v>
@@ -30881,7 +30902,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>368</v>

--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7596,8 +7596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8031,7 +8031,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5" si="8">J5</f>
+        <f t="shared" ref="K5:K15" si="8">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5" si="10">N5</f>
+        <f t="shared" ref="O5:O15" si="10">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -8058,7 +8058,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="12">R5</f>
+        <f t="shared" ref="S5:S15" si="12">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -8073,7 +8073,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5" si="14">V5</f>
+        <f t="shared" ref="W5:W15" si="14">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -8088,7 +8088,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5" si="16">Z5</f>
+        <f t="shared" ref="AA5:AA15" si="16">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10" si="18">J10</f>
+        <f t="shared" ref="K10:K20" si="18">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10" si="19">N10</f>
+        <f t="shared" ref="O10:O20" si="19">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10" si="20">R10</f>
+        <f t="shared" ref="S10:S20" si="20">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -8537,7 +8537,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10" si="21">V10</f>
+        <f t="shared" ref="W10:W20" si="21">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -8549,7 +8549,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10" si="22">Z10</f>
+        <f t="shared" ref="AA10:AA20" si="22">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" ref="K13:K15" si="23">J13</f>
+        <f t="shared" ref="K13:K23" si="23">J13</f>
         <v>0</v>
       </c>
       <c r="L13" s="15">
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" ref="O13:O15" si="24">N13</f>
+        <f t="shared" ref="O13:O23" si="24">N13</f>
         <v>0</v>
       </c>
       <c r="P13" s="15">
@@ -8790,7 +8790,7 @@
         <v>0.5</v>
       </c>
       <c r="S13" s="12">
-        <f t="shared" ref="S13:S15" si="25">R13</f>
+        <f t="shared" ref="S13:S23" si="25">R13</f>
         <v>0.5</v>
       </c>
       <c r="T13" s="15">
@@ -8805,7 +8805,7 @@
         <v>1.7</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" ref="W13:W15" si="26">V13</f>
+        <f t="shared" ref="W13:W23" si="26">V13</f>
         <v>1.7</v>
       </c>
       <c r="X13" s="15">
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="12">
-        <f t="shared" ref="AA13:AA15" si="27">Z13</f>
+        <f t="shared" ref="AA13:AA23" si="27">Z13</f>
         <v>1</v>
       </c>
       <c r="AB13" s="15">
@@ -10698,7 +10698,7 @@
         <v>5</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" ref="M34" si="42">L34</f>
+        <f t="shared" ref="M34:M44" si="42">L34</f>
         <v>5</v>
       </c>
       <c r="N34" s="11">
@@ -10713,7 +10713,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" ref="Q34" si="43">P34</f>
+        <f t="shared" ref="Q34:Q44" si="43">P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="11">
@@ -10728,7 +10728,7 @@
         <v>5</v>
       </c>
       <c r="U34" s="16">
-        <f t="shared" ref="U34" si="44">T34</f>
+        <f t="shared" ref="U34:U44" si="44">T34</f>
         <v>5</v>
       </c>
       <c r="V34" s="11">
@@ -10743,7 +10743,7 @@
         <v>6</v>
       </c>
       <c r="Y34" s="16">
-        <f t="shared" ref="Y34" si="45">X34</f>
+        <f t="shared" ref="Y34:Y44" si="45">X34</f>
         <v>6</v>
       </c>
       <c r="Z34" s="11">
@@ -10758,7 +10758,7 @@
         <v>5</v>
       </c>
       <c r="AC34" s="16">
-        <f t="shared" ref="AC34" si="46">AB34</f>
+        <f t="shared" ref="AC34:AC44" si="46">AB34</f>
         <v>5</v>
       </c>
     </row>
@@ -11008,66 +11008,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37" si="49">J37</f>
+        <f t="shared" ref="K37:K44" si="49">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="50">K37</f>
+        <f t="shared" ref="L37:L44" si="50">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37" si="51">L37</f>
+        <f t="shared" ref="M37:M47" si="51">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37" si="52">N37</f>
+        <f t="shared" ref="O37:O44" si="52">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37" si="53">O37</f>
+        <f t="shared" ref="P37:P44" si="53">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37" si="54">P37</f>
+        <f t="shared" ref="Q37:Q47" si="54">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37" si="55">R37</f>
+        <f t="shared" ref="S37:S44" si="55">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37" si="56">S37</f>
+        <f t="shared" ref="T37:T44" si="56">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37" si="57">T37</f>
+        <f t="shared" ref="U37:U47" si="57">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37" si="58">V37</f>
+        <f t="shared" ref="W37:W44" si="58">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37" si="59">W37</f>
+        <f t="shared" ref="X37:X44" si="59">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37" si="60">X37</f>
+        <f t="shared" ref="Y37:Y47" si="60">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="61">Z37</f>
+        <f t="shared" ref="AA37:AA44" si="61">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37" si="62">AA37</f>
+        <f t="shared" ref="AB37:AB44" si="62">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37" si="63">AB37</f>
+        <f t="shared" ref="AC37:AC47" si="63">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
         <v>85</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" ref="M39:M40" si="64">L39</f>
+        <f t="shared" ref="M39:M49" si="64">L39</f>
         <v>85</v>
       </c>
       <c r="O39" s="12">
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="16">
-        <f t="shared" ref="Q39:Q40" si="65">P39</f>
+        <f t="shared" ref="Q39:Q49" si="65">P39</f>
         <v>0</v>
       </c>
       <c r="R39" s="11">
@@ -11241,7 +11241,7 @@
         <v>90</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" ref="U39:U40" si="66">T39</f>
+        <f t="shared" ref="U39:U49" si="66">T39</f>
         <v>90</v>
       </c>
       <c r="W39" s="12">
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="16">
-        <f t="shared" ref="Y39:Y40" si="67">X39</f>
+        <f t="shared" ref="Y39:Y49" si="67">X39</f>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
@@ -11265,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" ref="AC39:AC40" si="68">AB39</f>
+        <f t="shared" ref="AC39:AC49" si="68">AB39</f>
         <v>0</v>
       </c>
     </row>
@@ -11296,11 +11296,11 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40" si="69">J40</f>
+        <f t="shared" ref="K40:K47" si="69">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40" si="70">K40</f>
+        <f t="shared" ref="L40:L47" si="70">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
@@ -11311,11 +11311,11 @@
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40" si="71">N40</f>
+        <f t="shared" ref="O40:O47" si="71">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40" si="72">O40</f>
+        <f t="shared" ref="P40:P47" si="72">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
@@ -11326,11 +11326,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40" si="73">R40</f>
+        <f t="shared" ref="S40:S47" si="73">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40" si="74">S40</f>
+        <f t="shared" ref="T40:T47" si="74">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
@@ -11341,11 +11341,11 @@
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40" si="75">V40</f>
+        <f t="shared" ref="W40:W47" si="75">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40" si="76">W40</f>
+        <f t="shared" ref="X40:X47" si="76">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
@@ -11356,11 +11356,11 @@
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="77">Z40</f>
+        <f t="shared" ref="AA40:AA47" si="77">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40" si="78">AA40</f>
+        <f t="shared" ref="AB40:AB47" si="78">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M44" si="79">L43</f>
+        <f t="shared" ref="M43:M53" si="79">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -11635,7 +11635,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q44" si="80">P43</f>
+        <f t="shared" ref="Q43:Q53" si="80">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -11650,7 +11650,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U44" si="81">T43</f>
+        <f t="shared" ref="U43:U53" si="81">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -11665,7 +11665,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y44" si="82">X43</f>
+        <f t="shared" ref="Y43:Y53" si="82">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -11680,7 +11680,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC44" si="83">AB43</f>
+        <f t="shared" ref="AC43:AC53" si="83">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -11711,11 +11711,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44" si="84">J44</f>
+        <f t="shared" ref="K44:K51" si="84">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44" si="85">K44</f>
+        <f t="shared" ref="L44:L51" si="85">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -11726,11 +11726,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44" si="86">N44</f>
+        <f t="shared" ref="O44:O51" si="86">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44" si="87">O44</f>
+        <f t="shared" ref="P44:P51" si="87">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -11741,11 +11741,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44" si="88">R44</f>
+        <f t="shared" ref="S44:S51" si="88">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44" si="89">S44</f>
+        <f t="shared" ref="T44:T51" si="89">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -11753,11 +11753,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44" si="90">V44</f>
+        <f t="shared" ref="W44:W51" si="90">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44" si="91">W44</f>
+        <f t="shared" ref="X44:X51" si="91">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -11768,11 +11768,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44" si="92">Z44</f>
+        <f t="shared" ref="AA44:AA51" si="92">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44" si="93">AA44</f>
+        <f t="shared" ref="AB44:AB51" si="93">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -12126,7 +12126,7 @@
         <v>0.75</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" ref="L48:L52" si="98">K48</f>
+        <f t="shared" ref="L48:L77" si="98">K48</f>
         <v>0.75</v>
       </c>
       <c r="M48" s="16">
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48:P52" si="101">O48</f>
+        <f t="shared" ref="P48:P77" si="101">O48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
@@ -12153,7 +12153,7 @@
         <v>0.375</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T52" si="104">S48</f>
+        <f t="shared" ref="T48:T77" si="104">S48</f>
         <v>0.375</v>
       </c>
       <c r="U48" s="16">
@@ -12168,7 +12168,7 @@
         <v>0.75</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" ref="X48:X52" si="107">W48</f>
+        <f t="shared" ref="X48:X77" si="107">W48</f>
         <v>0.75</v>
       </c>
       <c r="Y48" s="16">
@@ -12183,7 +12183,7 @@
         <v>0.375</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="AB48:AB52" si="110">AA48</f>
+        <f t="shared" ref="AB48:AB77" si="110">AA48</f>
         <v>0.375</v>
       </c>
       <c r="AC48" s="16">
@@ -13248,11 +13248,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K60" si="113">J59</f>
+        <f t="shared" ref="K59:K93" si="113">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" ref="L59:L79" si="114">K59</f>
+        <f t="shared" ref="L59:L88" si="114">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
@@ -13260,11 +13260,11 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O60" si="115">N59</f>
+        <f t="shared" ref="O59:O93" si="115">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f t="shared" ref="P59:P79" si="116">O59</f>
+        <f t="shared" ref="P59:P88" si="116">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
@@ -13275,11 +13275,11 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S60" si="117">R59</f>
+        <f t="shared" ref="S59:S93" si="117">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" ref="T59:T79" si="118">S59</f>
+        <f t="shared" ref="T59:T88" si="118">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
@@ -13287,11 +13287,11 @@
         <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W60" si="119">V59</f>
+        <f t="shared" ref="W59:W93" si="119">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" ref="X59:X79" si="120">W59</f>
+        <f t="shared" ref="X59:X88" si="120">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
@@ -13299,11 +13299,11 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA60" si="121">Z59</f>
+        <f t="shared" ref="AA59:AA93" si="121">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" ref="AB59:AB79" si="122">AA59</f>
+        <f t="shared" ref="AB59:AB88" si="122">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
@@ -13524,7 +13524,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K67" si="123">J62</f>
+        <f t="shared" ref="K62:K93" si="123">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O67" si="124">N62</f>
+        <f t="shared" ref="O62:O93" si="124">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -13551,7 +13551,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S67" si="125">R62</f>
+        <f t="shared" ref="S62:S93" si="125">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
@@ -13566,7 +13566,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W67" si="126">V62</f>
+        <f t="shared" ref="W62:W93" si="126">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -13581,7 +13581,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA67" si="127">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="127">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -14287,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="16">
-        <f t="shared" ref="M70:M77" si="129">L70</f>
+        <f t="shared" ref="M70:M93" si="129">L70</f>
         <v>0</v>
       </c>
       <c r="N70" s="11">
@@ -14302,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="16">
-        <f t="shared" ref="Q70:Q77" si="130">P70</f>
+        <f t="shared" ref="Q70:Q93" si="130">P70</f>
         <v>0</v>
       </c>
       <c r="R70" s="11">
@@ -14317,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="16">
-        <f t="shared" ref="U70:U77" si="131">T70</f>
+        <f t="shared" ref="U70:U93" si="131">T70</f>
         <v>0</v>
       </c>
       <c r="V70" s="11">
@@ -14332,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="16">
-        <f t="shared" ref="Y70:Y77" si="132">X70</f>
+        <f t="shared" ref="Y70:Y93" si="132">X70</f>
         <v>0</v>
       </c>
       <c r="Z70" s="11">
@@ -14347,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="16">
-        <f t="shared" ref="AC70:AC77" si="133">AB70</f>
+        <f t="shared" ref="AC70:AC93" si="133">AB70</f>
         <v>0</v>
       </c>
     </row>
@@ -14375,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K77" si="134">J71</f>
+        <f t="shared" ref="K71:K93" si="134">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O77" si="135">N71</f>
+        <f t="shared" ref="O71:O93" si="135">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S77" si="136">R71</f>
+        <f t="shared" ref="S71:S93" si="136">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
@@ -14414,7 +14414,7 @@
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W77" si="137">V71</f>
+        <f t="shared" ref="W71:W93" si="137">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
@@ -14426,7 +14426,7 @@
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA77" si="138">Z71</f>
+        <f t="shared" ref="AA71:AA93" si="138">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
@@ -14995,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K89" si="140">$C78*J78</f>
+        <f t="shared" ref="K78:K92" si="140">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O89" si="141">$C78*N78</f>
+        <f t="shared" ref="O78:O92" si="141">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
@@ -15022,7 +15022,7 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S89" si="142">$C78*R78</f>
+        <f t="shared" ref="S78:S92" si="142">$C78*R78</f>
         <v>1.5</v>
       </c>
       <c r="T78" s="15">
@@ -15034,7 +15034,7 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W89" si="143">$C78*V78</f>
+        <f t="shared" ref="W78:W92" si="143">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
@@ -15046,7 +15046,7 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA89" si="144">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA92" si="144">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
@@ -15083,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="16">
-        <f>$E79*H79</f>
+        <f>MIN(100,$E79*H79)</f>
         <v>0</v>
       </c>
       <c r="K79" s="12">
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="16">
-        <f>$E79*L79</f>
+        <f>MIN(100,$E79*L79)</f>
         <v>0</v>
       </c>
       <c r="O79" s="12">
@@ -15107,7 +15107,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="16">
-        <f>$E79*P79</f>
+        <f>MIN(100,$E79*P79)</f>
         <v>0</v>
       </c>
       <c r="R79" s="11">
@@ -15122,7 +15122,7 @@
         <v>3.75</v>
       </c>
       <c r="U79" s="16">
-        <f>$E79*T79</f>
+        <f>MIN(100,$E79*T79)</f>
         <v>5</v>
       </c>
       <c r="W79" s="12">
@@ -15134,7 +15134,7 @@
         <v>0</v>
       </c>
       <c r="Y79" s="16">
-        <f>$E79*X79</f>
+        <f>MIN(100,$E79*X79)</f>
         <v>0</v>
       </c>
       <c r="AA79" s="12">
@@ -15146,7 +15146,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="16">
-        <f>$E79*AB79</f>
+        <f>MIN(100,$E79*AB79)</f>
         <v>0</v>
       </c>
     </row>
@@ -15281,7 +15281,7 @@
         <v>52.5</v>
       </c>
       <c r="H81" s="15">
-        <f t="shared" si="145"/>
+        <f>MIN(100,G81*$D81)</f>
         <v>70</v>
       </c>
       <c r="I81" s="16">
@@ -15296,11 +15296,11 @@
         <v>45</v>
       </c>
       <c r="L81" s="15">
-        <f t="shared" si="146"/>
+        <f>MIN(100,K81*$D81)</f>
         <v>60</v>
       </c>
       <c r="M81" s="16">
-        <f t="shared" ref="M81" si="151">L81</f>
+        <f t="shared" ref="M81:M93" si="151">L81</f>
         <v>60</v>
       </c>
       <c r="N81" s="11">
@@ -15311,11 +15311,11 @@
         <v>3.75</v>
       </c>
       <c r="P81" s="15">
-        <f t="shared" si="147"/>
+        <f>MIN(100,O81*$D81)</f>
         <v>5</v>
       </c>
       <c r="Q81" s="16">
-        <f t="shared" ref="Q81" si="152">P81</f>
+        <f t="shared" ref="Q81:Q93" si="152">P81</f>
         <v>5</v>
       </c>
       <c r="R81" s="11">
@@ -15326,11 +15326,11 @@
         <v>11.25</v>
       </c>
       <c r="T81" s="15">
-        <f t="shared" si="148"/>
+        <f>MIN(100,S81*$D81)</f>
         <v>15</v>
       </c>
       <c r="U81" s="16">
-        <f t="shared" ref="U81" si="153">T81</f>
+        <f t="shared" ref="U81:U93" si="153">T81</f>
         <v>15</v>
       </c>
       <c r="V81" s="11">
@@ -15341,11 +15341,11 @@
         <v>67.5</v>
       </c>
       <c r="X81" s="15">
-        <f t="shared" si="149"/>
+        <f>MIN(100,W81*$D81)</f>
         <v>90</v>
       </c>
       <c r="Y81" s="16">
-        <f t="shared" ref="Y81" si="154">X81</f>
+        <f t="shared" ref="Y81:Y93" si="154">X81</f>
         <v>90</v>
       </c>
       <c r="Z81" s="11">
@@ -15356,11 +15356,11 @@
         <v>52.5</v>
       </c>
       <c r="AB81" s="15">
-        <f t="shared" si="150"/>
+        <f>MIN(100,AA81*$D81)</f>
         <v>70</v>
       </c>
       <c r="AC81" s="16">
-        <f t="shared" ref="AC81" si="155">AB81</f>
+        <f t="shared" ref="AC81:AC93" si="155">AB81</f>
         <v>70</v>
       </c>
     </row>
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="16">
-        <f>$E83*H83</f>
+        <f>MIN(100,$E83*H83)</f>
         <v>0</v>
       </c>
       <c r="K83" s="12">
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="16">
-        <f>$E83*L83</f>
+        <f>MIN(100,$E83*L83)</f>
         <v>0</v>
       </c>
       <c r="O83" s="12">
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="16">
-        <f>$E83*P83</f>
+        <f>MIN(100,$E83*P83)</f>
         <v>0</v>
       </c>
       <c r="R83" s="11">
@@ -15523,7 +15523,7 @@
         <v>60</v>
       </c>
       <c r="U83" s="16">
-        <f>$E83*T83</f>
+        <f>MIN(100,$E83*T83)</f>
         <v>80</v>
       </c>
       <c r="V83" s="11">
@@ -15538,7 +15538,7 @@
         <v>3.75</v>
       </c>
       <c r="Y83" s="16">
-        <f>$E83*X83</f>
+        <f>MIN(100,$E83*X83)</f>
         <v>5</v>
       </c>
       <c r="AA83" s="12">
@@ -15550,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="AC83" s="16">
-        <f>$E83*AB83</f>
+        <f>MIN(100,$E83*AB83)</f>
         <v>0</v>
       </c>
     </row>
@@ -16142,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" ref="K90" si="166">J90</f>
+        <f t="shared" ref="K90:K93" si="166">J90</f>
         <v>0</v>
       </c>
       <c r="L90" s="15">
@@ -16154,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="12">
-        <f t="shared" ref="O90" si="167">N90</f>
+        <f t="shared" ref="O90:O93" si="167">N90</f>
         <v>0</v>
       </c>
       <c r="P90" s="15">
@@ -16166,7 +16166,7 @@
         <v>0</v>
       </c>
       <c r="S90" s="12">
-        <f t="shared" ref="S90" si="168">R90</f>
+        <f t="shared" ref="S90:S93" si="168">R90</f>
         <v>0</v>
       </c>
       <c r="T90" s="15">
@@ -16178,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="W90" s="12">
-        <f t="shared" ref="W90" si="169">V90</f>
+        <f t="shared" ref="W90:W93" si="169">V90</f>
         <v>0</v>
       </c>
       <c r="X90" s="15">
@@ -16190,7 +16190,7 @@
         <v>0</v>
       </c>
       <c r="AA90" s="12">
-        <f t="shared" ref="AA90" si="170">Z90</f>
+        <f t="shared" ref="AA90:AA93" si="170">Z90</f>
         <v>0</v>
       </c>
       <c r="AB90" s="15">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92" si="171">$C92*J92</f>
+        <f t="shared" ref="K92:K93" si="171">$C92*J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92" si="172">$C92*N92</f>
+        <f t="shared" ref="O92:O93" si="172">$C92*N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
@@ -16344,7 +16344,7 @@
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92" si="173">$C92*R92</f>
+        <f t="shared" ref="S92:S93" si="173">$C92*R92</f>
         <v>0.75</v>
       </c>
       <c r="T92" s="15">
@@ -16356,7 +16356,7 @@
         <v>0.75</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" ref="W92" si="174">$C92*V92</f>
+        <f t="shared" ref="W92:W93" si="174">$C92*V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="15">
@@ -16368,7 +16368,7 @@
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" ref="AA92" si="175">$C92*Z92</f>
+        <f t="shared" ref="AA92:AA93" si="175">$C92*Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
@@ -16477,8 +16477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:A1048576"/>
+    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16913,7 +16913,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5" si="7">J5</f>
+        <f t="shared" ref="K5:K20" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -16925,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5" si="9">N5</f>
+        <f t="shared" ref="O5:O20" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -16940,7 +16940,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="11">R5</f>
+        <f t="shared" ref="S5:S20" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -16955,7 +16955,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5" si="13">V5</f>
+        <f t="shared" ref="W5:W20" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -16970,7 +16970,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5" si="15">Z5</f>
+        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -17380,7 +17380,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10" si="17">J10</f>
+        <f t="shared" ref="K10:K25" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -17392,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10" si="18">N10</f>
+        <f t="shared" ref="O10:O25" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -17404,7 +17404,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10" si="19">R10</f>
+        <f t="shared" ref="S10:S25" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -17419,7 +17419,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10" si="20">V10</f>
+        <f t="shared" ref="W10:W25" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -17431,7 +17431,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10" si="21">Z10</f>
+        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -19586,7 +19586,7 @@
         <v>5</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" ref="M34" si="41">L34</f>
+        <f t="shared" ref="M34:M47" si="41">L34</f>
         <v>5</v>
       </c>
       <c r="N34" s="11">
@@ -19601,7 +19601,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" ref="Q34" si="42">P34</f>
+        <f t="shared" ref="Q34:Q47" si="42">P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="11">
@@ -19616,7 +19616,7 @@
         <v>5</v>
       </c>
       <c r="U34" s="16">
-        <f t="shared" ref="U34" si="43">T34</f>
+        <f t="shared" ref="U34:U47" si="43">T34</f>
         <v>5</v>
       </c>
       <c r="V34" s="11">
@@ -19631,7 +19631,7 @@
         <v>6</v>
       </c>
       <c r="Y34" s="16">
-        <f t="shared" ref="Y34" si="44">X34</f>
+        <f t="shared" ref="Y34:Y47" si="44">X34</f>
         <v>6</v>
       </c>
       <c r="Z34" s="11">
@@ -19646,7 +19646,7 @@
         <v>5</v>
       </c>
       <c r="AC34" s="16">
-        <f t="shared" ref="AC34" si="45">AB34</f>
+        <f t="shared" ref="AC34:AC47" si="45">AB34</f>
         <v>5</v>
       </c>
     </row>
@@ -19896,66 +19896,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37" si="47">J37</f>
+        <f t="shared" ref="K37:K44" si="47">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="48">K37</f>
+        <f t="shared" ref="L37:L44" si="48">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37" si="49">L37</f>
+        <f t="shared" ref="M37:M50" si="49">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37" si="50">N37</f>
+        <f t="shared" ref="O37:O44" si="50">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37" si="51">O37</f>
+        <f t="shared" ref="P37:P44" si="51">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37" si="52">P37</f>
+        <f t="shared" ref="Q37:Q50" si="52">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37" si="53">R37</f>
+        <f t="shared" ref="S37:S44" si="53">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37" si="54">S37</f>
+        <f t="shared" ref="T37:T44" si="54">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37" si="55">T37</f>
+        <f t="shared" ref="U37:U50" si="55">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37" si="56">V37</f>
+        <f t="shared" ref="W37:W44" si="56">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37" si="57">W37</f>
+        <f t="shared" ref="X37:X44" si="57">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37" si="58">X37</f>
+        <f t="shared" ref="Y37:Y50" si="58">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="59">Z37</f>
+        <f t="shared" ref="AA37:AA44" si="59">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37" si="60">AA37</f>
+        <f t="shared" ref="AB37:AB44" si="60">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37" si="61">AB37</f>
+        <f t="shared" ref="AC37:AC50" si="61">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -20102,7 +20102,7 @@
         <v>85</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" ref="M39:M40" si="62">L39</f>
+        <f t="shared" ref="M39:M52" si="62">L39</f>
         <v>85</v>
       </c>
       <c r="O39" s="12">
@@ -20114,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="16">
-        <f t="shared" ref="Q39:Q40" si="63">P39</f>
+        <f t="shared" ref="Q39:Q52" si="63">P39</f>
         <v>0</v>
       </c>
       <c r="R39" s="11">
@@ -20129,7 +20129,7 @@
         <v>90</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" ref="U39:U40" si="64">T39</f>
+        <f t="shared" ref="U39:U52" si="64">T39</f>
         <v>90</v>
       </c>
       <c r="W39" s="12">
@@ -20141,7 +20141,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="16">
-        <f t="shared" ref="Y39:Y40" si="65">X39</f>
+        <f t="shared" ref="Y39:Y52" si="65">X39</f>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
@@ -20153,7 +20153,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" ref="AC39:AC40" si="66">AB39</f>
+        <f t="shared" ref="AC39:AC52" si="66">AB39</f>
         <v>0</v>
       </c>
     </row>
@@ -20184,11 +20184,11 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40" si="67">J40</f>
+        <f t="shared" ref="K40:K47" si="67">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40" si="68">K40</f>
+        <f t="shared" ref="L40:L47" si="68">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
@@ -20199,11 +20199,11 @@
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40" si="69">N40</f>
+        <f t="shared" ref="O40:O47" si="69">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40" si="70">O40</f>
+        <f t="shared" ref="P40:P47" si="70">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
@@ -20214,11 +20214,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40" si="71">R40</f>
+        <f t="shared" ref="S40:S47" si="71">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40" si="72">S40</f>
+        <f t="shared" ref="T40:T47" si="72">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
@@ -20229,11 +20229,11 @@
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40" si="73">V40</f>
+        <f t="shared" ref="W40:W47" si="73">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40" si="74">W40</f>
+        <f t="shared" ref="X40:X47" si="74">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
@@ -20244,11 +20244,11 @@
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="75">Z40</f>
+        <f t="shared" ref="AA40:AA47" si="75">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40" si="76">AA40</f>
+        <f t="shared" ref="AB40:AB47" si="76">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
@@ -20508,7 +20508,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M44" si="77">L43</f>
+        <f t="shared" ref="M43:M56" si="77">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -20523,7 +20523,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q44" si="78">P43</f>
+        <f t="shared" ref="Q43:Q56" si="78">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -20538,7 +20538,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U44" si="79">T43</f>
+        <f t="shared" ref="U43:U56" si="79">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -20553,7 +20553,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y44" si="80">X43</f>
+        <f t="shared" ref="Y43:Y56" si="80">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -20568,7 +20568,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC44" si="81">AB43</f>
+        <f t="shared" ref="AC43:AC56" si="81">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -20599,11 +20599,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44" si="82">J44</f>
+        <f t="shared" ref="K44:K51" si="82">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44" si="83">K44</f>
+        <f t="shared" ref="L44:L51" si="83">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -20614,11 +20614,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44" si="84">N44</f>
+        <f t="shared" ref="O44:O51" si="84">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44" si="85">O44</f>
+        <f t="shared" ref="P44:P51" si="85">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -20629,11 +20629,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44" si="86">R44</f>
+        <f t="shared" ref="S44:S51" si="86">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44" si="87">S44</f>
+        <f t="shared" ref="T44:T51" si="87">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -20641,11 +20641,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44" si="88">V44</f>
+        <f t="shared" ref="W44:W51" si="88">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44" si="89">W44</f>
+        <f t="shared" ref="X44:X51" si="89">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -20656,11 +20656,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44" si="90">Z44</f>
+        <f t="shared" ref="AA44:AA51" si="90">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44" si="91">AA44</f>
+        <f t="shared" ref="AB44:AB51" si="91">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -20914,7 +20914,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47" si="92">L47</f>
+        <f t="shared" ref="M47:M60" si="92">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -20929,7 +20929,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47" si="93">P47</f>
+        <f t="shared" ref="Q47:Q60" si="93">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -20944,7 +20944,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47" si="94">T47</f>
+        <f t="shared" ref="U47:U60" si="94">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -20956,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47" si="95">X47</f>
+        <f t="shared" ref="Y47:Y60" si="95">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -20971,7 +20971,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47" si="96">AB47</f>
+        <f t="shared" ref="AC47:AC60" si="96">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -21014,7 +21014,7 @@
         <v>0.5</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" ref="L48:L52" si="99">K48</f>
+        <f t="shared" ref="L48:L77" si="99">K48</f>
         <v>0.5</v>
       </c>
       <c r="M48" s="16">
@@ -21026,7 +21026,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48:P52" si="101">O48</f>
+        <f t="shared" ref="P48:P77" si="101">O48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
@@ -21041,7 +21041,7 @@
         <v>0.25</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T52" si="103">S48</f>
+        <f t="shared" ref="T48:T77" si="103">S48</f>
         <v>0.25</v>
       </c>
       <c r="U48" s="16">
@@ -21056,7 +21056,7 @@
         <v>0.5</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" ref="X48:X52" si="105">W48</f>
+        <f t="shared" ref="X48:X77" si="105">W48</f>
         <v>0.5</v>
       </c>
       <c r="Y48" s="16">
@@ -21071,7 +21071,7 @@
         <v>0.25</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="AB48:AB52" si="107">AA48</f>
+        <f t="shared" ref="AB48:AB77" si="107">AA48</f>
         <v>0.25</v>
       </c>
       <c r="AC48" s="16">
@@ -22136,11 +22136,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K60" si="116">J59</f>
+        <f t="shared" ref="K59:K93" si="116">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" ref="L59:L77" si="117">K59</f>
+        <f t="shared" ref="L59:L88" si="117">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
@@ -22148,11 +22148,11 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O60" si="118">N59</f>
+        <f t="shared" ref="O59:O93" si="118">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f t="shared" ref="P59:P77" si="119">O59</f>
+        <f t="shared" ref="P59:P88" si="119">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
@@ -22163,11 +22163,11 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S60" si="120">R59</f>
+        <f t="shared" ref="S59:S93" si="120">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" ref="T59:T77" si="121">S59</f>
+        <f t="shared" ref="T59:T88" si="121">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
@@ -22175,11 +22175,11 @@
         <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W60" si="122">V59</f>
+        <f t="shared" ref="W59:W93" si="122">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" ref="X59:X77" si="123">W59</f>
+        <f t="shared" ref="X59:X88" si="123">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
@@ -22187,11 +22187,11 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA60" si="124">Z59</f>
+        <f t="shared" ref="AA59:AA93" si="124">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" ref="AB59:AB77" si="125">AA59</f>
+        <f t="shared" ref="AB59:AB88" si="125">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
@@ -22412,7 +22412,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K67" si="126">J62</f>
+        <f t="shared" ref="K62:K93" si="126">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -22424,7 +22424,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O67" si="127">N62</f>
+        <f t="shared" ref="O62:O93" si="127">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -22439,7 +22439,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S67" si="128">R62</f>
+        <f t="shared" ref="S62:S93" si="128">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
@@ -22454,7 +22454,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W67" si="129">V62</f>
+        <f t="shared" ref="W62:W93" si="129">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -22469,7 +22469,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA67" si="130">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="130">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="16">
-        <f t="shared" ref="M67:M77" si="132">L67</f>
+        <f t="shared" ref="M67:M93" si="132">L67</f>
         <v>0</v>
       </c>
       <c r="O67" s="12">
@@ -22887,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="16">
-        <f t="shared" ref="Q67:Q77" si="133">P67</f>
+        <f t="shared" ref="Q67:Q93" si="133">P67</f>
         <v>0</v>
       </c>
       <c r="S67" s="12">
@@ -22899,7 +22899,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="16">
-        <f t="shared" ref="U67:U77" si="134">T67</f>
+        <f t="shared" ref="U67:U93" si="134">T67</f>
         <v>0</v>
       </c>
       <c r="W67" s="12">
@@ -22911,7 +22911,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="16">
-        <f t="shared" ref="Y67:Y77" si="135">X67</f>
+        <f t="shared" ref="Y67:Y93" si="135">X67</f>
         <v>0</v>
       </c>
       <c r="AA67" s="12">
@@ -22923,7 +22923,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="16">
-        <f t="shared" ref="AC67:AC77" si="136">AB67</f>
+        <f t="shared" ref="AC67:AC93" si="136">AB67</f>
         <v>0</v>
       </c>
     </row>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K77" si="143">J71</f>
+        <f t="shared" ref="K71:K93" si="143">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O77" si="144">N71</f>
+        <f t="shared" ref="O71:O93" si="144">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S77" si="145">R71</f>
+        <f t="shared" ref="S71:S93" si="145">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
@@ -23302,7 +23302,7 @@
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W77" si="146">V71</f>
+        <f t="shared" ref="W71:W93" si="146">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
@@ -23314,7 +23314,7 @@
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA77" si="147">Z71</f>
+        <f t="shared" ref="AA71:AA93" si="147">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
@@ -24081,7 +24081,7 @@
         <v>1</v>
       </c>
       <c r="M80" s="16">
-        <f t="shared" ref="M80:M81" si="154">L80</f>
+        <f t="shared" ref="M80:M93" si="154">L80</f>
         <v>1</v>
       </c>
       <c r="N80" s="11">
@@ -24096,7 +24096,7 @@
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
-        <f t="shared" ref="Q80:Q81" si="155">P80</f>
+        <f t="shared" ref="Q80:Q93" si="155">P80</f>
         <v>2.5</v>
       </c>
       <c r="R80" s="11">
@@ -24111,7 +24111,7 @@
         <v>1</v>
       </c>
       <c r="U80" s="16">
-        <f t="shared" ref="U80:U81" si="156">T80</f>
+        <f t="shared" ref="U80:U93" si="156">T80</f>
         <v>1</v>
       </c>
       <c r="V80" s="11">
@@ -24126,7 +24126,7 @@
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
-        <f t="shared" ref="Y80:Y81" si="157">X80</f>
+        <f t="shared" ref="Y80:Y93" si="157">X80</f>
         <v>1.5</v>
       </c>
       <c r="Z80" s="11">
@@ -24141,7 +24141,7 @@
         <v>2</v>
       </c>
       <c r="AC80" s="16">
-        <f t="shared" ref="AC80:AC81" si="158">AB80</f>
+        <f t="shared" ref="AC80:AC93" si="158">AB80</f>
         <v>2</v>
       </c>
     </row>
@@ -24944,7 +24944,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K90" si="169">J89</f>
+        <f t="shared" ref="K89:K93" si="169">J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="15">
@@ -24956,7 +24956,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" ref="O89:O90" si="170">N89</f>
+        <f t="shared" ref="O89:O93" si="170">N89</f>
         <v>0</v>
       </c>
       <c r="P89" s="15">
@@ -24968,7 +24968,7 @@
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" ref="S89:S90" si="171">R89</f>
+        <f t="shared" ref="S89:S93" si="171">R89</f>
         <v>0</v>
       </c>
       <c r="T89" s="15">
@@ -24980,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" ref="W89:W90" si="172">V89</f>
+        <f t="shared" ref="W89:W93" si="172">V89</f>
         <v>0</v>
       </c>
       <c r="X89" s="15">
@@ -24992,7 +24992,7 @@
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA90" si="173">Z89</f>
+        <f t="shared" ref="AA89:AA93" si="173">Z89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
@@ -25360,8 +25360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25795,7 +25795,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5" si="7">J5</f>
+        <f t="shared" ref="K5:K20" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -25807,7 +25807,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5" si="9">N5</f>
+        <f t="shared" ref="O5:O20" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -25822,7 +25822,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="11">R5</f>
+        <f t="shared" ref="S5:S20" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -25837,7 +25837,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5" si="13">V5</f>
+        <f t="shared" ref="W5:W20" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -25852,7 +25852,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5" si="15">Z5</f>
+        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -26262,7 +26262,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10" si="17">J10</f>
+        <f t="shared" ref="K10:K25" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -26274,7 +26274,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10" si="18">N10</f>
+        <f t="shared" ref="O10:O25" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -26286,7 +26286,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10" si="19">R10</f>
+        <f t="shared" ref="S10:S25" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -26301,7 +26301,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10" si="20">V10</f>
+        <f t="shared" ref="W10:W25" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -26313,7 +26313,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10" si="21">Z10</f>
+        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -28468,7 +28468,7 @@
         <v>5</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" ref="M34" si="41">L34</f>
+        <f t="shared" ref="M34:M47" si="41">L34</f>
         <v>5</v>
       </c>
       <c r="N34" s="11">
@@ -28483,7 +28483,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" ref="Q34" si="42">P34</f>
+        <f t="shared" ref="Q34:Q47" si="42">P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="11">
@@ -28498,7 +28498,7 @@
         <v>5</v>
       </c>
       <c r="U34" s="16">
-        <f t="shared" ref="U34" si="43">T34</f>
+        <f t="shared" ref="U34:U47" si="43">T34</f>
         <v>5</v>
       </c>
       <c r="V34" s="11">
@@ -28513,7 +28513,7 @@
         <v>6</v>
       </c>
       <c r="Y34" s="16">
-        <f t="shared" ref="Y34" si="44">X34</f>
+        <f t="shared" ref="Y34:Y47" si="44">X34</f>
         <v>6</v>
       </c>
       <c r="Z34" s="11">
@@ -28528,7 +28528,7 @@
         <v>5</v>
       </c>
       <c r="AC34" s="16">
-        <f t="shared" ref="AC34" si="45">AB34</f>
+        <f t="shared" ref="AC34:AC47" si="45">AB34</f>
         <v>5</v>
       </c>
     </row>
@@ -28558,7 +28558,7 @@
         <v>5.4</v>
       </c>
       <c r="H35" s="15">
-        <f>G35*$D35</f>
+        <f>MIN(100,G35*$D35)</f>
         <v>8.1000000000000014</v>
       </c>
       <c r="I35" s="16">
@@ -28573,7 +28573,7 @@
         <v>17.5</v>
       </c>
       <c r="L35" s="15">
-        <f>K35*$D35</f>
+        <f>MIN(100,K35*$D35)</f>
         <v>26.25</v>
       </c>
       <c r="M35" s="16">
@@ -28588,7 +28588,7 @@
         <v>0.5</v>
       </c>
       <c r="P35" s="15">
-        <f>O35*$D35</f>
+        <f>MIN(100,O35*$D35)</f>
         <v>0.75</v>
       </c>
       <c r="Q35" s="16">
@@ -28603,7 +28603,7 @@
         <v>2.5</v>
       </c>
       <c r="T35" s="15">
-        <f>S35*$D35</f>
+        <f>MIN(100,S35*$D35)</f>
         <v>3.75</v>
       </c>
       <c r="U35" s="16">
@@ -28618,7 +28618,7 @@
         <v>7.5</v>
       </c>
       <c r="X35" s="15">
-        <f>W35*$D35</f>
+        <f>MIN(100,W35*$D35)</f>
         <v>11.25</v>
       </c>
       <c r="Y35" s="16">
@@ -28633,7 +28633,7 @@
         <v>20</v>
       </c>
       <c r="AB35" s="15">
-        <f>AA35*$D35</f>
+        <f>MIN(100,AA35*$D35)</f>
         <v>30</v>
       </c>
       <c r="AC35" s="16">
@@ -28778,66 +28778,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37" si="47">J37</f>
+        <f t="shared" ref="K37:K44" si="47">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="48">K37</f>
+        <f t="shared" ref="L37:L44" si="48">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37" si="49">L37</f>
+        <f t="shared" ref="M37:M50" si="49">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37" si="50">N37</f>
+        <f t="shared" ref="O37:O44" si="50">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37" si="51">O37</f>
+        <f t="shared" ref="P37:P44" si="51">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37" si="52">P37</f>
+        <f t="shared" ref="Q37:Q50" si="52">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37" si="53">R37</f>
+        <f t="shared" ref="S37:S44" si="53">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37" si="54">S37</f>
+        <f t="shared" ref="T37:T44" si="54">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37" si="55">T37</f>
+        <f t="shared" ref="U37:U50" si="55">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37" si="56">V37</f>
+        <f t="shared" ref="W37:W44" si="56">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37" si="57">W37</f>
+        <f t="shared" ref="X37:X44" si="57">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37" si="58">X37</f>
+        <f t="shared" ref="Y37:Y50" si="58">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="59">Z37</f>
+        <f t="shared" ref="AA37:AA44" si="59">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37" si="60">AA37</f>
+        <f t="shared" ref="AB37:AB44" si="60">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37" si="61">AB37</f>
+        <f t="shared" ref="AC37:AC50" si="61">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -28867,7 +28867,7 @@
         <v>0.3</v>
       </c>
       <c r="H38" s="15">
-        <f>G38*$D38</f>
+        <f>MIN(100,G38*$D38)</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="I38" s="16">
@@ -28882,7 +28882,7 @@
         <v>1.25</v>
       </c>
       <c r="L38" s="15">
-        <f>K38*$D38</f>
+        <f>MIN(100,K38*$D38)</f>
         <v>1.875</v>
       </c>
       <c r="M38" s="16">
@@ -28894,7 +28894,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="15">
-        <f>O38*$D38</f>
+        <f>MIN(100,O38*$D38)</f>
         <v>0</v>
       </c>
       <c r="Q38" s="16">
@@ -28909,7 +28909,7 @@
         <v>5</v>
       </c>
       <c r="T38" s="15">
-        <f>S38*$D38</f>
+        <f>MIN(100,S38*$D38)</f>
         <v>7.5</v>
       </c>
       <c r="U38" s="16">
@@ -28921,7 +28921,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="15">
-        <f>W38*$D38</f>
+        <f>MIN(100,W38*$D38)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="16">
@@ -28933,7 +28933,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="15">
-        <f>AA38*$D38</f>
+        <f>MIN(100,AA38*$D38)</f>
         <v>0</v>
       </c>
       <c r="AC38" s="16">
@@ -29066,75 +29066,75 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40" si="62">J40</f>
+        <f t="shared" ref="K40:K47" si="62">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40" si="63">K40</f>
+        <f t="shared" ref="L40:L47" si="63">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" ref="M40" si="64">L40</f>
+        <f t="shared" ref="M40:M53" si="64">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40" si="65">N40</f>
+        <f t="shared" ref="O40:O47" si="65">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40" si="66">O40</f>
+        <f t="shared" ref="P40:P47" si="66">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" ref="Q40" si="67">P40</f>
+        <f t="shared" ref="Q40:Q53" si="67">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40" si="68">R40</f>
+        <f t="shared" ref="S40:S47" si="68">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40" si="69">S40</f>
+        <f t="shared" ref="T40:T47" si="69">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" ref="U40" si="70">T40</f>
+        <f t="shared" ref="U40:U53" si="70">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40" si="71">V40</f>
+        <f t="shared" ref="W40:W47" si="71">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40" si="72">W40</f>
+        <f t="shared" ref="X40:X47" si="72">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" ref="Y40" si="73">X40</f>
+        <f t="shared" ref="Y40:Y53" si="73">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="74">Z40</f>
+        <f t="shared" ref="AA40:AA47" si="74">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40" si="75">AA40</f>
+        <f t="shared" ref="AB40:AB47" si="75">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" ref="AC40" si="76">AB40</f>
+        <f t="shared" ref="AC40:AC53" si="76">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -29270,7 +29270,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="H42" s="15">
-        <f>G42*$D42</f>
+        <f>MIN(100,G42*$D42)</f>
         <v>0.26249999999999996</v>
       </c>
       <c r="I42" s="16">
@@ -29282,7 +29282,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="15">
-        <f>K42*$D42</f>
+        <f>MIN(100,K42*$D42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="16">
@@ -29297,7 +29297,7 @@
         <v>22.5</v>
       </c>
       <c r="P42" s="15">
-        <f>O42*$D42</f>
+        <f>MIN(100,O42*$D42)</f>
         <v>33.75</v>
       </c>
       <c r="Q42" s="16">
@@ -29312,7 +29312,7 @@
         <v>0.5</v>
       </c>
       <c r="T42" s="15">
-        <f>S42*$D42</f>
+        <f>MIN(100,S42*$D42)</f>
         <v>0.75</v>
       </c>
       <c r="U42" s="16">
@@ -29327,7 +29327,7 @@
         <v>7.5</v>
       </c>
       <c r="X42" s="15">
-        <f>W42*$D42</f>
+        <f>MIN(100,W42*$D42)</f>
         <v>11.25</v>
       </c>
       <c r="Y42" s="16">
@@ -29342,7 +29342,7 @@
         <v>5</v>
       </c>
       <c r="AB42" s="15">
-        <f>AA42*$D42</f>
+        <f>MIN(100,AA42*$D42)</f>
         <v>7.5</v>
       </c>
       <c r="AC42" s="16">
@@ -29485,11 +29485,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44" si="77">K44</f>
+        <f t="shared" ref="L44:L51" si="77">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" ref="M44" si="78">L44</f>
+        <f t="shared" ref="M44:M57" si="78">L44</f>
         <v>0</v>
       </c>
       <c r="N44" s="11">
@@ -29500,11 +29500,11 @@
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44" si="79">O44</f>
+        <f t="shared" ref="P44:P51" si="79">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" ref="Q44" si="80">P44</f>
+        <f t="shared" ref="Q44:Q57" si="80">P44</f>
         <v>1</v>
       </c>
       <c r="R44" s="11">
@@ -29515,11 +29515,11 @@
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44" si="81">S44</f>
+        <f t="shared" ref="T44:T51" si="81">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" ref="U44" si="82">T44</f>
+        <f t="shared" ref="U44:U57" si="82">T44</f>
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
@@ -29527,11 +29527,11 @@
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44" si="83">W44</f>
+        <f t="shared" ref="X44:X51" si="83">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" ref="Y44" si="84">X44</f>
+        <f t="shared" ref="Y44:Y57" si="84">X44</f>
         <v>0</v>
       </c>
       <c r="Z44" s="11">
@@ -29542,11 +29542,11 @@
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44" si="85">AA44</f>
+        <f t="shared" ref="AB44:AB51" si="85">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" ref="AC44" si="86">AB44</f>
+        <f t="shared" ref="AC44:AC57" si="86">AB44</f>
         <v>1</v>
       </c>
     </row>
@@ -29679,7 +29679,7 @@
         <v>0.05</v>
       </c>
       <c r="H46" s="15">
-        <f>G46*$D46</f>
+        <f>MIN(100,G46*$D46)</f>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="I46" s="16">
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="15">
-        <f>K46*$D46</f>
+        <f>MIN(100,K46*$D46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="16">
@@ -29706,7 +29706,7 @@
         <v>2</v>
       </c>
       <c r="P46" s="15">
-        <f>O46*$D46</f>
+        <f>MIN(100,O46*$D46)</f>
         <v>3</v>
       </c>
       <c r="Q46" s="16">
@@ -29721,7 +29721,7 @@
         <v>1.25</v>
       </c>
       <c r="T46" s="15">
-        <f>S46*$D46</f>
+        <f>MIN(100,S46*$D46)</f>
         <v>1.875</v>
       </c>
       <c r="U46" s="16">
@@ -29733,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="15">
-        <f>W46*$D46</f>
+        <f>MIN(100,W46*$D46)</f>
         <v>0</v>
       </c>
       <c r="Y46" s="16">
@@ -29748,7 +29748,7 @@
         <v>5</v>
       </c>
       <c r="AB46" s="15">
-        <f>AA46*$D46</f>
+        <f>MIN(100,AA46*$D46)</f>
         <v>7.5</v>
       </c>
       <c r="AC46" s="16">
@@ -29796,7 +29796,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47" si="93">L47</f>
+        <f t="shared" ref="M47:M60" si="93">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -29811,7 +29811,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47" si="94">P47</f>
+        <f t="shared" ref="Q47:Q60" si="94">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -29826,7 +29826,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47" si="95">T47</f>
+        <f t="shared" ref="U47:U60" si="95">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -29838,7 +29838,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47" si="96">X47</f>
+        <f t="shared" ref="Y47:Y60" si="96">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -29853,7 +29853,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47" si="97">AB47</f>
+        <f t="shared" ref="AC47:AC60" si="97">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -31016,7 +31016,7 @@
         <v>9.6</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K60" si="106">J59</f>
+        <f t="shared" ref="K59:K93" si="106">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
@@ -31028,7 +31028,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O60" si="108">N59</f>
+        <f t="shared" ref="O59:O93" si="108">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
@@ -31043,7 +31043,7 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S60" si="110">R59</f>
+        <f t="shared" ref="S59:S93" si="110">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
@@ -31055,7 +31055,7 @@
         <v>3.5</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W60" si="112">V59</f>
+        <f t="shared" ref="W59:W93" si="112">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
@@ -31067,7 +31067,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA60" si="114">Z59</f>
+        <f t="shared" ref="AA59:AA93" si="114">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
@@ -31290,7 +31290,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K67" si="116">J62</f>
+        <f t="shared" ref="K62:K93" si="116">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -31302,7 +31302,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O67" si="117">N62</f>
+        <f t="shared" ref="O62:O93" si="117">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -31317,7 +31317,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S67" si="118">R62</f>
+        <f t="shared" ref="S62:S93" si="118">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
@@ -31332,7 +31332,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W67" si="119">V62</f>
+        <f t="shared" ref="W62:W93" si="119">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -31347,7 +31347,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA67" si="120">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="120">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -32141,7 +32141,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K77" si="133">J71</f>
+        <f t="shared" ref="K71:K93" si="133">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O77" si="134">N71</f>
+        <f t="shared" ref="O71:O93" si="134">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
@@ -32165,7 +32165,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S77" si="135">R71</f>
+        <f t="shared" ref="S71:S93" si="135">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
@@ -32180,7 +32180,7 @@
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W77" si="136">V71</f>
+        <f t="shared" ref="W71:W93" si="136">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
@@ -32192,7 +32192,7 @@
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA77" si="137">Z71</f>
+        <f t="shared" ref="AA71:AA93" si="137">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
@@ -32849,7 +32849,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="15">
-        <f t="shared" si="139"/>
+        <f>MIN(100,G79*$D79)</f>
         <v>0</v>
       </c>
       <c r="I79" s="16">
@@ -32861,7 +32861,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="15">
-        <f t="shared" si="141"/>
+        <f>MIN(100,K79*$D79)</f>
         <v>0</v>
       </c>
       <c r="M79" s="16">
@@ -32873,7 +32873,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="15">
-        <f t="shared" si="143"/>
+        <f>MIN(100,O79*$D79)</f>
         <v>0</v>
       </c>
       <c r="Q79" s="16">
@@ -32888,7 +32888,7 @@
         <v>2.5</v>
       </c>
       <c r="T79" s="15">
-        <f t="shared" si="145"/>
+        <f>MIN(100,S79*$D79)</f>
         <v>3.75</v>
       </c>
       <c r="U79" s="16">
@@ -32900,7 +32900,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="15">
-        <f t="shared" si="147"/>
+        <f>MIN(100,W79*$D79)</f>
         <v>0</v>
       </c>
       <c r="Y79" s="16">
@@ -32912,7 +32912,7 @@
         <v>0</v>
       </c>
       <c r="AB79" s="15">
-        <f t="shared" si="149"/>
+        <f>MIN(100,AA79*$D79)</f>
         <v>0</v>
       </c>
       <c r="AC79" s="16">
@@ -32959,7 +32959,7 @@
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" ref="L80:L85" si="150">K80*$D80</f>
         <v>1</v>
       </c>
       <c r="M80" s="16">
@@ -32974,7 +32974,7 @@
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" ref="P80:P85" si="151">O80*$D80</f>
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
@@ -32989,7 +32989,7 @@
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="T80:T85" si="152">S80*$D80</f>
         <v>1</v>
       </c>
       <c r="U80" s="16">
@@ -33004,7 +33004,7 @@
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="147"/>
+        <f t="shared" ref="X80:X85" si="153">W80*$D80</f>
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
@@ -33019,7 +33019,7 @@
         <v>1</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" ref="AB80:AB85" si="154">AA80*$D80</f>
         <v>2</v>
       </c>
       <c r="AC80" s="16">
@@ -33051,7 +33051,7 @@
         <v>35</v>
       </c>
       <c r="H81" s="15">
-        <f t="shared" si="139"/>
+        <f>MIN(100,G81*$D81)</f>
         <v>70</v>
       </c>
       <c r="I81" s="16">
@@ -33066,7 +33066,7 @@
         <v>30</v>
       </c>
       <c r="L81" s="15">
-        <f t="shared" si="141"/>
+        <f>MIN(100,K81*$D81)</f>
         <v>60</v>
       </c>
       <c r="M81" s="16">
@@ -33081,7 +33081,7 @@
         <v>2.5</v>
       </c>
       <c r="P81" s="15">
-        <f t="shared" si="143"/>
+        <f>MIN(100,O81*$D81)</f>
         <v>5</v>
       </c>
       <c r="Q81" s="16">
@@ -33096,7 +33096,7 @@
         <v>7.5</v>
       </c>
       <c r="T81" s="15">
-        <f t="shared" si="145"/>
+        <f>MIN(100,S81*$D81)</f>
         <v>15</v>
       </c>
       <c r="U81" s="16">
@@ -33111,7 +33111,7 @@
         <v>45</v>
       </c>
       <c r="X81" s="15">
-        <f t="shared" si="147"/>
+        <f>MIN(100,W81*$D81)</f>
         <v>90</v>
       </c>
       <c r="Y81" s="16">
@@ -33126,7 +33126,7 @@
         <v>35</v>
       </c>
       <c r="AB81" s="15">
-        <f t="shared" si="149"/>
+        <f>MIN(100,AA81*$D81)</f>
         <v>70</v>
       </c>
       <c r="AC81" s="16">
@@ -33169,7 +33169,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" ref="L82:L87" si="155">K82*$D82</f>
         <v>0</v>
       </c>
       <c r="M82" s="16">
@@ -33181,7 +33181,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" ref="P82:P87" si="156">O82*$D82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="16">
@@ -33196,7 +33196,7 @@
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="T82:T87" si="157">S82*$D82</f>
         <v>1.875</v>
       </c>
       <c r="U82" s="16">
@@ -33211,7 +33211,7 @@
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
-        <f t="shared" si="147"/>
+        <f t="shared" ref="X82:X87" si="158">W82*$D82</f>
         <v>0.75</v>
       </c>
       <c r="Y82" s="16">
@@ -33223,7 +33223,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" ref="AB82:AB87" si="159">AA82*$D82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="16">
@@ -33254,7 +33254,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="15">
-        <f t="shared" si="139"/>
+        <f>MIN(100,G83*$D83)</f>
         <v>0</v>
       </c>
       <c r="I83" s="16">
@@ -33266,7 +33266,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="15">
-        <f t="shared" si="141"/>
+        <f>MIN(100,K83*$D83)</f>
         <v>0</v>
       </c>
       <c r="M83" s="16">
@@ -33278,7 +33278,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="15">
-        <f t="shared" si="143"/>
+        <f>MIN(100,O83*$D83)</f>
         <v>0</v>
       </c>
       <c r="Q83" s="16">
@@ -33293,7 +33293,7 @@
         <v>40</v>
       </c>
       <c r="T83" s="15">
-        <f t="shared" si="145"/>
+        <f>MIN(100,S83*$D83)</f>
         <v>60</v>
       </c>
       <c r="U83" s="16">
@@ -33308,7 +33308,7 @@
         <v>2.5</v>
       </c>
       <c r="X83" s="15">
-        <f t="shared" si="147"/>
+        <f>MIN(100,W83*$D83)</f>
         <v>3.75</v>
       </c>
       <c r="Y83" s="16">
@@ -33320,7 +33320,7 @@
         <v>0</v>
       </c>
       <c r="AB83" s="15">
-        <f t="shared" si="149"/>
+        <f>MIN(100,AA83*$D83)</f>
         <v>0</v>
       </c>
       <c r="AC83" s="16">
@@ -33350,7 +33350,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" ref="I84:I93" si="150">H84</f>
+        <f t="shared" ref="I84:I93" si="160">H84</f>
         <v>0</v>
       </c>
       <c r="J84" s="11">
@@ -33361,11 +33361,11 @@
         <v>0.05</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="151">K84</f>
+        <f t="shared" ref="L84:L93" si="161">K84</f>
         <v>0.05</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="152">L84</f>
+        <f t="shared" ref="M84:M93" si="162">L84</f>
         <v>0.05</v>
       </c>
       <c r="O84" s="12">
@@ -33373,11 +33373,11 @@
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="153">O84</f>
+        <f t="shared" ref="P84:P93" si="163">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="154">P84</f>
+        <f t="shared" ref="Q84:Q93" si="164">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
@@ -33388,11 +33388,11 @@
         <v>0.5</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="155">S84</f>
+        <f t="shared" ref="T84:T93" si="165">S84</f>
         <v>0.5</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="156">T84</f>
+        <f t="shared" ref="U84:U93" si="166">T84</f>
         <v>0.5</v>
       </c>
       <c r="W84" s="12">
@@ -33400,11 +33400,11 @@
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="157">W84</f>
+        <f t="shared" ref="X84:X93" si="167">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="158">X84</f>
+        <f t="shared" ref="Y84:Y93" si="168">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
@@ -33412,11 +33412,11 @@
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="159">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="169">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="160">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="170">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -33442,7 +33442,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
@@ -33453,11 +33453,11 @@
         <v>15</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="161"/>
         <v>15</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>15</v>
       </c>
       <c r="O85" s="12">
@@ -33465,11 +33465,11 @@
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
@@ -33480,11 +33480,11 @@
         <v>22.5</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>22.5</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>22.5</v>
       </c>
       <c r="W85" s="12">
@@ -33492,11 +33492,11 @@
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
@@ -33504,11 +33504,11 @@
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
     </row>
@@ -33537,7 +33537,7 @@
         <v>0.125</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0.125</v>
       </c>
       <c r="J86" s="11">
@@ -33548,11 +33548,11 @@
         <v>0.1</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="161"/>
         <v>0.1</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>0.1</v>
       </c>
       <c r="N86" s="11">
@@ -33563,11 +33563,11 @@
         <v>0.05</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0.05</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>0.05</v>
       </c>
       <c r="R86" s="11">
@@ -33578,11 +33578,11 @@
         <v>1</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>1</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>1</v>
       </c>
       <c r="V86" s="11">
@@ -33593,11 +33593,11 @@
         <v>0.25</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0.25</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="168"/>
         <v>0.25</v>
       </c>
       <c r="Z86" s="11">
@@ -33608,11 +33608,11 @@
         <v>0.375</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="169"/>
         <v>0.375</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="170"/>
         <v>0.375</v>
       </c>
     </row>
@@ -33641,7 +33641,7 @@
         <v>17.5</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>17.5</v>
       </c>
       <c r="J87" s="11">
@@ -33652,11 +33652,11 @@
         <v>15</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="161"/>
         <v>15</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>15</v>
       </c>
       <c r="N87" s="11">
@@ -33667,11 +33667,11 @@
         <v>17.5</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>17.5</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>17.5</v>
       </c>
       <c r="R87" s="11">
@@ -33682,11 +33682,11 @@
         <v>25</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>25</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>25</v>
       </c>
       <c r="V87" s="11">
@@ -33697,11 +33697,11 @@
         <v>22.5</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>22.5</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="168"/>
         <v>22.5</v>
       </c>
       <c r="Z87" s="11">
@@ -33712,11 +33712,11 @@
         <v>17.5</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="169"/>
         <v>17.5</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="170"/>
         <v>17.5</v>
       </c>
     </row>
@@ -33742,7 +33742,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
@@ -33750,11 +33750,11 @@
         <v>0</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O88" s="12">
@@ -33762,11 +33762,11 @@
         <v>0</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Q88" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="S88" s="12">
@@ -33774,11 +33774,11 @@
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="W88" s="12">
@@ -33786,11 +33786,11 @@
         <v>0</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="Y88" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AA88" s="12">
@@ -33798,11 +33798,11 @@
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AC88" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
     </row>
@@ -33826,67 +33826,67 @@
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K90" si="161">J89</f>
+        <f t="shared" ref="K89:K93" si="171">J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" ref="O89:O90" si="162">N89</f>
+        <f t="shared" ref="O89:O93" si="172">N89</f>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Q89" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" ref="S89:S90" si="163">R89</f>
+        <f t="shared" ref="S89:S93" si="173">R89</f>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" ref="W89:W90" si="164">V89</f>
+        <f t="shared" ref="W89:W93" si="174">V89</f>
         <v>0</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="Y89" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA90" si="165">Z89</f>
+        <f t="shared" ref="AA89:AA93" si="175">Z89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AC89" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
     </row>
@@ -33910,67 +33910,67 @@
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
         <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="L90" s="15">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
       <c r="M90" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O90" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="P90" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Q90" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="S90" s="12">
-        <f t="shared" si="163"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="T90" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="U90" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="W90" s="12">
-        <f t="shared" si="164"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="X90" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="Y90" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AA90" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="AB90" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AC90" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
     </row>
@@ -33996,7 +33996,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -34004,11 +34004,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -34016,11 +34016,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -34031,11 +34031,11 @@
         <v>4.5</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>4.5</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>4.5</v>
       </c>
       <c r="W91" s="12">
@@ -34043,11 +34043,11 @@
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -34055,11 +34055,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
     </row>
@@ -34083,70 +34083,70 @@
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92:K93" si="166">J92</f>
+        <f t="shared" ref="K92:K93" si="176">J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92:O93" si="167">N92</f>
+        <f t="shared" ref="O92:O93" si="177">N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92:S93" si="168">R92</f>
+        <f t="shared" ref="S92:S93" si="178">R92</f>
         <v>1</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="165"/>
         <v>1</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="166"/>
         <v>1</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" ref="W92:W93" si="169">V92</f>
+        <f t="shared" ref="W92:W93" si="179">V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" ref="AA92:AA93" si="170">Z92</f>
+        <f t="shared" ref="AA92:AA93" si="180">Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
     </row>
@@ -34170,70 +34170,70 @@
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
+        <f t="shared" si="178"/>
+        <v>5</v>
+      </c>
+      <c r="T93" s="15">
+        <f t="shared" si="165"/>
+        <v>5</v>
+      </c>
+      <c r="U93" s="16">
+        <f t="shared" si="166"/>
+        <v>5</v>
+      </c>
+      <c r="W93" s="12">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="X93" s="15">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="16">
         <f t="shared" si="168"/>
-        <v>5</v>
-      </c>
-      <c r="T93" s="15">
-        <f t="shared" si="155"/>
-        <v>5</v>
-      </c>
-      <c r="U93" s="16">
-        <f t="shared" si="156"/>
-        <v>5</v>
-      </c>
-      <c r="W93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="12">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AB93" s="15">
         <f t="shared" si="169"/>
         <v>0</v>
       </c>
-      <c r="X93" s="15">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="Y93" s="16">
-        <f t="shared" si="158"/>
-        <v>0</v>
-      </c>
-      <c r="AA93" s="12">
+      <c r="AC93" s="16">
         <f t="shared" si="170"/>
-        <v>0</v>
-      </c>
-      <c r="AB93" s="15">
-        <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="AC93" s="16">
-        <f t="shared" si="160"/>
         <v>0</v>
       </c>
     </row>

--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="452">
   <si>
     <t>* = 1.1</t>
   </si>
@@ -1468,6 +1468,12 @@
   <si>
     <t>| + = SStump_Density</t>
   </si>
+  <si>
+    <t>|If not present, Sstump_Diameter</t>
+  </si>
+  <si>
+    <t>|If not present, Sstump_Height</t>
+  </si>
 </sst>
 </file>
 
@@ -2591,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,6 +3789,15 @@
       <c r="B62" t="s">
         <v>337</v>
       </c>
+      <c r="E62" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
@@ -3790,6 +3805,15 @@
       </c>
       <c r="B63" t="s">
         <v>338</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -7596,8 +7620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16477,8 +16501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25360,8 +25384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AC93"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25795,7 +25819,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5:K20" si="7">J5</f>
+        <f t="shared" ref="K5" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -25807,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O20" si="9">N5</f>
+        <f t="shared" ref="O5" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -25822,7 +25846,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S20" si="11">R5</f>
+        <f t="shared" ref="S5" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -25837,7 +25861,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:W20" si="13">V5</f>
+        <f t="shared" ref="W5" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -25852,7 +25876,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
+        <f t="shared" ref="AA5" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -26262,7 +26286,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10:K25" si="17">J10</f>
+        <f t="shared" ref="K10" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -26274,7 +26298,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10:O25" si="18">N10</f>
+        <f t="shared" ref="O10" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -26286,7 +26310,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10:S25" si="19">R10</f>
+        <f t="shared" ref="S10" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -26301,7 +26325,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10:W25" si="20">V10</f>
+        <f t="shared" ref="W10" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -26313,7 +26337,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
+        <f t="shared" ref="AA10" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -28778,66 +28802,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37:K44" si="36">J37</f>
+        <f t="shared" ref="K37" si="36">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37:L44" si="37">K37</f>
+        <f t="shared" ref="L37" si="37">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37:M50" si="38">L37</f>
+        <f t="shared" ref="M37" si="38">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37:O44" si="39">N37</f>
+        <f t="shared" ref="O37" si="39">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:P44" si="40">O37</f>
+        <f t="shared" ref="P37" si="40">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37:Q50" si="41">P37</f>
+        <f t="shared" ref="Q37" si="41">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37:S44" si="42">R37</f>
+        <f t="shared" ref="S37" si="42">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37:T44" si="43">S37</f>
+        <f t="shared" ref="T37" si="43">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37:U50" si="44">T37</f>
+        <f t="shared" ref="U37" si="44">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37:W44" si="45">V37</f>
+        <f t="shared" ref="W37" si="45">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37:X44" si="46">W37</f>
+        <f t="shared" ref="X37" si="46">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37:Y50" si="47">X37</f>
+        <f t="shared" ref="Y37" si="47">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37:AA44" si="48">Z37</f>
+        <f t="shared" ref="AA37" si="48">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AB44" si="49">AA37</f>
+        <f t="shared" ref="AB37" si="49">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37:AC50" si="50">AB37</f>
+        <f t="shared" ref="AC37" si="50">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -29066,75 +29090,75 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K47" si="51">J40</f>
+        <f t="shared" ref="K40" si="51">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40:L47" si="52">K40</f>
+        <f t="shared" ref="L40" si="52">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" ref="M40:M53" si="53">L40</f>
+        <f t="shared" ref="M40" si="53">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40:O47" si="54">N40</f>
+        <f t="shared" ref="O40" si="54">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:P47" si="55">O40</f>
+        <f t="shared" ref="P40" si="55">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" ref="Q40:Q53" si="56">P40</f>
+        <f t="shared" ref="Q40" si="56">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40:S47" si="57">R40</f>
+        <f t="shared" ref="S40" si="57">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40:T47" si="58">S40</f>
+        <f t="shared" ref="T40" si="58">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" ref="U40:U53" si="59">T40</f>
+        <f t="shared" ref="U40" si="59">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40:W47" si="60">V40</f>
+        <f t="shared" ref="W40" si="60">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40:X47" si="61">W40</f>
+        <f t="shared" ref="X40" si="61">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" ref="Y40:Y53" si="62">X40</f>
+        <f t="shared" ref="Y40" si="62">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40:AA47" si="63">Z40</f>
+        <f t="shared" ref="AA40" si="63">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40:AB47" si="64">AA40</f>
+        <f t="shared" ref="AB40" si="64">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" ref="AC40:AC53" si="65">AB40</f>
+        <f t="shared" ref="AC40" si="65">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -29485,11 +29509,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44:L51" si="66">K44</f>
+        <f t="shared" ref="L44" si="66">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" ref="M44:M57" si="67">L44</f>
+        <f t="shared" ref="M44" si="67">L44</f>
         <v>0</v>
       </c>
       <c r="N44" s="11">
@@ -29500,11 +29524,11 @@
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44:P51" si="68">O44</f>
+        <f t="shared" ref="P44" si="68">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" ref="Q44:Q57" si="69">P44</f>
+        <f t="shared" ref="Q44" si="69">P44</f>
         <v>1</v>
       </c>
       <c r="R44" s="11">
@@ -29515,11 +29539,11 @@
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44:T51" si="70">S44</f>
+        <f t="shared" ref="T44" si="70">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" ref="U44:U57" si="71">T44</f>
+        <f t="shared" ref="U44" si="71">T44</f>
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
@@ -29527,11 +29551,11 @@
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44:X51" si="72">W44</f>
+        <f t="shared" ref="X44" si="72">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" ref="Y44:Y57" si="73">X44</f>
+        <f t="shared" ref="Y44" si="73">X44</f>
         <v>0</v>
       </c>
       <c r="Z44" s="11">
@@ -29542,11 +29566,11 @@
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44:AB51" si="74">AA44</f>
+        <f t="shared" ref="AB44" si="74">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" ref="AC44:AC57" si="75">AB44</f>
+        <f t="shared" ref="AC44" si="75">AB44</f>
         <v>1</v>
       </c>
     </row>
@@ -29796,7 +29820,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47:M60" si="82">L47</f>
+        <f t="shared" ref="M47" si="82">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -29811,7 +29835,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47:Q60" si="83">P47</f>
+        <f t="shared" ref="Q47" si="83">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -29826,7 +29850,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47:U60" si="84">T47</f>
+        <f t="shared" ref="U47" si="84">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -29838,7 +29862,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47:Y60" si="85">X47</f>
+        <f t="shared" ref="Y47" si="85">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -29853,7 +29877,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47:AC60" si="86">AB47</f>
+        <f t="shared" ref="AC47" si="86">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -29900,7 +29924,7 @@
         <v>0.25</v>
       </c>
       <c r="M48" s="16">
-        <f t="shared" ref="M48:M55" si="88">$E48*L48</f>
+        <f t="shared" ref="M48" si="88">$E48*L48</f>
         <v>0.5</v>
       </c>
       <c r="O48" s="12">
@@ -29912,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="16">
-        <f t="shared" ref="Q48:Q55" si="89">$E48*P48</f>
+        <f t="shared" ref="Q48" si="89">$E48*P48</f>
         <v>0</v>
       </c>
       <c r="R48" s="11">
@@ -29927,7 +29951,7 @@
         <v>0.125</v>
       </c>
       <c r="U48" s="16">
-        <f t="shared" ref="U48:U55" si="90">$E48*T48</f>
+        <f t="shared" ref="U48" si="90">$E48*T48</f>
         <v>0.25</v>
       </c>
       <c r="V48" s="11">
@@ -29942,7 +29966,7 @@
         <v>0.25</v>
       </c>
       <c r="Y48" s="16">
-        <f t="shared" ref="Y48:Y55" si="91">$E48*X48</f>
+        <f t="shared" ref="Y48" si="91">$E48*X48</f>
         <v>0.5</v>
       </c>
       <c r="Z48" s="11">
@@ -29957,7 +29981,7 @@
         <v>0.125</v>
       </c>
       <c r="AC48" s="16">
-        <f t="shared" ref="AC48:AC55" si="92">$E48*AB48</f>
+        <f t="shared" ref="AC48" si="92">$E48*AB48</f>
         <v>0.25</v>
       </c>
     </row>
@@ -30108,7 +30132,7 @@
         <v>0.25</v>
       </c>
       <c r="M50" s="16">
-        <f t="shared" ref="M50:M57" si="93">$E50*L50</f>
+        <f t="shared" ref="M50:M55" si="93">$E50*L50</f>
         <v>0.5</v>
       </c>
       <c r="O50" s="12">
@@ -30120,7 +30144,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="16">
-        <f t="shared" ref="Q50:Q57" si="94">$E50*P50</f>
+        <f t="shared" ref="Q50:Q55" si="94">$E50*P50</f>
         <v>0</v>
       </c>
       <c r="R50" s="11">
@@ -30135,7 +30159,7 @@
         <v>0.125</v>
       </c>
       <c r="U50" s="16">
-        <f t="shared" ref="U50:U57" si="95">$E50*T50</f>
+        <f t="shared" ref="U50:U55" si="95">$E50*T50</f>
         <v>0.25</v>
       </c>
       <c r="V50" s="11">
@@ -30150,7 +30174,7 @@
         <v>0.25</v>
       </c>
       <c r="Y50" s="16">
-        <f t="shared" ref="Y50:Y57" si="96">$E50*X50</f>
+        <f t="shared" ref="Y50:Y55" si="96">$E50*X50</f>
         <v>0.5</v>
       </c>
       <c r="Z50" s="11">
@@ -30165,7 +30189,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC50" s="16">
-        <f t="shared" ref="AC50:AC57" si="97">$E50*AB50</f>
+        <f t="shared" ref="AC50:AC55" si="97">$E50*AB50</f>
         <v>0.15</v>
       </c>
     </row>
@@ -31016,7 +31040,7 @@
         <v>9.6</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K93" si="100">J59</f>
+        <f t="shared" ref="K59:K60" si="100">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
@@ -31028,7 +31052,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O93" si="102">N59</f>
+        <f t="shared" ref="O59:O60" si="102">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
@@ -31043,7 +31067,7 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S93" si="104">R59</f>
+        <f t="shared" ref="S59:S60" si="104">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
@@ -31055,7 +31079,7 @@
         <v>3.5</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W93" si="106">V59</f>
+        <f t="shared" ref="W59:W60" si="106">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
@@ -31067,7 +31091,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA93" si="108">Z59</f>
+        <f t="shared" ref="AA59:AA60" si="108">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
@@ -31290,7 +31314,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="110">J62</f>
+        <f t="shared" ref="K62:K67" si="110">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -31302,7 +31326,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="111">N62</f>
+        <f t="shared" ref="O62:O67" si="111">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -31317,7 +31341,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="112">R62</f>
+        <f t="shared" ref="S62:S67" si="112">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
@@ -31332,7 +31356,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="113">V62</f>
+        <f t="shared" ref="W62:W67" si="113">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -31347,7 +31371,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="114">Z62</f>
+        <f t="shared" ref="AA62:AA67" si="114">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -32141,7 +32165,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K93" si="127">J71</f>
+        <f t="shared" ref="K71:K77" si="127">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
@@ -32153,7 +32177,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O93" si="128">N71</f>
+        <f t="shared" ref="O71:O77" si="128">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
@@ -32165,7 +32189,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S93" si="129">R71</f>
+        <f t="shared" ref="S71:S77" si="129">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
@@ -32180,7 +32204,7 @@
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W93" si="130">V71</f>
+        <f t="shared" ref="W71:W77" si="130">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
@@ -32192,7 +32216,7 @@
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA93" si="131">Z71</f>
+        <f t="shared" ref="AA71:AA77" si="131">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
@@ -32767,7 +32791,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="15">
-        <f t="shared" ref="L78:L82" si="135">K78*$D78</f>
+        <f t="shared" ref="L78" si="135">K78*$D78</f>
         <v>0</v>
       </c>
       <c r="M78" s="16">
@@ -32779,7 +32803,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="15">
-        <f t="shared" ref="P78:P82" si="137">O78*$D78</f>
+        <f t="shared" ref="P78" si="137">O78*$D78</f>
         <v>0</v>
       </c>
       <c r="Q78" s="16">
@@ -32794,7 +32818,7 @@
         <v>1</v>
       </c>
       <c r="T78" s="15">
-        <f t="shared" ref="T78:T82" si="139">S78*$D78</f>
+        <f t="shared" ref="T78" si="139">S78*$D78</f>
         <v>1.5</v>
       </c>
       <c r="U78" s="16">
@@ -32806,7 +32830,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="15">
-        <f t="shared" ref="X78:X82" si="141">W78*$D78</f>
+        <f t="shared" ref="X78" si="141">W78*$D78</f>
         <v>0</v>
       </c>
       <c r="Y78" s="16">
@@ -32818,7 +32842,7 @@
         <v>0</v>
       </c>
       <c r="AB78" s="15">
-        <f t="shared" ref="AB78:AB82" si="143">AA78*$D78</f>
+        <f t="shared" ref="AB78" si="143">AA78*$D78</f>
         <v>0</v>
       </c>
       <c r="AC78" s="16">
@@ -32959,7 +32983,7 @@
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" ref="L80:L84" si="144">K80*$D80</f>
+        <f t="shared" ref="L80" si="144">K80*$D80</f>
         <v>1</v>
       </c>
       <c r="M80" s="16">
@@ -32974,7 +32998,7 @@
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" ref="P80:P84" si="145">O80*$D80</f>
+        <f t="shared" ref="P80" si="145">O80*$D80</f>
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
@@ -32989,7 +33013,7 @@
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" ref="T80:T84" si="146">S80*$D80</f>
+        <f t="shared" ref="T80" si="146">S80*$D80</f>
         <v>1</v>
       </c>
       <c r="U80" s="16">
@@ -33004,7 +33028,7 @@
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" ref="X80:X84" si="147">W80*$D80</f>
+        <f t="shared" ref="X80" si="147">W80*$D80</f>
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
@@ -33019,7 +33043,7 @@
         <v>1</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" ref="AB80:AB84" si="148">AA80*$D80</f>
+        <f t="shared" ref="AB80" si="148">AA80*$D80</f>
         <v>2</v>
       </c>
       <c r="AC80" s="16">
@@ -33169,7 +33193,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" ref="L82:L86" si="149">K82*$D82</f>
+        <f t="shared" ref="L82" si="149">K82*$D82</f>
         <v>0</v>
       </c>
       <c r="M82" s="16">
@@ -33181,7 +33205,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" ref="P82:P86" si="150">O82*$D82</f>
+        <f t="shared" ref="P82" si="150">O82*$D82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="16">
@@ -33196,7 +33220,7 @@
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" ref="T82:T86" si="151">S82*$D82</f>
+        <f t="shared" ref="T82" si="151">S82*$D82</f>
         <v>1.875</v>
       </c>
       <c r="U82" s="16">
@@ -33211,7 +33235,7 @@
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
-        <f t="shared" ref="X82:X86" si="152">W82*$D82</f>
+        <f t="shared" ref="X82" si="152">W82*$D82</f>
         <v>0.75</v>
       </c>
       <c r="Y82" s="16">
@@ -33223,7 +33247,7 @@
         <v>0</v>
       </c>
       <c r="AB82" s="15">
-        <f t="shared" ref="AB82:AB86" si="153">AA82*$D82</f>
+        <f t="shared" ref="AB82" si="153">AA82*$D82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="16">
@@ -33830,7 +33854,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K93" si="165">J89</f>
+        <f t="shared" ref="K89:K90" si="165">J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="15">
@@ -33842,7 +33866,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" ref="O89:O93" si="166">N89</f>
+        <f t="shared" ref="O89:O90" si="166">N89</f>
         <v>0</v>
       </c>
       <c r="P89" s="15">
@@ -33854,7 +33878,7 @@
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" ref="S89:S93" si="167">R89</f>
+        <f t="shared" ref="S89:S90" si="167">R89</f>
         <v>0</v>
       </c>
       <c r="T89" s="15">
@@ -33866,7 +33890,7 @@
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" ref="W89:W93" si="168">V89</f>
+        <f t="shared" ref="W89:W90" si="168">V89</f>
         <v>0</v>
       </c>
       <c r="X89" s="15">
@@ -33878,7 +33902,7 @@
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA93" si="169">Z89</f>
+        <f t="shared" ref="AA89:AA90" si="169">Z89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="15">

--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2606,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I8" sqref="I1:K1048576"/>
+    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16516,13 +16516,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="450" activePane="bottomLeft"/>
+      <selection sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.85546875" style="29" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="29" bestFit="1" customWidth="1"/>
@@ -16952,7 +16954,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5" si="7">J5</f>
+        <f t="shared" ref="K5:K20" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -16964,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5" si="9">N5</f>
+        <f t="shared" ref="O5:O20" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -16979,7 +16981,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="11">R5</f>
+        <f t="shared" ref="S5:S20" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -16994,7 +16996,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5" si="13">V5</f>
+        <f t="shared" ref="W5:W20" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -17009,7 +17011,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5" si="15">Z5</f>
+        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -17419,7 +17421,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10" si="17">J10</f>
+        <f t="shared" ref="K10:K25" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -17431,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10" si="18">N10</f>
+        <f t="shared" ref="O10:O25" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -17443,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10" si="19">R10</f>
+        <f t="shared" ref="S10:S25" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -17458,7 +17460,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10" si="20">V10</f>
+        <f t="shared" ref="W10:W25" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -17470,7 +17472,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10" si="21">Z10</f>
+        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -19935,66 +19937,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37" si="36">J37</f>
+        <f t="shared" ref="K37:K44" si="36">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="37">K37</f>
+        <f t="shared" ref="L37:L44" si="37">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37" si="38">L37</f>
+        <f t="shared" ref="M37:M50" si="38">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37" si="39">N37</f>
+        <f t="shared" ref="O37:O44" si="39">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37" si="40">O37</f>
+        <f t="shared" ref="P37:P44" si="40">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37" si="41">P37</f>
+        <f t="shared" ref="Q37:Q50" si="41">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37" si="42">R37</f>
+        <f t="shared" ref="S37:S44" si="42">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37" si="43">S37</f>
+        <f t="shared" ref="T37:T44" si="43">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37" si="44">T37</f>
+        <f t="shared" ref="U37:U50" si="44">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37" si="45">V37</f>
+        <f t="shared" ref="W37:W44" si="45">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37" si="46">W37</f>
+        <f t="shared" ref="X37:X44" si="46">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37" si="47">X37</f>
+        <f t="shared" ref="Y37:Y50" si="47">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="48">Z37</f>
+        <f t="shared" ref="AA37:AA44" si="48">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37" si="49">AA37</f>
+        <f t="shared" ref="AB37:AB44" si="49">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37" si="50">AB37</f>
+        <f t="shared" ref="AC37:AC50" si="50">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -20141,7 +20143,7 @@
         <v>85</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" ref="M39:M40" si="51">L39</f>
+        <f t="shared" ref="M39:M52" si="51">L39</f>
         <v>85</v>
       </c>
       <c r="O39" s="12">
@@ -20153,7 +20155,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="16">
-        <f t="shared" ref="Q39:Q40" si="52">P39</f>
+        <f t="shared" ref="Q39:Q52" si="52">P39</f>
         <v>0</v>
       </c>
       <c r="R39" s="11">
@@ -20168,7 +20170,7 @@
         <v>90</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" ref="U39:U40" si="53">T39</f>
+        <f t="shared" ref="U39:U52" si="53">T39</f>
         <v>90</v>
       </c>
       <c r="W39" s="12">
@@ -20180,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="16">
-        <f t="shared" ref="Y39:Y40" si="54">X39</f>
+        <f t="shared" ref="Y39:Y52" si="54">X39</f>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
@@ -20192,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" ref="AC39:AC40" si="55">AB39</f>
+        <f t="shared" ref="AC39:AC52" si="55">AB39</f>
         <v>0</v>
       </c>
     </row>
@@ -20223,11 +20225,11 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40" si="56">J40</f>
+        <f t="shared" ref="K40:K47" si="56">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40" si="57">K40</f>
+        <f t="shared" ref="L40:L47" si="57">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
@@ -20238,11 +20240,11 @@
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40" si="58">N40</f>
+        <f t="shared" ref="O40:O47" si="58">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40" si="59">O40</f>
+        <f t="shared" ref="P40:P47" si="59">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
@@ -20253,11 +20255,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40" si="60">R40</f>
+        <f t="shared" ref="S40:S47" si="60">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40" si="61">S40</f>
+        <f t="shared" ref="T40:T47" si="61">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
@@ -20268,11 +20270,11 @@
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40" si="62">V40</f>
+        <f t="shared" ref="W40:W47" si="62">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40" si="63">W40</f>
+        <f t="shared" ref="X40:X47" si="63">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
@@ -20283,11 +20285,11 @@
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="64">Z40</f>
+        <f t="shared" ref="AA40:AA47" si="64">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40" si="65">AA40</f>
+        <f t="shared" ref="AB40:AB47" si="65">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
@@ -20547,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M44" si="66">L43</f>
+        <f t="shared" ref="M43:M56" si="66">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -20562,7 +20564,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q44" si="67">P43</f>
+        <f t="shared" ref="Q43:Q56" si="67">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -20577,7 +20579,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U44" si="68">T43</f>
+        <f t="shared" ref="U43:U56" si="68">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -20592,7 +20594,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y44" si="69">X43</f>
+        <f t="shared" ref="Y43:Y56" si="69">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -20607,7 +20609,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC44" si="70">AB43</f>
+        <f t="shared" ref="AC43:AC56" si="70">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -20638,11 +20640,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44" si="71">J44</f>
+        <f t="shared" ref="K44:K51" si="71">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44" si="72">K44</f>
+        <f t="shared" ref="L44:L51" si="72">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -20653,11 +20655,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44" si="73">N44</f>
+        <f t="shared" ref="O44:O51" si="73">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44" si="74">O44</f>
+        <f t="shared" ref="P44:P51" si="74">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -20668,11 +20670,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44" si="75">R44</f>
+        <f t="shared" ref="S44:S51" si="75">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44" si="76">S44</f>
+        <f t="shared" ref="T44:T51" si="76">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -20680,11 +20682,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44" si="77">V44</f>
+        <f t="shared" ref="W44:W51" si="77">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44" si="78">W44</f>
+        <f t="shared" ref="X44:X51" si="78">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -20695,11 +20697,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44" si="79">Z44</f>
+        <f t="shared" ref="AA44:AA51" si="79">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44" si="80">AA44</f>
+        <f t="shared" ref="AB44:AB51" si="80">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -20953,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47" si="81">L47</f>
+        <f t="shared" ref="M47:M60" si="81">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -20968,7 +20970,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47" si="82">P47</f>
+        <f t="shared" ref="Q47:Q60" si="82">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -20983,7 +20985,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47" si="83">T47</f>
+        <f t="shared" ref="U47:U60" si="83">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -20995,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47" si="84">X47</f>
+        <f t="shared" ref="Y47:Y60" si="84">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -21010,7 +21012,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47" si="85">AB47</f>
+        <f t="shared" ref="AC47:AC60" si="85">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -21053,7 +21055,7 @@
         <v>0.5</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" ref="L48:L52" si="88">K48</f>
+        <f t="shared" ref="L48:L77" si="88">K48</f>
         <v>0.5</v>
       </c>
       <c r="M48" s="16">
@@ -21065,7 +21067,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48:P52" si="90">O48</f>
+        <f t="shared" ref="P48:P77" si="90">O48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
@@ -21080,7 +21082,7 @@
         <v>0.25</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T52" si="92">S48</f>
+        <f t="shared" ref="T48:T77" si="92">S48</f>
         <v>0.25</v>
       </c>
       <c r="U48" s="16">
@@ -21095,7 +21097,7 @@
         <v>0.5</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" ref="X48:X52" si="94">W48</f>
+        <f t="shared" ref="X48:X77" si="94">W48</f>
         <v>0.5</v>
       </c>
       <c r="Y48" s="16">
@@ -21110,7 +21112,7 @@
         <v>0.25</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="AB48:AB52" si="96">AA48</f>
+        <f t="shared" ref="AB48:AB77" si="96">AA48</f>
         <v>0.25</v>
       </c>
       <c r="AC48" s="16">
@@ -21874,19 +21876,19 @@
         <v>4</v>
       </c>
       <c r="H56" s="15">
-        <f>G53*(0.25+G56)</f>
-        <v>20.400000000000002</v>
+        <f>(G53*0.25)+G56</f>
+        <v>5.2</v>
       </c>
       <c r="I56" s="19">
         <f>(H53*0.5)+H56</f>
-        <v>22.200000000000003</v>
+        <v>7</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" si="99"/>
+        <f>$C56*J56</f>
         <v>0</v>
       </c>
       <c r="L56" s="15">
-        <f>K53*(0.25+K56)</f>
+        <f>(K53*0.25)+K56</f>
         <v>0</v>
       </c>
       <c r="M56" s="19">
@@ -21894,11 +21896,11 @@
         <v>0</v>
       </c>
       <c r="O56" s="12">
-        <f t="shared" si="100"/>
+        <f>$C56*N56</f>
         <v>0</v>
       </c>
       <c r="P56" s="15">
-        <f>O53*(0.25+O56)</f>
+        <f>(O53*0.25)+O56</f>
         <v>0</v>
       </c>
       <c r="Q56" s="19">
@@ -21909,38 +21911,38 @@
         <v>0.5</v>
       </c>
       <c r="S56" s="12">
-        <f t="shared" si="101"/>
+        <f>$C56*R56</f>
         <v>0.4</v>
       </c>
       <c r="T56" s="15">
-        <f>S53*(0.25+S56)</f>
-        <v>0.52</v>
+        <f>(S53*0.25)+S56</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="U56" s="19">
         <f>(T53*0.5)+T56</f>
-        <v>0.82000000000000006</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="V56" s="11">
         <v>0.75</v>
       </c>
       <c r="W56" s="12">
-        <f t="shared" si="102"/>
+        <f>$C56*V56</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="X56" s="15">
-        <f>W53*(0.25+W56)</f>
-        <v>0.81600000000000006</v>
+        <f>(W53*0.25)+W56</f>
+        <v>0.84000000000000008</v>
       </c>
       <c r="Y56" s="19">
         <f>(X53*0.5)+X56</f>
-        <v>1.1760000000000002</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="AA56" s="12">
-        <f t="shared" si="103"/>
+        <f>$C56*Z56</f>
         <v>0</v>
       </c>
       <c r="AB56" s="15">
-        <f>AA53*(0.25+AA56)</f>
+        <f>(AA53*0.25)+AA56</f>
         <v>0.1</v>
       </c>
       <c r="AC56" s="19">
@@ -21973,19 +21975,19 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H57" s="15">
-        <f>G54*(0.25+G57)</f>
-        <v>86.880000000000024</v>
+        <f>(G54*0.25)+G57</f>
+        <v>11.200000000000001</v>
       </c>
       <c r="I57" s="19">
         <f>(H54*0.5)+H57</f>
-        <v>90.480000000000018</v>
+        <v>14.8</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="K57:K66" si="104">$C57*J57</f>
         <v>0</v>
       </c>
       <c r="L57" s="15">
-        <f>K54*(0.25+K57)</f>
+        <f>(K54*0.25)+K57</f>
         <v>0</v>
       </c>
       <c r="M57" s="19">
@@ -21993,11 +21995,11 @@
         <v>0</v>
       </c>
       <c r="O57" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="O57:O66" si="105">$C57*N57</f>
         <v>0</v>
       </c>
       <c r="P57" s="15">
-        <f>O54*(0.25+O57)</f>
+        <f>(O54*0.25)+O57</f>
         <v>0</v>
       </c>
       <c r="Q57" s="19">
@@ -22008,11 +22010,11 @@
         <v>0</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="S57:S66" si="106">$C57*R57</f>
         <v>0</v>
       </c>
       <c r="T57" s="15">
-        <f>S54*(0.25+S57)</f>
+        <f>(S54*0.25)+S57</f>
         <v>0</v>
       </c>
       <c r="U57" s="19">
@@ -22023,23 +22025,23 @@
         <v>0.3</v>
       </c>
       <c r="W57" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="W57:W66" si="107">$C57*V57</f>
         <v>0.24</v>
       </c>
       <c r="X57" s="15">
-        <f>W54*(0.25+W57)</f>
-        <v>0.19600000000000001</v>
+        <f>(W54*0.25)+W57</f>
+        <v>0.33999999999999997</v>
       </c>
       <c r="Y57" s="19">
         <f>(X54*0.5)+X57</f>
-        <v>0.34600000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="AA57:AA66" si="108">$C57*Z57</f>
         <v>0</v>
       </c>
       <c r="AB57" s="15">
-        <f>AA54*(0.25+AA57)</f>
+        <f>(AA54*0.25)+AA57</f>
         <v>0</v>
       </c>
       <c r="AC57" s="19">
@@ -22072,7 +22074,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="15">
-        <f>G55*(0.25+G58)</f>
+        <f>(G55*0.25)+G58</f>
         <v>0</v>
       </c>
       <c r="I58" s="19">
@@ -22080,11 +22082,11 @@
         <v>0</v>
       </c>
       <c r="K58" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="L58" s="15">
-        <f>K55*(0.25+K58)</f>
+        <f>(K55*0.25)+K58</f>
         <v>0</v>
       </c>
       <c r="M58" s="19">
@@ -22092,11 +22094,11 @@
         <v>0</v>
       </c>
       <c r="O58" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P58" s="15">
-        <f>O55*(0.25+O58)</f>
+        <f>(O55*0.25)+O58</f>
         <v>0</v>
       </c>
       <c r="Q58" s="19">
@@ -22107,11 +22109,11 @@
         <v>0</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="T58" s="15">
-        <f>S55*(0.25+S58)</f>
+        <f>(S55*0.25)+S58</f>
         <v>0</v>
       </c>
       <c r="U58" s="19">
@@ -22122,11 +22124,11 @@
         <v>0</v>
       </c>
       <c r="W58" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="X58" s="15">
-        <f>W55*(0.25+W58)</f>
+        <f>(W55*0.25)+W58</f>
         <v>0.1</v>
       </c>
       <c r="Y58" s="19">
@@ -22134,11 +22136,11 @@
         <v>0.25</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB58" s="15">
-        <f>AA55*(0.25+AA58)</f>
+        <f>(AA55*0.25)+AA58</f>
         <v>0</v>
       </c>
       <c r="AC58" s="19">
@@ -22163,7 +22165,7 @@
         <v>9.6</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" ref="G59:H93" si="104">F59</f>
+        <f t="shared" ref="G59:H93" si="109">F59</f>
         <v>9.6</v>
       </c>
       <c r="H59" s="15">
@@ -22175,11 +22177,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K60" si="105">J59</f>
+        <f t="shared" ref="K59:K93" si="110">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" ref="L59:L77" si="106">K59</f>
+        <f t="shared" ref="L59:L88" si="111">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
@@ -22187,11 +22189,11 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O60" si="107">N59</f>
+        <f t="shared" ref="O59:O93" si="112">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f t="shared" ref="P59:P77" si="108">O59</f>
+        <f t="shared" ref="P59:P88" si="113">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
@@ -22202,11 +22204,11 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S60" si="109">R59</f>
+        <f t="shared" ref="S59:S93" si="114">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" ref="T59:T77" si="110">S59</f>
+        <f t="shared" ref="T59:T88" si="115">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
@@ -22214,11 +22216,11 @@
         <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W60" si="111">V59</f>
+        <f t="shared" ref="W59:W93" si="116">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" ref="X59:X77" si="112">W59</f>
+        <f t="shared" ref="X59:X88" si="117">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
@@ -22226,11 +22228,11 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA60" si="113">Z59</f>
+        <f t="shared" ref="AA59:AA93" si="118">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" ref="AB59:AB77" si="114">AA59</f>
+        <f t="shared" ref="AB59:AB88" si="119">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
@@ -22255,7 +22257,7 @@
         <v>0.4</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.4</v>
       </c>
       <c r="H60" s="15">
@@ -22267,11 +22269,11 @@
         <v>0</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M60" s="16">
@@ -22279,11 +22281,11 @@
         <v>0</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P60" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q60" s="16">
@@ -22294,11 +22296,11 @@
         <v>2</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="T60" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>2</v>
       </c>
       <c r="U60" s="16">
@@ -22306,11 +22308,11 @@
         <v>0</v>
       </c>
       <c r="W60" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="X60" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y60" s="16">
@@ -22318,11 +22320,11 @@
         <v>0</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AB60" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC60" s="16">
@@ -22365,7 +22367,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M61" s="16">
@@ -22377,7 +22379,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
@@ -22392,7 +22394,7 @@
         <v>1800</v>
       </c>
       <c r="T61" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>1800</v>
       </c>
       <c r="U61" s="16">
@@ -22404,7 +22406,7 @@
         <v>97.5</v>
       </c>
       <c r="X61" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>97.5</v>
       </c>
       <c r="Y61" s="16">
@@ -22416,7 +22418,7 @@
         <v>50</v>
       </c>
       <c r="AB61" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>50</v>
       </c>
       <c r="AC61" s="16">
@@ -22441,7 +22443,7 @@
         <v>9.6</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>9.6</v>
       </c>
       <c r="H62" s="15">
@@ -22453,11 +22455,11 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K67" si="115">J62</f>
+        <f t="shared" ref="K62:K93" si="120">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M62" s="16">
@@ -22465,11 +22467,11 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O67" si="116">N62</f>
+        <f t="shared" ref="O62:O93" si="121">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
@@ -22480,11 +22482,11 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S67" si="117">R62</f>
+        <f t="shared" ref="S62:S93" si="122">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>3.5</v>
       </c>
       <c r="U62" s="16">
@@ -22495,11 +22497,11 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W67" si="118">V62</f>
+        <f t="shared" ref="W62:W93" si="123">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>10</v>
       </c>
       <c r="Y62" s="16">
@@ -22510,11 +22512,11 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA67" si="119">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="124">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>10</v>
       </c>
       <c r="AC62" s="16">
@@ -22539,7 +22541,7 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.4</v>
       </c>
       <c r="H63" s="15">
@@ -22551,11 +22553,11 @@
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M63" s="16">
@@ -22563,11 +22565,11 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
@@ -22578,11 +22580,11 @@
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>2</v>
       </c>
       <c r="U63" s="16">
@@ -22593,11 +22595,11 @@
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="X63" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
       <c r="Y63" s="16">
@@ -22608,11 +22610,11 @@
         <v>1</v>
       </c>
       <c r="AA63" s="12">
+        <f t="shared" si="124"/>
+        <v>1</v>
+      </c>
+      <c r="AB63" s="15">
         <f t="shared" si="119"/>
-        <v>1</v>
-      </c>
-      <c r="AB63" s="15">
-        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AC63" s="16">
@@ -22637,7 +22639,7 @@
         <v>115</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>115</v>
       </c>
       <c r="H64" s="15">
@@ -22649,11 +22651,11 @@
         <v>236</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M64" s="16">
@@ -22661,11 +22663,11 @@
         <v>236</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
@@ -22676,11 +22678,11 @@
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>50</v>
       </c>
       <c r="U64" s="16">
@@ -22691,11 +22693,11 @@
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="X64" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>5</v>
       </c>
       <c r="Y64" s="16">
@@ -22706,11 +22708,11 @@
         <v>3</v>
       </c>
       <c r="AA64" s="12">
+        <f t="shared" si="124"/>
+        <v>3</v>
+      </c>
+      <c r="AB64" s="15">
         <f t="shared" si="119"/>
-        <v>3</v>
-      </c>
-      <c r="AB64" s="15">
-        <f t="shared" si="114"/>
         <v>3</v>
       </c>
       <c r="AC64" s="16">
@@ -22730,7 +22732,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
       <c r="G65" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H65" s="15">
@@ -22742,11 +22744,11 @@
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M65" s="16">
@@ -22754,11 +22756,11 @@
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="P65" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q65" s="16">
@@ -22766,11 +22768,11 @@
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="T65" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U65" s="16">
@@ -22778,11 +22780,11 @@
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="X65" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y65" s="16">
@@ -22790,11 +22792,11 @@
         <v>0</v>
       </c>
       <c r="AA65" s="12">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="15">
         <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AB65" s="15">
-        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
@@ -22814,7 +22816,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
       <c r="G66" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H66" s="15">
@@ -22826,11 +22828,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M66" s="16">
@@ -22838,11 +22840,11 @@
         <v>0</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="P66" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q66" s="16">
@@ -22850,11 +22852,11 @@
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U66" s="16">
@@ -22862,11 +22864,11 @@
         <v>0</v>
       </c>
       <c r="W66" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y66" s="16">
@@ -22874,11 +22876,11 @@
         <v>0</v>
       </c>
       <c r="AA66" s="12">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="15">
         <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="15">
-        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AC66" s="16">
@@ -22898,7 +22900,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
       <c r="G67" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H67" s="15">
@@ -22906,67 +22908,67 @@
         <v>0</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" ref="I67:I93" si="120">H67</f>
+        <f t="shared" ref="I67:I93" si="125">H67</f>
         <v>0</v>
       </c>
       <c r="K67" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="15">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="16">
+        <f t="shared" ref="M67:M93" si="126">L67</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="15">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="16">
+        <f t="shared" ref="Q67:Q93" si="127">P67</f>
+        <v>0</v>
+      </c>
+      <c r="S67" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="15">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="L67" s="15">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="16">
-        <f t="shared" ref="M67:M77" si="121">L67</f>
-        <v>0</v>
-      </c>
-      <c r="O67" s="12">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="15">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="16">
-        <f t="shared" ref="Q67:Q77" si="122">P67</f>
-        <v>0</v>
-      </c>
-      <c r="S67" s="12">
+      <c r="U67" s="16">
+        <f t="shared" ref="U67:U93" si="128">T67</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="15">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="T67" s="15">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="16">
-        <f t="shared" ref="U67:U77" si="123">T67</f>
-        <v>0</v>
-      </c>
-      <c r="W67" s="12">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="15">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
       <c r="Y67" s="16">
-        <f t="shared" ref="Y67:Y77" si="124">X67</f>
+        <f t="shared" ref="Y67:Y93" si="129">X67</f>
         <v>0</v>
       </c>
       <c r="AA67" s="12">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="15">
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AB67" s="15">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
       <c r="AC67" s="16">
-        <f t="shared" ref="AC67:AC77" si="125">AB67</f>
+        <f t="shared" ref="AC67:AC93" si="130">AB67</f>
         <v>0</v>
       </c>
     </row>
@@ -22987,7 +22989,7 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" ref="G68:G70" si="126">$C68*F68</f>
+        <f t="shared" ref="G68:G70" si="131">$C68*F68</f>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="H68" s="15">
@@ -22995,82 +22997,82 @@
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" ref="K68:K70" si="127">$C68*J68</f>
+        <f t="shared" ref="K68:K70" si="132">$C68*J68</f>
         <v>0</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" ref="O68:O70" si="128">$C68*N68</f>
+        <f t="shared" ref="O68:O70" si="133">$C68*N68</f>
         <v>0</v>
       </c>
       <c r="P68" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" ref="S68:S70" si="129">$C68*R68</f>
+        <f t="shared" ref="S68:S70" si="134">$C68*R68</f>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" ref="W68:W70" si="130">$C68*V68</f>
+        <f t="shared" ref="W68:W70" si="135">$C68*V68</f>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="Y68" s="16">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" ref="AA68:AA70" si="131">$C68*Z68</f>
+        <f t="shared" ref="AA68:AA70" si="136">$C68*Z68</f>
         <v>0</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23091,7 +23093,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H69" s="15">
@@ -23099,82 +23101,82 @@
         <v>0</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
       </c>
       <c r="K69" s="12">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="15">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="16">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+      <c r="O69" s="12">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="15">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="16">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="L69" s="15">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="16">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="11">
-        <v>0</v>
-      </c>
-      <c r="O69" s="12">
+      <c r="R69" s="11">
+        <v>0</v>
+      </c>
+      <c r="S69" s="12">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="15">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="16">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="P69" s="15">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="16">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="11">
-        <v>0</v>
-      </c>
-      <c r="S69" s="12">
+      <c r="V69" s="11">
+        <v>0</v>
+      </c>
+      <c r="W69" s="12">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="15">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="16">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="T69" s="15">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="16">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="11">
-        <v>0</v>
-      </c>
-      <c r="W69" s="12">
+      <c r="Z69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="12">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="15">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="16">
         <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="15">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="16">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="12">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="15">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="16">
-        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
@@ -23195,7 +23197,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H70" s="15">
@@ -23203,82 +23205,82 @@
         <v>0</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
       </c>
       <c r="K70" s="12">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="15">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="16">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="15">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="16">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="L70" s="15">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="16">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="11">
-        <v>0</v>
-      </c>
-      <c r="O70" s="12">
+      <c r="R70" s="11">
+        <v>0</v>
+      </c>
+      <c r="S70" s="12">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="15">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="16">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="P70" s="15">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="16">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="R70" s="11">
-        <v>0</v>
-      </c>
-      <c r="S70" s="12">
+      <c r="V70" s="11">
+        <v>0</v>
+      </c>
+      <c r="W70" s="12">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="15">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="16">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="T70" s="15">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="16">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="11">
-        <v>0</v>
-      </c>
-      <c r="W70" s="12">
+      <c r="Z70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="12">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="15">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="16">
         <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="15">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="16">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="12">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="15">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AC70" s="16">
-        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
@@ -23294,7 +23296,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
       <c r="G71" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H71" s="15">
@@ -23302,70 +23304,70 @@
         <v>0</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K77" si="132">J71</f>
+        <f t="shared" ref="K71:K93" si="137">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O77" si="133">N71</f>
+        <f t="shared" ref="O71:O93" si="138">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S77" si="134">R71</f>
+        <f t="shared" ref="S71:S93" si="139">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W77" si="135">V71</f>
+        <f t="shared" ref="W71:W93" si="140">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>90</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA77" si="136">Z71</f>
+        <f t="shared" ref="AA71:AA93" si="141">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23381,7 +23383,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
       <c r="G72" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H72" s="15">
@@ -23389,70 +23391,70 @@
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="X72" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23468,7 +23470,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
       <c r="G73" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H73" s="15">
@@ -23476,70 +23478,70 @@
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="138"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>100</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="X73" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23558,7 +23560,7 @@
         <v>50</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>50</v>
       </c>
       <c r="H74" s="15">
@@ -23566,73 +23568,73 @@
         <v>50</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="P74" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>40</v>
       </c>
     </row>
@@ -23651,7 +23653,7 @@
         <v>50</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>50</v>
       </c>
       <c r="H75" s="15">
@@ -23659,70 +23661,70 @@
         <v>50</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23738,7 +23740,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="G76" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H76" s="15">
@@ -23746,70 +23748,70 @@
         <v>0</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="P76" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>60</v>
       </c>
     </row>
@@ -23825,7 +23827,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="G77" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H77" s="15">
@@ -23833,67 +23835,67 @@
         <v>0</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="L77" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M77" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O77" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="P77" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q77" s="16">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S77" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="T77" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U77" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="W77" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="X77" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y77" s="16">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="AB77" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC77" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23914,7 +23916,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" ref="G78:G88" si="137">$C78*F78</f>
+        <f t="shared" ref="G78:G88" si="142">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
@@ -23926,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K88" si="138">$C78*J78</f>
+        <f t="shared" ref="K78:K88" si="143">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O88" si="139">$C78*N78</f>
+        <f t="shared" ref="O78:O88" si="144">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
@@ -23953,7 +23955,7 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S88" si="140">$C78*R78</f>
+        <f t="shared" ref="S78:S88" si="145">$C78*R78</f>
         <v>1</v>
       </c>
       <c r="T78" s="15">
@@ -23965,7 +23967,7 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W88" si="141">$C78*V78</f>
+        <f t="shared" ref="W78:W88" si="146">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
@@ -23977,7 +23979,7 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA88" si="142">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA88" si="147">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
@@ -24006,7 +24008,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H79" s="15">
@@ -24018,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
@@ -24030,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
@@ -24045,7 +24047,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>2.5</v>
       </c>
       <c r="T79" s="15">
@@ -24057,7 +24059,7 @@
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
@@ -24069,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
@@ -24101,7 +24103,7 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>0.1</v>
       </c>
       <c r="H80" s="15">
@@ -24109,14 +24111,14 @@
         <v>0.2</v>
       </c>
       <c r="I80" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0.2</v>
       </c>
       <c r="J80" s="11">
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
@@ -24124,14 +24126,14 @@
         <v>1</v>
       </c>
       <c r="M80" s="16">
-        <f t="shared" ref="M80:M81" si="143">L80</f>
+        <f t="shared" ref="M80:M93" si="148">L80</f>
         <v>1</v>
       </c>
       <c r="N80" s="11">
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
@@ -24139,14 +24141,14 @@
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
-        <f t="shared" ref="Q80:Q81" si="144">P80</f>
+        <f t="shared" ref="Q80:Q93" si="149">P80</f>
         <v>2.5</v>
       </c>
       <c r="R80" s="11">
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
@@ -24154,14 +24156,14 @@
         <v>1</v>
       </c>
       <c r="U80" s="16">
-        <f t="shared" ref="U80:U81" si="145">T80</f>
+        <f t="shared" ref="U80:U93" si="150">T80</f>
         <v>1</v>
       </c>
       <c r="V80" s="11">
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
@@ -24169,14 +24171,14 @@
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
-        <f t="shared" ref="Y80:Y81" si="146">X80</f>
+        <f t="shared" ref="Y80:Y93" si="151">X80</f>
         <v>1.5</v>
       </c>
       <c r="Z80" s="11">
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="AB80" s="15">
@@ -24184,7 +24186,7 @@
         <v>2</v>
       </c>
       <c r="AC80" s="16">
-        <f t="shared" ref="AC80:AC81" si="147">AB80</f>
+        <f t="shared" ref="AC80:AC93" si="152">AB80</f>
         <v>2</v>
       </c>
     </row>
@@ -24208,7 +24210,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>35</v>
       </c>
       <c r="H81" s="15">
@@ -24216,14 +24218,14 @@
         <v>70</v>
       </c>
       <c r="I81" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>70</v>
       </c>
       <c r="J81" s="11">
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>30</v>
       </c>
       <c r="L81" s="15">
@@ -24231,14 +24233,14 @@
         <v>60</v>
       </c>
       <c r="M81" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>60</v>
       </c>
       <c r="N81" s="11">
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>2.5</v>
       </c>
       <c r="P81" s="15">
@@ -24246,14 +24248,14 @@
         <v>5</v>
       </c>
       <c r="Q81" s="16">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>5</v>
       </c>
       <c r="R81" s="11">
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>7.5</v>
       </c>
       <c r="T81" s="15">
@@ -24261,14 +24263,14 @@
         <v>15</v>
       </c>
       <c r="U81" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>15</v>
       </c>
       <c r="V81" s="11">
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>45</v>
       </c>
       <c r="X81" s="15">
@@ -24276,14 +24278,14 @@
         <v>90</v>
       </c>
       <c r="Y81" s="16">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>90</v>
       </c>
       <c r="Z81" s="11">
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>35</v>
       </c>
       <c r="AB81" s="15">
@@ -24291,7 +24293,7 @@
         <v>70</v>
       </c>
       <c r="AC81" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>70</v>
       </c>
     </row>
@@ -24312,7 +24314,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
@@ -24324,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
@@ -24336,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P82" s="15">
@@ -24351,7 +24353,7 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
@@ -24366,7 +24368,7 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
@@ -24378,7 +24380,7 @@
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
@@ -24407,7 +24409,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
@@ -24419,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
@@ -24431,7 +24433,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
@@ -24446,7 +24448,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>40</v>
       </c>
       <c r="T83" s="15">
@@ -24461,7 +24463,7 @@
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>2.5</v>
       </c>
       <c r="X83" s="15">
@@ -24473,7 +24475,7 @@
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
@@ -24499,81 +24501,81 @@
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
       <c r="G84" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0.1</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="148">K84</f>
+        <f t="shared" ref="L84:L93" si="153">K84</f>
         <v>0.1</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="149">L84</f>
+        <f t="shared" ref="M84:M93" si="154">L84</f>
         <v>0.1</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="150">O84</f>
+        <f t="shared" ref="P84:P93" si="155">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="151">P84</f>
+        <f t="shared" ref="Q84:Q93" si="156">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>1</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="152">S84</f>
+        <f t="shared" ref="T84:T93" si="157">S84</f>
         <v>1</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="153">T84</f>
+        <f t="shared" ref="U84:U93" si="158">T84</f>
         <v>1</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="154">W84</f>
+        <f t="shared" ref="X84:X93" si="159">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="155">X84</f>
+        <f t="shared" ref="Y84:Y93" si="160">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="156">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="161">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="157">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="162">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -24591,81 +24593,81 @@
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
       <c r="G85" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H85" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>30</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>30</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="154"/>
         <v>30</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>45</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>45</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>45</v>
       </c>
       <c r="W85" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
     </row>
@@ -24686,90 +24688,90 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>0.25</v>
       </c>
       <c r="H86" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.25</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0.25</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0.2</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>0.2</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="154"/>
         <v>0.2</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>0.1</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0.1</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0.1</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>2</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>2</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>2</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>0.5</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.5</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0.5</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0.75</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0.75</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0.75</v>
       </c>
     </row>
@@ -24790,90 +24792,90 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>35</v>
       </c>
       <c r="H87" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>35</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>35</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>30</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>30</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="154"/>
         <v>30</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>35</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>35</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>35</v>
       </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>50</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>50</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>50</v>
       </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>45</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>45</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>45</v>
       </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>35</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>35</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>35</v>
       </c>
     </row>
@@ -24891,75 +24893,75 @@
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="G88" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="O88" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="Q88" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="S88" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="W88" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="Y88" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="AC88" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
     </row>
@@ -24975,75 +24977,75 @@
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
       <c r="G89" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K90" si="158">J89</f>
+        <f t="shared" ref="K89:K93" si="163">J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" ref="O89:O90" si="159">N89</f>
+        <f t="shared" ref="O89:O93" si="164">N89</f>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="Q89" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" ref="S89:S90" si="160">R89</f>
+        <f t="shared" ref="S89:S93" si="165">R89</f>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" ref="W89:W90" si="161">V89</f>
+        <f t="shared" ref="W89:W93" si="166">V89</f>
         <v>0</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="Y89" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA90" si="162">Z89</f>
+        <f t="shared" ref="AA89:AA93" si="167">Z89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="AC89" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
     </row>
@@ -25059,75 +25061,75 @@
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
       <c r="G90" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H90" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="15">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="16">
         <f t="shared" si="158"/>
         <v>0</v>
       </c>
-      <c r="L90" s="15">
-        <f t="shared" si="148"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="149"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
+      <c r="W90" s="12">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="15">
         <f t="shared" si="159"/>
         <v>0</v>
       </c>
-      <c r="P90" s="15">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="16">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="12">
+      <c r="Y90" s="16">
         <f t="shared" si="160"/>
         <v>0</v>
       </c>
-      <c r="T90" s="15">
-        <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="12">
+      <c r="AA90" s="12">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="15">
         <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="X90" s="15">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="12">
+      <c r="AC90" s="16">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="15">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AC90" s="16">
-        <f t="shared" si="157"/>
         <v>0</v>
       </c>
     </row>
@@ -25149,11 +25151,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -25161,11 +25163,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -25173,11 +25175,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -25188,11 +25190,11 @@
         <v>9</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>9</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>9</v>
       </c>
       <c r="W91" s="12">
@@ -25200,11 +25202,11 @@
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -25212,11 +25214,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
     </row>
@@ -25232,78 +25234,78 @@
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
       <c r="G92" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H92" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92:K93" si="163">J92</f>
+        <f t="shared" ref="K92:K93" si="168">J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92:O93" si="164">N92</f>
+        <f t="shared" ref="O92:O93" si="169">N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92:S93" si="165">R92</f>
+        <f t="shared" ref="S92:S93" si="170">R92</f>
         <v>1</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>1</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>1</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" ref="W92:W93" si="166">V92</f>
+        <f t="shared" ref="W92:W93" si="171">V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" ref="AA92:AA93" si="167">Z92</f>
+        <f t="shared" ref="AA92:AA93" si="172">Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
     </row>
@@ -25319,78 +25321,78 @@
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
       <c r="G93" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H93" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>5</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
     </row>
@@ -25403,8 +25405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30136,7 +30138,7 @@
         <v>0.5</v>
       </c>
       <c r="I50" s="16">
-        <f>$E50*H50</f>
+        <f t="shared" ref="I50:I55" si="81">$E50*H50</f>
         <v>2</v>
       </c>
       <c r="J50" s="11">
@@ -30151,7 +30153,7 @@
         <v>0.25</v>
       </c>
       <c r="M50" s="16">
-        <f>$E50*L50</f>
+        <f t="shared" ref="M50:M55" si="82">$E50*L50</f>
         <v>1</v>
       </c>
       <c r="O50" s="12">
@@ -30163,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="16">
-        <f>$E50*P50</f>
+        <f t="shared" ref="Q50:Q55" si="83">$E50*P50</f>
         <v>0</v>
       </c>
       <c r="R50" s="11">
@@ -30178,7 +30180,7 @@
         <v>0.125</v>
       </c>
       <c r="U50" s="16">
-        <f>$E50*T50</f>
+        <f t="shared" ref="U50:U55" si="84">$E50*T50</f>
         <v>0.5</v>
       </c>
       <c r="V50" s="11">
@@ -30193,7 +30195,7 @@
         <v>0.25</v>
       </c>
       <c r="Y50" s="16">
-        <f>$E50*X50</f>
+        <f t="shared" ref="Y50:Y55" si="85">$E50*X50</f>
         <v>1</v>
       </c>
       <c r="Z50" s="11">
@@ -30208,7 +30210,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC50" s="16">
-        <f>$E50*AB50</f>
+        <f t="shared" ref="AC50:AC55" si="86">$E50*AB50</f>
         <v>0.3</v>
       </c>
     </row>
@@ -30240,7 +30242,7 @@
         <v>0.375</v>
       </c>
       <c r="I51" s="16">
-        <f>$E51*H51</f>
+        <f t="shared" si="81"/>
         <v>1.5</v>
       </c>
       <c r="J51" s="11">
@@ -30255,7 +30257,7 @@
         <v>0.25</v>
       </c>
       <c r="M51" s="16">
-        <f>$E51*L51</f>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="O51" s="12">
@@ -30267,7 +30269,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="16">
-        <f>$E51*P51</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R51" s="11">
@@ -30282,7 +30284,7 @@
         <v>0.05</v>
       </c>
       <c r="U51" s="16">
-        <f>$E51*T51</f>
+        <f t="shared" si="84"/>
         <v>0.2</v>
       </c>
       <c r="V51" s="11">
@@ -30297,7 +30299,7 @@
         <v>0.125</v>
       </c>
       <c r="Y51" s="16">
-        <f>$E51*X51</f>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="Z51" s="11">
@@ -30312,7 +30314,7 @@
         <v>0.1</v>
       </c>
       <c r="AC51" s="16">
-        <f>$E51*AB51</f>
+        <f t="shared" si="86"/>
         <v>0.4</v>
       </c>
     </row>
@@ -30344,7 +30346,7 @@
         <v>0.25</v>
       </c>
       <c r="I52" s="16">
-        <f>$E52*H52</f>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="J52" s="11">
@@ -30359,7 +30361,7 @@
         <v>0.125</v>
       </c>
       <c r="M52" s="16">
-        <f>$E52*L52</f>
+        <f t="shared" si="82"/>
         <v>0.5</v>
       </c>
       <c r="O52" s="12">
@@ -30371,7 +30373,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="16">
-        <f>$E52*P52</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R52" s="11">
@@ -30386,7 +30388,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="U52" s="16">
-        <f>$E52*T52</f>
+        <f t="shared" si="84"/>
         <v>0.1</v>
       </c>
       <c r="V52" s="11">
@@ -30401,7 +30403,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Y52" s="16">
-        <f>$E52*X52</f>
+        <f t="shared" si="85"/>
         <v>0.3</v>
       </c>
       <c r="Z52" s="11">
@@ -30416,7 +30418,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC52" s="16">
-        <f>$E52*AB52</f>
+        <f t="shared" si="86"/>
         <v>0.02</v>
       </c>
     </row>
@@ -30449,7 +30451,7 @@
         <v>2.4750000000000001</v>
       </c>
       <c r="I53" s="16">
-        <f>$E53*H53</f>
+        <f t="shared" si="81"/>
         <v>1.2375</v>
       </c>
       <c r="J53" s="11">
@@ -30464,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="16">
-        <f>$E53*L53</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O53" s="12">
@@ -30476,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f>$E53*P53</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R53" s="11">
@@ -30491,7 +30493,7 @@
         <v>0.41250000000000003</v>
       </c>
       <c r="U53" s="16">
-        <f>$E53*T53</f>
+        <f t="shared" si="84"/>
         <v>0.20625000000000002</v>
       </c>
       <c r="V53" s="11">
@@ -30506,7 +30508,7 @@
         <v>0.495</v>
       </c>
       <c r="Y53" s="16">
-        <f>$E53*X53</f>
+        <f t="shared" si="85"/>
         <v>0.2475</v>
       </c>
       <c r="Z53" s="11">
@@ -30521,7 +30523,7 @@
         <v>0.20625000000000002</v>
       </c>
       <c r="AC53" s="16">
-        <f>$E53*AB53</f>
+        <f t="shared" si="86"/>
         <v>0.10312500000000001</v>
       </c>
     </row>
@@ -30554,7 +30556,7 @@
         <v>4.95</v>
       </c>
       <c r="I54" s="16">
-        <f>$E54*H54</f>
+        <f t="shared" si="81"/>
         <v>2.4750000000000001</v>
       </c>
       <c r="J54" s="11">
@@ -30569,7 +30571,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="16">
-        <f>$E54*L54</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O54" s="12">
@@ -30581,7 +30583,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="16">
-        <f>$E54*P54</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R54" s="11">
@@ -30596,7 +30598,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="16">
-        <f>$E54*T54</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="V54" s="11">
@@ -30611,7 +30613,7 @@
         <v>0.20625000000000002</v>
       </c>
       <c r="Y54" s="16">
-        <f>$E54*X54</f>
+        <f t="shared" si="85"/>
         <v>0.10312500000000001</v>
       </c>
       <c r="Z54" s="11">
@@ -30626,7 +30628,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="16">
-        <f>$E54*AB54</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
@@ -30659,7 +30661,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="16">
-        <f>$E55*H55</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="J55" s="11">
@@ -30674,7 +30676,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="16">
-        <f>$E55*L55</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O55" s="12">
@@ -30686,7 +30688,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="16">
-        <f>$E55*P55</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R55" s="11">
@@ -30701,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="16">
-        <f>$E55*T55</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="V55" s="11">
@@ -30716,7 +30718,7 @@
         <v>0.20625000000000002</v>
       </c>
       <c r="Y55" s="16">
-        <f>$E55*X55</f>
+        <f t="shared" si="85"/>
         <v>0.10312500000000001</v>
       </c>
       <c r="Z55" s="11">
@@ -30731,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="16">
-        <f>$E55*AB55</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
@@ -30760,19 +30762,19 @@
         <v>2.75</v>
       </c>
       <c r="H56" s="15">
-        <f>H53+(G56*0.25)</f>
-        <v>3.1625000000000001</v>
+        <f>(G53*0.25)+G56</f>
+        <v>3.5750000000000002</v>
       </c>
       <c r="I56" s="19">
         <f>(H53*0.5)+H56</f>
-        <v>4.4000000000000004</v>
+        <v>4.8125</v>
       </c>
       <c r="K56" s="12">
         <f>$C56*J56</f>
         <v>0</v>
       </c>
       <c r="L56" s="15">
-        <f>L53+(K56*0.25)</f>
+        <f>(K53*0.25)+K56</f>
         <v>0</v>
       </c>
       <c r="M56" s="19">
@@ -30784,7 +30786,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="15">
-        <f>P53+(O56*0.25)</f>
+        <f>(O53*0.25)+O56</f>
         <v>0</v>
       </c>
       <c r="Q56" s="19">
@@ -30799,12 +30801,12 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="T56" s="15">
-        <f>T53+(S56*0.25)</f>
-        <v>0.48125000000000007</v>
+        <f>(S53*0.25)+S56</f>
+        <v>0.41250000000000003</v>
       </c>
       <c r="U56" s="19">
         <f>(T53*0.5)+T56</f>
-        <v>0.68750000000000011</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="V56" s="11">
         <v>0.75</v>
@@ -30814,24 +30816,24 @@
         <v>0.41250000000000003</v>
       </c>
       <c r="X56" s="15">
-        <f>X53+(W56*0.25)</f>
-        <v>0.59812500000000002</v>
+        <f>(W53*0.25)+W56</f>
+        <v>0.57750000000000001</v>
       </c>
       <c r="Y56" s="19">
         <f>(X53*0.5)+X56</f>
-        <v>0.84562500000000007</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="AA56" s="12">
         <f>$C56*Z56</f>
         <v>0</v>
       </c>
       <c r="AB56" s="15">
-        <f>AB53+(AA56*0.25)</f>
-        <v>0.20625000000000002</v>
+        <f>(AA53*0.25)+AA56</f>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="AC56" s="19">
         <f>(AB53*0.5)+AB56</f>
-        <v>0.30937500000000001</v>
+        <v>0.171875</v>
       </c>
     </row>
     <row r="57" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -30859,19 +30861,19 @@
         <v>6.0500000000000007</v>
       </c>
       <c r="H57" s="15">
-        <f>H54+(G57*0.25)</f>
-        <v>6.4625000000000004</v>
+        <f>(G54*0.25)+G57</f>
+        <v>7.7000000000000011</v>
       </c>
       <c r="I57" s="19">
         <f>(H54*0.5)+H57</f>
-        <v>8.9375</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="K57" s="12">
         <f>$C57*J57</f>
         <v>0</v>
       </c>
       <c r="L57" s="15">
-        <f>L54+(K57*0.25)</f>
+        <f>(K54*0.25)+K57</f>
         <v>0</v>
       </c>
       <c r="M57" s="19">
@@ -30883,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="15">
-        <f>P54+(O57*0.25)</f>
+        <f>(O54*0.25)+O57</f>
         <v>0</v>
       </c>
       <c r="Q57" s="19">
@@ -30898,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="15">
-        <f>T54+(S57*0.25)</f>
+        <f>(S54*0.25)+S57</f>
         <v>0</v>
       </c>
       <c r="U57" s="19">
@@ -30913,19 +30915,19 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="X57" s="15">
-        <f>X54+(W57*0.25)</f>
-        <v>0.24750000000000003</v>
+        <f>(W54*0.25)+W57</f>
+        <v>0.23375000000000001</v>
       </c>
       <c r="Y57" s="19">
         <f>(X54*0.5)+X57</f>
-        <v>0.35062500000000002</v>
+        <v>0.33687500000000004</v>
       </c>
       <c r="AA57" s="12">
         <f>$C57*Z57</f>
         <v>0</v>
       </c>
       <c r="AB57" s="15">
-        <f>AB54+(AA57*0.25)</f>
+        <f>(AA54*0.25)+AA57</f>
         <v>0</v>
       </c>
       <c r="AC57" s="19">
@@ -30958,7 +30960,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="15">
-        <f>H55+(G58*0.25)</f>
+        <f>(G55*0.25)+G58</f>
         <v>0</v>
       </c>
       <c r="I58" s="19">
@@ -30970,7 +30972,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="15">
-        <f>L55+(K58*0.25)</f>
+        <f>(K55*0.25)+K58</f>
         <v>0</v>
       </c>
       <c r="M58" s="19">
@@ -30982,7 +30984,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="15">
-        <f>P55+(O58*0.25)</f>
+        <f>(O55*0.25)+O58</f>
         <v>0</v>
       </c>
       <c r="Q58" s="19">
@@ -30997,7 +30999,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="15">
-        <f>T55+(S58*0.25)</f>
+        <f>(S55*0.25)+S58</f>
         <v>0</v>
       </c>
       <c r="U58" s="19">
@@ -31012,19 +31014,19 @@
         <v>0</v>
       </c>
       <c r="X58" s="15">
-        <f>X55+(W58*0.25)</f>
-        <v>0.20625000000000002</v>
+        <f>(W55*0.25)+W58</f>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="Y58" s="19">
         <f>(X55*0.5)+X58</f>
-        <v>0.30937500000000001</v>
+        <v>0.171875</v>
       </c>
       <c r="AA58" s="12">
         <f>$C58*Z58</f>
         <v>0</v>
       </c>
       <c r="AB58" s="15">
-        <f>AB55+(AA58*0.25)</f>
+        <f>(AA55*0.25)+AA58</f>
         <v>0</v>
       </c>
       <c r="AC58" s="19">
@@ -31047,11 +31049,11 @@
         <v>9.6</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" ref="G59:H93" si="81">F59</f>
+        <f t="shared" ref="G59:H93" si="87">F59</f>
         <v>9.6</v>
       </c>
       <c r="H59" s="15">
-        <f t="shared" ref="H59:H77" si="82">G59</f>
+        <f t="shared" ref="H59:H77" si="88">G59</f>
         <v>9.6</v>
       </c>
       <c r="I59" s="16">
@@ -31059,11 +31061,11 @@
         <v>9.6</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K93" si="83">J59</f>
+        <f t="shared" ref="K59:K93" si="89">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" ref="L59:L77" si="84">K59</f>
+        <f t="shared" ref="L59:L77" si="90">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
@@ -31071,11 +31073,11 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O93" si="85">N59</f>
+        <f t="shared" ref="O59:O93" si="91">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f t="shared" ref="P59:P77" si="86">O59</f>
+        <f t="shared" ref="P59:P77" si="92">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
@@ -31086,11 +31088,11 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S93" si="87">R59</f>
+        <f t="shared" ref="S59:S93" si="93">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" ref="T59:T77" si="88">S59</f>
+        <f t="shared" ref="T59:T77" si="94">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
@@ -31098,11 +31100,11 @@
         <v>3.5</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W93" si="89">V59</f>
+        <f t="shared" ref="W59:W93" si="95">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" ref="X59:X77" si="90">W59</f>
+        <f t="shared" ref="X59:X77" si="96">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
@@ -31110,11 +31112,11 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA93" si="91">Z59</f>
+        <f t="shared" ref="AA59:AA93" si="97">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" ref="AB59:AB77" si="92">AA59</f>
+        <f t="shared" ref="AB59:AB77" si="98">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
@@ -31137,11 +31139,11 @@
         <v>0.4</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0.4</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.4</v>
       </c>
       <c r="I60" s="16">
@@ -31149,11 +31151,11 @@
         <v>0.4</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M60" s="16">
@@ -31161,11 +31163,11 @@
         <v>0</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="P60" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q60" s="16">
@@ -31176,11 +31178,11 @@
         <v>2</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>2</v>
       </c>
       <c r="T60" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>2</v>
       </c>
       <c r="U60" s="16">
@@ -31188,11 +31190,11 @@
         <v>2</v>
       </c>
       <c r="W60" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="X60" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y60" s="16">
@@ -31200,11 +31202,11 @@
         <v>0</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AB60" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AC60" s="16">
@@ -31235,7 +31237,7 @@
         <v>124</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>124</v>
       </c>
       <c r="I61" s="16">
@@ -31247,7 +31249,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M61" s="16">
@@ -31259,7 +31261,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
@@ -31274,7 +31276,7 @@
         <v>2675</v>
       </c>
       <c r="T61" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>2675</v>
       </c>
       <c r="U61" s="16">
@@ -31286,7 +31288,7 @@
         <v>146.25</v>
       </c>
       <c r="X61" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>146.25</v>
       </c>
       <c r="Y61" s="16">
@@ -31298,7 +31300,7 @@
         <v>75</v>
       </c>
       <c r="AB61" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>75</v>
       </c>
       <c r="AC61" s="16">
@@ -31323,11 +31325,11 @@
         <v>9.6</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>9.6</v>
       </c>
       <c r="H62" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>9.6</v>
       </c>
       <c r="I62" s="16">
@@ -31335,11 +31337,11 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="93">J62</f>
+        <f t="shared" ref="K62:K93" si="99">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M62" s="16">
@@ -31347,11 +31349,11 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="94">N62</f>
+        <f t="shared" ref="O62:O93" si="100">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
@@ -31362,11 +31364,11 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="95">R62</f>
+        <f t="shared" ref="S62:S93" si="101">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>3.5</v>
       </c>
       <c r="U62" s="16">
@@ -31377,11 +31379,11 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="96">V62</f>
+        <f t="shared" ref="W62:W93" si="102">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>10</v>
       </c>
       <c r="Y62" s="16">
@@ -31392,11 +31394,11 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="97">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="103">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>10</v>
       </c>
       <c r="AC62" s="16">
@@ -31421,11 +31423,11 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0.4</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.4</v>
       </c>
       <c r="I63" s="16">
@@ -31433,11 +31435,11 @@
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M63" s="16">
@@ -31445,11 +31447,11 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
@@ -31460,11 +31462,11 @@
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>2</v>
       </c>
       <c r="U63" s="16">
@@ -31475,11 +31477,11 @@
         <v>1</v>
       </c>
       <c r="W63" s="12">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="X63" s="15">
         <f t="shared" si="96"/>
-        <v>1</v>
-      </c>
-      <c r="X63" s="15">
-        <f t="shared" si="90"/>
         <v>1</v>
       </c>
       <c r="Y63" s="16">
@@ -31490,11 +31492,11 @@
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>1</v>
       </c>
       <c r="AB63" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="AC63" s="16">
@@ -31519,11 +31521,11 @@
         <v>115</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>115</v>
       </c>
       <c r="H64" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>115</v>
       </c>
       <c r="I64" s="16">
@@ -31531,11 +31533,11 @@
         <v>239</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M64" s="16">
@@ -31543,11 +31545,11 @@
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
@@ -31558,11 +31560,11 @@
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>50</v>
       </c>
       <c r="U64" s="16">
@@ -31573,11 +31575,11 @@
         <v>5</v>
       </c>
       <c r="W64" s="12">
+        <f t="shared" si="102"/>
+        <v>5</v>
+      </c>
+      <c r="X64" s="15">
         <f t="shared" si="96"/>
-        <v>5</v>
-      </c>
-      <c r="X64" s="15">
-        <f t="shared" si="90"/>
         <v>5</v>
       </c>
       <c r="Y64" s="16">
@@ -31588,11 +31590,11 @@
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>3</v>
       </c>
       <c r="AB64" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>3</v>
       </c>
       <c r="AC64" s="16">
@@ -31612,75 +31614,75 @@
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="G65" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="I65" s="16">
-        <f t="shared" ref="I65:I77" si="98">H65</f>
+        <f t="shared" ref="I65:I77" si="104">H65</f>
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M65" s="16">
-        <f t="shared" ref="M65:M77" si="99">L65</f>
+        <f t="shared" ref="M65:M77" si="105">L65</f>
         <v>0</v>
       </c>
       <c r="O65" s="12">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="15">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="16">
+        <f t="shared" ref="Q65:Q77" si="106">P65</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="15">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="P65" s="15">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="16">
-        <f t="shared" ref="Q65:Q77" si="100">P65</f>
-        <v>0</v>
-      </c>
-      <c r="S65" s="12">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="15">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
       <c r="U65" s="16">
-        <f t="shared" ref="U65:U77" si="101">T65</f>
+        <f t="shared" ref="U65:U77" si="107">T65</f>
         <v>0</v>
       </c>
       <c r="W65" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="15">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="X65" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
       <c r="Y65" s="16">
-        <f t="shared" ref="Y65:Y77" si="102">X65</f>
+        <f t="shared" ref="Y65:Y77" si="108">X65</f>
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AB65" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
-        <f t="shared" ref="AC65:AC77" si="103">AB65</f>
+        <f t="shared" ref="AC65:AC77" si="109">AB65</f>
         <v>0</v>
       </c>
     </row>
@@ -31696,75 +31698,75 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="G66" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H66" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="I66" s="16">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="12">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="15">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="16">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="12">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="15">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="15">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="16">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="15">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="12">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="15">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K66" s="12">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="15">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="16">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="12">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="15">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="16">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="12">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="15">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="16">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="12">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="16">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="12">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
       <c r="AC66" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -31780,75 +31782,75 @@
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="G67" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H67" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="I67" s="16">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="12">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="15">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="16">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="12">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="15">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="15">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="16">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="15">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="12">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="15">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K67" s="12">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="15">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="16">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="12">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="15">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="16">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="12">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="15">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="16">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="12">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="16">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="12">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
       <c r="AC67" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -31869,90 +31871,90 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" ref="G68:G70" si="104">$C68*F68</f>
+        <f t="shared" ref="G68:G70" si="110">$C68*F68</f>
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="H68" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" ref="K68:K70" si="105">$C68*J68</f>
+        <f t="shared" ref="K68:K70" si="111">$C68*J68</f>
         <v>0</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" ref="O68:O70" si="106">$C68*N68</f>
+        <f t="shared" ref="O68:O70" si="112">$C68*N68</f>
         <v>0</v>
       </c>
       <c r="P68" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" ref="S68:S70" si="107">$C68*R68</f>
+        <f t="shared" ref="S68:S70" si="113">$C68*R68</f>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" ref="W68:W70" si="108">$C68*V68</f>
+        <f t="shared" ref="W68:W70" si="114">$C68*V68</f>
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="Y68" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" ref="AA68:AA70" si="109">$C68*Z68</f>
+        <f t="shared" ref="AA68:AA70" si="115">$C68*Z68</f>
         <v>0</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -31973,90 +31975,90 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="15">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="16">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="H69" s="15">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="16">
+      <c r="J69" s="11">
+        <v>0</v>
+      </c>
+      <c r="K69" s="12">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="15">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="16">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+      <c r="O69" s="12">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="15">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="11">
+        <v>0</v>
+      </c>
+      <c r="S69" s="12">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="15">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="16">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="11">
+        <v>0</v>
+      </c>
+      <c r="W69" s="12">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="15">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="12">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="15">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="J69" s="11">
-        <v>0</v>
-      </c>
-      <c r="K69" s="12">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="15">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="16">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="11">
-        <v>0</v>
-      </c>
-      <c r="O69" s="12">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="15">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="16">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="11">
-        <v>0</v>
-      </c>
-      <c r="S69" s="12">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="15">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="16">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="11">
-        <v>0</v>
-      </c>
-      <c r="W69" s="12">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="16">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="12">
+      <c r="AC69" s="16">
         <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="16">
-        <f t="shared" si="103"/>
         <v>0</v>
       </c>
     </row>
@@ -32077,90 +32079,90 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="15">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="16">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="H70" s="15">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="16">
+      <c r="J70" s="11">
+        <v>0</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="15">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="16">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="15">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="11">
+        <v>0</v>
+      </c>
+      <c r="S70" s="12">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="15">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="16">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="11">
+        <v>0</v>
+      </c>
+      <c r="W70" s="12">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="15">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="12">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="15">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="J70" s="11">
-        <v>0</v>
-      </c>
-      <c r="K70" s="12">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="15">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="16">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="11">
-        <v>0</v>
-      </c>
-      <c r="O70" s="12">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="15">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="16">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="R70" s="11">
-        <v>0</v>
-      </c>
-      <c r="S70" s="12">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="T70" s="15">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="16">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="11">
-        <v>0</v>
-      </c>
-      <c r="W70" s="12">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="16">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="12">
+      <c r="AC70" s="16">
         <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AC70" s="16">
-        <f t="shared" si="103"/>
         <v>0</v>
       </c>
     </row>
@@ -32176,78 +32178,78 @@
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
       <c r="G71" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H71" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K93" si="110">J71</f>
+        <f t="shared" ref="K71:K93" si="116">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O93" si="111">N71</f>
+        <f t="shared" ref="O71:O93" si="117">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S93" si="112">R71</f>
+        <f t="shared" ref="S71:S93" si="118">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W93" si="113">V71</f>
+        <f t="shared" ref="W71:W93" si="119">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>90</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA93" si="114">Z71</f>
+        <f t="shared" ref="AA71:AA93" si="120">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -32263,78 +32265,78 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
       <c r="G72" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H72" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="X72" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -32350,78 +32352,78 @@
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
       <c r="G73" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H73" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>100</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="X73" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -32440,81 +32442,81 @@
         <v>50</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>50</v>
       </c>
       <c r="H74" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>50</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P74" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>40</v>
       </c>
     </row>
@@ -32533,78 +32535,78 @@
         <v>50</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>50</v>
       </c>
       <c r="H75" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>50</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -32620,78 +32622,78 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
       <c r="G76" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H76" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P76" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>60</v>
       </c>
     </row>
@@ -32707,75 +32709,75 @@
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
       <c r="G77" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H77" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="I77" s="16">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="12">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="15">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="16">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="15">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="16">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="12">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="15">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="16">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="15">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="16">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="15">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K77" s="12">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="15">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="16">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="12">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="15">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="16">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="12">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="15">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="16">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="12">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="X77" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="Y77" s="16">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="12">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
       <c r="AC77" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -32798,11 +32800,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" ref="G78:G88" si="115">$C78*F78</f>
+        <f t="shared" ref="G78:G88" si="121">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
-        <f t="shared" ref="H78:H82" si="116">G78*$D78</f>
+        <f t="shared" ref="H78:H82" si="122">G78*$D78</f>
         <v>0</v>
       </c>
       <c r="I78" s="16">
@@ -32810,11 +32812,11 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K88" si="117">$C78*J78</f>
+        <f t="shared" ref="K78:K88" si="123">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
-        <f t="shared" ref="L78:L82" si="118">K78*$D78</f>
+        <f t="shared" ref="L78:L82" si="124">K78*$D78</f>
         <v>0</v>
       </c>
       <c r="M78" s="16">
@@ -32822,11 +32824,11 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O88" si="119">$C78*N78</f>
+        <f t="shared" ref="O78:O88" si="125">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
-        <f t="shared" ref="P78:P82" si="120">O78*$D78</f>
+        <f t="shared" ref="P78:P82" si="126">O78*$D78</f>
         <v>0</v>
       </c>
       <c r="Q78" s="16">
@@ -32837,11 +32839,11 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S88" si="121">$C78*R78</f>
+        <f t="shared" ref="S78:S88" si="127">$C78*R78</f>
         <v>1</v>
       </c>
       <c r="T78" s="15">
-        <f t="shared" ref="T78:T82" si="122">S78*$D78</f>
+        <f t="shared" ref="T78:T82" si="128">S78*$D78</f>
         <v>1.5</v>
       </c>
       <c r="U78" s="16">
@@ -32849,11 +32851,11 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W88" si="123">$C78*V78</f>
+        <f t="shared" ref="W78:W88" si="129">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
-        <f t="shared" ref="X78:X82" si="124">W78*$D78</f>
+        <f t="shared" ref="X78:X82" si="130">W78*$D78</f>
         <v>0</v>
       </c>
       <c r="Y78" s="16">
@@ -32861,11 +32863,11 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA88" si="125">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA88" si="131">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
-        <f t="shared" ref="AB78:AB82" si="126">AA78*$D78</f>
+        <f t="shared" ref="AB78:AB82" si="132">AA78*$D78</f>
         <v>0</v>
       </c>
       <c r="AC78" s="16">
@@ -32892,7 +32894,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="H79" s="15">
@@ -32904,7 +32906,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
@@ -32916,7 +32918,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
@@ -32931,7 +32933,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>2.5</v>
       </c>
       <c r="T79" s="15">
@@ -32943,7 +32945,7 @@
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
@@ -32955,7 +32957,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
@@ -32987,11 +32989,11 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0.1</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0.2</v>
       </c>
       <c r="I80" s="16">
@@ -33002,11 +33004,11 @@
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" ref="L80:L84" si="127">K80*$D80</f>
+        <f t="shared" ref="L80:L84" si="133">K80*$D80</f>
         <v>1</v>
       </c>
       <c r="M80" s="16">
@@ -33017,11 +33019,11 @@
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" ref="P80:P84" si="128">O80*$D80</f>
+        <f t="shared" ref="P80:P84" si="134">O80*$D80</f>
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
@@ -33032,11 +33034,11 @@
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" ref="T80:T84" si="129">S80*$D80</f>
+        <f t="shared" ref="T80:T84" si="135">S80*$D80</f>
         <v>1</v>
       </c>
       <c r="U80" s="16">
@@ -33047,11 +33049,11 @@
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" ref="X80:X84" si="130">W80*$D80</f>
+        <f t="shared" ref="X80:X84" si="136">W80*$D80</f>
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
@@ -33062,11 +33064,11 @@
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" ref="AB80:AB84" si="131">AA80*$D80</f>
+        <f t="shared" ref="AB80:AB84" si="137">AA80*$D80</f>
         <v>2</v>
       </c>
       <c r="AC80" s="16">
@@ -33094,7 +33096,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>35</v>
       </c>
       <c r="H81" s="15">
@@ -33109,7 +33111,7 @@
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>30</v>
       </c>
       <c r="L81" s="15">
@@ -33124,7 +33126,7 @@
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>2.5</v>
       </c>
       <c r="P81" s="15">
@@ -33139,7 +33141,7 @@
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>7.5</v>
       </c>
       <c r="T81" s="15">
@@ -33154,7 +33156,7 @@
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>45</v>
       </c>
       <c r="X81" s="15">
@@ -33169,7 +33171,7 @@
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>35</v>
       </c>
       <c r="AB81" s="15">
@@ -33200,11 +33202,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="I82" s="16">
@@ -33212,11 +33214,11 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" ref="L82:L86" si="132">K82*$D82</f>
+        <f t="shared" ref="L82:L86" si="138">K82*$D82</f>
         <v>0</v>
       </c>
       <c r="M82" s="16">
@@ -33224,11 +33226,11 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" ref="P82:P86" si="133">O82*$D82</f>
+        <f t="shared" ref="P82:P86" si="139">O82*$D82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="16">
@@ -33239,11 +33241,11 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" ref="T82:T86" si="134">S82*$D82</f>
+        <f t="shared" ref="T82:T86" si="140">S82*$D82</f>
         <v>1.875</v>
       </c>
       <c r="U82" s="16">
@@ -33254,11 +33256,11 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
-        <f t="shared" ref="X82:X86" si="135">W82*$D82</f>
+        <f t="shared" ref="X82:X86" si="141">W82*$D82</f>
         <v>0.75</v>
       </c>
       <c r="Y82" s="16">
@@ -33266,11 +33268,11 @@
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
-        <f t="shared" ref="AB82:AB86" si="136">AA82*$D82</f>
+        <f t="shared" ref="AB82:AB86" si="142">AA82*$D82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="16">
@@ -33297,7 +33299,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
@@ -33309,7 +33311,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
@@ -33321,7 +33323,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
@@ -33336,7 +33338,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>40</v>
       </c>
       <c r="T83" s="15">
@@ -33351,7 +33353,7 @@
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>2.5</v>
       </c>
       <c r="X83" s="15">
@@ -33363,7 +33365,7 @@
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
@@ -33389,81 +33391,81 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="G84" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" ref="I84:I93" si="137">H84</f>
+        <f t="shared" ref="I84:I93" si="143">H84</f>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0.05</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="138">K84</f>
+        <f t="shared" ref="L84:L93" si="144">K84</f>
         <v>0.05</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="139">L84</f>
+        <f t="shared" ref="M84:M93" si="145">L84</f>
         <v>0.05</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="140">O84</f>
+        <f t="shared" ref="P84:P93" si="146">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="141">P84</f>
+        <f t="shared" ref="Q84:Q93" si="147">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0.5</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="142">S84</f>
+        <f t="shared" ref="T84:T93" si="148">S84</f>
         <v>0.5</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="143">T84</f>
+        <f t="shared" ref="U84:U93" si="149">T84</f>
         <v>0.5</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="144">W84</f>
+        <f t="shared" ref="X84:X93" si="150">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="145">X84</f>
+        <f t="shared" ref="Y84:Y93" si="151">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="146">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="152">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="147">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="153">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -33481,81 +33483,81 @@
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="G85" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="H85" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>15</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>15</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>15</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>22.5</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>22.5</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>22.5</v>
       </c>
       <c r="W85" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -33576,90 +33578,90 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0.125</v>
       </c>
       <c r="H86" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0.125</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>0.125</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0.1</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>0.1</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>0.1</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0.05</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>0.05</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>0.05</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>1</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>1</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>1</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0.25</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0.25</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0.25</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0.375</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0.375</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0.375</v>
       </c>
     </row>
@@ -33680,90 +33682,90 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>17.5</v>
       </c>
       <c r="H87" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>17.5</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>17.5</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>15</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>15</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>15</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>17.5</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>17.5</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>17.5</v>
       </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>25</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>25</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>25</v>
       </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>22.5</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>22.5</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>22.5</v>
       </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>17.5</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>17.5</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>17.5</v>
       </c>
     </row>
@@ -33781,75 +33783,75 @@
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="G88" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="O88" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="Q88" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="S88" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="W88" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="Y88" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AC88" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -33865,75 +33867,75 @@
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="G89" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K93" si="148">J89</f>
+        <f t="shared" ref="K89:K93" si="154">J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" ref="O89:O93" si="149">N89</f>
+        <f t="shared" ref="O89:O93" si="155">N89</f>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="Q89" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" ref="S89:S93" si="150">R89</f>
+        <f t="shared" ref="S89:S93" si="156">R89</f>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" ref="W89:W93" si="151">V89</f>
+        <f t="shared" ref="W89:W93" si="157">V89</f>
         <v>0</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="Y89" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA93" si="152">Z89</f>
+        <f t="shared" ref="AA89:AA93" si="158">Z89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AC89" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -33949,75 +33951,75 @@
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="G90" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H90" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="15">
         <f t="shared" si="148"/>
         <v>0</v>
       </c>
-      <c r="L90" s="15">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
+      <c r="U90" s="16">
         <f t="shared" si="149"/>
         <v>0</v>
       </c>
-      <c r="P90" s="15">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="16">
-        <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="12">
+      <c r="W90" s="12">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="15">
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="T90" s="15">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="143"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="12">
+      <c r="Y90" s="16">
         <f t="shared" si="151"/>
         <v>0</v>
       </c>
-      <c r="X90" s="15">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
       <c r="AA90" s="12">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="15">
         <f t="shared" si="152"/>
         <v>0</v>
       </c>
-      <c r="AB90" s="15">
-        <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
       <c r="AC90" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -34039,11 +34041,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -34051,11 +34053,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -34063,11 +34065,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -34078,11 +34080,11 @@
         <v>4.5</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>4.5</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>4.5</v>
       </c>
       <c r="W91" s="12">
@@ -34090,11 +34092,11 @@
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -34102,11 +34104,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -34122,78 +34124,78 @@
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="G92" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H92" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92:K93" si="153">J92</f>
+        <f t="shared" ref="K92:K93" si="159">J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92:O93" si="154">N92</f>
+        <f t="shared" ref="O92:O93" si="160">N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92:S93" si="155">R92</f>
+        <f t="shared" ref="S92:S93" si="161">R92</f>
         <v>1</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>1</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>1</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" ref="W92:W93" si="156">V92</f>
+        <f t="shared" ref="W92:W93" si="162">V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" ref="AA92:AA93" si="157">Z92</f>
+        <f t="shared" ref="AA92:AA93" si="163">Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -34209,78 +34211,78 @@
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
       <c r="G93" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H93" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="155"/>
+        <f t="shared" si="161"/>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>5</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" si="156"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
     </row>
@@ -47809,11 +47811,11 @@
       </c>
       <c r="G56">
         <f>'3_MechRemove_ModSeverity'!H56</f>
-        <v>20.400000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="H56">
         <f>'3_MechRemove_ModSeverity'!I56</f>
-        <v>22.200000000000003</v>
+        <v>7</v>
       </c>
       <c r="I56">
         <f>'3_MechRemove_HighSeverity'!G56</f>
@@ -47821,11 +47823,11 @@
       </c>
       <c r="J56">
         <f>'3_MechRemove_HighSeverity'!H56</f>
-        <v>3.1625000000000001</v>
+        <v>3.5750000000000002</v>
       </c>
       <c r="K56">
         <f>'3_MechRemove_HighSeverity'!I56</f>
-        <v>4.4000000000000004</v>
+        <v>4.8125</v>
       </c>
       <c r="L56">
         <f>'3_MechRemove_LowSeverity'!J56</f>
@@ -47929,11 +47931,11 @@
       </c>
       <c r="AK56">
         <f>'3_MechRemove_ModSeverity'!T56</f>
-        <v>0.52</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="AL56">
         <f>'3_MechRemove_ModSeverity'!U56</f>
-        <v>0.82000000000000006</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="AM56">
         <f>'3_MechRemove_HighSeverity'!S56</f>
@@ -47941,11 +47943,11 @@
       </c>
       <c r="AN56">
         <f>'3_MechRemove_HighSeverity'!T56</f>
-        <v>0.48125000000000007</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="AO56">
         <f>'3_MechRemove_HighSeverity'!U56</f>
-        <v>0.68750000000000011</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="AP56">
         <f>'3_MechRemove_LowSeverity'!V56</f>
@@ -47969,11 +47971,11 @@
       </c>
       <c r="AU56">
         <f>'3_MechRemove_ModSeverity'!X56</f>
-        <v>0.81600000000000006</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="AV56">
         <f>'3_MechRemove_ModSeverity'!Y56</f>
-        <v>1.1760000000000002</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="AW56">
         <f>'3_MechRemove_HighSeverity'!W56</f>
@@ -47981,11 +47983,11 @@
       </c>
       <c r="AX56">
         <f>'3_MechRemove_HighSeverity'!X56</f>
-        <v>0.59812500000000002</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="AY56">
         <f>'3_MechRemove_HighSeverity'!Y56</f>
-        <v>0.84562500000000007</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="AZ56">
         <f>'3_MechRemove_LowSeverity'!Z56</f>
@@ -48021,11 +48023,11 @@
       </c>
       <c r="BH56">
         <f>'3_MechRemove_HighSeverity'!AB56</f>
-        <v>0.20625000000000002</v>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="BI56">
         <f>'3_MechRemove_HighSeverity'!AC56</f>
-        <v>0.30937500000000001</v>
+        <v>0.171875</v>
       </c>
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
@@ -48055,11 +48057,11 @@
       </c>
       <c r="G57">
         <f>'3_MechRemove_ModSeverity'!H57</f>
-        <v>86.880000000000024</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="H57">
         <f>'3_MechRemove_ModSeverity'!I57</f>
-        <v>90.480000000000018</v>
+        <v>14.8</v>
       </c>
       <c r="I57">
         <f>'3_MechRemove_HighSeverity'!G57</f>
@@ -48067,11 +48069,11 @@
       </c>
       <c r="J57">
         <f>'3_MechRemove_HighSeverity'!H57</f>
-        <v>6.4625000000000004</v>
+        <v>7.7000000000000011</v>
       </c>
       <c r="K57">
         <f>'3_MechRemove_HighSeverity'!I57</f>
-        <v>8.9375</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="L57">
         <f>'3_MechRemove_LowSeverity'!J57</f>
@@ -48215,11 +48217,11 @@
       </c>
       <c r="AU57">
         <f>'3_MechRemove_ModSeverity'!X57</f>
-        <v>0.19600000000000001</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="AV57">
         <f>'3_MechRemove_ModSeverity'!Y57</f>
-        <v>0.34600000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="AW57">
         <f>'3_MechRemove_HighSeverity'!W57</f>
@@ -48227,11 +48229,11 @@
       </c>
       <c r="AX57">
         <f>'3_MechRemove_HighSeverity'!X57</f>
-        <v>0.24750000000000003</v>
+        <v>0.23375000000000001</v>
       </c>
       <c r="AY57">
         <f>'3_MechRemove_HighSeverity'!Y57</f>
-        <v>0.35062500000000002</v>
+        <v>0.33687500000000004</v>
       </c>
       <c r="AZ57">
         <f>'3_MechRemove_LowSeverity'!Z57</f>
@@ -48473,11 +48475,11 @@
       </c>
       <c r="AX58">
         <f>'3_MechRemove_HighSeverity'!X58</f>
-        <v>0.20625000000000002</v>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="AY58">
         <f>'3_MechRemove_HighSeverity'!Y58</f>
-        <v>0.30937500000000001</v>
+        <v>0.171875</v>
       </c>
       <c r="AZ58">
         <f>'3_MechRemove_LowSeverity'!Z58</f>

--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -16516,10 +16516,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomLeft" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22169,8 +22169,8 @@
         <v>9.6</v>
       </c>
       <c r="H59" s="15">
-        <f t="shared" si="86"/>
-        <v>9.6</v>
+        <f>$E59*G59</f>
+        <v>0</v>
       </c>
       <c r="I59" s="16">
         <f>$E59*H59</f>
@@ -22181,7 +22181,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" ref="L59:L88" si="111">K59</f>
+        <f>$E59*K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
@@ -22189,11 +22189,11 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O93" si="112">N59</f>
+        <f t="shared" ref="O59:O93" si="111">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f t="shared" ref="P59:P88" si="113">O59</f>
+        <f>$E59*O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
@@ -22204,23 +22204,23 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S93" si="114">R59</f>
+        <f t="shared" ref="S59:S93" si="112">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" ref="T59:T88" si="115">S59</f>
-        <v>3.5</v>
+        <f>$E59*S59</f>
+        <v>0</v>
       </c>
       <c r="U59" s="16">
         <f>$E59*T59</f>
         <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W93" si="116">V59</f>
+        <f t="shared" ref="W59:W93" si="113">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" ref="X59:X88" si="117">W59</f>
+        <f>$E59*W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
@@ -22228,11 +22228,11 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA93" si="118">Z59</f>
+        <f t="shared" ref="AA59:AA93" si="114">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" ref="AB59:AB88" si="119">AA59</f>
+        <f>$E59*AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
@@ -22261,8 +22261,8 @@
         <v>0.4</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="86"/>
-        <v>0.4</v>
+        <f>$E60*G60</f>
+        <v>0</v>
       </c>
       <c r="I60" s="16">
         <f>$E60*H60</f>
@@ -22273,7 +22273,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="111"/>
+        <f>$E60*K60</f>
         <v>0</v>
       </c>
       <c r="M60" s="16">
@@ -22281,11 +22281,11 @@
         <v>0</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="P60" s="15">
-        <f t="shared" si="113"/>
+        <f>$E60*O60</f>
         <v>0</v>
       </c>
       <c r="Q60" s="16">
@@ -22296,23 +22296,23 @@
         <v>2</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>2</v>
       </c>
       <c r="T60" s="15">
-        <f t="shared" si="115"/>
-        <v>2</v>
+        <f>$E60*S60</f>
+        <v>0</v>
       </c>
       <c r="U60" s="16">
         <f>$E60*T60</f>
         <v>0</v>
       </c>
       <c r="W60" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="X60" s="15">
-        <f t="shared" si="117"/>
+        <f>$E60*W60</f>
         <v>0</v>
       </c>
       <c r="Y60" s="16">
@@ -22320,11 +22320,11 @@
         <v>0</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AB60" s="15">
-        <f t="shared" si="119"/>
+        <f>$E60*AA60</f>
         <v>0</v>
       </c>
       <c r="AC60" s="16">
@@ -22355,8 +22355,8 @@
         <v>121</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="86"/>
-        <v>121</v>
+        <f>$E61*G61</f>
+        <v>0</v>
       </c>
       <c r="I61" s="16">
         <f>$E61*H61</f>
@@ -22367,7 +22367,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="111"/>
+        <f>$E61*K61</f>
         <v>0</v>
       </c>
       <c r="M61" s="16">
@@ -22379,7 +22379,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="15">
-        <f t="shared" si="113"/>
+        <f>$E61*O61</f>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
@@ -22394,8 +22394,8 @@
         <v>1800</v>
       </c>
       <c r="T61" s="15">
-        <f t="shared" si="115"/>
-        <v>1800</v>
+        <f>$E61*S61</f>
+        <v>0</v>
       </c>
       <c r="U61" s="16">
         <f>$E61*T61</f>
@@ -22406,8 +22406,8 @@
         <v>97.5</v>
       </c>
       <c r="X61" s="15">
-        <f t="shared" si="117"/>
-        <v>97.5</v>
+        <f>$E61*W61</f>
+        <v>0</v>
       </c>
       <c r="Y61" s="16">
         <f>$E61*X61</f>
@@ -22418,8 +22418,8 @@
         <v>50</v>
       </c>
       <c r="AB61" s="15">
-        <f t="shared" si="119"/>
-        <v>50</v>
+        <f>$E61*AA61</f>
+        <v>0</v>
       </c>
       <c r="AC61" s="16">
         <f>$E61*AB61</f>
@@ -22455,11 +22455,11 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="120">J62</f>
+        <f t="shared" ref="K62:K93" si="115">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" ref="L62:L91" si="116">K62</f>
         <v>0</v>
       </c>
       <c r="M62" s="16">
@@ -22467,11 +22467,11 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="121">N62</f>
+        <f t="shared" ref="O62:O93" si="117">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" ref="P62:P91" si="118">O62</f>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
@@ -22482,11 +22482,11 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="122">R62</f>
+        <f t="shared" ref="S62:S93" si="119">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" ref="T62:T91" si="120">S62</f>
         <v>3.5</v>
       </c>
       <c r="U62" s="16">
@@ -22497,11 +22497,11 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="123">V62</f>
+        <f t="shared" ref="W62:W93" si="121">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" ref="X62:X91" si="122">W62</f>
         <v>10</v>
       </c>
       <c r="Y62" s="16">
@@ -22512,11 +22512,11 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="124">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="123">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" ref="AB62:AB91" si="124">AA62</f>
         <v>10</v>
       </c>
       <c r="AC62" s="16">
@@ -22553,11 +22553,11 @@
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M63" s="16">
@@ -22565,11 +22565,11 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
@@ -22580,11 +22580,11 @@
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="119"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>2</v>
       </c>
       <c r="U63" s="16">
@@ -22595,11 +22595,11 @@
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="121"/>
         <v>1</v>
       </c>
       <c r="X63" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>1</v>
       </c>
       <c r="Y63" s="16">
@@ -22610,11 +22610,11 @@
         <v>1</v>
       </c>
       <c r="AA63" s="12">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="AB63" s="15">
         <f t="shared" si="124"/>
-        <v>1</v>
-      </c>
-      <c r="AB63" s="15">
-        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="AC63" s="16">
@@ -22647,77 +22647,77 @@
         <v>115</v>
       </c>
       <c r="I64" s="16">
-        <f>$H64+$H61</f>
-        <v>236</v>
+        <f>H64+H61</f>
+        <v>115</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M64" s="16">
-        <f>$H64+$H61</f>
-        <v>236</v>
+        <f>L64+L61</f>
+        <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
-        <f>$H64+$H61</f>
-        <v>236</v>
+        <f>P64+P61</f>
+        <v>0</v>
       </c>
       <c r="R64" s="11">
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="119"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>50</v>
       </c>
       <c r="U64" s="16">
-        <f>$H64+$H61</f>
-        <v>236</v>
+        <f>T64+T61</f>
+        <v>50</v>
       </c>
       <c r="V64" s="11">
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="X64" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="Y64" s="16">
-        <f>$H64+$H61</f>
-        <v>236</v>
+        <f>X64+X61</f>
+        <v>5</v>
       </c>
       <c r="Z64" s="11">
         <v>3</v>
       </c>
       <c r="AA64" s="12">
+        <f t="shared" si="123"/>
+        <v>3</v>
+      </c>
+      <c r="AB64" s="15">
         <f t="shared" si="124"/>
         <v>3</v>
       </c>
-      <c r="AB64" s="15">
-        <f t="shared" si="119"/>
+      <c r="AC64" s="16">
+        <f>AB64+AB61</f>
         <v>3</v>
-      </c>
-      <c r="AC64" s="16">
-        <f>$H64+$H61</f>
-        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -22744,11 +22744,11 @@
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M65" s="16">
@@ -22756,11 +22756,11 @@
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P65" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q65" s="16">
@@ -22768,11 +22768,11 @@
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T65" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U65" s="16">
@@ -22780,11 +22780,11 @@
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="X65" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y65" s="16">
@@ -22792,11 +22792,11 @@
         <v>0</v>
       </c>
       <c r="AA65" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="AB65" s="15">
         <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AB65" s="15">
-        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
@@ -22828,11 +22828,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M66" s="16">
@@ -22840,11 +22840,11 @@
         <v>0</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P66" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q66" s="16">
@@ -22852,11 +22852,11 @@
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U66" s="16">
@@ -22864,11 +22864,11 @@
         <v>0</v>
       </c>
       <c r="W66" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y66" s="16">
@@ -22876,11 +22876,11 @@
         <v>0</v>
       </c>
       <c r="AA66" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="15">
         <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="15">
-        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC66" s="16">
@@ -22912,11 +22912,11 @@
         <v>0</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L67" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M67" s="16">
@@ -22924,11 +22924,11 @@
         <v>0</v>
       </c>
       <c r="O67" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P67" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q67" s="16">
@@ -22936,11 +22936,11 @@
         <v>0</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T67" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U67" s="16">
@@ -22948,11 +22948,11 @@
         <v>0</v>
       </c>
       <c r="W67" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="X67" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y67" s="16">
@@ -22960,11 +22960,11 @@
         <v>0</v>
       </c>
       <c r="AA67" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="15">
         <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="15">
-        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC67" s="16">
@@ -23008,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M68" s="16">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
@@ -23038,7 +23038,7 @@
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="U68" s="16">
@@ -23053,7 +23053,7 @@
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="Y68" s="16">
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC68" s="16">
@@ -23112,7 +23112,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M69" s="16">
@@ -23127,7 +23127,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q69" s="16">
@@ -23142,7 +23142,7 @@
         <v>0</v>
       </c>
       <c r="T69" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U69" s="16">
@@ -23157,7 +23157,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y69" s="16">
@@ -23172,7 +23172,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC69" s="16">
@@ -23216,7 +23216,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M70" s="16">
@@ -23231,7 +23231,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q70" s="16">
@@ -23246,7 +23246,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U70" s="16">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y70" s="16">
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC70" s="16">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M71" s="16">
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q71" s="16">
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U71" s="16">
@@ -23351,7 +23351,7 @@
         <v>90</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>90</v>
       </c>
       <c r="Y71" s="16">
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
@@ -23402,7 +23402,7 @@
         <v>100</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>100</v>
       </c>
       <c r="M72" s="16">
@@ -23414,7 +23414,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
@@ -23426,7 +23426,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U72" s="16">
@@ -23438,7 +23438,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y72" s="16">
@@ -23450,7 +23450,7 @@
         <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC72" s="16">
@@ -23486,7 +23486,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M73" s="16">
@@ -23501,7 +23501,7 @@
         <v>100</v>
       </c>
       <c r="P73" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>100</v>
       </c>
       <c r="Q73" s="16">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U73" s="16">
@@ -23525,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC73" s="16">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M74" s="16">
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q74" s="16">
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U74" s="16">
@@ -23615,7 +23615,7 @@
         <v>10</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>10</v>
       </c>
       <c r="Y74" s="16">
@@ -23630,7 +23630,7 @@
         <v>40</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>40</v>
       </c>
       <c r="AC74" s="16">
@@ -23669,7 +23669,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M75" s="16">
@@ -23681,7 +23681,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
@@ -23696,7 +23696,7 @@
         <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>100</v>
       </c>
       <c r="U75" s="16">
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
@@ -23720,7 +23720,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC75" s="16">
@@ -23756,7 +23756,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M76" s="16">
@@ -23768,7 +23768,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q76" s="16">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U76" s="16">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y76" s="16">
@@ -23807,7 +23807,7 @@
         <v>60</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>60</v>
       </c>
       <c r="AC76" s="16">
@@ -23843,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M77" s="16">
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q77" s="16">
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="T77" s="15">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U77" s="16">
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y77" s="16">
@@ -23891,7 +23891,7 @@
         <v>0</v>
       </c>
       <c r="AB77" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC77" s="16">
@@ -25840,7 +25840,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5:K20" si="7">J5</f>
+        <f t="shared" ref="K5" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O20" si="9">N5</f>
+        <f t="shared" ref="O5" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -25867,7 +25867,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S20" si="11">R5</f>
+        <f t="shared" ref="S5" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -25882,7 +25882,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:W20" si="13">V5</f>
+        <f t="shared" ref="W5" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -25897,7 +25897,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
+        <f t="shared" ref="AA5" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -26307,7 +26307,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10:K25" si="17">J10</f>
+        <f t="shared" ref="K10" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10:O25" si="18">N10</f>
+        <f t="shared" ref="O10" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -26331,7 +26331,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10:S25" si="19">R10</f>
+        <f t="shared" ref="S10" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -26346,7 +26346,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10:W25" si="20">V10</f>
+        <f t="shared" ref="W10" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -26358,7 +26358,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
+        <f t="shared" ref="AA10" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -28823,66 +28823,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37:K44" si="36">J37</f>
+        <f t="shared" ref="K37" si="36">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37:L44" si="37">K37</f>
+        <f t="shared" ref="L37" si="37">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37:M50" si="38">L37</f>
+        <f t="shared" ref="M37" si="38">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37:O44" si="39">N37</f>
+        <f t="shared" ref="O37" si="39">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:P44" si="40">O37</f>
+        <f t="shared" ref="P37" si="40">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37:Q50" si="41">P37</f>
+        <f t="shared" ref="Q37" si="41">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37:S44" si="42">R37</f>
+        <f t="shared" ref="S37" si="42">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37:T44" si="43">S37</f>
+        <f t="shared" ref="T37" si="43">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37:U50" si="44">T37</f>
+        <f t="shared" ref="U37" si="44">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37:W44" si="45">V37</f>
+        <f t="shared" ref="W37" si="45">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37:X44" si="46">W37</f>
+        <f t="shared" ref="X37" si="46">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37:Y50" si="47">X37</f>
+        <f t="shared" ref="Y37" si="47">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37:AA44" si="48">Z37</f>
+        <f t="shared" ref="AA37" si="48">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AB44" si="49">AA37</f>
+        <f t="shared" ref="AB37" si="49">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37:AC50" si="50">AB37</f>
+        <f t="shared" ref="AC37" si="50">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -29111,75 +29111,75 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K47" si="51">J40</f>
+        <f t="shared" ref="K40" si="51">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40:L47" si="52">K40</f>
+        <f t="shared" ref="L40" si="52">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" ref="M40:M53" si="53">L40</f>
+        <f t="shared" ref="M40" si="53">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40:O47" si="54">N40</f>
+        <f t="shared" ref="O40" si="54">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:P47" si="55">O40</f>
+        <f t="shared" ref="P40" si="55">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" ref="Q40:Q53" si="56">P40</f>
+        <f t="shared" ref="Q40" si="56">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40:S47" si="57">R40</f>
+        <f t="shared" ref="S40" si="57">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40:T47" si="58">S40</f>
+        <f t="shared" ref="T40" si="58">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" ref="U40:U53" si="59">T40</f>
+        <f t="shared" ref="U40" si="59">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40:W47" si="60">V40</f>
+        <f t="shared" ref="W40" si="60">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40:X47" si="61">W40</f>
+        <f t="shared" ref="X40" si="61">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" ref="Y40:Y53" si="62">X40</f>
+        <f t="shared" ref="Y40" si="62">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40:AA47" si="63">Z40</f>
+        <f t="shared" ref="AA40" si="63">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40:AB47" si="64">AA40</f>
+        <f t="shared" ref="AB40" si="64">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" ref="AC40:AC53" si="65">AB40</f>
+        <f t="shared" ref="AC40" si="65">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -29530,11 +29530,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44:L51" si="66">K44</f>
+        <f t="shared" ref="L44" si="66">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" ref="M44:M57" si="67">L44</f>
+        <f t="shared" ref="M44" si="67">L44</f>
         <v>0</v>
       </c>
       <c r="N44" s="11">
@@ -29545,11 +29545,11 @@
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44:P51" si="68">O44</f>
+        <f t="shared" ref="P44" si="68">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" ref="Q44:Q57" si="69">P44</f>
+        <f t="shared" ref="Q44" si="69">P44</f>
         <v>1</v>
       </c>
       <c r="R44" s="11">
@@ -29560,11 +29560,11 @@
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44:T51" si="70">S44</f>
+        <f t="shared" ref="T44" si="70">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" ref="U44:U57" si="71">T44</f>
+        <f t="shared" ref="U44" si="71">T44</f>
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
@@ -29572,11 +29572,11 @@
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44:X51" si="72">W44</f>
+        <f t="shared" ref="X44" si="72">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" ref="Y44:Y57" si="73">X44</f>
+        <f t="shared" ref="Y44" si="73">X44</f>
         <v>0</v>
       </c>
       <c r="Z44" s="11">
@@ -29587,11 +29587,11 @@
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44:AB51" si="74">AA44</f>
+        <f t="shared" ref="AB44" si="74">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" ref="AC44:AC57" si="75">AB44</f>
+        <f t="shared" ref="AC44" si="75">AB44</f>
         <v>1</v>
       </c>
     </row>
@@ -29617,7 +29617,7 @@
         <v>0.1</v>
       </c>
       <c r="G45" s="12">
-        <f>$C45*F45</f>
+        <f t="shared" ref="G45:G58" si="76">$C45*F45</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H45" s="15">
@@ -29629,7 +29629,7 @@
         <v>0.1</v>
       </c>
       <c r="K45" s="12">
-        <f>$C45*J45</f>
+        <f t="shared" ref="K45:K58" si="77">$C45*J45</f>
         <v>0</v>
       </c>
       <c r="L45" s="15">
@@ -29644,7 +29644,7 @@
         <v>0.01</v>
       </c>
       <c r="O45" s="12">
-        <f>$C45*N45</f>
+        <f t="shared" ref="O45:O58" si="78">$C45*N45</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="P45" s="15">
@@ -29659,7 +29659,7 @@
         <v>0.02</v>
       </c>
       <c r="S45" s="12">
-        <f>$C45*R45</f>
+        <f t="shared" ref="S45:S58" si="79">$C45*R45</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="T45" s="15">
@@ -29671,7 +29671,7 @@
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="W45" s="12">
-        <f>$C45*V45</f>
+        <f t="shared" ref="W45:W58" si="80">$C45*V45</f>
         <v>0</v>
       </c>
       <c r="X45" s="15">
@@ -29686,7 +29686,7 @@
         <v>0.1</v>
       </c>
       <c r="AA45" s="12">
-        <f>$C45*Z45</f>
+        <f t="shared" ref="AA45:AA58" si="81">$C45*Z45</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AB45" s="15">
@@ -29720,7 +29720,7 @@
         <v>0.2</v>
       </c>
       <c r="G46" s="12">
-        <f>$C46*F46</f>
+        <f t="shared" si="76"/>
         <v>0.05</v>
       </c>
       <c r="H46" s="15">
@@ -29732,7 +29732,7 @@
         <v>0.2</v>
       </c>
       <c r="K46" s="12">
-        <f>$C46*J46</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L46" s="15">
@@ -29747,7 +29747,7 @@
         <v>8</v>
       </c>
       <c r="O46" s="12">
-        <f>$C46*N46</f>
+        <f t="shared" si="78"/>
         <v>2</v>
       </c>
       <c r="P46" s="15">
@@ -29762,7 +29762,7 @@
         <v>5</v>
       </c>
       <c r="S46" s="12">
-        <f>$C46*R46</f>
+        <f t="shared" si="79"/>
         <v>1.25</v>
       </c>
       <c r="T46" s="15">
@@ -29774,7 +29774,7 @@
         <v>5</v>
       </c>
       <c r="W46" s="12">
-        <f>$C46*V46</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="X46" s="15">
@@ -29789,7 +29789,7 @@
         <v>20</v>
       </c>
       <c r="AA46" s="12">
-        <f>$C46*Z46</f>
+        <f t="shared" si="81"/>
         <v>5</v>
       </c>
       <c r="AB46" s="15">
@@ -29821,7 +29821,7 @@
         <v>85</v>
       </c>
       <c r="G47" s="12">
-        <f>$C47*F47</f>
+        <f t="shared" si="76"/>
         <v>21.25</v>
       </c>
       <c r="H47" s="15">
@@ -29833,7 +29833,7 @@
         <v>85</v>
       </c>
       <c r="K47" s="12">
-        <f>$C47*J47</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L47" s="15">
@@ -29841,14 +29841,14 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47:M60" si="76">L47</f>
+        <f t="shared" ref="M47" si="82">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
         <v>70</v>
       </c>
       <c r="O47" s="12">
-        <f>$C47*N47</f>
+        <f t="shared" si="78"/>
         <v>17.5</v>
       </c>
       <c r="P47" s="15">
@@ -29856,14 +29856,14 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47:Q60" si="77">P47</f>
+        <f t="shared" ref="Q47" si="83">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
         <v>90</v>
       </c>
       <c r="S47" s="12">
-        <f>$C47*R47</f>
+        <f t="shared" si="79"/>
         <v>22.5</v>
       </c>
       <c r="T47" s="15">
@@ -29871,11 +29871,11 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47:U60" si="78">T47</f>
+        <f t="shared" ref="U47" si="84">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
-        <f>$C47*V47</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="X47" s="15">
@@ -29883,14 +29883,14 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47:Y60" si="79">X47</f>
+        <f t="shared" ref="Y47" si="85">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
         <v>60</v>
       </c>
       <c r="AA47" s="12">
-        <f>$C47*Z47</f>
+        <f t="shared" si="81"/>
         <v>15</v>
       </c>
       <c r="AB47" s="15">
@@ -29898,7 +29898,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47:AC60" si="80">AB47</f>
+        <f t="shared" ref="AC47" si="86">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -29922,7 +29922,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="12">
-        <f>$C48*F48</f>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="H48" s="15">
@@ -29937,7 +29937,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="12">
-        <f>$C48*J48</f>
+        <f t="shared" si="77"/>
         <v>0.25</v>
       </c>
       <c r="L48" s="15">
@@ -29949,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="12">
-        <f>$C48*N48</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P48" s="15">
@@ -29964,7 +29964,7 @@
         <v>0.5</v>
       </c>
       <c r="S48" s="12">
-        <f>$C48*R48</f>
+        <f t="shared" si="79"/>
         <v>0.125</v>
       </c>
       <c r="T48" s="15">
@@ -29979,7 +29979,7 @@
         <v>1</v>
       </c>
       <c r="W48" s="12">
-        <f>$C48*V48</f>
+        <f t="shared" si="80"/>
         <v>0.25</v>
       </c>
       <c r="X48" s="15">
@@ -29994,7 +29994,7 @@
         <v>0.5</v>
       </c>
       <c r="AA48" s="12">
-        <f>$C48*Z48</f>
+        <f t="shared" si="81"/>
         <v>0.125</v>
       </c>
       <c r="AB48" s="15">
@@ -30026,7 +30026,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="12">
-        <f>$C49*F49</f>
+        <f t="shared" si="76"/>
         <v>17.5</v>
       </c>
       <c r="H49" s="15">
@@ -30041,7 +30041,7 @@
         <v>50</v>
       </c>
       <c r="K49" s="12">
-        <f>$C49*J49</f>
+        <f t="shared" si="77"/>
         <v>12.5</v>
       </c>
       <c r="L49" s="15">
@@ -30053,7 +30053,7 @@
         <v>50</v>
       </c>
       <c r="O49" s="12">
-        <f>$C49*N49</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P49" s="15">
@@ -30068,7 +30068,7 @@
         <v>30</v>
       </c>
       <c r="S49" s="12">
-        <f>$C49*R49</f>
+        <f t="shared" si="79"/>
         <v>7.5</v>
       </c>
       <c r="T49" s="15">
@@ -30083,7 +30083,7 @@
         <v>40</v>
       </c>
       <c r="W49" s="12">
-        <f>$C49*V49</f>
+        <f t="shared" si="80"/>
         <v>10</v>
       </c>
       <c r="X49" s="15">
@@ -30098,7 +30098,7 @@
         <v>15</v>
       </c>
       <c r="AA49" s="12">
-        <f>$C49*Z49</f>
+        <f t="shared" si="81"/>
         <v>3.75</v>
       </c>
       <c r="AB49" s="15">
@@ -30130,7 +30130,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="12">
-        <f>$C50*F50</f>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="H50" s="15">
@@ -30138,14 +30138,14 @@
         <v>0.5</v>
       </c>
       <c r="I50" s="16">
-        <f t="shared" ref="I50:I55" si="81">$E50*H50</f>
+        <f t="shared" ref="I50:I55" si="87">$E50*H50</f>
         <v>2</v>
       </c>
       <c r="J50" s="11">
         <v>1</v>
       </c>
       <c r="K50" s="12">
-        <f>$C50*J50</f>
+        <f t="shared" si="77"/>
         <v>0.25</v>
       </c>
       <c r="L50" s="15">
@@ -30153,11 +30153,11 @@
         <v>0.25</v>
       </c>
       <c r="M50" s="16">
-        <f t="shared" ref="M50:M55" si="82">$E50*L50</f>
+        <f t="shared" ref="M50:M55" si="88">$E50*L50</f>
         <v>1</v>
       </c>
       <c r="O50" s="12">
-        <f>$C50*N50</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P50" s="15">
@@ -30165,14 +30165,14 @@
         <v>0</v>
       </c>
       <c r="Q50" s="16">
-        <f t="shared" ref="Q50:Q55" si="83">$E50*P50</f>
+        <f t="shared" ref="Q50:Q55" si="89">$E50*P50</f>
         <v>0</v>
       </c>
       <c r="R50" s="11">
         <v>0.5</v>
       </c>
       <c r="S50" s="12">
-        <f>$C50*R50</f>
+        <f t="shared" si="79"/>
         <v>0.125</v>
       </c>
       <c r="T50" s="15">
@@ -30180,14 +30180,14 @@
         <v>0.125</v>
       </c>
       <c r="U50" s="16">
-        <f t="shared" ref="U50:U55" si="84">$E50*T50</f>
+        <f t="shared" ref="U50:U55" si="90">$E50*T50</f>
         <v>0.5</v>
       </c>
       <c r="V50" s="11">
         <v>1</v>
       </c>
       <c r="W50" s="12">
-        <f>$C50*V50</f>
+        <f t="shared" si="80"/>
         <v>0.25</v>
       </c>
       <c r="X50" s="15">
@@ -30195,14 +30195,14 @@
         <v>0.25</v>
       </c>
       <c r="Y50" s="16">
-        <f t="shared" ref="Y50:Y55" si="85">$E50*X50</f>
+        <f t="shared" ref="Y50:Y55" si="91">$E50*X50</f>
         <v>1</v>
       </c>
       <c r="Z50" s="11">
         <v>0.3</v>
       </c>
       <c r="AA50" s="12">
-        <f>$C50*Z50</f>
+        <f t="shared" si="81"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AB50" s="15">
@@ -30210,7 +30210,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC50" s="16">
-        <f t="shared" ref="AC50:AC55" si="86">$E50*AB50</f>
+        <f t="shared" ref="AC50:AC55" si="92">$E50*AB50</f>
         <v>0.3</v>
       </c>
     </row>
@@ -30234,7 +30234,7 @@
         <v>1.5</v>
       </c>
       <c r="G51" s="12">
-        <f>$C51*F51</f>
+        <f t="shared" si="76"/>
         <v>0.375</v>
       </c>
       <c r="H51" s="15">
@@ -30242,14 +30242,14 @@
         <v>0.375</v>
       </c>
       <c r="I51" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1.5</v>
       </c>
       <c r="J51" s="11">
         <v>1</v>
       </c>
       <c r="K51" s="12">
-        <f>$C51*J51</f>
+        <f t="shared" si="77"/>
         <v>0.25</v>
       </c>
       <c r="L51" s="15">
@@ -30257,11 +30257,11 @@
         <v>0.25</v>
       </c>
       <c r="M51" s="16">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="O51" s="12">
-        <f>$C51*N51</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P51" s="15">
@@ -30269,14 +30269,14 @@
         <v>0</v>
       </c>
       <c r="Q51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R51" s="11">
         <v>0.2</v>
       </c>
       <c r="S51" s="12">
-        <f>$C51*R51</f>
+        <f t="shared" si="79"/>
         <v>0.05</v>
       </c>
       <c r="T51" s="15">
@@ -30284,14 +30284,14 @@
         <v>0.05</v>
       </c>
       <c r="U51" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.2</v>
       </c>
       <c r="V51" s="11">
         <v>0.5</v>
       </c>
       <c r="W51" s="12">
-        <f>$C51*V51</f>
+        <f t="shared" si="80"/>
         <v>0.125</v>
       </c>
       <c r="X51" s="15">
@@ -30299,14 +30299,14 @@
         <v>0.125</v>
       </c>
       <c r="Y51" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.5</v>
       </c>
       <c r="Z51" s="11">
         <v>0.4</v>
       </c>
       <c r="AA51" s="12">
-        <f>$C51*Z51</f>
+        <f t="shared" si="81"/>
         <v>0.1</v>
       </c>
       <c r="AB51" s="15">
@@ -30314,7 +30314,7 @@
         <v>0.1</v>
       </c>
       <c r="AC51" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.4</v>
       </c>
     </row>
@@ -30338,7 +30338,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="12">
-        <f>$C52*F52</f>
+        <f t="shared" si="76"/>
         <v>0.25</v>
       </c>
       <c r="H52" s="15">
@@ -30346,14 +30346,14 @@
         <v>0.25</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="J52" s="11">
         <v>0.5</v>
       </c>
       <c r="K52" s="12">
-        <f>$C52*J52</f>
+        <f t="shared" si="77"/>
         <v>0.125</v>
       </c>
       <c r="L52" s="15">
@@ -30361,11 +30361,11 @@
         <v>0.125</v>
       </c>
       <c r="M52" s="16">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.5</v>
       </c>
       <c r="O52" s="12">
-        <f>$C52*N52</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P52" s="15">
@@ -30373,14 +30373,14 @@
         <v>0</v>
       </c>
       <c r="Q52" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R52" s="11">
         <v>0.1</v>
       </c>
       <c r="S52" s="12">
-        <f>$C52*R52</f>
+        <f t="shared" si="79"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="T52" s="15">
@@ -30388,14 +30388,14 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="U52" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.1</v>
       </c>
       <c r="V52" s="11">
         <v>0.3</v>
       </c>
       <c r="W52" s="12">
-        <f>$C52*V52</f>
+        <f t="shared" si="80"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="X52" s="15">
@@ -30403,14 +30403,14 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Y52" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.3</v>
       </c>
       <c r="Z52" s="11">
         <v>0.02</v>
       </c>
       <c r="AA52" s="12">
-        <f>$C52*Z52</f>
+        <f t="shared" si="81"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB52" s="15">
@@ -30418,7 +30418,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC52" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.02</v>
       </c>
     </row>
@@ -30443,7 +30443,7 @@
         <v>6</v>
       </c>
       <c r="G53" s="12">
-        <f>$C53*F53</f>
+        <f t="shared" si="76"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="H53" s="15">
@@ -30451,14 +30451,14 @@
         <v>2.4750000000000001</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1.2375</v>
       </c>
       <c r="J53" s="11">
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f>$C53*J53</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L53" s="15">
@@ -30466,11 +30466,11 @@
         <v>0</v>
       </c>
       <c r="M53" s="16">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f>$C53*N53</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P53" s="15">
@@ -30478,14 +30478,14 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R53" s="11">
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f>$C53*R53</f>
+        <f t="shared" si="79"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="T53" s="15">
@@ -30493,14 +30493,14 @@
         <v>0.41250000000000003</v>
       </c>
       <c r="U53" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0.20625000000000002</v>
       </c>
       <c r="V53" s="11">
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f>$C53*V53</f>
+        <f t="shared" si="80"/>
         <v>0.66</v>
       </c>
       <c r="X53" s="15">
@@ -30508,14 +30508,14 @@
         <v>0.495</v>
       </c>
       <c r="Y53" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.2475</v>
       </c>
       <c r="Z53" s="11">
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f>$C53*Z53</f>
+        <f t="shared" si="81"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="AB53" s="15">
@@ -30523,7 +30523,7 @@
         <v>0.20625000000000002</v>
       </c>
       <c r="AC53" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0.10312500000000001</v>
       </c>
     </row>
@@ -30548,7 +30548,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="12">
-        <f>$C54*F54</f>
+        <f t="shared" si="76"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="H54" s="15">
@@ -30556,14 +30556,14 @@
         <v>4.95</v>
       </c>
       <c r="I54" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2.4750000000000001</v>
       </c>
       <c r="J54" s="11">
         <v>0</v>
       </c>
       <c r="K54" s="12">
-        <f>$C54*J54</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L54" s="15">
@@ -30571,11 +30571,11 @@
         <v>0</v>
       </c>
       <c r="M54" s="16">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O54" s="12">
-        <f>$C54*N54</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P54" s="15">
@@ -30583,14 +30583,14 @@
         <v>0</v>
       </c>
       <c r="Q54" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R54" s="11">
         <v>0</v>
       </c>
       <c r="S54" s="12">
-        <f>$C54*R54</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="T54" s="15">
@@ -30598,14 +30598,14 @@
         <v>0</v>
       </c>
       <c r="U54" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="V54" s="11">
         <v>0.5</v>
       </c>
       <c r="W54" s="12">
-        <f>$C54*V54</f>
+        <f t="shared" si="80"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="X54" s="15">
@@ -30613,14 +30613,14 @@
         <v>0.20625000000000002</v>
       </c>
       <c r="Y54" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.10312500000000001</v>
       </c>
       <c r="Z54" s="11">
         <v>0</v>
       </c>
       <c r="AA54" s="12">
-        <f>$C54*Z54</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AB54" s="15">
@@ -30628,7 +30628,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -30653,7 +30653,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="12">
-        <f>$C55*F55</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="H55" s="15">
@@ -30661,14 +30661,14 @@
         <v>0</v>
       </c>
       <c r="I55" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="J55" s="11">
         <v>0</v>
       </c>
       <c r="K55" s="12">
-        <f>$C55*J55</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L55" s="15">
@@ -30676,11 +30676,11 @@
         <v>0</v>
       </c>
       <c r="M55" s="16">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="O55" s="12">
-        <f>$C55*N55</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P55" s="15">
@@ -30688,14 +30688,14 @@
         <v>0</v>
       </c>
       <c r="Q55" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R55" s="11">
         <v>0</v>
       </c>
       <c r="S55" s="12">
-        <f>$C55*R55</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="T55" s="15">
@@ -30703,14 +30703,14 @@
         <v>0</v>
       </c>
       <c r="U55" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="V55" s="11">
         <v>0.5</v>
       </c>
       <c r="W55" s="12">
-        <f>$C55*V55</f>
+        <f t="shared" si="80"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="X55" s="15">
@@ -30718,14 +30718,14 @@
         <v>0.20625000000000002</v>
       </c>
       <c r="Y55" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0.10312500000000001</v>
       </c>
       <c r="Z55" s="11">
         <v>0</v>
       </c>
       <c r="AA55" s="12">
-        <f>$C55*Z55</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AB55" s="15">
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -30758,7 +30758,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="12">
-        <f>$C56*F56</f>
+        <f t="shared" si="76"/>
         <v>2.75</v>
       </c>
       <c r="H56" s="15">
@@ -30770,7 +30770,7 @@
         <v>4.8125</v>
       </c>
       <c r="K56" s="12">
-        <f>$C56*J56</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L56" s="15">
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="12">
-        <f>$C56*N56</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P56" s="15">
@@ -30797,7 +30797,7 @@
         <v>0.5</v>
       </c>
       <c r="S56" s="12">
-        <f>$C56*R56</f>
+        <f t="shared" si="79"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="T56" s="15">
@@ -30812,7 +30812,7 @@
         <v>0.75</v>
       </c>
       <c r="W56" s="12">
-        <f>$C56*V56</f>
+        <f t="shared" si="80"/>
         <v>0.41250000000000003</v>
       </c>
       <c r="X56" s="15">
@@ -30824,7 +30824,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="AA56" s="12">
-        <f>$C56*Z56</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AB56" s="15">
@@ -30857,7 +30857,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="12">
-        <f>$C57*F57</f>
+        <f t="shared" si="76"/>
         <v>6.0500000000000007</v>
       </c>
       <c r="H57" s="15">
@@ -30869,7 +30869,7 @@
         <v>10.175000000000001</v>
       </c>
       <c r="K57" s="12">
-        <f>$C57*J57</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L57" s="15">
@@ -30881,7 +30881,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="12">
-        <f>$C57*N57</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P57" s="15">
@@ -30896,7 +30896,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="12">
-        <f>$C57*R57</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="T57" s="15">
@@ -30911,7 +30911,7 @@
         <v>0.3</v>
       </c>
       <c r="W57" s="12">
-        <f>$C57*V57</f>
+        <f t="shared" si="80"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="X57" s="15">
@@ -30923,7 +30923,7 @@
         <v>0.33687500000000004</v>
       </c>
       <c r="AA57" s="12">
-        <f>$C57*Z57</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AB57" s="15">
@@ -30956,7 +30956,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="12">
-        <f>$C58*F58</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="H58" s="15">
@@ -30968,7 +30968,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="12">
-        <f>$C58*J58</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L58" s="15">
@@ -30980,7 +30980,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="12">
-        <f>$C58*N58</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P58" s="15">
@@ -30995,7 +30995,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="12">
-        <f>$C58*R58</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="T58" s="15">
@@ -31010,7 +31010,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="12">
-        <f>$C58*V58</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="X58" s="15">
@@ -31022,7 +31022,7 @@
         <v>0.171875</v>
       </c>
       <c r="AA58" s="12">
-        <f>$C58*Z58</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AB58" s="15">
@@ -31049,11 +31049,11 @@
         <v>9.6</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" ref="G59:H93" si="87">F59</f>
+        <f t="shared" ref="G59:H93" si="93">F59</f>
         <v>9.6</v>
       </c>
       <c r="H59" s="15">
-        <f t="shared" ref="H59:H77" si="88">G59</f>
+        <f t="shared" ref="H59:H77" si="94">G59</f>
         <v>9.6</v>
       </c>
       <c r="I59" s="16">
@@ -31061,11 +31061,11 @@
         <v>9.6</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K93" si="89">J59</f>
+        <f t="shared" ref="K59:K60" si="95">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" ref="L59:L77" si="90">K59</f>
+        <f t="shared" ref="L59:L77" si="96">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
@@ -31073,11 +31073,11 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O93" si="91">N59</f>
+        <f t="shared" ref="O59:O60" si="97">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f t="shared" ref="P59:P77" si="92">O59</f>
+        <f t="shared" ref="P59:P77" si="98">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
@@ -31088,11 +31088,11 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S93" si="93">R59</f>
+        <f t="shared" ref="S59:S60" si="99">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" ref="T59:T77" si="94">S59</f>
+        <f t="shared" ref="T59:T77" si="100">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
@@ -31100,11 +31100,11 @@
         <v>3.5</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W93" si="95">V59</f>
+        <f t="shared" ref="W59:W60" si="101">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" ref="X59:X77" si="96">W59</f>
+        <f t="shared" ref="X59:X77" si="102">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
@@ -31112,11 +31112,11 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA93" si="97">Z59</f>
+        <f t="shared" ref="AA59:AA60" si="103">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" ref="AB59:AB77" si="98">AA59</f>
+        <f t="shared" ref="AB59:AB77" si="104">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
@@ -31139,11 +31139,11 @@
         <v>0.4</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0.4</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.4</v>
       </c>
       <c r="I60" s="16">
@@ -31151,11 +31151,11 @@
         <v>0.4</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M60" s="16">
@@ -31163,11 +31163,11 @@
         <v>0</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="P60" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q60" s="16">
@@ -31178,11 +31178,11 @@
         <v>2</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>2</v>
       </c>
       <c r="T60" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2</v>
       </c>
       <c r="U60" s="16">
@@ -31190,11 +31190,11 @@
         <v>2</v>
       </c>
       <c r="W60" s="12">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="X60" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Y60" s="16">
@@ -31202,11 +31202,11 @@
         <v>0</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="AB60" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AC60" s="16">
@@ -31237,7 +31237,7 @@
         <v>124</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>124</v>
       </c>
       <c r="I61" s="16">
@@ -31249,7 +31249,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M61" s="16">
@@ -31261,7 +31261,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
@@ -31276,7 +31276,7 @@
         <v>2675</v>
       </c>
       <c r="T61" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2675</v>
       </c>
       <c r="U61" s="16">
@@ -31288,7 +31288,7 @@
         <v>146.25</v>
       </c>
       <c r="X61" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>146.25</v>
       </c>
       <c r="Y61" s="16">
@@ -31300,7 +31300,7 @@
         <v>75</v>
       </c>
       <c r="AB61" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>75</v>
       </c>
       <c r="AC61" s="16">
@@ -31325,11 +31325,11 @@
         <v>9.6</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>9.6</v>
       </c>
       <c r="H62" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>9.6</v>
       </c>
       <c r="I62" s="16">
@@ -31337,11 +31337,11 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="99">J62</f>
+        <f t="shared" ref="K62:K67" si="105">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M62" s="16">
@@ -31349,11 +31349,11 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="100">N62</f>
+        <f t="shared" ref="O62:O67" si="106">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
@@ -31364,11 +31364,11 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="101">R62</f>
+        <f t="shared" ref="S62:S67" si="107">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>3.5</v>
       </c>
       <c r="U62" s="16">
@@ -31379,11 +31379,11 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="102">V62</f>
+        <f t="shared" ref="W62:W67" si="108">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>10</v>
       </c>
       <c r="Y62" s="16">
@@ -31394,11 +31394,11 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="103">Z62</f>
+        <f t="shared" ref="AA62:AA67" si="109">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>10</v>
       </c>
       <c r="AC62" s="16">
@@ -31423,11 +31423,11 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0.4</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0.4</v>
       </c>
       <c r="I63" s="16">
@@ -31435,11 +31435,11 @@
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M63" s="16">
@@ -31447,11 +31447,11 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
@@ -31462,11 +31462,11 @@
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2</v>
       </c>
       <c r="U63" s="16">
@@ -31477,11 +31477,11 @@
         <v>1</v>
       </c>
       <c r="W63" s="12">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="X63" s="15">
         <f t="shared" si="102"/>
-        <v>1</v>
-      </c>
-      <c r="X63" s="15">
-        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="Y63" s="16">
@@ -31492,11 +31492,11 @@
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>1</v>
       </c>
       <c r="AB63" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>1</v>
       </c>
       <c r="AC63" s="16">
@@ -31521,11 +31521,11 @@
         <v>115</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>115</v>
       </c>
       <c r="H64" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>115</v>
       </c>
       <c r="I64" s="16">
@@ -31533,11 +31533,11 @@
         <v>239</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M64" s="16">
@@ -31545,11 +31545,11 @@
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
@@ -31560,11 +31560,11 @@
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>50</v>
       </c>
       <c r="U64" s="16">
@@ -31575,11 +31575,11 @@
         <v>5</v>
       </c>
       <c r="W64" s="12">
+        <f t="shared" si="108"/>
+        <v>5</v>
+      </c>
+      <c r="X64" s="15">
         <f t="shared" si="102"/>
-        <v>5</v>
-      </c>
-      <c r="X64" s="15">
-        <f t="shared" si="96"/>
         <v>5</v>
       </c>
       <c r="Y64" s="16">
@@ -31590,11 +31590,11 @@
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>3</v>
       </c>
       <c r="AB64" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>3</v>
       </c>
       <c r="AC64" s="16">
@@ -31614,75 +31614,75 @@
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="G65" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I65" s="16">
-        <f t="shared" ref="I65:I77" si="104">H65</f>
+        <f t="shared" ref="I65:I77" si="110">H65</f>
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M65" s="16">
-        <f t="shared" ref="M65:M77" si="105">L65</f>
+        <f t="shared" ref="M65:M77" si="111">L65</f>
         <v>0</v>
       </c>
       <c r="O65" s="12">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="15">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="16">
+        <f t="shared" ref="Q65:Q77" si="112">P65</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="12">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="15">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="P65" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="16">
-        <f t="shared" ref="Q65:Q77" si="106">P65</f>
-        <v>0</v>
-      </c>
-      <c r="S65" s="12">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="15">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
       <c r="U65" s="16">
-        <f t="shared" ref="U65:U77" si="107">T65</f>
+        <f t="shared" ref="U65:U77" si="113">T65</f>
         <v>0</v>
       </c>
       <c r="W65" s="12">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="15">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="X65" s="15">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
       <c r="Y65" s="16">
-        <f t="shared" ref="Y65:Y77" si="108">X65</f>
+        <f t="shared" ref="Y65:Y77" si="114">X65</f>
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AB65" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
-        <f t="shared" ref="AC65:AC77" si="109">AB65</f>
+        <f t="shared" ref="AC65:AC77" si="115">AB65</f>
         <v>0</v>
       </c>
     </row>
@@ -31698,75 +31698,75 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="G66" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H66" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I66" s="16">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="12">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="15">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="16">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="12">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="15">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="16">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="12">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="15">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="16">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="12">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="15">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="16">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="12">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="15">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="K66" s="12">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="16">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="12">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="16">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="12">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="15">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="U66" s="16">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="12">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="15">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="16">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="12">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="15">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
       <c r="AC66" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -31782,75 +31782,75 @@
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="G67" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H67" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I67" s="16">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="12">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="15">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="16">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="12">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="15">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="16">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="12">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="15">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="16">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="12">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="15">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="16">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="12">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="15">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="K67" s="12">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="16">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="12">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="16">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="12">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="15">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="16">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="12">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="15">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="16">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="12">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="15">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
       <c r="AC67" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -31871,90 +31871,90 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" ref="G68:G70" si="110">$C68*F68</f>
+        <f t="shared" ref="G68:G70" si="116">$C68*F68</f>
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="H68" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" ref="K68:K70" si="111">$C68*J68</f>
+        <f t="shared" ref="K68:K70" si="117">$C68*J68</f>
         <v>0</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" ref="O68:O70" si="112">$C68*N68</f>
+        <f t="shared" ref="O68:O70" si="118">$C68*N68</f>
         <v>0</v>
       </c>
       <c r="P68" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" ref="S68:S70" si="113">$C68*R68</f>
+        <f t="shared" ref="S68:S70" si="119">$C68*R68</f>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" ref="W68:W70" si="114">$C68*V68</f>
+        <f t="shared" ref="W68:W70" si="120">$C68*V68</f>
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="Y68" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" ref="AA68:AA70" si="115">$C68*Z68</f>
+        <f t="shared" ref="AA68:AA70" si="121">$C68*Z68</f>
         <v>0</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -31975,90 +31975,90 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="15">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="16">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="H69" s="15">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="16">
+      <c r="J69" s="11">
+        <v>0</v>
+      </c>
+      <c r="K69" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="15">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="16">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+      <c r="O69" s="12">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="15">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="16">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="11">
+        <v>0</v>
+      </c>
+      <c r="S69" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="15">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="16">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="11">
+        <v>0</v>
+      </c>
+      <c r="W69" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="15">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="16">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="15">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="J69" s="11">
-        <v>0</v>
-      </c>
-      <c r="K69" s="12">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="16">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="11">
-        <v>0</v>
-      </c>
-      <c r="O69" s="12">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="16">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="11">
-        <v>0</v>
-      </c>
-      <c r="S69" s="12">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="15">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="16">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="11">
-        <v>0</v>
-      </c>
-      <c r="W69" s="12">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="15">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="16">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="12">
+      <c r="AC69" s="16">
         <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="15">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="16">
-        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -32079,90 +32079,90 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="15">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="16">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="H70" s="15">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="16">
+      <c r="J70" s="11">
+        <v>0</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="15">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="16">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="15">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="16">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="11">
+        <v>0</v>
+      </c>
+      <c r="S70" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="15">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="16">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="11">
+        <v>0</v>
+      </c>
+      <c r="W70" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="15">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="16">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="15">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="J70" s="11">
-        <v>0</v>
-      </c>
-      <c r="K70" s="12">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="16">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="11">
-        <v>0</v>
-      </c>
-      <c r="O70" s="12">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="16">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="R70" s="11">
-        <v>0</v>
-      </c>
-      <c r="S70" s="12">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="T70" s="15">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="16">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="11">
-        <v>0</v>
-      </c>
-      <c r="W70" s="12">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="15">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="16">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="12">
+      <c r="AC70" s="16">
         <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="15">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AC70" s="16">
-        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -32178,78 +32178,78 @@
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
       <c r="G71" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H71" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K93" si="116">J71</f>
+        <f t="shared" ref="K71:K77" si="122">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O93" si="117">N71</f>
+        <f t="shared" ref="O71:O77" si="123">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S93" si="118">R71</f>
+        <f t="shared" ref="S71:S77" si="124">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W93" si="119">V71</f>
+        <f t="shared" ref="W71:W77" si="125">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>90</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA93" si="120">Z71</f>
+        <f t="shared" ref="AA71:AA77" si="126">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -32265,78 +32265,78 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
       <c r="G72" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H72" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="X72" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -32352,78 +32352,78 @@
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
       <c r="G73" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H73" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>100</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="X73" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -32442,81 +32442,81 @@
         <v>50</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>50</v>
       </c>
       <c r="H74" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>50</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P74" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>40</v>
       </c>
     </row>
@@ -32535,78 +32535,78 @@
         <v>50</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>50</v>
       </c>
       <c r="H75" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>50</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -32622,78 +32622,78 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
       <c r="G76" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H76" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="P76" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>60</v>
       </c>
     </row>
@@ -32709,75 +32709,75 @@
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
       <c r="G77" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H77" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I77" s="16">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="15">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="16">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="15">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="16">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="12">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="15">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="16">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="12">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="15">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="16">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="12">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="15">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="K77" s="12">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="15">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="16">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="12">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="15">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="16">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="12">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="15">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="16">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="12">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="X77" s="15">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="Y77" s="16">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="12">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="15">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
       <c r="AC77" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -32800,11 +32800,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" ref="G78:G88" si="121">$C78*F78</f>
+        <f t="shared" ref="G78:G88" si="127">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
-        <f t="shared" ref="H78:H82" si="122">G78*$D78</f>
+        <f t="shared" ref="H78:H82" si="128">G78*$D78</f>
         <v>0</v>
       </c>
       <c r="I78" s="16">
@@ -32812,11 +32812,11 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K88" si="123">$C78*J78</f>
+        <f t="shared" ref="K78:K88" si="129">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
-        <f t="shared" ref="L78:L82" si="124">K78*$D78</f>
+        <f t="shared" ref="L78" si="130">K78*$D78</f>
         <v>0</v>
       </c>
       <c r="M78" s="16">
@@ -32824,11 +32824,11 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O88" si="125">$C78*N78</f>
+        <f t="shared" ref="O78:O88" si="131">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
-        <f t="shared" ref="P78:P82" si="126">O78*$D78</f>
+        <f t="shared" ref="P78" si="132">O78*$D78</f>
         <v>0</v>
       </c>
       <c r="Q78" s="16">
@@ -32839,11 +32839,11 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S88" si="127">$C78*R78</f>
+        <f t="shared" ref="S78:S88" si="133">$C78*R78</f>
         <v>1</v>
       </c>
       <c r="T78" s="15">
-        <f t="shared" ref="T78:T82" si="128">S78*$D78</f>
+        <f t="shared" ref="T78" si="134">S78*$D78</f>
         <v>1.5</v>
       </c>
       <c r="U78" s="16">
@@ -32851,11 +32851,11 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W88" si="129">$C78*V78</f>
+        <f t="shared" ref="W78:W88" si="135">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
-        <f t="shared" ref="X78:X82" si="130">W78*$D78</f>
+        <f t="shared" ref="X78" si="136">W78*$D78</f>
         <v>0</v>
       </c>
       <c r="Y78" s="16">
@@ -32863,11 +32863,11 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA88" si="131">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA88" si="137">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
-        <f t="shared" ref="AB78:AB82" si="132">AA78*$D78</f>
+        <f t="shared" ref="AB78" si="138">AA78*$D78</f>
         <v>0</v>
       </c>
       <c r="AC78" s="16">
@@ -32894,7 +32894,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="H79" s="15">
@@ -32906,7 +32906,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
@@ -32918,7 +32918,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
@@ -32933,7 +32933,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>2.5</v>
       </c>
       <c r="T79" s="15">
@@ -32945,7 +32945,7 @@
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
@@ -32957,7 +32957,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
@@ -32989,11 +32989,11 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0.1</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>0.2</v>
       </c>
       <c r="I80" s="16">
@@ -33004,11 +33004,11 @@
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" ref="L80:L84" si="133">K80*$D80</f>
+        <f t="shared" ref="L80" si="139">K80*$D80</f>
         <v>1</v>
       </c>
       <c r="M80" s="16">
@@ -33019,11 +33019,11 @@
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" ref="P80:P84" si="134">O80*$D80</f>
+        <f t="shared" ref="P80" si="140">O80*$D80</f>
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
@@ -33034,11 +33034,11 @@
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" ref="T80:T84" si="135">S80*$D80</f>
+        <f t="shared" ref="T80" si="141">S80*$D80</f>
         <v>1</v>
       </c>
       <c r="U80" s="16">
@@ -33049,11 +33049,11 @@
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" ref="X80:X84" si="136">W80*$D80</f>
+        <f t="shared" ref="X80" si="142">W80*$D80</f>
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
@@ -33064,11 +33064,11 @@
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>1</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" ref="AB80:AB84" si="137">AA80*$D80</f>
+        <f t="shared" ref="AB80" si="143">AA80*$D80</f>
         <v>2</v>
       </c>
       <c r="AC80" s="16">
@@ -33096,7 +33096,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>35</v>
       </c>
       <c r="H81" s="15">
@@ -33111,7 +33111,7 @@
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>30</v>
       </c>
       <c r="L81" s="15">
@@ -33126,7 +33126,7 @@
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>2.5</v>
       </c>
       <c r="P81" s="15">
@@ -33141,7 +33141,7 @@
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>7.5</v>
       </c>
       <c r="T81" s="15">
@@ -33156,7 +33156,7 @@
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>45</v>
       </c>
       <c r="X81" s="15">
@@ -33171,7 +33171,7 @@
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>35</v>
       </c>
       <c r="AB81" s="15">
@@ -33202,11 +33202,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="I82" s="16">
@@ -33214,11 +33214,11 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" ref="L82:L86" si="138">K82*$D82</f>
+        <f t="shared" ref="L82" si="144">K82*$D82</f>
         <v>0</v>
       </c>
       <c r="M82" s="16">
@@ -33226,11 +33226,11 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" ref="P82:P86" si="139">O82*$D82</f>
+        <f t="shared" ref="P82" si="145">O82*$D82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="16">
@@ -33241,11 +33241,11 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" ref="T82:T86" si="140">S82*$D82</f>
+        <f t="shared" ref="T82" si="146">S82*$D82</f>
         <v>1.875</v>
       </c>
       <c r="U82" s="16">
@@ -33256,11 +33256,11 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
-        <f t="shared" ref="X82:X86" si="141">W82*$D82</f>
+        <f t="shared" ref="X82" si="147">W82*$D82</f>
         <v>0.75</v>
       </c>
       <c r="Y82" s="16">
@@ -33268,11 +33268,11 @@
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
-        <f t="shared" ref="AB82:AB86" si="142">AA82*$D82</f>
+        <f t="shared" ref="AB82" si="148">AA82*$D82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="16">
@@ -33299,7 +33299,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
@@ -33311,7 +33311,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
@@ -33323,7 +33323,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
@@ -33338,7 +33338,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>40</v>
       </c>
       <c r="T83" s="15">
@@ -33353,7 +33353,7 @@
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>2.5</v>
       </c>
       <c r="X83" s="15">
@@ -33365,7 +33365,7 @@
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
@@ -33391,81 +33391,81 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="G84" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" ref="I84:I93" si="143">H84</f>
+        <f t="shared" ref="I84:I93" si="149">H84</f>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0.05</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="144">K84</f>
+        <f t="shared" ref="L84:L93" si="150">K84</f>
         <v>0.05</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="145">L84</f>
+        <f t="shared" ref="M84:M93" si="151">L84</f>
         <v>0.05</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="146">O84</f>
+        <f t="shared" ref="P84:P93" si="152">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="147">P84</f>
+        <f t="shared" ref="Q84:Q93" si="153">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0.5</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="148">S84</f>
+        <f t="shared" ref="T84:T93" si="154">S84</f>
         <v>0.5</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="149">T84</f>
+        <f t="shared" ref="U84:U93" si="155">T84</f>
         <v>0.5</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="150">W84</f>
+        <f t="shared" ref="X84:X93" si="156">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="151">X84</f>
+        <f t="shared" ref="Y84:Y93" si="157">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="152">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="158">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="153">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="159">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -33483,81 +33483,81 @@
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="G85" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="H85" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>15</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>15</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>15</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>22.5</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>22.5</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="155"/>
         <v>22.5</v>
       </c>
       <c r="W85" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -33578,90 +33578,90 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0.125</v>
       </c>
       <c r="H86" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0.125</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>0.125</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0.1</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0.1</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0.1</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0.05</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0.05</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0.05</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>1</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="155"/>
         <v>1</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>0.25</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>0.25</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>0.25</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>0.375</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="158"/>
         <v>0.375</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0.375</v>
       </c>
     </row>
@@ -33682,90 +33682,90 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>17.5</v>
       </c>
       <c r="H87" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>17.5</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>17.5</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>15</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>15</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>15</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>17.5</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>17.5</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>17.5</v>
       </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>25</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>25</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="155"/>
         <v>25</v>
       </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>22.5</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>22.5</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>22.5</v>
       </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>17.5</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="158"/>
         <v>17.5</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>17.5</v>
       </c>
     </row>
@@ -33783,75 +33783,75 @@
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="G88" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="O88" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Q88" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="S88" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="W88" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="Y88" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AC88" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -33867,75 +33867,75 @@
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="G89" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K93" si="154">J89</f>
+        <f t="shared" ref="K89:K90" si="160">J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" ref="O89:O93" si="155">N89</f>
+        <f t="shared" ref="O89:O90" si="161">N89</f>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Q89" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" ref="S89:S93" si="156">R89</f>
+        <f t="shared" ref="S89:S90" si="162">R89</f>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" ref="W89:W93" si="157">V89</f>
+        <f t="shared" ref="W89:W90" si="163">V89</f>
         <v>0</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="Y89" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA93" si="158">Z89</f>
+        <f t="shared" ref="AA89:AA90" si="164">Z89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AC89" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -33951,75 +33951,75 @@
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="G90" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H90" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="15">
         <f t="shared" si="154"/>
         <v>0</v>
       </c>
-      <c r="L90" s="15">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
+      <c r="U90" s="16">
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
-      <c r="P90" s="15">
-        <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="16">
-        <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="12">
+      <c r="W90" s="12">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="15">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="T90" s="15">
-        <f t="shared" si="148"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="149"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="12">
+      <c r="Y90" s="16">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
-      <c r="X90" s="15">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
       <c r="AA90" s="12">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="15">
         <f t="shared" si="158"/>
         <v>0</v>
       </c>
-      <c r="AB90" s="15">
-        <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
       <c r="AC90" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -34041,11 +34041,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -34053,11 +34053,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -34065,11 +34065,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -34080,11 +34080,11 @@
         <v>4.5</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>4.5</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="155"/>
         <v>4.5</v>
       </c>
       <c r="W91" s="12">
@@ -34092,11 +34092,11 @@
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -34104,11 +34104,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -34124,78 +34124,78 @@
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="G92" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H92" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92:K93" si="159">J92</f>
+        <f t="shared" ref="K92:K93" si="165">J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92:O93" si="160">N92</f>
+        <f t="shared" ref="O92:O93" si="166">N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92:S93" si="161">R92</f>
+        <f t="shared" ref="S92:S93" si="167">R92</f>
         <v>1</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>1</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="155"/>
         <v>1</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" ref="W92:W93" si="162">V92</f>
+        <f t="shared" ref="W92:W93" si="168">V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" ref="AA92:AA93" si="163">Z92</f>
+        <f t="shared" ref="AA92:AA93" si="169">Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -34211,78 +34211,78 @@
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
       <c r="G93" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="H93" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="159"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>5</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="155"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" si="162"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" si="163"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -48549,7 +48549,7 @@
       </c>
       <c r="G59">
         <f>'3_MechRemove_ModSeverity'!H59</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <f>'3_MechRemove_ModSeverity'!I59</f>
@@ -48669,7 +48669,7 @@
       </c>
       <c r="AK59">
         <f>'3_MechRemove_ModSeverity'!T59</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <f>'3_MechRemove_ModSeverity'!U59</f>
@@ -48795,7 +48795,7 @@
       </c>
       <c r="G60">
         <f>'3_MechRemove_ModSeverity'!H60</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <f>'3_MechRemove_ModSeverity'!I60</f>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="AK60">
         <f>'3_MechRemove_ModSeverity'!T60</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <f>'3_MechRemove_ModSeverity'!U60</f>
@@ -49041,7 +49041,7 @@
       </c>
       <c r="G61">
         <f>'3_MechRemove_ModSeverity'!H61</f>
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <f>'3_MechRemove_ModSeverity'!I61</f>
@@ -49161,7 +49161,7 @@
       </c>
       <c r="AK61">
         <f>'3_MechRemove_ModSeverity'!T61</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <f>'3_MechRemove_ModSeverity'!U61</f>
@@ -49201,7 +49201,7 @@
       </c>
       <c r="AU61">
         <f>'3_MechRemove_ModSeverity'!X61</f>
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="AV61">
         <f>'3_MechRemove_ModSeverity'!Y61</f>
@@ -49241,7 +49241,7 @@
       </c>
       <c r="BE61">
         <f>'3_MechRemove_ModSeverity'!AB61</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BF61">
         <f>'3_MechRemove_ModSeverity'!AC61</f>
@@ -49783,7 +49783,7 @@
       </c>
       <c r="H64">
         <f>'3_MechRemove_ModSeverity'!I64</f>
-        <v>236</v>
+        <v>115</v>
       </c>
       <c r="I64">
         <f>'3_MechRemove_HighSeverity'!G64</f>
@@ -49823,7 +49823,7 @@
       </c>
       <c r="R64">
         <f>'3_MechRemove_ModSeverity'!M64</f>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="S64">
         <f>'3_MechRemove_HighSeverity'!K64</f>
@@ -49863,7 +49863,7 @@
       </c>
       <c r="AB64">
         <f>'3_MechRemove_ModSeverity'!Q64</f>
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="AC64">
         <f>'3_MechRemove_HighSeverity'!O64</f>
@@ -49903,7 +49903,7 @@
       </c>
       <c r="AL64">
         <f>'3_MechRemove_ModSeverity'!U64</f>
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="AM64">
         <f>'3_MechRemove_HighSeverity'!S64</f>
@@ -49943,7 +49943,7 @@
       </c>
       <c r="AV64">
         <f>'3_MechRemove_ModSeverity'!Y64</f>
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="AW64">
         <f>'3_MechRemove_HighSeverity'!W64</f>
@@ -49983,7 +49983,7 @@
       </c>
       <c r="BF64">
         <f>'3_MechRemove_ModSeverity'!AC64</f>
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="BG64">
         <f>'3_MechRemove_HighSeverity'!AA64</f>

--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2606,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16516,10 +16516,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="450" activePane="bottomLeft"/>
-      <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="450" topLeftCell="A24" activePane="bottomLeft"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16954,7 +16954,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5:K20" si="7">J5</f>
+        <f t="shared" ref="K5" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O20" si="9">N5</f>
+        <f t="shared" ref="O5" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -16981,7 +16981,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S20" si="11">R5</f>
+        <f t="shared" ref="S5" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -16996,7 +16996,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:W20" si="13">V5</f>
+        <f t="shared" ref="W5" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -17011,7 +17011,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
+        <f t="shared" ref="AA5" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -17421,7 +17421,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10:K25" si="17">J10</f>
+        <f t="shared" ref="K10" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -17433,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10:O25" si="18">N10</f>
+        <f t="shared" ref="O10" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -17445,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10:S25" si="19">R10</f>
+        <f t="shared" ref="S10" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -17460,7 +17460,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10:W25" si="20">V10</f>
+        <f t="shared" ref="W10" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -17472,7 +17472,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
+        <f t="shared" ref="AA10" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -19937,66 +19937,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37:K44" si="36">J37</f>
+        <f t="shared" ref="K37" si="36">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37:L44" si="37">K37</f>
+        <f t="shared" ref="L37" si="37">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37:M50" si="38">L37</f>
+        <f t="shared" ref="M37" si="38">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37:O44" si="39">N37</f>
+        <f t="shared" ref="O37" si="39">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:P44" si="40">O37</f>
+        <f t="shared" ref="P37" si="40">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37:Q50" si="41">P37</f>
+        <f t="shared" ref="Q37" si="41">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37:S44" si="42">R37</f>
+        <f t="shared" ref="S37" si="42">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37:T44" si="43">S37</f>
+        <f t="shared" ref="T37" si="43">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37:U50" si="44">T37</f>
+        <f t="shared" ref="U37" si="44">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37:W44" si="45">V37</f>
+        <f t="shared" ref="W37" si="45">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37:X44" si="46">W37</f>
+        <f t="shared" ref="X37" si="46">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37:Y50" si="47">X37</f>
+        <f t="shared" ref="Y37" si="47">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37:AA44" si="48">Z37</f>
+        <f t="shared" ref="AA37" si="48">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AB44" si="49">AA37</f>
+        <f t="shared" ref="AB37" si="49">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37:AC50" si="50">AB37</f>
+        <f t="shared" ref="AC37" si="50">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -20143,7 +20143,7 @@
         <v>85</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" ref="M39:M52" si="51">L39</f>
+        <f t="shared" ref="M39:M40" si="51">L39</f>
         <v>85</v>
       </c>
       <c r="O39" s="12">
@@ -20155,7 +20155,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="16">
-        <f t="shared" ref="Q39:Q52" si="52">P39</f>
+        <f t="shared" ref="Q39:Q40" si="52">P39</f>
         <v>0</v>
       </c>
       <c r="R39" s="11">
@@ -20170,7 +20170,7 @@
         <v>90</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" ref="U39:U52" si="53">T39</f>
+        <f t="shared" ref="U39:U40" si="53">T39</f>
         <v>90</v>
       </c>
       <c r="W39" s="12">
@@ -20182,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="16">
-        <f t="shared" ref="Y39:Y52" si="54">X39</f>
+        <f t="shared" ref="Y39:Y40" si="54">X39</f>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" ref="AC39:AC52" si="55">AB39</f>
+        <f t="shared" ref="AC39:AC40" si="55">AB39</f>
         <v>0</v>
       </c>
     </row>
@@ -20225,11 +20225,11 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K47" si="56">J40</f>
+        <f t="shared" ref="K40" si="56">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40:L47" si="57">K40</f>
+        <f t="shared" ref="L40" si="57">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
@@ -20240,11 +20240,11 @@
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40:O47" si="58">N40</f>
+        <f t="shared" ref="O40" si="58">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:P47" si="59">O40</f>
+        <f t="shared" ref="P40" si="59">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
@@ -20255,11 +20255,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40:S47" si="60">R40</f>
+        <f t="shared" ref="S40" si="60">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40:T47" si="61">S40</f>
+        <f t="shared" ref="T40" si="61">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
@@ -20270,11 +20270,11 @@
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40:W47" si="62">V40</f>
+        <f t="shared" ref="W40" si="62">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40:X47" si="63">W40</f>
+        <f t="shared" ref="X40" si="63">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
@@ -20285,11 +20285,11 @@
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40:AA47" si="64">Z40</f>
+        <f t="shared" ref="AA40" si="64">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40:AB47" si="65">AA40</f>
+        <f t="shared" ref="AB40" si="65">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
@@ -20549,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M56" si="66">L43</f>
+        <f t="shared" ref="M43:M44" si="66">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -20564,7 +20564,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q56" si="67">P43</f>
+        <f t="shared" ref="Q43:Q44" si="67">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -20579,7 +20579,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U56" si="68">T43</f>
+        <f t="shared" ref="U43:U44" si="68">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -20594,7 +20594,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y56" si="69">X43</f>
+        <f t="shared" ref="Y43:Y44" si="69">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -20609,7 +20609,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC56" si="70">AB43</f>
+        <f t="shared" ref="AC43:AC44" si="70">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -20640,11 +20640,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44:K51" si="71">J44</f>
+        <f t="shared" ref="K44" si="71">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44:L51" si="72">K44</f>
+        <f t="shared" ref="L44" si="72">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -20655,11 +20655,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44:O51" si="73">N44</f>
+        <f t="shared" ref="O44" si="73">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44:P51" si="74">O44</f>
+        <f t="shared" ref="P44" si="74">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -20670,11 +20670,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44:S51" si="75">R44</f>
+        <f t="shared" ref="S44" si="75">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44:T51" si="76">S44</f>
+        <f t="shared" ref="T44" si="76">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -20682,11 +20682,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44:W51" si="77">V44</f>
+        <f t="shared" ref="W44" si="77">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44:X51" si="78">W44</f>
+        <f t="shared" ref="X44" si="78">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -20697,11 +20697,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44:AA51" si="79">Z44</f>
+        <f t="shared" ref="AA44" si="79">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44:AB51" si="80">AA44</f>
+        <f t="shared" ref="AB44" si="80">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -20955,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47:M60" si="81">L47</f>
+        <f t="shared" ref="M47" si="81">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -20970,7 +20970,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47:Q60" si="82">P47</f>
+        <f t="shared" ref="Q47" si="82">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -20985,7 +20985,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47:U60" si="83">T47</f>
+        <f t="shared" ref="U47" si="83">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47:Y60" si="84">X47</f>
+        <f t="shared" ref="Y47" si="84">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -21012,7 +21012,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47:AC60" si="85">AB47</f>
+        <f t="shared" ref="AC47" si="85">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -21055,7 +21055,7 @@
         <v>0.5</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" ref="L48:L77" si="88">K48</f>
+        <f t="shared" ref="L48:L52" si="88">K48</f>
         <v>0.5</v>
       </c>
       <c r="M48" s="16">
@@ -21067,7 +21067,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48:P77" si="90">O48</f>
+        <f t="shared" ref="P48:P52" si="90">O48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
@@ -21082,7 +21082,7 @@
         <v>0.25</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T77" si="92">S48</f>
+        <f t="shared" ref="T48:T52" si="92">S48</f>
         <v>0.25</v>
       </c>
       <c r="U48" s="16">
@@ -21097,7 +21097,7 @@
         <v>0.5</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" ref="X48:X77" si="94">W48</f>
+        <f t="shared" ref="X48:X52" si="94">W48</f>
         <v>0.5</v>
       </c>
       <c r="Y48" s="16">
@@ -21112,7 +21112,7 @@
         <v>0.25</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="AB48:AB77" si="96">AA48</f>
+        <f t="shared" ref="AB48:AB52" si="96">AA48</f>
         <v>0.25</v>
       </c>
       <c r="AC48" s="16">
@@ -21155,7 +21155,7 @@
         <v>50</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" ref="K49:K58" si="99">$C49*J49</f>
+        <f t="shared" ref="K49:K55" si="99">$C49*J49</f>
         <v>25</v>
       </c>
       <c r="L49" s="15">
@@ -21167,7 +21167,7 @@
         <v>50</v>
       </c>
       <c r="O49" s="12">
-        <f t="shared" ref="O49:O58" si="100">$C49*N49</f>
+        <f t="shared" ref="O49:O55" si="100">$C49*N49</f>
         <v>0</v>
       </c>
       <c r="P49" s="15">
@@ -21182,7 +21182,7 @@
         <v>30</v>
       </c>
       <c r="S49" s="12">
-        <f t="shared" ref="S49:S58" si="101">$C49*R49</f>
+        <f t="shared" ref="S49:S55" si="101">$C49*R49</f>
         <v>15</v>
       </c>
       <c r="T49" s="15">
@@ -21197,7 +21197,7 @@
         <v>40</v>
       </c>
       <c r="W49" s="12">
-        <f t="shared" ref="W49:W58" si="102">$C49*V49</f>
+        <f t="shared" ref="W49:W55" si="102">$C49*V49</f>
         <v>20</v>
       </c>
       <c r="X49" s="15">
@@ -21212,7 +21212,7 @@
         <v>15</v>
       </c>
       <c r="AA49" s="12">
-        <f t="shared" ref="AA49:AA58" si="103">$C49*Z49</f>
+        <f t="shared" ref="AA49:AA55" si="103">$C49*Z49</f>
         <v>7.5</v>
       </c>
       <c r="AB49" s="15">
@@ -21983,7 +21983,7 @@
         <v>14.8</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" ref="K57:K66" si="104">$C57*J57</f>
+        <f t="shared" ref="K57:K58" si="104">$C57*J57</f>
         <v>0</v>
       </c>
       <c r="L57" s="15">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="12">
-        <f t="shared" ref="O57:O66" si="105">$C57*N57</f>
+        <f t="shared" ref="O57:O58" si="105">$C57*N57</f>
         <v>0</v>
       </c>
       <c r="P57" s="15">
@@ -22010,7 +22010,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" ref="S57:S66" si="106">$C57*R57</f>
+        <f t="shared" ref="S57:S58" si="106">$C57*R57</f>
         <v>0</v>
       </c>
       <c r="T57" s="15">
@@ -22025,7 +22025,7 @@
         <v>0.3</v>
       </c>
       <c r="W57" s="12">
-        <f t="shared" ref="W57:W66" si="107">$C57*V57</f>
+        <f t="shared" ref="W57:W58" si="107">$C57*V57</f>
         <v>0.24</v>
       </c>
       <c r="X57" s="15">
@@ -22037,7 +22037,7 @@
         <v>0.49</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" ref="AA57:AA66" si="108">$C57*Z57</f>
+        <f t="shared" ref="AA57:AA58" si="108">$C57*Z57</f>
         <v>0</v>
       </c>
       <c r="AB57" s="15">
@@ -22169,74 +22169,74 @@
         <v>9.6</v>
       </c>
       <c r="H59" s="15">
-        <f>$E59*G59</f>
-        <v>0</v>
+        <f>G59</f>
+        <v>9.6</v>
       </c>
       <c r="I59" s="16">
         <f>$E59*H59</f>
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K93" si="110">J59</f>
+        <f t="shared" ref="K59:K60" si="110">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
-        <f>$E59*K59</f>
+        <f t="shared" ref="L59:M61" si="111">$E59*K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f>$E59*L59</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O93" si="111">N59</f>
+        <f t="shared" ref="O59:O60" si="112">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f>$E59*O59</f>
+        <f t="shared" ref="P59:Q61" si="113">$E59*O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f>$E59*P59</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R59" s="11">
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S93" si="112">R59</f>
+        <f t="shared" ref="S59:S60" si="114">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
-        <f>$E59*S59</f>
+        <f t="shared" ref="T59:U61" si="115">$E59*S59</f>
         <v>0</v>
       </c>
       <c r="U59" s="16">
-        <f>$E59*T59</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W93" si="113">V59</f>
+        <f t="shared" ref="W59:W60" si="116">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <f>$E59*W59</f>
+        <f t="shared" ref="X59:Y61" si="117">$E59*W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
-        <f>$E59*X59</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA93" si="114">Z59</f>
+        <f t="shared" ref="AA59:AA60" si="118">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <f>$E59*AA59</f>
+        <f t="shared" ref="AB59:AC61" si="119">$E59*AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f>$E59*AB59</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -22261,8 +22261,8 @@
         <v>0.4</v>
       </c>
       <c r="H60" s="15">
-        <f>$E60*G60</f>
-        <v>0</v>
+        <f>G60</f>
+        <v>0.4</v>
       </c>
       <c r="I60" s="16">
         <f>$E60*H60</f>
@@ -22273,62 +22273,62 @@
         <v>0</v>
       </c>
       <c r="L60" s="15">
-        <f>$E60*K60</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M60" s="16">
-        <f>$E60*L60</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P60" s="15">
-        <f>$E60*O60</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q60" s="16">
-        <f>$E60*P60</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R60" s="11">
         <v>2</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="T60" s="15">
-        <f>$E60*S60</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U60" s="16">
-        <f>$E60*T60</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="W60" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="X60" s="15">
-        <f>$E60*W60</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y60" s="16">
-        <f>$E60*X60</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AB60" s="15">
-        <f>$E60*AA60</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC60" s="16">
-        <f>$E60*AB60</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -22355,8 +22355,8 @@
         <v>121</v>
       </c>
       <c r="H61" s="15">
-        <f>$E61*G61</f>
-        <v>0</v>
+        <f>G61</f>
+        <v>121</v>
       </c>
       <c r="I61" s="16">
         <f>$E61*H61</f>
@@ -22367,11 +22367,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="15">
-        <f>$E61*K61</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M61" s="16">
-        <f>$E61*L61</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O61" s="12">
@@ -22379,11 +22379,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="15">
-        <f>$E61*O61</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f>$E61*P61</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R61" s="11">
@@ -22394,11 +22394,11 @@
         <v>1800</v>
       </c>
       <c r="T61" s="15">
-        <f>$E61*S61</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U61" s="16">
-        <f>$E61*T61</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="W61" s="12">
@@ -22406,11 +22406,11 @@
         <v>97.5</v>
       </c>
       <c r="X61" s="15">
-        <f>$E61*W61</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y61" s="16">
-        <f>$E61*X61</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="AA61" s="12">
@@ -22418,11 +22418,11 @@
         <v>50</v>
       </c>
       <c r="AB61" s="15">
-        <f>$E61*AA61</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC61" s="16">
-        <f>$E61*AB61</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
     </row>
@@ -22455,11 +22455,11 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="115">J62</f>
+        <f t="shared" ref="K62:K67" si="120">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" ref="L62:L91" si="116">K62</f>
+        <f t="shared" ref="L62:L77" si="121">K62</f>
         <v>0</v>
       </c>
       <c r="M62" s="16">
@@ -22467,11 +22467,11 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="117">N62</f>
+        <f t="shared" ref="O62:O67" si="122">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
-        <f t="shared" ref="P62:P91" si="118">O62</f>
+        <f t="shared" ref="P62:P77" si="123">O62</f>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
@@ -22482,11 +22482,11 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="119">R62</f>
+        <f t="shared" ref="S62:S67" si="124">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" ref="T62:T91" si="120">S62</f>
+        <f t="shared" ref="T62:T77" si="125">S62</f>
         <v>3.5</v>
       </c>
       <c r="U62" s="16">
@@ -22497,11 +22497,11 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="121">V62</f>
+        <f t="shared" ref="W62:W67" si="126">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" ref="X62:X91" si="122">W62</f>
+        <f t="shared" ref="X62:X77" si="127">W62</f>
         <v>10</v>
       </c>
       <c r="Y62" s="16">
@@ -22512,11 +22512,11 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="123">Z62</f>
+        <f t="shared" ref="AA62:AA67" si="128">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" ref="AB62:AB91" si="124">AA62</f>
+        <f t="shared" ref="AB62:AB77" si="129">AA62</f>
         <v>10</v>
       </c>
       <c r="AC62" s="16">
@@ -22553,11 +22553,11 @@
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="M63" s="16">
@@ -22565,11 +22565,11 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
@@ -22580,11 +22580,11 @@
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>2</v>
       </c>
       <c r="U63" s="16">
@@ -22595,11 +22595,11 @@
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="X63" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>1</v>
       </c>
       <c r="Y63" s="16">
@@ -22610,11 +22610,11 @@
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="AB63" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>1</v>
       </c>
       <c r="AC63" s="16">
@@ -22648,14 +22648,14 @@
       </c>
       <c r="I64" s="16">
         <f>H64+H61</f>
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="M64" s="16">
@@ -22663,11 +22663,11 @@
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
@@ -22678,11 +22678,11 @@
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>50</v>
       </c>
       <c r="U64" s="16">
@@ -22693,11 +22693,11 @@
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>5</v>
       </c>
       <c r="X64" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>5</v>
       </c>
       <c r="Y64" s="16">
@@ -22708,11 +22708,11 @@
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>3</v>
       </c>
       <c r="AB64" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>3</v>
       </c>
       <c r="AC64" s="16">
@@ -22744,11 +22744,11 @@
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="M65" s="16">
@@ -22756,11 +22756,11 @@
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="P65" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="Q65" s="16">
@@ -22768,11 +22768,11 @@
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T65" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="U65" s="16">
@@ -22780,11 +22780,11 @@
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X65" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="Y65" s="16">
@@ -22792,11 +22792,11 @@
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AB65" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
@@ -22828,11 +22828,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="M66" s="16">
@@ -22840,11 +22840,11 @@
         <v>0</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="P66" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="Q66" s="16">
@@ -22852,11 +22852,11 @@
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="U66" s="16">
@@ -22864,11 +22864,11 @@
         <v>0</v>
       </c>
       <c r="W66" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="Y66" s="16">
@@ -22876,11 +22876,11 @@
         <v>0</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AB66" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AC66" s="16">
@@ -22908,67 +22908,67 @@
         <v>0</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" ref="I67:I93" si="125">H67</f>
+        <f t="shared" ref="I67:I93" si="130">H67</f>
         <v>0</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="L67" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="M67" s="16">
-        <f t="shared" ref="M67:M93" si="126">L67</f>
+        <f t="shared" ref="M67:M77" si="131">L67</f>
         <v>0</v>
       </c>
       <c r="O67" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="P67" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="Q67" s="16">
-        <f t="shared" ref="Q67:Q93" si="127">P67</f>
+        <f t="shared" ref="Q67:Q77" si="132">P67</f>
         <v>0</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="T67" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="U67" s="16">
-        <f t="shared" ref="U67:U93" si="128">T67</f>
+        <f t="shared" ref="U67:U77" si="133">T67</f>
         <v>0</v>
       </c>
       <c r="W67" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X67" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="Y67" s="16">
-        <f t="shared" ref="Y67:Y93" si="129">X67</f>
+        <f t="shared" ref="Y67:Y77" si="134">X67</f>
         <v>0</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="AB67" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AC67" s="16">
-        <f t="shared" ref="AC67:AC93" si="130">AB67</f>
+        <f t="shared" ref="AC67:AC77" si="135">AB67</f>
         <v>0</v>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" ref="G68:G70" si="131">$C68*F68</f>
+        <f t="shared" ref="G68:G70" si="136">$C68*F68</f>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="H68" s="15">
@@ -22997,82 +22997,82 @@
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" ref="K68:K70" si="132">$C68*J68</f>
+        <f t="shared" ref="K68:K70" si="137">$C68*J68</f>
         <v>0</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" ref="O68:O70" si="133">$C68*N68</f>
+        <f t="shared" ref="O68:O70" si="138">$C68*N68</f>
         <v>0</v>
       </c>
       <c r="P68" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" ref="S68:S70" si="134">$C68*R68</f>
+        <f t="shared" ref="S68:S70" si="139">$C68*R68</f>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" ref="W68:W70" si="135">$C68*V68</f>
+        <f t="shared" ref="W68:W70" si="140">$C68*V68</f>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="Y68" s="16">
+        <f t="shared" si="134"/>
+        <v>6.7946500000000007E-2</v>
+      </c>
+      <c r="Z68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="12">
+        <f t="shared" ref="AA68:AA70" si="141">$C68*Z68</f>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="15">
         <f t="shared" si="129"/>
-        <v>6.7946500000000007E-2</v>
-      </c>
-      <c r="Z68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="12">
-        <f t="shared" ref="AA68:AA70" si="136">$C68*Z68</f>
-        <v>0</v>
-      </c>
-      <c r="AB68" s="15">
-        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -23093,7 +23093,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="H69" s="15">
@@ -23101,82 +23101,82 @@
         <v>0</v>
       </c>
       <c r="I69" s="16">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0</v>
+      </c>
+      <c r="K69" s="12">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="15">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="16">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+      <c r="O69" s="12">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="15">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="16">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="11">
+        <v>0</v>
+      </c>
+      <c r="S69" s="12">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="15">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="J69" s="11">
-        <v>0</v>
-      </c>
-      <c r="K69" s="12">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="15">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="16">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="11">
-        <v>0</v>
-      </c>
-      <c r="O69" s="12">
+      <c r="U69" s="16">
         <f t="shared" si="133"/>
         <v>0</v>
       </c>
-      <c r="P69" s="15">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="16">
+      <c r="V69" s="11">
+        <v>0</v>
+      </c>
+      <c r="W69" s="12">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="15">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="R69" s="11">
-        <v>0</v>
-      </c>
-      <c r="S69" s="12">
+      <c r="Y69" s="16">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
-      <c r="T69" s="15">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="16">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="11">
-        <v>0</v>
-      </c>
-      <c r="W69" s="12">
+      <c r="Z69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="12">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="15">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="16">
         <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="15">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="16">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="12">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="15">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="16">
-        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23197,7 +23197,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="H70" s="15">
@@ -23205,82 +23205,82 @@
         <v>0</v>
       </c>
       <c r="I70" s="16">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="11">
+        <v>0</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="15">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="16">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="15">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="16">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="11">
+        <v>0</v>
+      </c>
+      <c r="S70" s="12">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="15">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="J70" s="11">
-        <v>0</v>
-      </c>
-      <c r="K70" s="12">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="15">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="16">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="11">
-        <v>0</v>
-      </c>
-      <c r="O70" s="12">
+      <c r="U70" s="16">
         <f t="shared" si="133"/>
         <v>0</v>
       </c>
-      <c r="P70" s="15">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="16">
+      <c r="V70" s="11">
+        <v>0</v>
+      </c>
+      <c r="W70" s="12">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="15">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="R70" s="11">
-        <v>0</v>
-      </c>
-      <c r="S70" s="12">
+      <c r="Y70" s="16">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
-      <c r="T70" s="15">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="16">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="11">
-        <v>0</v>
-      </c>
-      <c r="W70" s="12">
+      <c r="Z70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="12">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="15">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="16">
         <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="15">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="16">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="12">
-        <f t="shared" si="136"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="15">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
-      <c r="AC70" s="16">
-        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23304,70 +23304,70 @@
         <v>0</v>
       </c>
       <c r="I71" s="16">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="12">
+        <f t="shared" ref="K71:K77" si="142">J71</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="15">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="16">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="12">
+        <f t="shared" ref="O71:O77" si="143">N71</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="15">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="16">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="12">
+        <f t="shared" ref="S71:S77" si="144">R71</f>
+        <v>0</v>
+      </c>
+      <c r="T71" s="15">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="K71" s="12">
-        <f t="shared" ref="K71:K93" si="137">J71</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="15">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="16">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="12">
-        <f t="shared" ref="O71:O93" si="138">N71</f>
-        <v>0</v>
-      </c>
-      <c r="P71" s="15">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="16">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="S71" s="12">
-        <f t="shared" ref="S71:S93" si="139">R71</f>
-        <v>0</v>
-      </c>
-      <c r="T71" s="15">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
       <c r="U71" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W93" si="140">V71</f>
+        <f t="shared" ref="W71:W77" si="145">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>90</v>
       </c>
       <c r="Y71" s="16">
+        <f t="shared" si="134"/>
+        <v>90</v>
+      </c>
+      <c r="AA71" s="12">
+        <f t="shared" ref="AA71:AA77" si="146">Z71</f>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="15">
         <f t="shared" si="129"/>
-        <v>90</v>
-      </c>
-      <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA93" si="141">Z71</f>
-        <v>0</v>
-      </c>
-      <c r="AB71" s="15">
-        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -23391,70 +23391,70 @@
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="12">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="15">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="16">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="12">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="15">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="S72" s="12">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="T72" s="15">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="U72" s="16">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="W72" s="12">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="X72" s="15">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
       <c r="Y72" s="16">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="12">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="15">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AA72" s="12">
-        <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="AB72" s="15">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
       <c r="AC72" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -23478,70 +23478,70 @@
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>100</v>
       </c>
       <c r="Q73" s="16">
+        <f t="shared" si="132"/>
+        <v>100</v>
+      </c>
+      <c r="S73" s="12">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="15">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="16">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="12">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="15">
         <f t="shared" si="127"/>
-        <v>100</v>
-      </c>
-      <c r="S73" s="12">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="15">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="16">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="12">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="X73" s="15">
-        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="12">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="15">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AA73" s="12">
-        <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="AB73" s="15">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
       <c r="AC73" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -23568,73 +23568,73 @@
         <v>50</v>
       </c>
       <c r="I74" s="16">
+        <f t="shared" si="130"/>
+        <v>50</v>
+      </c>
+      <c r="K74" s="12">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="15">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="16">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="12">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="15">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="16">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="12">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="15">
         <f t="shared" si="125"/>
-        <v>50</v>
-      </c>
-      <c r="K74" s="12">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="15">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="16">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="12">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="15">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="16">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="12">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="T74" s="15">
-        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>40</v>
       </c>
     </row>
@@ -23661,70 +23661,70 @@
         <v>50</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="144"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="12">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="15">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AA75" s="12">
-        <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="15">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
       <c r="AC75" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -23748,70 +23748,70 @@
         <v>0</v>
       </c>
       <c r="I76" s="16">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="12">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="15">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="16">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="12">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="15">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="16">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="12">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="15">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="K76" s="12">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="15">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="16">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="O76" s="12">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="15">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Q76" s="16">
+      <c r="U76" s="16">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="12">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="15">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="S76" s="12">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="T76" s="15">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="U76" s="16">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="W76" s="12">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="X76" s="15">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
       <c r="Y76" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="146"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>60</v>
       </c>
     </row>
@@ -23835,67 +23835,67 @@
         <v>0</v>
       </c>
       <c r="I77" s="16">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="12">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="15">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="16">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="12">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="15">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="16">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="12">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="15">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="K77" s="12">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="15">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="16">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="12">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="15">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="16">
+      <c r="U77" s="16">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="12">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="15">
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="S77" s="12">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="15">
-        <f t="shared" si="120"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="16">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="12">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="X77" s="15">
-        <f t="shared" si="122"/>
-        <v>0</v>
-      </c>
       <c r="Y77" s="16">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="12">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="15">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AA77" s="12">
-        <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="15">
-        <f t="shared" si="124"/>
-        <v>0</v>
-      </c>
       <c r="AC77" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -23916,7 +23916,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" ref="G78:G88" si="142">$C78*F78</f>
+        <f t="shared" ref="G78:G88" si="147">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
@@ -23928,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K88" si="143">$C78*J78</f>
+        <f t="shared" ref="K78:K88" si="148">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O88" si="144">$C78*N78</f>
+        <f t="shared" ref="O78:O88" si="149">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
@@ -23955,7 +23955,7 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S88" si="145">$C78*R78</f>
+        <f t="shared" ref="S78:S88" si="150">$C78*R78</f>
         <v>1</v>
       </c>
       <c r="T78" s="15">
@@ -23967,7 +23967,7 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W88" si="146">$C78*V78</f>
+        <f t="shared" ref="W78:W88" si="151">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
@@ -23979,7 +23979,7 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA88" si="147">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA88" si="152">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
@@ -24008,7 +24008,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="H79" s="15">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
@@ -24047,7 +24047,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>2.5</v>
       </c>
       <c r="T79" s="15">
@@ -24059,7 +24059,7 @@
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
@@ -24103,7 +24103,7 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0.1</v>
       </c>
       <c r="H80" s="15">
@@ -24111,14 +24111,14 @@
         <v>0.2</v>
       </c>
       <c r="I80" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="J80" s="11">
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
@@ -24126,14 +24126,14 @@
         <v>1</v>
       </c>
       <c r="M80" s="16">
-        <f t="shared" ref="M80:M93" si="148">L80</f>
+        <f t="shared" ref="M80:M81" si="153">L80</f>
         <v>1</v>
       </c>
       <c r="N80" s="11">
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
@@ -24141,14 +24141,14 @@
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
-        <f t="shared" ref="Q80:Q93" si="149">P80</f>
+        <f t="shared" ref="Q80:Q81" si="154">P80</f>
         <v>2.5</v>
       </c>
       <c r="R80" s="11">
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
@@ -24156,14 +24156,14 @@
         <v>1</v>
       </c>
       <c r="U80" s="16">
-        <f t="shared" ref="U80:U93" si="150">T80</f>
+        <f t="shared" ref="U80:U81" si="155">T80</f>
         <v>1</v>
       </c>
       <c r="V80" s="11">
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
@@ -24171,14 +24171,14 @@
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
-        <f t="shared" ref="Y80:Y93" si="151">X80</f>
+        <f t="shared" ref="Y80:Y81" si="156">X80</f>
         <v>1.5</v>
       </c>
       <c r="Z80" s="11">
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>1</v>
       </c>
       <c r="AB80" s="15">
@@ -24186,7 +24186,7 @@
         <v>2</v>
       </c>
       <c r="AC80" s="16">
-        <f t="shared" ref="AC80:AC93" si="152">AB80</f>
+        <f t="shared" ref="AC80:AC81" si="157">AB80</f>
         <v>2</v>
       </c>
     </row>
@@ -24210,7 +24210,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>35</v>
       </c>
       <c r="H81" s="15">
@@ -24218,14 +24218,14 @@
         <v>70</v>
       </c>
       <c r="I81" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>70</v>
       </c>
       <c r="J81" s="11">
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>30</v>
       </c>
       <c r="L81" s="15">
@@ -24233,14 +24233,14 @@
         <v>60</v>
       </c>
       <c r="M81" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="153"/>
         <v>60</v>
       </c>
       <c r="N81" s="11">
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>2.5</v>
       </c>
       <c r="P81" s="15">
@@ -24248,14 +24248,14 @@
         <v>5</v>
       </c>
       <c r="Q81" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="154"/>
         <v>5</v>
       </c>
       <c r="R81" s="11">
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>7.5</v>
       </c>
       <c r="T81" s="15">
@@ -24263,14 +24263,14 @@
         <v>15</v>
       </c>
       <c r="U81" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>15</v>
       </c>
       <c r="V81" s="11">
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>45</v>
       </c>
       <c r="X81" s="15">
@@ -24278,14 +24278,14 @@
         <v>90</v>
       </c>
       <c r="Y81" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>90</v>
       </c>
       <c r="Z81" s="11">
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>35</v>
       </c>
       <c r="AB81" s="15">
@@ -24293,7 +24293,7 @@
         <v>70</v>
       </c>
       <c r="AC81" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>70</v>
       </c>
     </row>
@@ -24314,7 +24314,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="P82" s="15">
@@ -24353,7 +24353,7 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
@@ -24368,7 +24368,7 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
@@ -24380,7 +24380,7 @@
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
@@ -24409,7 +24409,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
@@ -24433,7 +24433,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
@@ -24448,7 +24448,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>40</v>
       </c>
       <c r="T83" s="15">
@@ -24463,7 +24463,7 @@
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>2.5</v>
       </c>
       <c r="X83" s="15">
@@ -24475,7 +24475,7 @@
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
@@ -24501,7 +24501,7 @@
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
       <c r="G84" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
@@ -24509,73 +24509,73 @@
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>0.1</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="153">K84</f>
+        <f t="shared" ref="L84:L93" si="158">K84</f>
         <v>0.1</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="154">L84</f>
+        <f t="shared" ref="M84:M93" si="159">L84</f>
         <v>0.1</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="155">O84</f>
+        <f t="shared" ref="P84:P93" si="160">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="156">P84</f>
+        <f t="shared" ref="Q84:Q93" si="161">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>1</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="157">S84</f>
+        <f t="shared" ref="T84:T93" si="162">S84</f>
         <v>1</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="158">T84</f>
+        <f t="shared" ref="U84:U93" si="163">T84</f>
         <v>1</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="159">W84</f>
+        <f t="shared" ref="X84:X93" si="164">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="160">X84</f>
+        <f t="shared" ref="Y84:Y93" si="165">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="161">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="166">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="162">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="167">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -24593,7 +24593,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
       <c r="G85" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="H85" s="15">
@@ -24601,73 +24601,73 @@
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>30</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>30</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>30</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>45</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>45</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>45</v>
       </c>
       <c r="W85" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -24688,7 +24688,7 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0.25</v>
       </c>
       <c r="H86" s="15">
@@ -24696,82 +24696,82 @@
         <v>0.25</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0.25</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>0.2</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0.2</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.2</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>0.1</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0.1</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0.1</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>2</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>2</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>2</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>0.5</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0.5</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0.5</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>0.75</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0.75</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0.75</v>
       </c>
     </row>
@@ -24792,7 +24792,7 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>35</v>
       </c>
       <c r="H87" s="15">
@@ -24800,82 +24800,82 @@
         <v>35</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>35</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>30</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>30</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>30</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>35</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>35</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>35</v>
       </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>50</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>50</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>50</v>
       </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>45</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>45</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>45</v>
       </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>35</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>35</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>35</v>
       </c>
     </row>
@@ -24893,7 +24893,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="G88" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
@@ -24901,67 +24901,67 @@
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="O88" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="Q88" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="S88" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="W88" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Y88" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AC88" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -24985,67 +24985,67 @@
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K93" si="163">J89</f>
+        <f t="shared" ref="K89:K90" si="168">J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" ref="O89:O93" si="164">N89</f>
+        <f t="shared" ref="O89:O90" si="169">N89</f>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="Q89" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" ref="S89:S93" si="165">R89</f>
+        <f t="shared" ref="S89:S90" si="170">R89</f>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" ref="W89:W93" si="166">V89</f>
+        <f t="shared" ref="W89:W90" si="171">V89</f>
         <v>0</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Y89" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA93" si="167">Z89</f>
+        <f t="shared" ref="AA89:AA90" si="172">Z89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AC89" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -25069,67 +25069,67 @@
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" si="169"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="15">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="16">
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="L90" s="15">
-        <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
+      <c r="W90" s="12">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="15">
         <f t="shared" si="164"/>
         <v>0</v>
       </c>
-      <c r="P90" s="15">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="16">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="12">
+      <c r="Y90" s="16">
         <f t="shared" si="165"/>
         <v>0</v>
       </c>
-      <c r="T90" s="15">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="158"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="12">
+      <c r="AA90" s="12">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="15">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="X90" s="15">
-        <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="12">
+      <c r="AC90" s="16">
         <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="15">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="AC90" s="16">
-        <f t="shared" si="162"/>
         <v>0</v>
       </c>
     </row>
@@ -25155,7 +25155,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -25163,11 +25163,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -25175,11 +25175,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -25190,11 +25190,11 @@
         <v>9</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>9</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>9</v>
       </c>
       <c r="W91" s="12">
@@ -25202,11 +25202,11 @@
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -25214,11 +25214,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -25242,70 +25242,70 @@
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92:K93" si="168">J92</f>
+        <f t="shared" ref="K92:K93" si="173">J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92:O93" si="169">N92</f>
+        <f t="shared" ref="O92:O93" si="174">N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92:S93" si="170">R92</f>
+        <f t="shared" ref="S92:S93" si="175">R92</f>
         <v>1</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>1</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>1</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" ref="W92:W93" si="171">V92</f>
+        <f t="shared" ref="W92:W93" si="176">V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" ref="AA92:AA93" si="172">Z92</f>
+        <f t="shared" ref="AA92:AA93" si="177">Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -25329,70 +25329,70 @@
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="175"/>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>5</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" si="171"/>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -25405,8 +25405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31044,7 +31044,9 @@
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
       <c r="F59" s="11">
         <v>9.6</v>
       </c>
@@ -31057,8 +31059,8 @@
         <v>9.6</v>
       </c>
       <c r="I59" s="16">
-        <f>H59</f>
-        <v>9.6</v>
+        <f>$E59*H59</f>
+        <v>0</v>
       </c>
       <c r="K59" s="12">
         <f t="shared" ref="K59:K60" si="95">J59</f>
@@ -31134,7 +31136,9 @@
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
       <c r="F60" s="11">
         <v>0.4</v>
       </c>
@@ -31147,8 +31151,8 @@
         <v>0.4</v>
       </c>
       <c r="I60" s="16">
-        <f>H60</f>
-        <v>0.4</v>
+        <f t="shared" ref="I59:I61" si="105">$E60*H60</f>
+        <v>0</v>
       </c>
       <c r="K60" s="12">
         <f t="shared" si="95"/>
@@ -31241,7 +31245,7 @@
         <v>124</v>
       </c>
       <c r="I61" s="16">
-        <f>$E61*H61</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="K61" s="12">
@@ -31337,7 +31341,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K67" si="105">J62</f>
+        <f t="shared" ref="K62:K67" si="106">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -31349,7 +31353,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O67" si="106">N62</f>
+        <f t="shared" ref="O62:O67" si="107">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -31364,7 +31368,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S67" si="107">R62</f>
+        <f t="shared" ref="S62:S67" si="108">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
@@ -31379,7 +31383,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W67" si="108">V62</f>
+        <f t="shared" ref="W62:W67" si="109">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -31394,7 +31398,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA67" si="109">Z62</f>
+        <f t="shared" ref="AA62:AA67" si="110">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -31435,7 +31439,7 @@
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
@@ -31447,7 +31451,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
@@ -31462,7 +31466,7 @@
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
@@ -31477,7 +31481,7 @@
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1</v>
       </c>
       <c r="X63" s="15">
@@ -31492,7 +31496,7 @@
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="AB63" s="15">
@@ -31533,7 +31537,7 @@
         <v>239</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
@@ -31545,7 +31549,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
@@ -31560,7 +31564,7 @@
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
@@ -31575,7 +31579,7 @@
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>5</v>
       </c>
       <c r="X64" s="15">
@@ -31590,7 +31594,7 @@
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>3</v>
       </c>
       <c r="AB64" s="15">
@@ -31622,11 +31626,11 @@
         <v>0</v>
       </c>
       <c r="I65" s="16">
-        <f t="shared" ref="I65:I77" si="110">H65</f>
+        <f t="shared" ref="I65:I77" si="111">H65</f>
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
@@ -31634,11 +31638,11 @@
         <v>0</v>
       </c>
       <c r="M65" s="16">
-        <f t="shared" ref="M65:M77" si="111">L65</f>
+        <f t="shared" ref="M65:M77" si="112">L65</f>
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P65" s="15">
@@ -31646,11 +31650,11 @@
         <v>0</v>
       </c>
       <c r="Q65" s="16">
-        <f t="shared" ref="Q65:Q77" si="112">P65</f>
+        <f t="shared" ref="Q65:Q77" si="113">P65</f>
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T65" s="15">
@@ -31658,11 +31662,11 @@
         <v>0</v>
       </c>
       <c r="U65" s="16">
-        <f t="shared" ref="U65:U77" si="113">T65</f>
+        <f t="shared" ref="U65:U77" si="114">T65</f>
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="X65" s="15">
@@ -31670,11 +31674,11 @@
         <v>0</v>
       </c>
       <c r="Y65" s="16">
-        <f t="shared" ref="Y65:Y77" si="114">X65</f>
+        <f t="shared" ref="Y65:Y77" si="115">X65</f>
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AB65" s="15">
@@ -31682,7 +31686,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="16">
-        <f t="shared" ref="AC65:AC77" si="115">AB65</f>
+        <f t="shared" ref="AC65:AC77" si="116">AB65</f>
         <v>0</v>
       </c>
     </row>
@@ -31706,11 +31710,11 @@
         <v>0</v>
       </c>
       <c r="I66" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
@@ -31718,11 +31722,11 @@
         <v>0</v>
       </c>
       <c r="M66" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P66" s="15">
@@ -31730,11 +31734,11 @@
         <v>0</v>
       </c>
       <c r="Q66" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T66" s="15">
@@ -31742,11 +31746,11 @@
         <v>0</v>
       </c>
       <c r="U66" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="W66" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="X66" s="15">
@@ -31754,11 +31758,11 @@
         <v>0</v>
       </c>
       <c r="Y66" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AB66" s="15">
@@ -31766,7 +31770,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -31790,11 +31794,11 @@
         <v>0</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L67" s="15">
@@ -31802,11 +31806,11 @@
         <v>0</v>
       </c>
       <c r="M67" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O67" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P67" s="15">
@@ -31814,11 +31818,11 @@
         <v>0</v>
       </c>
       <c r="Q67" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T67" s="15">
@@ -31826,11 +31830,11 @@
         <v>0</v>
       </c>
       <c r="U67" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="W67" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="X67" s="15">
@@ -31838,11 +31842,11 @@
         <v>0</v>
       </c>
       <c r="Y67" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AB67" s="15">
@@ -31850,7 +31854,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -31871,7 +31875,7 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" ref="G68:G70" si="116">$C68*F68</f>
+        <f t="shared" ref="G68:G70" si="117">$C68*F68</f>
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="H68" s="15">
@@ -31879,14 +31883,14 @@
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" ref="K68:K70" si="117">$C68*J68</f>
+        <f t="shared" ref="K68:K70" si="118">$C68*J68</f>
         <v>0</v>
       </c>
       <c r="L68" s="15">
@@ -31894,14 +31898,14 @@
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" ref="O68:O70" si="118">$C68*N68</f>
+        <f t="shared" ref="O68:O70" si="119">$C68*N68</f>
         <v>0</v>
       </c>
       <c r="P68" s="15">
@@ -31909,14 +31913,14 @@
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" ref="S68:S70" si="119">$C68*R68</f>
+        <f t="shared" ref="S68:S70" si="120">$C68*R68</f>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="T68" s="15">
@@ -31924,14 +31928,14 @@
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" ref="W68:W70" si="120">$C68*V68</f>
+        <f t="shared" ref="W68:W70" si="121">$C68*V68</f>
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="X68" s="15">
@@ -31939,14 +31943,14 @@
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="Y68" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" ref="AA68:AA70" si="121">$C68*Z68</f>
+        <f t="shared" ref="AA68:AA70" si="122">$C68*Z68</f>
         <v>0</v>
       </c>
       <c r="AB68" s="15">
@@ -31954,7 +31958,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -31975,7 +31979,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="H69" s="15">
@@ -31983,14 +31987,14 @@
         <v>0</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="L69" s="15">
@@ -31998,14 +32002,14 @@
         <v>0</v>
       </c>
       <c r="M69" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="N69" s="11">
         <v>0</v>
       </c>
       <c r="O69" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="P69" s="15">
@@ -32013,14 +32017,14 @@
         <v>0</v>
       </c>
       <c r="Q69" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R69" s="11">
         <v>0</v>
       </c>
       <c r="S69" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="T69" s="15">
@@ -32028,14 +32032,14 @@
         <v>0</v>
       </c>
       <c r="U69" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="V69" s="11">
         <v>0</v>
       </c>
       <c r="W69" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="X69" s="15">
@@ -32043,14 +32047,14 @@
         <v>0</v>
       </c>
       <c r="Y69" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
       </c>
       <c r="AA69" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="AB69" s="15">
@@ -32058,7 +32062,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -32079,7 +32083,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="H70" s="15">
@@ -32087,14 +32091,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="L70" s="15">
@@ -32102,14 +32106,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="N70" s="11">
         <v>0</v>
       </c>
       <c r="O70" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="P70" s="15">
@@ -32117,14 +32121,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R70" s="11">
         <v>0</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="T70" s="15">
@@ -32132,14 +32136,14 @@
         <v>0</v>
       </c>
       <c r="U70" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="V70" s="11">
         <v>0</v>
       </c>
       <c r="W70" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="X70" s="15">
@@ -32147,14 +32151,14 @@
         <v>0</v>
       </c>
       <c r="Y70" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Z70" s="11">
         <v>0</v>
       </c>
       <c r="AA70" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="AB70" s="15">
@@ -32162,7 +32166,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -32186,11 +32190,11 @@
         <v>0</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K77" si="122">J71</f>
+        <f t="shared" ref="K71:K77" si="123">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
@@ -32198,11 +32202,11 @@
         <v>0</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O77" si="123">N71</f>
+        <f t="shared" ref="O71:O77" si="124">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
@@ -32210,11 +32214,11 @@
         <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S77" si="124">R71</f>
+        <f t="shared" ref="S71:S77" si="125">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
@@ -32222,14 +32226,14 @@
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W77" si="125">V71</f>
+        <f t="shared" ref="W71:W77" si="126">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
@@ -32237,11 +32241,11 @@
         <v>90</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA77" si="126">Z71</f>
+        <f t="shared" ref="AA71:AA77" si="127">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
@@ -32249,7 +32253,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -32273,14 +32277,14 @@
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
@@ -32288,11 +32292,11 @@
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
@@ -32300,11 +32304,11 @@
         <v>0</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T72" s="15">
@@ -32312,11 +32316,11 @@
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X72" s="15">
@@ -32324,11 +32328,11 @@
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB72" s="15">
@@ -32336,7 +32340,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -32360,11 +32364,11 @@
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
@@ -32372,14 +32376,14 @@
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
@@ -32387,11 +32391,11 @@
         <v>100</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T73" s="15">
@@ -32399,11 +32403,11 @@
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X73" s="15">
@@ -32411,11 +32415,11 @@
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB73" s="15">
@@ -32423,7 +32427,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -32450,11 +32454,11 @@
         <v>50</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
@@ -32462,11 +32466,11 @@
         <v>0</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P74" s="15">
@@ -32474,11 +32478,11 @@
         <v>0</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T74" s="15">
@@ -32486,14 +32490,14 @@
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
@@ -32501,14 +32505,14 @@
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
@@ -32516,7 +32520,7 @@
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>40</v>
       </c>
     </row>
@@ -32543,11 +32547,11 @@
         <v>50</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
@@ -32555,11 +32559,11 @@
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
@@ -32567,14 +32571,14 @@
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
@@ -32582,11 +32586,11 @@
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
@@ -32594,11 +32598,11 @@
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB75" s="15">
@@ -32606,7 +32610,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -32630,11 +32634,11 @@
         <v>0</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L76" s="15">
@@ -32642,11 +32646,11 @@
         <v>0</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P76" s="15">
@@ -32654,11 +32658,11 @@
         <v>0</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T76" s="15">
@@ -32666,11 +32670,11 @@
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X76" s="15">
@@ -32678,14 +32682,14 @@
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
@@ -32693,7 +32697,7 @@
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>60</v>
       </c>
     </row>
@@ -32717,11 +32721,11 @@
         <v>0</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L77" s="15">
@@ -32729,11 +32733,11 @@
         <v>0</v>
       </c>
       <c r="M77" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O77" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P77" s="15">
@@ -32741,11 +32745,11 @@
         <v>0</v>
       </c>
       <c r="Q77" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="S77" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T77" s="15">
@@ -32753,11 +32757,11 @@
         <v>0</v>
       </c>
       <c r="U77" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="W77" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X77" s="15">
@@ -32765,11 +32769,11 @@
         <v>0</v>
       </c>
       <c r="Y77" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB77" s="15">
@@ -32777,7 +32781,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
@@ -32800,11 +32804,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" ref="G78:G88" si="127">$C78*F78</f>
+        <f t="shared" ref="G78:G88" si="128">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
-        <f t="shared" ref="H78:H82" si="128">G78*$D78</f>
+        <f t="shared" ref="H78:H82" si="129">G78*$D78</f>
         <v>0</v>
       </c>
       <c r="I78" s="16">
@@ -32812,11 +32816,11 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K88" si="129">$C78*J78</f>
+        <f t="shared" ref="K78:K88" si="130">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
-        <f t="shared" ref="L78" si="130">K78*$D78</f>
+        <f t="shared" ref="L78" si="131">K78*$D78</f>
         <v>0</v>
       </c>
       <c r="M78" s="16">
@@ -32824,11 +32828,11 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O88" si="131">$C78*N78</f>
+        <f t="shared" ref="O78:O88" si="132">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
-        <f t="shared" ref="P78" si="132">O78*$D78</f>
+        <f t="shared" ref="P78" si="133">O78*$D78</f>
         <v>0</v>
       </c>
       <c r="Q78" s="16">
@@ -32839,11 +32843,11 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S88" si="133">$C78*R78</f>
+        <f t="shared" ref="S78:S88" si="134">$C78*R78</f>
         <v>1</v>
       </c>
       <c r="T78" s="15">
-        <f t="shared" ref="T78" si="134">S78*$D78</f>
+        <f t="shared" ref="T78" si="135">S78*$D78</f>
         <v>1.5</v>
       </c>
       <c r="U78" s="16">
@@ -32851,11 +32855,11 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W88" si="135">$C78*V78</f>
+        <f t="shared" ref="W78:W88" si="136">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
-        <f t="shared" ref="X78" si="136">W78*$D78</f>
+        <f t="shared" ref="X78" si="137">W78*$D78</f>
         <v>0</v>
       </c>
       <c r="Y78" s="16">
@@ -32863,11 +32867,11 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA88" si="137">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA88" si="138">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
-        <f t="shared" ref="AB78" si="138">AA78*$D78</f>
+        <f t="shared" ref="AB78" si="139">AA78*$D78</f>
         <v>0</v>
       </c>
       <c r="AC78" s="16">
@@ -32894,7 +32898,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H79" s="15">
@@ -32906,7 +32910,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
@@ -32918,7 +32922,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
@@ -32933,7 +32937,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>2.5</v>
       </c>
       <c r="T79" s="15">
@@ -32945,7 +32949,7 @@
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
@@ -32957,7 +32961,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
@@ -32989,11 +32993,11 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.2</v>
       </c>
       <c r="I80" s="16">
@@ -33004,11 +33008,11 @@
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" ref="L80" si="139">K80*$D80</f>
+        <f t="shared" ref="L80" si="140">K80*$D80</f>
         <v>1</v>
       </c>
       <c r="M80" s="16">
@@ -33019,11 +33023,11 @@
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" ref="P80" si="140">O80*$D80</f>
+        <f t="shared" ref="P80" si="141">O80*$D80</f>
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
@@ -33034,11 +33038,11 @@
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" ref="T80" si="141">S80*$D80</f>
+        <f t="shared" ref="T80" si="142">S80*$D80</f>
         <v>1</v>
       </c>
       <c r="U80" s="16">
@@ -33049,11 +33053,11 @@
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" ref="X80" si="142">W80*$D80</f>
+        <f t="shared" ref="X80" si="143">W80*$D80</f>
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
@@ -33064,11 +33068,11 @@
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" ref="AB80" si="143">AA80*$D80</f>
+        <f t="shared" ref="AB80" si="144">AA80*$D80</f>
         <v>2</v>
       </c>
       <c r="AC80" s="16">
@@ -33096,7 +33100,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>35</v>
       </c>
       <c r="H81" s="15">
@@ -33111,7 +33115,7 @@
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>30</v>
       </c>
       <c r="L81" s="15">
@@ -33126,7 +33130,7 @@
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>2.5</v>
       </c>
       <c r="P81" s="15">
@@ -33141,7 +33145,7 @@
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>7.5</v>
       </c>
       <c r="T81" s="15">
@@ -33156,7 +33160,7 @@
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>45</v>
       </c>
       <c r="X81" s="15">
@@ -33171,7 +33175,7 @@
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>35</v>
       </c>
       <c r="AB81" s="15">
@@ -33202,11 +33206,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="I82" s="16">
@@ -33214,11 +33218,11 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" ref="L82" si="144">K82*$D82</f>
+        <f t="shared" ref="L82" si="145">K82*$D82</f>
         <v>0</v>
       </c>
       <c r="M82" s="16">
@@ -33226,11 +33230,11 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" ref="P82" si="145">O82*$D82</f>
+        <f t="shared" ref="P82" si="146">O82*$D82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="16">
@@ -33241,11 +33245,11 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" ref="T82" si="146">S82*$D82</f>
+        <f t="shared" ref="T82" si="147">S82*$D82</f>
         <v>1.875</v>
       </c>
       <c r="U82" s="16">
@@ -33256,11 +33260,11 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
-        <f t="shared" ref="X82" si="147">W82*$D82</f>
+        <f t="shared" ref="X82" si="148">W82*$D82</f>
         <v>0.75</v>
       </c>
       <c r="Y82" s="16">
@@ -33268,11 +33272,11 @@
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
-        <f t="shared" ref="AB82" si="148">AA82*$D82</f>
+        <f t="shared" ref="AB82" si="149">AA82*$D82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="16">
@@ -33299,7 +33303,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
@@ -33311,7 +33315,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
@@ -33323,7 +33327,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
@@ -33338,7 +33342,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>40</v>
       </c>
       <c r="T83" s="15">
@@ -33353,7 +33357,7 @@
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>2.5</v>
       </c>
       <c r="X83" s="15">
@@ -33365,7 +33369,7 @@
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
@@ -33391,7 +33395,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="G84" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
@@ -33399,73 +33403,73 @@
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" ref="I84:I93" si="149">H84</f>
+        <f t="shared" ref="I84:I93" si="150">H84</f>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.05</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="150">K84</f>
+        <f t="shared" ref="L84:L93" si="151">K84</f>
         <v>0.05</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="151">L84</f>
+        <f t="shared" ref="M84:M93" si="152">L84</f>
         <v>0.05</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="152">O84</f>
+        <f t="shared" ref="P84:P93" si="153">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="153">P84</f>
+        <f t="shared" ref="Q84:Q93" si="154">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0.5</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="154">S84</f>
+        <f t="shared" ref="T84:T93" si="155">S84</f>
         <v>0.5</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="155">T84</f>
+        <f t="shared" ref="U84:U93" si="156">T84</f>
         <v>0.5</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="156">W84</f>
+        <f t="shared" ref="X84:X93" si="157">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="157">X84</f>
+        <f t="shared" ref="Y84:Y93" si="158">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="158">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="159">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="159">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="160">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -33483,7 +33487,7 @@
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="G85" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H85" s="15">
@@ -33491,73 +33495,73 @@
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>15</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="150"/>
-        <v>15</v>
-      </c>
-      <c r="M85" s="16">
         <f t="shared" si="151"/>
         <v>15</v>
       </c>
+      <c r="M85" s="16">
+        <f t="shared" si="152"/>
+        <v>15</v>
+      </c>
       <c r="O85" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>22.5</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="154"/>
-        <v>22.5</v>
-      </c>
-      <c r="U85" s="16">
         <f t="shared" si="155"/>
         <v>22.5</v>
       </c>
+      <c r="U85" s="16">
+        <f t="shared" si="156"/>
+        <v>22.5</v>
+      </c>
       <c r="W85" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
     </row>
@@ -33578,7 +33582,7 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.125</v>
       </c>
       <c r="H86" s="15">
@@ -33586,82 +33590,82 @@
         <v>0.125</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.125</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="150"/>
-        <v>0.1</v>
-      </c>
-      <c r="M86" s="16">
         <f t="shared" si="151"/>
         <v>0.1</v>
       </c>
+      <c r="M86" s="16">
+        <f t="shared" si="152"/>
+        <v>0.1</v>
+      </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.05</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="152"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q86" s="16">
         <f t="shared" si="153"/>
         <v>0.05</v>
       </c>
+      <c r="Q86" s="16">
+        <f t="shared" si="154"/>
+        <v>0.05</v>
+      </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>1</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="154"/>
-        <v>1</v>
-      </c>
-      <c r="U86" s="16">
         <f t="shared" si="155"/>
         <v>1</v>
       </c>
+      <c r="U86" s="16">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.25</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="156"/>
-        <v>0.25</v>
-      </c>
-      <c r="Y86" s="16">
         <f t="shared" si="157"/>
         <v>0.25</v>
       </c>
+      <c r="Y86" s="16">
+        <f t="shared" si="158"/>
+        <v>0.25</v>
+      </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0.375</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.375</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.375</v>
       </c>
     </row>
@@ -33682,7 +33686,7 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>17.5</v>
       </c>
       <c r="H87" s="15">
@@ -33690,82 +33694,82 @@
         <v>17.5</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>17.5</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>15</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="150"/>
-        <v>15</v>
-      </c>
-      <c r="M87" s="16">
         <f t="shared" si="151"/>
         <v>15</v>
       </c>
+      <c r="M87" s="16">
+        <f t="shared" si="152"/>
+        <v>15</v>
+      </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>17.5</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="152"/>
-        <v>17.5</v>
-      </c>
-      <c r="Q87" s="16">
         <f t="shared" si="153"/>
         <v>17.5</v>
       </c>
+      <c r="Q87" s="16">
+        <f t="shared" si="154"/>
+        <v>17.5</v>
+      </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>25</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="154"/>
-        <v>25</v>
-      </c>
-      <c r="U87" s="16">
         <f t="shared" si="155"/>
         <v>25</v>
       </c>
+      <c r="U87" s="16">
+        <f t="shared" si="156"/>
+        <v>25</v>
+      </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>22.5</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="156"/>
-        <v>22.5</v>
-      </c>
-      <c r="Y87" s="16">
         <f t="shared" si="157"/>
         <v>22.5</v>
       </c>
+      <c r="Y87" s="16">
+        <f t="shared" si="158"/>
+        <v>22.5</v>
+      </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>17.5</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>17.5</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>17.5</v>
       </c>
     </row>
@@ -33783,7 +33787,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="G88" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
@@ -33791,67 +33795,67 @@
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="O88" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="Q88" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="S88" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="W88" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="Y88" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="AC88" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
     </row>
@@ -33875,67 +33879,67 @@
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K90" si="160">J89</f>
+        <f t="shared" ref="K89:K90" si="161">J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" ref="O89:O90" si="161">N89</f>
+        <f t="shared" ref="O89:O90" si="162">N89</f>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="Q89" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" ref="S89:S90" si="162">R89</f>
+        <f t="shared" ref="S89:S90" si="163">R89</f>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" ref="W89:W90" si="163">V89</f>
+        <f t="shared" ref="W89:W90" si="164">V89</f>
         <v>0</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="Y89" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA90" si="164">Z89</f>
+        <f t="shared" ref="AA89:AA90" si="165">Z89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="AC89" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
     </row>
@@ -33959,67 +33963,67 @@
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="15">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="16">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="12">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="15">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="16">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="AA90" s="12">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="15">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="AC90" s="16">
         <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="15">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="15">
-        <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="16">
-        <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="12">
-        <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="T90" s="15">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="12">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="X90" s="15">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="12">
-        <f t="shared" si="164"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="15">
-        <f t="shared" si="158"/>
-        <v>0</v>
-      </c>
-      <c r="AC90" s="16">
-        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -34045,7 +34049,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -34053,11 +34057,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -34065,11 +34069,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -34080,23 +34084,23 @@
         <v>4.5</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="154"/>
-        <v>4.5</v>
-      </c>
-      <c r="U91" s="16">
         <f t="shared" si="155"/>
         <v>4.5</v>
       </c>
+      <c r="U91" s="16">
+        <f t="shared" si="156"/>
+        <v>4.5</v>
+      </c>
       <c r="W91" s="12">
         <f>$C91*V91</f>
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -34104,11 +34108,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
     </row>
@@ -34132,70 +34136,70 @@
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92:K93" si="165">J92</f>
+        <f t="shared" ref="K92:K93" si="166">J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92:O93" si="166">N92</f>
+        <f t="shared" ref="O92:O93" si="167">N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92:S93" si="167">R92</f>
+        <f t="shared" ref="S92:S93" si="168">R92</f>
         <v>1</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="154"/>
-        <v>1</v>
-      </c>
-      <c r="U92" s="16">
         <f t="shared" si="155"/>
         <v>1</v>
       </c>
+      <c r="U92" s="16">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
       <c r="W92" s="12">
-        <f t="shared" ref="W92:W93" si="168">V92</f>
+        <f t="shared" ref="W92:W93" si="169">V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" ref="AA92:AA93" si="169">Z92</f>
+        <f t="shared" ref="AA92:AA93" si="170">Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
     </row>
@@ -34219,70 +34223,70 @@
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="154"/>
-        <v>5</v>
-      </c>
-      <c r="U93" s="16">
         <f t="shared" si="155"/>
         <v>5</v>
       </c>
+      <c r="U93" s="16">
+        <f t="shared" si="156"/>
+        <v>5</v>
+      </c>
       <c r="W93" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
     </row>
@@ -48549,7 +48553,7 @@
       </c>
       <c r="G59">
         <f>'3_MechRemove_ModSeverity'!H59</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="H59">
         <f>'3_MechRemove_ModSeverity'!I59</f>
@@ -48565,7 +48569,7 @@
       </c>
       <c r="K59">
         <f>'3_MechRemove_HighSeverity'!I59</f>
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <f>'3_MechRemove_LowSeverity'!J59</f>
@@ -48795,7 +48799,7 @@
       </c>
       <c r="G60">
         <f>'3_MechRemove_ModSeverity'!H60</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H60">
         <f>'3_MechRemove_ModSeverity'!I60</f>
@@ -48811,7 +48815,7 @@
       </c>
       <c r="K60">
         <f>'3_MechRemove_HighSeverity'!I60</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <f>'3_MechRemove_LowSeverity'!J60</f>
@@ -49041,7 +49045,7 @@
       </c>
       <c r="G61">
         <f>'3_MechRemove_ModSeverity'!H61</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="H61">
         <f>'3_MechRemove_ModSeverity'!I61</f>
@@ -49783,7 +49787,7 @@
       </c>
       <c r="H64">
         <f>'3_MechRemove_ModSeverity'!I64</f>
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="I64">
         <f>'3_MechRemove_HighSeverity'!G64</f>

--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -16516,10 +16516,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="450" topLeftCell="A24" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16954,7 +16954,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5" si="7">J5</f>
+        <f t="shared" ref="K5:K20" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -16966,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5" si="9">N5</f>
+        <f t="shared" ref="O5:O20" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -16981,7 +16981,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="11">R5</f>
+        <f t="shared" ref="S5:S20" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -16996,7 +16996,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5" si="13">V5</f>
+        <f t="shared" ref="W5:W20" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -17011,7 +17011,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5" si="15">Z5</f>
+        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -17421,7 +17421,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10" si="17">J10</f>
+        <f t="shared" ref="K10:K25" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -17433,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10" si="18">N10</f>
+        <f t="shared" ref="O10:O25" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -17445,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10" si="19">R10</f>
+        <f t="shared" ref="S10:S25" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -17460,7 +17460,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10" si="20">V10</f>
+        <f t="shared" ref="W10:W25" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -17472,7 +17472,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10" si="21">Z10</f>
+        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -19937,66 +19937,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37" si="36">J37</f>
+        <f t="shared" ref="K37:K44" si="36">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="37">K37</f>
+        <f t="shared" ref="L37:L44" si="37">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37" si="38">L37</f>
+        <f t="shared" ref="M37:M50" si="38">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37" si="39">N37</f>
+        <f t="shared" ref="O37:O44" si="39">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37" si="40">O37</f>
+        <f t="shared" ref="P37:P44" si="40">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37" si="41">P37</f>
+        <f t="shared" ref="Q37:Q50" si="41">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37" si="42">R37</f>
+        <f t="shared" ref="S37:S44" si="42">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37" si="43">S37</f>
+        <f t="shared" ref="T37:T44" si="43">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37" si="44">T37</f>
+        <f t="shared" ref="U37:U50" si="44">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37" si="45">V37</f>
+        <f t="shared" ref="W37:W44" si="45">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37" si="46">W37</f>
+        <f t="shared" ref="X37:X44" si="46">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37" si="47">X37</f>
+        <f t="shared" ref="Y37:Y50" si="47">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="48">Z37</f>
+        <f t="shared" ref="AA37:AA44" si="48">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37" si="49">AA37</f>
+        <f t="shared" ref="AB37:AB44" si="49">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37" si="50">AB37</f>
+        <f t="shared" ref="AC37:AC50" si="50">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -20143,7 +20143,7 @@
         <v>85</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" ref="M39:M40" si="51">L39</f>
+        <f t="shared" ref="M39:M52" si="51">L39</f>
         <v>85</v>
       </c>
       <c r="O39" s="12">
@@ -20155,7 +20155,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="16">
-        <f t="shared" ref="Q39:Q40" si="52">P39</f>
+        <f t="shared" ref="Q39:Q52" si="52">P39</f>
         <v>0</v>
       </c>
       <c r="R39" s="11">
@@ -20170,7 +20170,7 @@
         <v>90</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" ref="U39:U40" si="53">T39</f>
+        <f t="shared" ref="U39:U52" si="53">T39</f>
         <v>90</v>
       </c>
       <c r="W39" s="12">
@@ -20182,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="16">
-        <f t="shared" ref="Y39:Y40" si="54">X39</f>
+        <f t="shared" ref="Y39:Y52" si="54">X39</f>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" ref="AC39:AC40" si="55">AB39</f>
+        <f t="shared" ref="AC39:AC52" si="55">AB39</f>
         <v>0</v>
       </c>
     </row>
@@ -20225,11 +20225,11 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40" si="56">J40</f>
+        <f t="shared" ref="K40:K47" si="56">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40" si="57">K40</f>
+        <f t="shared" ref="L40:L47" si="57">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
@@ -20240,11 +20240,11 @@
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40" si="58">N40</f>
+        <f t="shared" ref="O40:O47" si="58">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40" si="59">O40</f>
+        <f t="shared" ref="P40:P47" si="59">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
@@ -20255,11 +20255,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40" si="60">R40</f>
+        <f t="shared" ref="S40:S47" si="60">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40" si="61">S40</f>
+        <f t="shared" ref="T40:T47" si="61">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
@@ -20270,11 +20270,11 @@
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40" si="62">V40</f>
+        <f t="shared" ref="W40:W47" si="62">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40" si="63">W40</f>
+        <f t="shared" ref="X40:X47" si="63">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
@@ -20285,11 +20285,11 @@
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="64">Z40</f>
+        <f t="shared" ref="AA40:AA47" si="64">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40" si="65">AA40</f>
+        <f t="shared" ref="AB40:AB47" si="65">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
@@ -20549,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M44" si="66">L43</f>
+        <f t="shared" ref="M43:M56" si="66">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -20564,7 +20564,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q44" si="67">P43</f>
+        <f t="shared" ref="Q43:Q56" si="67">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -20579,7 +20579,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U44" si="68">T43</f>
+        <f t="shared" ref="U43:U56" si="68">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -20594,7 +20594,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y44" si="69">X43</f>
+        <f t="shared" ref="Y43:Y56" si="69">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -20609,7 +20609,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC44" si="70">AB43</f>
+        <f t="shared" ref="AC43:AC56" si="70">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -20640,11 +20640,11 @@
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44" si="71">J44</f>
+        <f t="shared" ref="K44:K51" si="71">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44" si="72">K44</f>
+        <f t="shared" ref="L44:L51" si="72">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -20655,11 +20655,11 @@
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44" si="73">N44</f>
+        <f t="shared" ref="O44:O51" si="73">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44" si="74">O44</f>
+        <f t="shared" ref="P44:P51" si="74">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
@@ -20670,11 +20670,11 @@
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44" si="75">R44</f>
+        <f t="shared" ref="S44:S51" si="75">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44" si="76">S44</f>
+        <f t="shared" ref="T44:T51" si="76">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
@@ -20682,11 +20682,11 @@
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44" si="77">V44</f>
+        <f t="shared" ref="W44:W51" si="77">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44" si="78">W44</f>
+        <f t="shared" ref="X44:X51" si="78">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
@@ -20697,11 +20697,11 @@
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44" si="79">Z44</f>
+        <f t="shared" ref="AA44:AA51" si="79">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44" si="80">AA44</f>
+        <f t="shared" ref="AB44:AB51" si="80">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
@@ -20955,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47" si="81">L47</f>
+        <f t="shared" ref="M47:M60" si="81">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -20970,7 +20970,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47" si="82">P47</f>
+        <f t="shared" ref="Q47:Q60" si="82">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -20985,7 +20985,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47" si="83">T47</f>
+        <f t="shared" ref="U47:U60" si="83">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47" si="84">X47</f>
+        <f t="shared" ref="Y47:Y60" si="84">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -21012,7 +21012,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47" si="85">AB47</f>
+        <f t="shared" ref="AC47:AC60" si="85">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -21055,7 +21055,7 @@
         <v>0.5</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" ref="L48:L52" si="88">K48</f>
+        <f t="shared" ref="L48:L77" si="88">K48</f>
         <v>0.5</v>
       </c>
       <c r="M48" s="16">
@@ -21067,7 +21067,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48:P52" si="90">O48</f>
+        <f t="shared" ref="P48:P77" si="90">O48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
@@ -21082,7 +21082,7 @@
         <v>0.25</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T52" si="92">S48</f>
+        <f t="shared" ref="T48:T77" si="92">S48</f>
         <v>0.25</v>
       </c>
       <c r="U48" s="16">
@@ -21097,7 +21097,7 @@
         <v>0.5</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" ref="X48:X52" si="94">W48</f>
+        <f t="shared" ref="X48:X77" si="94">W48</f>
         <v>0.5</v>
       </c>
       <c r="Y48" s="16">
@@ -21112,7 +21112,7 @@
         <v>0.25</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="AB48:AB52" si="96">AA48</f>
+        <f t="shared" ref="AB48:AB77" si="96">AA48</f>
         <v>0.25</v>
       </c>
       <c r="AC48" s="16">
@@ -21155,7 +21155,7 @@
         <v>50</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" ref="K49:K55" si="99">$C49*J49</f>
+        <f t="shared" ref="K49:K58" si="99">$C49*J49</f>
         <v>25</v>
       </c>
       <c r="L49" s="15">
@@ -21167,7 +21167,7 @@
         <v>50</v>
       </c>
       <c r="O49" s="12">
-        <f t="shared" ref="O49:O55" si="100">$C49*N49</f>
+        <f t="shared" ref="O49:O58" si="100">$C49*N49</f>
         <v>0</v>
       </c>
       <c r="P49" s="15">
@@ -21182,7 +21182,7 @@
         <v>30</v>
       </c>
       <c r="S49" s="12">
-        <f t="shared" ref="S49:S55" si="101">$C49*R49</f>
+        <f t="shared" ref="S49:S58" si="101">$C49*R49</f>
         <v>15</v>
       </c>
       <c r="T49" s="15">
@@ -21197,7 +21197,7 @@
         <v>40</v>
       </c>
       <c r="W49" s="12">
-        <f t="shared" ref="W49:W55" si="102">$C49*V49</f>
+        <f t="shared" ref="W49:W58" si="102">$C49*V49</f>
         <v>20</v>
       </c>
       <c r="X49" s="15">
@@ -21212,7 +21212,7 @@
         <v>15</v>
       </c>
       <c r="AA49" s="12">
-        <f t="shared" ref="AA49:AA55" si="103">$C49*Z49</f>
+        <f t="shared" ref="AA49:AA58" si="103">$C49*Z49</f>
         <v>7.5</v>
       </c>
       <c r="AB49" s="15">
@@ -21983,7 +21983,7 @@
         <v>14.8</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" ref="K57:K58" si="104">$C57*J57</f>
+        <f t="shared" ref="K57:K66" si="104">$C57*J57</f>
         <v>0</v>
       </c>
       <c r="L57" s="15">
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="12">
-        <f t="shared" ref="O57:O58" si="105">$C57*N57</f>
+        <f t="shared" ref="O57:O66" si="105">$C57*N57</f>
         <v>0</v>
       </c>
       <c r="P57" s="15">
@@ -22010,7 +22010,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" ref="S57:S58" si="106">$C57*R57</f>
+        <f t="shared" ref="S57:S66" si="106">$C57*R57</f>
         <v>0</v>
       </c>
       <c r="T57" s="15">
@@ -22025,7 +22025,7 @@
         <v>0.3</v>
       </c>
       <c r="W57" s="12">
-        <f t="shared" ref="W57:W58" si="107">$C57*V57</f>
+        <f t="shared" ref="W57:W66" si="107">$C57*V57</f>
         <v>0.24</v>
       </c>
       <c r="X57" s="15">
@@ -22037,7 +22037,7 @@
         <v>0.49</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" ref="AA57:AA58" si="108">$C57*Z57</f>
+        <f t="shared" ref="AA57:AA66" si="108">$C57*Z57</f>
         <v>0</v>
       </c>
       <c r="AB57" s="15">
@@ -22177,66 +22177,66 @@
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K60" si="110">J59</f>
+        <f t="shared" ref="K59:K93" si="110">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" ref="L59:M61" si="111">$E59*K59</f>
+        <f>K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f t="shared" si="111"/>
+        <f>$E59*L59</f>
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O60" si="112">N59</f>
+        <f t="shared" ref="O59:O93" si="111">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f t="shared" ref="P59:Q61" si="113">$E59*O59</f>
+        <f>O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" si="113"/>
+        <f>$E59*P59</f>
         <v>0</v>
       </c>
       <c r="R59" s="11">
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S60" si="114">R59</f>
+        <f t="shared" ref="S59:S93" si="112">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" ref="T59:U61" si="115">$E59*S59</f>
-        <v>0</v>
+        <f>S59</f>
+        <v>3.5</v>
       </c>
       <c r="U59" s="16">
-        <f t="shared" si="115"/>
+        <f>$E59*T59</f>
         <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W60" si="116">V59</f>
+        <f t="shared" ref="W59:W93" si="113">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" ref="X59:Y61" si="117">$E59*W59</f>
+        <f>W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
-        <f t="shared" si="117"/>
+        <f>$E59*X59</f>
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA60" si="118">Z59</f>
+        <f t="shared" ref="AA59:AA93" si="114">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" ref="AB59:AC61" si="119">$E59*AA59</f>
+        <f>AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f t="shared" si="119"/>
+        <f>$E59*AB59</f>
         <v>0</v>
       </c>
     </row>
@@ -22273,62 +22273,62 @@
         <v>0</v>
       </c>
       <c r="L60" s="15">
+        <f>K60</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="16">
+        <f>$E60*L60</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="12">
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="M60" s="16">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="12">
-        <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
       <c r="P60" s="15">
-        <f t="shared" si="113"/>
+        <f>O60</f>
         <v>0</v>
       </c>
       <c r="Q60" s="16">
-        <f t="shared" si="113"/>
+        <f>$E60*P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="11">
         <v>2</v>
       </c>
       <c r="S60" s="12">
+        <f t="shared" si="112"/>
+        <v>2</v>
+      </c>
+      <c r="T60" s="15">
+        <f>S60</f>
+        <v>2</v>
+      </c>
+      <c r="U60" s="16">
+        <f>$E60*T60</f>
+        <v>0</v>
+      </c>
+      <c r="W60" s="12">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="15">
+        <f>W60</f>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="16">
+        <f>$E60*X60</f>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="12">
         <f t="shared" si="114"/>
-        <v>2</v>
-      </c>
-      <c r="T60" s="15">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="16">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="W60" s="12">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="X60" s="15">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="16">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="AA60" s="12">
-        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AB60" s="15">
-        <f t="shared" si="119"/>
+        <f>AA60</f>
         <v>0</v>
       </c>
       <c r="AC60" s="16">
-        <f t="shared" si="119"/>
+        <f>$E60*AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -22367,11 +22367,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="111"/>
+        <f>K61</f>
         <v>0</v>
       </c>
       <c r="M61" s="16">
-        <f t="shared" si="111"/>
+        <f>$E61*L61</f>
         <v>0</v>
       </c>
       <c r="O61" s="12">
@@ -22379,11 +22379,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="15">
-        <f t="shared" si="113"/>
+        <f>O61</f>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f t="shared" si="113"/>
+        <f>$E61*P61</f>
         <v>0</v>
       </c>
       <c r="R61" s="11">
@@ -22394,11 +22394,11 @@
         <v>1800</v>
       </c>
       <c r="T61" s="15">
-        <f t="shared" si="115"/>
-        <v>0</v>
+        <f>S61</f>
+        <v>1800</v>
       </c>
       <c r="U61" s="16">
-        <f t="shared" si="115"/>
+        <f>$E61*T61</f>
         <v>0</v>
       </c>
       <c r="W61" s="12">
@@ -22406,11 +22406,11 @@
         <v>97.5</v>
       </c>
       <c r="X61" s="15">
-        <f t="shared" si="117"/>
-        <v>0</v>
+        <f>W61</f>
+        <v>97.5</v>
       </c>
       <c r="Y61" s="16">
-        <f t="shared" si="117"/>
+        <f>$E61*X61</f>
         <v>0</v>
       </c>
       <c r="AA61" s="12">
@@ -22418,11 +22418,11 @@
         <v>50</v>
       </c>
       <c r="AB61" s="15">
-        <f t="shared" si="119"/>
-        <v>0</v>
+        <f>AA61</f>
+        <v>50</v>
       </c>
       <c r="AC61" s="16">
-        <f t="shared" si="119"/>
+        <f>$E61*AB61</f>
         <v>0</v>
       </c>
     </row>
@@ -22455,11 +22455,11 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K67" si="120">J62</f>
+        <f t="shared" ref="K62:K93" si="115">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" ref="L62:L77" si="121">K62</f>
+        <f t="shared" ref="L62:L91" si="116">K62</f>
         <v>0</v>
       </c>
       <c r="M62" s="16">
@@ -22467,11 +22467,11 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O67" si="122">N62</f>
+        <f t="shared" ref="O62:O93" si="117">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
-        <f t="shared" ref="P62:P77" si="123">O62</f>
+        <f t="shared" ref="P62:P91" si="118">O62</f>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
@@ -22482,11 +22482,11 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S67" si="124">R62</f>
+        <f t="shared" ref="S62:S93" si="119">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" ref="T62:T77" si="125">S62</f>
+        <f t="shared" ref="T62:T91" si="120">S62</f>
         <v>3.5</v>
       </c>
       <c r="U62" s="16">
@@ -22497,11 +22497,11 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W67" si="126">V62</f>
+        <f t="shared" ref="W62:W93" si="121">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" ref="X62:X77" si="127">W62</f>
+        <f t="shared" ref="X62:X91" si="122">W62</f>
         <v>10</v>
       </c>
       <c r="Y62" s="16">
@@ -22512,11 +22512,11 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA67" si="128">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="123">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" ref="AB62:AB77" si="129">AA62</f>
+        <f t="shared" ref="AB62:AB91" si="124">AA62</f>
         <v>10</v>
       </c>
       <c r="AC62" s="16">
@@ -22553,11 +22553,11 @@
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M63" s="16">
@@ -22565,11 +22565,11 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
@@ -22580,11 +22580,11 @@
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="119"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>2</v>
       </c>
       <c r="U63" s="16">
@@ -22595,11 +22595,11 @@
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>1</v>
       </c>
       <c r="X63" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>1</v>
       </c>
       <c r="Y63" s="16">
@@ -22610,11 +22610,11 @@
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>1</v>
       </c>
       <c r="AB63" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>1</v>
       </c>
       <c r="AC63" s="16">
@@ -22651,11 +22651,11 @@
         <v>236</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M64" s="16">
@@ -22663,11 +22663,11 @@
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
@@ -22678,46 +22678,46 @@
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="119"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>50</v>
       </c>
       <c r="U64" s="16">
         <f>T64+T61</f>
-        <v>50</v>
+        <v>1850</v>
       </c>
       <c r="V64" s="11">
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>5</v>
       </c>
       <c r="X64" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="Y64" s="16">
         <f>X64+X61</f>
-        <v>5</v>
+        <v>102.5</v>
       </c>
       <c r="Z64" s="11">
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>3</v>
       </c>
       <c r="AB64" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>3</v>
       </c>
       <c r="AC64" s="16">
         <f>AB64+AB61</f>
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -22744,11 +22744,11 @@
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M65" s="16">
@@ -22756,11 +22756,11 @@
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P65" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q65" s="16">
@@ -22768,11 +22768,11 @@
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T65" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U65" s="16">
@@ -22780,11 +22780,11 @@
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="X65" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y65" s="16">
@@ -22792,11 +22792,11 @@
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AB65" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
@@ -22828,11 +22828,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M66" s="16">
@@ -22840,11 +22840,11 @@
         <v>0</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="P66" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q66" s="16">
@@ -22852,11 +22852,11 @@
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U66" s="16">
@@ -22864,11 +22864,11 @@
         <v>0</v>
       </c>
       <c r="W66" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y66" s="16">
@@ -22876,11 +22876,11 @@
         <v>0</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="AB66" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC66" s="16">
@@ -22908,67 +22908,67 @@
         <v>0</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" ref="I67:I93" si="130">H67</f>
+        <f t="shared" ref="I67:I93" si="125">H67</f>
         <v>0</v>
       </c>
       <c r="K67" s="12">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="15">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="16">
+        <f t="shared" ref="M67:M93" si="126">L67</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="15">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="16">
+        <f t="shared" ref="Q67:Q93" si="127">P67</f>
+        <v>0</v>
+      </c>
+      <c r="S67" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="15">
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="L67" s="15">
+      <c r="U67" s="16">
+        <f t="shared" ref="U67:U93" si="128">T67</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="12">
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="M67" s="16">
-        <f t="shared" ref="M67:M77" si="131">L67</f>
-        <v>0</v>
-      </c>
-      <c r="O67" s="12">
+      <c r="X67" s="15">
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="P67" s="15">
+      <c r="Y67" s="16">
+        <f t="shared" ref="Y67:Y93" si="129">X67</f>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="12">
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
-      <c r="Q67" s="16">
-        <f t="shared" ref="Q67:Q77" si="132">P67</f>
-        <v>0</v>
-      </c>
-      <c r="S67" s="12">
+      <c r="AB67" s="15">
         <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="T67" s="15">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="16">
-        <f t="shared" ref="U67:U77" si="133">T67</f>
-        <v>0</v>
-      </c>
-      <c r="W67" s="12">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="15">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="16">
-        <f t="shared" ref="Y67:Y77" si="134">X67</f>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="12">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="15">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
       <c r="AC67" s="16">
-        <f t="shared" ref="AC67:AC77" si="135">AB67</f>
+        <f t="shared" ref="AC67:AC93" si="130">AB67</f>
         <v>0</v>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" ref="G68:G70" si="136">$C68*F68</f>
+        <f t="shared" ref="G68:G70" si="131">$C68*F68</f>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="H68" s="15">
@@ -22997,82 +22997,82 @@
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" ref="K68:K70" si="137">$C68*J68</f>
+        <f t="shared" ref="K68:K70" si="132">$C68*J68</f>
         <v>0</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" ref="O68:O70" si="138">$C68*N68</f>
+        <f t="shared" ref="O68:O70" si="133">$C68*N68</f>
         <v>0</v>
       </c>
       <c r="P68" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" ref="S68:S70" si="139">$C68*R68</f>
+        <f t="shared" ref="S68:S70" si="134">$C68*R68</f>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" ref="W68:W70" si="140">$C68*V68</f>
+        <f t="shared" ref="W68:W70" si="135">$C68*V68</f>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="Y68" s="16">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" ref="AA68:AA70" si="141">$C68*Z68</f>
+        <f t="shared" ref="AA68:AA70" si="136">$C68*Z68</f>
         <v>0</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23093,7 +23093,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H69" s="15">
@@ -23101,82 +23101,82 @@
         <v>0</v>
       </c>
       <c r="I69" s="16">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0</v>
+      </c>
+      <c r="K69" s="12">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="15">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="16">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+      <c r="O69" s="12">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="15">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="16">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="11">
+        <v>0</v>
+      </c>
+      <c r="S69" s="12">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="15">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="16">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="11">
+        <v>0</v>
+      </c>
+      <c r="W69" s="12">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="15">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="16">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="12">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="15">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="16">
         <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="11">
-        <v>0</v>
-      </c>
-      <c r="K69" s="12">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="15">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="16">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="11">
-        <v>0</v>
-      </c>
-      <c r="O69" s="12">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="15">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="16">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="11">
-        <v>0</v>
-      </c>
-      <c r="S69" s="12">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="15">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="16">
-        <f t="shared" si="133"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="11">
-        <v>0</v>
-      </c>
-      <c r="W69" s="12">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="X69" s="15">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="16">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="12">
-        <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="15">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="16">
-        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -23197,7 +23197,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H70" s="15">
@@ -23205,82 +23205,82 @@
         <v>0</v>
       </c>
       <c r="I70" s="16">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="11">
+        <v>0</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="15">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="16">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="15">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="16">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="11">
+        <v>0</v>
+      </c>
+      <c r="S70" s="12">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="15">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="16">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="11">
+        <v>0</v>
+      </c>
+      <c r="W70" s="12">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="15">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="16">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="12">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="15">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="16">
         <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="11">
-        <v>0</v>
-      </c>
-      <c r="K70" s="12">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="15">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="16">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="11">
-        <v>0</v>
-      </c>
-      <c r="O70" s="12">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="15">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="16">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="R70" s="11">
-        <v>0</v>
-      </c>
-      <c r="S70" s="12">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="T70" s="15">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="16">
-        <f t="shared" si="133"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="11">
-        <v>0</v>
-      </c>
-      <c r="W70" s="12">
-        <f t="shared" si="140"/>
-        <v>0</v>
-      </c>
-      <c r="X70" s="15">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="16">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="Z70" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="12">
-        <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="15">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AC70" s="16">
-        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -23304,70 +23304,70 @@
         <v>0</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K77" si="142">J71</f>
+        <f t="shared" ref="K71:K93" si="137">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O77" si="143">N71</f>
+        <f t="shared" ref="O71:O93" si="138">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S77" si="144">R71</f>
+        <f t="shared" ref="S71:S93" si="139">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W77" si="145">V71</f>
+        <f t="shared" ref="W71:W93" si="140">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>90</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA77" si="146">Z71</f>
+        <f t="shared" ref="AA71:AA93" si="141">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23391,70 +23391,70 @@
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="137"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="X72" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23478,70 +23478,70 @@
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>100</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="X73" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23568,73 +23568,73 @@
         <v>50</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="P74" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="140"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="141"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>40</v>
       </c>
     </row>
@@ -23661,70 +23661,70 @@
         <v>50</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="139"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
     </row>
@@ -23748,70 +23748,70 @@
         <v>0</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="131"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="P76" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="144"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="141"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="124"/>
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>60</v>
       </c>
     </row>
@@ -23835,67 +23835,67 @@
         <v>0</v>
       </c>
       <c r="I77" s="16">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="12">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="15">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="16">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="12">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="15">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="16">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="12">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="15">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="16">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="12">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="15">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="16">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="12">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="15">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="16">
         <f t="shared" si="130"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="12">
-        <f t="shared" si="142"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="15">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="16">
-        <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="12">
-        <f t="shared" si="143"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="15">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="16">
-        <f t="shared" si="132"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="12">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="15">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="16">
-        <f t="shared" si="133"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="12">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="X77" s="15">
-        <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="Y77" s="16">
-        <f t="shared" si="134"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="12">
-        <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="15">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AC77" s="16">
-        <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
@@ -23916,7 +23916,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" ref="G78:G88" si="147">$C78*F78</f>
+        <f t="shared" ref="G78:G88" si="142">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
@@ -23928,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K88" si="148">$C78*J78</f>
+        <f t="shared" ref="K78:K88" si="143">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O88" si="149">$C78*N78</f>
+        <f t="shared" ref="O78:O88" si="144">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
@@ -23955,7 +23955,7 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S88" si="150">$C78*R78</f>
+        <f t="shared" ref="S78:S88" si="145">$C78*R78</f>
         <v>1</v>
       </c>
       <c r="T78" s="15">
@@ -23967,7 +23967,7 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W88" si="151">$C78*V78</f>
+        <f t="shared" ref="W78:W88" si="146">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
@@ -23979,7 +23979,7 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA88" si="152">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA88" si="147">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
@@ -24008,7 +24008,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H79" s="15">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
@@ -24047,7 +24047,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>2.5</v>
       </c>
       <c r="T79" s="15">
@@ -24059,7 +24059,7 @@
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
@@ -24103,7 +24103,7 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0.1</v>
       </c>
       <c r="H80" s="15">
@@ -24111,14 +24111,14 @@
         <v>0.2</v>
       </c>
       <c r="I80" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0.2</v>
       </c>
       <c r="J80" s="11">
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
@@ -24126,14 +24126,14 @@
         <v>1</v>
       </c>
       <c r="M80" s="16">
-        <f t="shared" ref="M80:M81" si="153">L80</f>
+        <f t="shared" ref="M80:M93" si="148">L80</f>
         <v>1</v>
       </c>
       <c r="N80" s="11">
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
@@ -24141,14 +24141,14 @@
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
-        <f t="shared" ref="Q80:Q81" si="154">P80</f>
+        <f t="shared" ref="Q80:Q93" si="149">P80</f>
         <v>2.5</v>
       </c>
       <c r="R80" s="11">
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
@@ -24156,14 +24156,14 @@
         <v>1</v>
       </c>
       <c r="U80" s="16">
-        <f t="shared" ref="U80:U81" si="155">T80</f>
+        <f t="shared" ref="U80:U93" si="150">T80</f>
         <v>1</v>
       </c>
       <c r="V80" s="11">
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="146"/>
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
@@ -24171,14 +24171,14 @@
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
-        <f t="shared" ref="Y80:Y81" si="156">X80</f>
+        <f t="shared" ref="Y80:Y93" si="151">X80</f>
         <v>1.5</v>
       </c>
       <c r="Z80" s="11">
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="AB80" s="15">
@@ -24186,7 +24186,7 @@
         <v>2</v>
       </c>
       <c r="AC80" s="16">
-        <f t="shared" ref="AC80:AC81" si="157">AB80</f>
+        <f t="shared" ref="AC80:AC93" si="152">AB80</f>
         <v>2</v>
       </c>
     </row>
@@ -24210,7 +24210,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>35</v>
       </c>
       <c r="H81" s="15">
@@ -24218,14 +24218,14 @@
         <v>70</v>
       </c>
       <c r="I81" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>70</v>
       </c>
       <c r="J81" s="11">
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>30</v>
       </c>
       <c r="L81" s="15">
@@ -24233,14 +24233,14 @@
         <v>60</v>
       </c>
       <c r="M81" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="148"/>
         <v>60</v>
       </c>
       <c r="N81" s="11">
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>2.5</v>
       </c>
       <c r="P81" s="15">
@@ -24248,14 +24248,14 @@
         <v>5</v>
       </c>
       <c r="Q81" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="149"/>
         <v>5</v>
       </c>
       <c r="R81" s="11">
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>7.5</v>
       </c>
       <c r="T81" s="15">
@@ -24263,14 +24263,14 @@
         <v>15</v>
       </c>
       <c r="U81" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="150"/>
         <v>15</v>
       </c>
       <c r="V81" s="11">
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="146"/>
         <v>45</v>
       </c>
       <c r="X81" s="15">
@@ -24278,14 +24278,14 @@
         <v>90</v>
       </c>
       <c r="Y81" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>90</v>
       </c>
       <c r="Z81" s="11">
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="147"/>
         <v>35</v>
       </c>
       <c r="AB81" s="15">
@@ -24293,7 +24293,7 @@
         <v>70</v>
       </c>
       <c r="AC81" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="152"/>
         <v>70</v>
       </c>
     </row>
@@ -24314,7 +24314,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P82" s="15">
@@ -24353,7 +24353,7 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
@@ -24368,7 +24368,7 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="146"/>
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
@@ -24380,7 +24380,7 @@
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
@@ -24409,7 +24409,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
@@ -24433,7 +24433,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
@@ -24448,7 +24448,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>40</v>
       </c>
       <c r="T83" s="15">
@@ -24463,7 +24463,7 @@
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="146"/>
         <v>2.5</v>
       </c>
       <c r="X83" s="15">
@@ -24475,7 +24475,7 @@
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
@@ -24501,7 +24501,7 @@
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
       <c r="G84" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
@@ -24509,73 +24509,73 @@
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>0.1</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="158">K84</f>
+        <f t="shared" ref="L84:L93" si="153">K84</f>
         <v>0.1</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="159">L84</f>
+        <f t="shared" ref="M84:M93" si="154">L84</f>
         <v>0.1</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="160">O84</f>
+        <f t="shared" ref="P84:P93" si="155">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="161">P84</f>
+        <f t="shared" ref="Q84:Q93" si="156">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>1</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="162">S84</f>
+        <f t="shared" ref="T84:T93" si="157">S84</f>
         <v>1</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="163">T84</f>
+        <f t="shared" ref="U84:U93" si="158">T84</f>
         <v>1</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="164">W84</f>
+        <f t="shared" ref="X84:X93" si="159">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="165">X84</f>
+        <f t="shared" ref="Y84:Y93" si="160">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="166">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="161">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="167">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="162">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -24593,7 +24593,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
       <c r="G85" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H85" s="15">
@@ -24601,73 +24601,73 @@
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>30</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="153"/>
         <v>30</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="154"/>
         <v>30</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>45</v>
       </c>
       <c r="T85" s="15">
+        <f t="shared" si="157"/>
+        <v>45</v>
+      </c>
+      <c r="U85" s="16">
+        <f t="shared" si="158"/>
+        <v>45</v>
+      </c>
+      <c r="W85" s="12">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="X85" s="15">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="Y85" s="16">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="AA85" s="12">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="AB85" s="15">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="AC85" s="16">
         <f t="shared" si="162"/>
-        <v>45</v>
-      </c>
-      <c r="U85" s="16">
-        <f t="shared" si="163"/>
-        <v>45</v>
-      </c>
-      <c r="W85" s="12">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="X85" s="15">
-        <f t="shared" si="164"/>
-        <v>0</v>
-      </c>
-      <c r="Y85" s="16">
-        <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="AA85" s="12">
-        <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="AB85" s="15">
-        <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="AC85" s="16">
-        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -24688,7 +24688,7 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0.25</v>
       </c>
       <c r="H86" s="15">
@@ -24696,82 +24696,82 @@
         <v>0.25</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0.25</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>0.2</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="153"/>
         <v>0.2</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="154"/>
         <v>0.2</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0.1</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="155"/>
         <v>0.1</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="156"/>
         <v>0.1</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>2</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="157"/>
         <v>2</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="163"/>
+        <f t="shared" si="158"/>
         <v>2</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="146"/>
         <v>0.5</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="159"/>
         <v>0.5</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="160"/>
         <v>0.5</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="147"/>
         <v>0.75</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="161"/>
         <v>0.75</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="167"/>
+        <f t="shared" si="162"/>
         <v>0.75</v>
       </c>
     </row>
@@ -24792,7 +24792,7 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>35</v>
       </c>
       <c r="H87" s="15">
@@ -24800,82 +24800,82 @@
         <v>35</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>35</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>30</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="153"/>
         <v>30</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="154"/>
         <v>30</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>35</v>
       </c>
       <c r="P87" s="15">
+        <f t="shared" si="155"/>
+        <v>35</v>
+      </c>
+      <c r="Q87" s="16">
+        <f t="shared" si="156"/>
+        <v>35</v>
+      </c>
+      <c r="R87" s="11">
+        <v>100</v>
+      </c>
+      <c r="S87" s="12">
+        <f t="shared" si="145"/>
+        <v>50</v>
+      </c>
+      <c r="T87" s="15">
+        <f t="shared" si="157"/>
+        <v>50</v>
+      </c>
+      <c r="U87" s="16">
+        <f t="shared" si="158"/>
+        <v>50</v>
+      </c>
+      <c r="V87" s="11">
+        <v>90</v>
+      </c>
+      <c r="W87" s="12">
+        <f t="shared" si="146"/>
+        <v>45</v>
+      </c>
+      <c r="X87" s="15">
+        <f t="shared" si="159"/>
+        <v>45</v>
+      </c>
+      <c r="Y87" s="16">
         <f t="shared" si="160"/>
+        <v>45</v>
+      </c>
+      <c r="Z87" s="11">
+        <v>70</v>
+      </c>
+      <c r="AA87" s="12">
+        <f t="shared" si="147"/>
         <v>35</v>
       </c>
-      <c r="Q87" s="16">
+      <c r="AB87" s="15">
         <f t="shared" si="161"/>
         <v>35</v>
       </c>
-      <c r="R87" s="11">
-        <v>100</v>
-      </c>
-      <c r="S87" s="12">
-        <f t="shared" si="150"/>
-        <v>50</v>
-      </c>
-      <c r="T87" s="15">
+      <c r="AC87" s="16">
         <f t="shared" si="162"/>
-        <v>50</v>
-      </c>
-      <c r="U87" s="16">
-        <f t="shared" si="163"/>
-        <v>50</v>
-      </c>
-      <c r="V87" s="11">
-        <v>90</v>
-      </c>
-      <c r="W87" s="12">
-        <f t="shared" si="151"/>
-        <v>45</v>
-      </c>
-      <c r="X87" s="15">
-        <f t="shared" si="164"/>
-        <v>45</v>
-      </c>
-      <c r="Y87" s="16">
-        <f t="shared" si="165"/>
-        <v>45</v>
-      </c>
-      <c r="Z87" s="11">
-        <v>70</v>
-      </c>
-      <c r="AA87" s="12">
-        <f t="shared" si="152"/>
-        <v>35</v>
-      </c>
-      <c r="AB87" s="15">
-        <f t="shared" si="166"/>
-        <v>35</v>
-      </c>
-      <c r="AC87" s="16">
-        <f t="shared" si="167"/>
         <v>35</v>
       </c>
     </row>
@@ -24893,7 +24893,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="G88" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
@@ -24901,67 +24901,67 @@
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="16">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="12">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="15">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="16">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="12">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="15">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="16">
         <f t="shared" si="158"/>
         <v>0</v>
       </c>
-      <c r="M88" s="16">
+      <c r="W88" s="12">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="X88" s="15">
         <f t="shared" si="159"/>
         <v>0</v>
       </c>
-      <c r="O88" s="12">
-        <f t="shared" si="149"/>
-        <v>0</v>
-      </c>
-      <c r="P88" s="15">
+      <c r="Y88" s="16">
         <f t="shared" si="160"/>
         <v>0</v>
       </c>
-      <c r="Q88" s="16">
+      <c r="AA88" s="12">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="AB88" s="15">
         <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="S88" s="12">
-        <f t="shared" si="150"/>
-        <v>0</v>
-      </c>
-      <c r="T88" s="15">
+      <c r="AC88" s="16">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="16">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="W88" s="12">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="X88" s="15">
-        <f t="shared" si="164"/>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="16">
-        <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="AA88" s="12">
-        <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="15">
-        <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="AC88" s="16">
-        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -24985,67 +24985,67 @@
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K90" si="168">J89</f>
+        <f t="shared" ref="K89:K93" si="163">J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="15">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="16">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="12">
+        <f t="shared" ref="O89:O93" si="164">N89</f>
+        <v>0</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="16">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="12">
+        <f t="shared" ref="S89:S93" si="165">R89</f>
+        <v>0</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="16">
         <f t="shared" si="158"/>
         <v>0</v>
       </c>
-      <c r="M89" s="16">
+      <c r="W89" s="12">
+        <f t="shared" ref="W89:W93" si="166">V89</f>
+        <v>0</v>
+      </c>
+      <c r="X89" s="15">
         <f t="shared" si="159"/>
         <v>0</v>
       </c>
-      <c r="O89" s="12">
-        <f t="shared" ref="O89:O90" si="169">N89</f>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
+      <c r="Y89" s="16">
         <f t="shared" si="160"/>
         <v>0</v>
       </c>
-      <c r="Q89" s="16">
+      <c r="AA89" s="12">
+        <f t="shared" ref="AA89:AA93" si="167">Z89</f>
+        <v>0</v>
+      </c>
+      <c r="AB89" s="15">
         <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="S89" s="12">
-        <f t="shared" ref="S89:S90" si="170">R89</f>
-        <v>0</v>
-      </c>
-      <c r="T89" s="15">
+      <c r="AC89" s="16">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="16">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="12">
-        <f t="shared" ref="W89:W90" si="171">V89</f>
-        <v>0</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="164"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="16">
-        <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA90" si="172">Z89</f>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="16">
-        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -25069,67 +25069,67 @@
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="L90" s="15">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="15">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="16">
         <f t="shared" si="158"/>
         <v>0</v>
       </c>
-      <c r="M90" s="16">
+      <c r="W90" s="12">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="15">
         <f t="shared" si="159"/>
         <v>0</v>
       </c>
-      <c r="O90" s="12">
-        <f t="shared" si="169"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="15">
+      <c r="Y90" s="16">
         <f t="shared" si="160"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="16">
+      <c r="AA90" s="12">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="15">
         <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="S90" s="12">
-        <f t="shared" si="170"/>
-        <v>0</v>
-      </c>
-      <c r="T90" s="15">
+      <c r="AC90" s="16">
         <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="12">
-        <f t="shared" si="171"/>
-        <v>0</v>
-      </c>
-      <c r="X90" s="15">
-        <f t="shared" si="164"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="12">
-        <f t="shared" si="172"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="15">
-        <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="AC90" s="16">
-        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -25155,7 +25155,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -25163,11 +25163,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -25175,11 +25175,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -25190,11 +25190,11 @@
         <v>9</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="157"/>
         <v>9</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="163"/>
+        <f t="shared" si="158"/>
         <v>9</v>
       </c>
       <c r="W91" s="12">
@@ -25202,11 +25202,11 @@
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -25214,11 +25214,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="167"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
     </row>
@@ -25242,70 +25242,70 @@
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92:K93" si="173">J92</f>
+        <f t="shared" ref="K92:K93" si="168">J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92:O93" si="174">N92</f>
+        <f t="shared" ref="O92:O93" si="169">N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92:S93" si="175">R92</f>
+        <f t="shared" ref="S92:S93" si="170">R92</f>
         <v>1</v>
       </c>
       <c r="T92" s="15">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
+      <c r="U92" s="16">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="W92" s="12">
+        <f t="shared" ref="W92:W93" si="171">V92</f>
+        <v>0</v>
+      </c>
+      <c r="X92" s="15">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="Y92" s="16">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="AA92" s="12">
+        <f t="shared" ref="AA92:AA93" si="172">Z92</f>
+        <v>0</v>
+      </c>
+      <c r="AB92" s="15">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="AC92" s="16">
         <f t="shared" si="162"/>
-        <v>1</v>
-      </c>
-      <c r="U92" s="16">
-        <f t="shared" si="163"/>
-        <v>1</v>
-      </c>
-      <c r="W92" s="12">
-        <f t="shared" ref="W92:W93" si="176">V92</f>
-        <v>0</v>
-      </c>
-      <c r="X92" s="15">
-        <f t="shared" si="164"/>
-        <v>0</v>
-      </c>
-      <c r="Y92" s="16">
-        <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="AA92" s="12">
-        <f t="shared" ref="AA92:AA93" si="177">Z92</f>
-        <v>0</v>
-      </c>
-      <c r="AB92" s="15">
-        <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="AC92" s="16">
-        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -25329,70 +25329,70 @@
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="173"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="170"/>
         <v>5</v>
       </c>
       <c r="T93" s="15">
+        <f t="shared" si="157"/>
+        <v>5</v>
+      </c>
+      <c r="U93" s="16">
+        <f t="shared" si="158"/>
+        <v>5</v>
+      </c>
+      <c r="W93" s="12">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="X93" s="15">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="16">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="AA93" s="12">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="AB93" s="15">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="AC93" s="16">
         <f t="shared" si="162"/>
-        <v>5</v>
-      </c>
-      <c r="U93" s="16">
-        <f t="shared" si="163"/>
-        <v>5</v>
-      </c>
-      <c r="W93" s="12">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="X93" s="15">
-        <f t="shared" si="164"/>
-        <v>0</v>
-      </c>
-      <c r="Y93" s="16">
-        <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="AA93" s="12">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="AB93" s="15">
-        <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="AC93" s="16">
-        <f t="shared" si="167"/>
         <v>0</v>
       </c>
     </row>
@@ -25405,8 +25405,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView topLeftCell="P1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="450" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25840,7 +25842,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5" si="7">J5</f>
+        <f t="shared" ref="K5:K20" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5" si="9">N5</f>
+        <f t="shared" ref="O5:O20" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -25867,7 +25869,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="11">R5</f>
+        <f t="shared" ref="S5:S20" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -25882,7 +25884,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5" si="13">V5</f>
+        <f t="shared" ref="W5:W20" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -25897,7 +25899,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5" si="15">Z5</f>
+        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -26307,7 +26309,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10" si="17">J10</f>
+        <f t="shared" ref="K10:K25" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -26319,7 +26321,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10" si="18">N10</f>
+        <f t="shared" ref="O10:O25" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -26331,7 +26333,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10" si="19">R10</f>
+        <f t="shared" ref="S10:S25" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -26346,7 +26348,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10" si="20">V10</f>
+        <f t="shared" ref="W10:W25" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -26358,7 +26360,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10" si="21">Z10</f>
+        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -28823,66 +28825,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37" si="36">J37</f>
+        <f t="shared" ref="K37:K44" si="36">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="37">K37</f>
+        <f t="shared" ref="L37:L44" si="37">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37" si="38">L37</f>
+        <f t="shared" ref="M37:M50" si="38">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37" si="39">N37</f>
+        <f t="shared" ref="O37:O44" si="39">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37" si="40">O37</f>
+        <f t="shared" ref="P37:P44" si="40">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37" si="41">P37</f>
+        <f t="shared" ref="Q37:Q50" si="41">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37" si="42">R37</f>
+        <f t="shared" ref="S37:S44" si="42">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37" si="43">S37</f>
+        <f t="shared" ref="T37:T44" si="43">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37" si="44">T37</f>
+        <f t="shared" ref="U37:U50" si="44">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37" si="45">V37</f>
+        <f t="shared" ref="W37:W44" si="45">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37" si="46">W37</f>
+        <f t="shared" ref="X37:X44" si="46">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37" si="47">X37</f>
+        <f t="shared" ref="Y37:Y50" si="47">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="48">Z37</f>
+        <f t="shared" ref="AA37:AA44" si="48">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37" si="49">AA37</f>
+        <f t="shared" ref="AB37:AB44" si="49">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37" si="50">AB37</f>
+        <f t="shared" ref="AC37:AC50" si="50">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -29111,75 +29113,75 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40" si="51">J40</f>
+        <f t="shared" ref="K40:K47" si="51">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40" si="52">K40</f>
+        <f t="shared" ref="L40:L47" si="52">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" ref="M40" si="53">L40</f>
+        <f t="shared" ref="M40:M53" si="53">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40" si="54">N40</f>
+        <f t="shared" ref="O40:O47" si="54">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40" si="55">O40</f>
+        <f t="shared" ref="P40:P47" si="55">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" ref="Q40" si="56">P40</f>
+        <f t="shared" ref="Q40:Q53" si="56">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40" si="57">R40</f>
+        <f t="shared" ref="S40:S47" si="57">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40" si="58">S40</f>
+        <f t="shared" ref="T40:T47" si="58">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" ref="U40" si="59">T40</f>
+        <f t="shared" ref="U40:U53" si="59">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40" si="60">V40</f>
+        <f t="shared" ref="W40:W47" si="60">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40" si="61">W40</f>
+        <f t="shared" ref="X40:X47" si="61">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" ref="Y40" si="62">X40</f>
+        <f t="shared" ref="Y40:Y53" si="62">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="63">Z40</f>
+        <f t="shared" ref="AA40:AA47" si="63">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40" si="64">AA40</f>
+        <f t="shared" ref="AB40:AB47" si="64">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" ref="AC40" si="65">AB40</f>
+        <f t="shared" ref="AC40:AC53" si="65">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -29530,11 +29532,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44" si="66">K44</f>
+        <f t="shared" ref="L44:L51" si="66">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" ref="M44" si="67">L44</f>
+        <f t="shared" ref="M44:M57" si="67">L44</f>
         <v>0</v>
       </c>
       <c r="N44" s="11">
@@ -29545,11 +29547,11 @@
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44" si="68">O44</f>
+        <f t="shared" ref="P44:P51" si="68">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" ref="Q44" si="69">P44</f>
+        <f t="shared" ref="Q44:Q57" si="69">P44</f>
         <v>1</v>
       </c>
       <c r="R44" s="11">
@@ -29560,11 +29562,11 @@
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44" si="70">S44</f>
+        <f t="shared" ref="T44:T51" si="70">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" ref="U44" si="71">T44</f>
+        <f t="shared" ref="U44:U57" si="71">T44</f>
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
@@ -29572,11 +29574,11 @@
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44" si="72">W44</f>
+        <f t="shared" ref="X44:X51" si="72">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" ref="Y44" si="73">X44</f>
+        <f t="shared" ref="Y44:Y57" si="73">X44</f>
         <v>0</v>
       </c>
       <c r="Z44" s="11">
@@ -29587,11 +29589,11 @@
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44" si="74">AA44</f>
+        <f t="shared" ref="AB44:AB51" si="74">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" ref="AC44" si="75">AB44</f>
+        <f t="shared" ref="AC44:AC57" si="75">AB44</f>
         <v>1</v>
       </c>
     </row>
@@ -29841,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47" si="82">L47</f>
+        <f t="shared" ref="M47:M60" si="82">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -29856,7 +29858,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47" si="83">P47</f>
+        <f t="shared" ref="Q47:Q60" si="83">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -29871,7 +29873,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47" si="84">T47</f>
+        <f t="shared" ref="U47:U60" si="84">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -29883,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47" si="85">X47</f>
+        <f t="shared" ref="Y47:Y60" si="85">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -29898,7 +29900,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47" si="86">AB47</f>
+        <f t="shared" ref="AC47:AC60" si="86">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -31063,7 +31065,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K60" si="95">J59</f>
+        <f t="shared" ref="K59:K93" si="95">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
@@ -31071,11 +31073,11 @@
         <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f>L59</f>
+        <f>$E59*L59</f>
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O60" si="97">N59</f>
+        <f t="shared" ref="O59:O93" si="97">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
@@ -31083,14 +31085,14 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f>P59</f>
+        <f>$E59*P59</f>
         <v>0</v>
       </c>
       <c r="R59" s="11">
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S60" si="99">R59</f>
+        <f t="shared" ref="S59:S93" si="99">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
@@ -31098,11 +31100,11 @@
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
-        <f>T59</f>
-        <v>3.5</v>
+        <f>$E59*T59</f>
+        <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W60" si="101">V59</f>
+        <f t="shared" ref="W59:W93" si="101">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
@@ -31110,11 +31112,11 @@
         <v>0</v>
       </c>
       <c r="Y59" s="16">
-        <f>X59</f>
+        <f>$E59*X59</f>
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA60" si="103">Z59</f>
+        <f t="shared" ref="AA59:AA93" si="103">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
@@ -31122,7 +31124,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f>AB59</f>
+        <f>$E59*AB59</f>
         <v>0</v>
       </c>
     </row>
@@ -31151,7 +31153,7 @@
         <v>0.4</v>
       </c>
       <c r="I60" s="16">
-        <f t="shared" ref="I59:I61" si="105">$E60*H60</f>
+        <f t="shared" ref="I60:I61" si="105">$E60*H60</f>
         <v>0</v>
       </c>
       <c r="K60" s="12">
@@ -31163,7 +31165,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="16">
-        <f>L60</f>
+        <f t="shared" ref="M60:M61" si="106">$E60*L60</f>
         <v>0</v>
       </c>
       <c r="O60" s="12">
@@ -31175,7 +31177,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="16">
-        <f>P60</f>
+        <f t="shared" ref="Q60:Q61" si="107">$E60*P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="11">
@@ -31190,8 +31192,8 @@
         <v>2</v>
       </c>
       <c r="U60" s="16">
-        <f>T60</f>
-        <v>2</v>
+        <f t="shared" ref="U60:U61" si="108">$E60*T60</f>
+        <v>0</v>
       </c>
       <c r="W60" s="12">
         <f t="shared" si="101"/>
@@ -31202,7 +31204,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="16">
-        <f>X60</f>
+        <f t="shared" ref="Y60:Y61" si="109">$E60*X60</f>
         <v>0</v>
       </c>
       <c r="AA60" s="12">
@@ -31214,7 +31216,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="16">
-        <f>AB60</f>
+        <f t="shared" ref="AC60:AC61" si="110">$E60*AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -31257,7 +31259,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="16">
-        <f>$E61*L61</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O61" s="12">
@@ -31269,7 +31271,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f>$E61*P61</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="R61" s="11">
@@ -31284,7 +31286,7 @@
         <v>2675</v>
       </c>
       <c r="U61" s="16">
-        <f>$E61*T61</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="W61" s="12">
@@ -31296,7 +31298,7 @@
         <v>146.25</v>
       </c>
       <c r="Y61" s="16">
-        <f>$E61*X61</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AA61" s="12">
@@ -31308,7 +31310,7 @@
         <v>75</v>
       </c>
       <c r="AC61" s="16">
-        <f>$E61*AB61</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -31341,7 +31343,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K67" si="106">J62</f>
+        <f t="shared" ref="K62:K93" si="111">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -31353,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O67" si="107">N62</f>
+        <f t="shared" ref="O62:O93" si="112">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -31368,7 +31370,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S67" si="108">R62</f>
+        <f t="shared" ref="S62:S93" si="113">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
@@ -31383,7 +31385,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W67" si="109">V62</f>
+        <f t="shared" ref="W62:W93" si="114">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -31398,7 +31400,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA67" si="110">Z62</f>
+        <f t="shared" ref="AA62:AA93" si="115">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -31439,7 +31441,7 @@
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
@@ -31451,7 +31453,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
@@ -31466,7 +31468,7 @@
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
@@ -31481,7 +31483,7 @@
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="X63" s="15">
@@ -31496,7 +31498,7 @@
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>1</v>
       </c>
       <c r="AB63" s="15">
@@ -31537,7 +31539,7 @@
         <v>239</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
@@ -31549,7 +31551,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
@@ -31564,7 +31566,7 @@
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
@@ -31579,7 +31581,7 @@
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>5</v>
       </c>
       <c r="X64" s="15">
@@ -31594,7 +31596,7 @@
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>3</v>
       </c>
       <c r="AB64" s="15">
@@ -31626,11 +31628,11 @@
         <v>0</v>
       </c>
       <c r="I65" s="16">
-        <f t="shared" ref="I65:I77" si="111">H65</f>
+        <f t="shared" ref="I65:I77" si="116">H65</f>
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
@@ -31638,11 +31640,11 @@
         <v>0</v>
       </c>
       <c r="M65" s="16">
-        <f t="shared" ref="M65:M77" si="112">L65</f>
+        <f t="shared" ref="M65:M77" si="117">L65</f>
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P65" s="15">
@@ -31650,11 +31652,11 @@
         <v>0</v>
       </c>
       <c r="Q65" s="16">
-        <f t="shared" ref="Q65:Q77" si="113">P65</f>
+        <f t="shared" ref="Q65:Q77" si="118">P65</f>
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T65" s="15">
@@ -31662,11 +31664,11 @@
         <v>0</v>
       </c>
       <c r="U65" s="16">
-        <f t="shared" ref="U65:U77" si="114">T65</f>
+        <f t="shared" ref="U65:U77" si="119">T65</f>
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X65" s="15">
@@ -31674,11 +31676,11 @@
         <v>0</v>
       </c>
       <c r="Y65" s="16">
-        <f t="shared" ref="Y65:Y77" si="115">X65</f>
+        <f t="shared" ref="Y65:Y77" si="120">X65</f>
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB65" s="15">
@@ -31686,7 +31688,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="16">
-        <f t="shared" ref="AC65:AC77" si="116">AB65</f>
+        <f t="shared" ref="AC65:AC77" si="121">AB65</f>
         <v>0</v>
       </c>
     </row>
@@ -31710,11 +31712,11 @@
         <v>0</v>
       </c>
       <c r="I66" s="16">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="12">
         <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="12">
-        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
@@ -31722,11 +31724,11 @@
         <v>0</v>
       </c>
       <c r="M66" s="16">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="12">
         <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="12">
-        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P66" s="15">
@@ -31734,11 +31736,11 @@
         <v>0</v>
       </c>
       <c r="Q66" s="16">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="12">
         <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="12">
-        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T66" s="15">
@@ -31746,11 +31748,11 @@
         <v>0</v>
       </c>
       <c r="U66" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="12">
         <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="12">
-        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="X66" s="15">
@@ -31758,11 +31760,11 @@
         <v>0</v>
       </c>
       <c r="Y66" s="16">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="12">
         <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="12">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AB66" s="15">
@@ -31770,7 +31772,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -31794,11 +31796,11 @@
         <v>0</v>
       </c>
       <c r="I67" s="16">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="12">
         <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="12">
-        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L67" s="15">
@@ -31806,11 +31808,11 @@
         <v>0</v>
       </c>
       <c r="M67" s="16">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="12">
         <f t="shared" si="112"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="12">
-        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="P67" s="15">
@@ -31818,11 +31820,11 @@
         <v>0</v>
       </c>
       <c r="Q67" s="16">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="12">
         <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="12">
-        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="T67" s="15">
@@ -31830,11 +31832,11 @@
         <v>0</v>
       </c>
       <c r="U67" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="12">
         <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="12">
-        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="X67" s="15">
@@ -31842,11 +31844,11 @@
         <v>0</v>
       </c>
       <c r="Y67" s="16">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="12">
         <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="12">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AB67" s="15">
@@ -31854,7 +31856,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -31875,7 +31877,7 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" ref="G68:G70" si="117">$C68*F68</f>
+        <f t="shared" ref="G68:G70" si="122">$C68*F68</f>
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="H68" s="15">
@@ -31883,14 +31885,14 @@
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>1.9529749999999998E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" ref="K68:K70" si="118">$C68*J68</f>
+        <f t="shared" ref="K68:K70" si="123">$C68*J68</f>
         <v>0</v>
       </c>
       <c r="L68" s="15">
@@ -31898,14 +31900,14 @@
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" ref="O68:O70" si="119">$C68*N68</f>
+        <f t="shared" ref="O68:O70" si="124">$C68*N68</f>
         <v>0</v>
       </c>
       <c r="P68" s="15">
@@ -31913,14 +31915,14 @@
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" ref="S68:S70" si="120">$C68*R68</f>
+        <f t="shared" ref="S68:S70" si="125">$C68*R68</f>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="T68" s="15">
@@ -31928,14 +31930,14 @@
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>2.0452749999999999E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" ref="W68:W70" si="121">$C68*V68</f>
+        <f t="shared" ref="W68:W70" si="126">$C68*V68</f>
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="X68" s="15">
@@ -31943,14 +31945,14 @@
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="Y68" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>3.3973250000000003E-2</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" ref="AA68:AA70" si="122">$C68*Z68</f>
+        <f t="shared" ref="AA68:AA70" si="127">$C68*Z68</f>
         <v>0</v>
       </c>
       <c r="AB68" s="15">
@@ -31958,7 +31960,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -31979,7 +31981,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="H69" s="15">
@@ -31987,14 +31989,14 @@
         <v>0</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L69" s="15">
@@ -32002,14 +32004,14 @@
         <v>0</v>
       </c>
       <c r="M69" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="N69" s="11">
         <v>0</v>
       </c>
       <c r="O69" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P69" s="15">
@@ -32017,14 +32019,14 @@
         <v>0</v>
       </c>
       <c r="Q69" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="R69" s="11">
         <v>0</v>
       </c>
       <c r="S69" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T69" s="15">
@@ -32032,14 +32034,14 @@
         <v>0</v>
       </c>
       <c r="U69" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V69" s="11">
         <v>0</v>
       </c>
       <c r="W69" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X69" s="15">
@@ -32047,14 +32049,14 @@
         <v>0</v>
       </c>
       <c r="Y69" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
       </c>
       <c r="AA69" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB69" s="15">
@@ -32062,7 +32064,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -32083,7 +32085,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="H70" s="15">
@@ -32091,14 +32093,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="118"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L70" s="15">
@@ -32106,14 +32108,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="N70" s="11">
         <v>0</v>
       </c>
       <c r="O70" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P70" s="15">
@@ -32121,14 +32123,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="R70" s="11">
         <v>0</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T70" s="15">
@@ -32136,14 +32138,14 @@
         <v>0</v>
       </c>
       <c r="U70" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V70" s="11">
         <v>0</v>
       </c>
       <c r="W70" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X70" s="15">
@@ -32151,14 +32153,14 @@
         <v>0</v>
       </c>
       <c r="Y70" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Z70" s="11">
         <v>0</v>
       </c>
       <c r="AA70" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB70" s="15">
@@ -32166,7 +32168,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -32190,11 +32192,11 @@
         <v>0</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K77" si="123">J71</f>
+        <f t="shared" ref="K71:K93" si="128">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
@@ -32202,11 +32204,11 @@
         <v>0</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O77" si="124">N71</f>
+        <f t="shared" ref="O71:O93" si="129">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
@@ -32214,11 +32216,11 @@
         <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S77" si="125">R71</f>
+        <f t="shared" ref="S71:S93" si="130">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
@@ -32226,14 +32228,14 @@
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W77" si="126">V71</f>
+        <f t="shared" ref="W71:W93" si="131">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
@@ -32241,11 +32243,11 @@
         <v>90</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA77" si="127">Z71</f>
+        <f t="shared" ref="AA71:AA93" si="132">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
@@ -32253,7 +32255,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -32277,14 +32279,14 @@
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
@@ -32292,11 +32294,11 @@
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
@@ -32304,11 +32306,11 @@
         <v>0</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="T72" s="15">
@@ -32316,11 +32318,11 @@
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="X72" s="15">
@@ -32328,11 +32330,11 @@
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AB72" s="15">
@@ -32340,7 +32342,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -32364,11 +32366,11 @@
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
@@ -32376,14 +32378,14 @@
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
@@ -32391,11 +32393,11 @@
         <v>100</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="T73" s="15">
@@ -32403,11 +32405,11 @@
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="X73" s="15">
@@ -32415,11 +32417,11 @@
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AB73" s="15">
@@ -32427,7 +32429,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -32454,11 +32456,11 @@
         <v>50</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
@@ -32466,11 +32468,11 @@
         <v>0</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="P74" s="15">
@@ -32478,11 +32480,11 @@
         <v>0</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="T74" s="15">
@@ -32490,14 +32492,14 @@
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
@@ -32505,14 +32507,14 @@
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="132"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
@@ -32520,7 +32522,7 @@
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>40</v>
       </c>
     </row>
@@ -32547,11 +32549,11 @@
         <v>50</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
@@ -32559,11 +32561,11 @@
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
@@ -32571,14 +32573,14 @@
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
@@ -32586,11 +32588,11 @@
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
@@ -32598,11 +32600,11 @@
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AB75" s="15">
@@ -32610,7 +32612,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -32634,11 +32636,11 @@
         <v>0</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="L76" s="15">
@@ -32646,11 +32648,11 @@
         <v>0</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="P76" s="15">
@@ -32658,11 +32660,11 @@
         <v>0</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="T76" s="15">
@@ -32670,11 +32672,11 @@
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="X76" s="15">
@@ -32682,14 +32684,14 @@
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="132"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
@@ -32697,7 +32699,7 @@
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>60</v>
       </c>
     </row>
@@ -32721,11 +32723,11 @@
         <v>0</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="L77" s="15">
@@ -32733,11 +32735,11 @@
         <v>0</v>
       </c>
       <c r="M77" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="O77" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="P77" s="15">
@@ -32745,11 +32747,11 @@
         <v>0</v>
       </c>
       <c r="Q77" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="S77" s="12">
-        <f t="shared" si="125"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="T77" s="15">
@@ -32757,11 +32759,11 @@
         <v>0</v>
       </c>
       <c r="U77" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="W77" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="X77" s="15">
@@ -32769,11 +32771,11 @@
         <v>0</v>
       </c>
       <c r="Y77" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="AB77" s="15">
@@ -32781,7 +32783,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -32804,11 +32806,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" ref="G78:G88" si="128">$C78*F78</f>
+        <f t="shared" ref="G78:G88" si="133">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
-        <f t="shared" ref="H78:H82" si="129">G78*$D78</f>
+        <f t="shared" ref="H78:H82" si="134">G78*$D78</f>
         <v>0</v>
       </c>
       <c r="I78" s="16">
@@ -32816,11 +32818,11 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K88" si="130">$C78*J78</f>
+        <f t="shared" ref="K78:K88" si="135">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
-        <f t="shared" ref="L78" si="131">K78*$D78</f>
+        <f t="shared" ref="L78:L82" si="136">K78*$D78</f>
         <v>0</v>
       </c>
       <c r="M78" s="16">
@@ -32828,11 +32830,11 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O88" si="132">$C78*N78</f>
+        <f t="shared" ref="O78:O88" si="137">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
-        <f t="shared" ref="P78" si="133">O78*$D78</f>
+        <f t="shared" ref="P78:P82" si="138">O78*$D78</f>
         <v>0</v>
       </c>
       <c r="Q78" s="16">
@@ -32843,11 +32845,11 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S88" si="134">$C78*R78</f>
+        <f t="shared" ref="S78:S88" si="139">$C78*R78</f>
         <v>1</v>
       </c>
       <c r="T78" s="15">
-        <f t="shared" ref="T78" si="135">S78*$D78</f>
+        <f t="shared" ref="T78:T82" si="140">S78*$D78</f>
         <v>1.5</v>
       </c>
       <c r="U78" s="16">
@@ -32855,11 +32857,11 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W88" si="136">$C78*V78</f>
+        <f t="shared" ref="W78:W88" si="141">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
-        <f t="shared" ref="X78" si="137">W78*$D78</f>
+        <f t="shared" ref="X78:X82" si="142">W78*$D78</f>
         <v>0</v>
       </c>
       <c r="Y78" s="16">
@@ -32867,11 +32869,11 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA88" si="138">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA88" si="143">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
-        <f t="shared" ref="AB78" si="139">AA78*$D78</f>
+        <f t="shared" ref="AB78:AB82" si="144">AA78*$D78</f>
         <v>0</v>
       </c>
       <c r="AC78" s="16">
@@ -32898,7 +32900,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H79" s="15">
@@ -32910,7 +32912,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
@@ -32922,7 +32924,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
@@ -32937,7 +32939,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>2.5</v>
       </c>
       <c r="T79" s="15">
@@ -32949,7 +32951,7 @@
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
@@ -32961,7 +32963,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
@@ -32993,11 +32995,11 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>0.1</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>0.2</v>
       </c>
       <c r="I80" s="16">
@@ -33008,11 +33010,11 @@
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" ref="L80" si="140">K80*$D80</f>
+        <f t="shared" ref="L80:L84" si="145">K80*$D80</f>
         <v>1</v>
       </c>
       <c r="M80" s="16">
@@ -33023,11 +33025,11 @@
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" ref="P80" si="141">O80*$D80</f>
+        <f t="shared" ref="P80:P84" si="146">O80*$D80</f>
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
@@ -33038,11 +33040,11 @@
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" ref="T80" si="142">S80*$D80</f>
+        <f t="shared" ref="T80:T84" si="147">S80*$D80</f>
         <v>1</v>
       </c>
       <c r="U80" s="16">
@@ -33053,11 +33055,11 @@
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" ref="X80" si="143">W80*$D80</f>
+        <f t="shared" ref="X80:X84" si="148">W80*$D80</f>
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
@@ -33068,11 +33070,11 @@
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>1</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" ref="AB80" si="144">AA80*$D80</f>
+        <f t="shared" ref="AB80:AB84" si="149">AA80*$D80</f>
         <v>2</v>
       </c>
       <c r="AC80" s="16">
@@ -33100,7 +33102,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>35</v>
       </c>
       <c r="H81" s="15">
@@ -33115,7 +33117,7 @@
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>30</v>
       </c>
       <c r="L81" s="15">
@@ -33130,7 +33132,7 @@
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>2.5</v>
       </c>
       <c r="P81" s="15">
@@ -33145,7 +33147,7 @@
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>7.5</v>
       </c>
       <c r="T81" s="15">
@@ -33160,7 +33162,7 @@
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>45</v>
       </c>
       <c r="X81" s="15">
@@ -33175,7 +33177,7 @@
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>35</v>
       </c>
       <c r="AB81" s="15">
@@ -33206,11 +33208,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="I82" s="16">
@@ -33218,11 +33220,11 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" ref="L82" si="145">K82*$D82</f>
+        <f t="shared" ref="L82:L86" si="150">K82*$D82</f>
         <v>0</v>
       </c>
       <c r="M82" s="16">
@@ -33230,11 +33232,11 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" ref="P82" si="146">O82*$D82</f>
+        <f t="shared" ref="P82:P86" si="151">O82*$D82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="16">
@@ -33245,11 +33247,11 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" ref="T82" si="147">S82*$D82</f>
+        <f t="shared" ref="T82:T86" si="152">S82*$D82</f>
         <v>1.875</v>
       </c>
       <c r="U82" s="16">
@@ -33260,11 +33262,11 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
-        <f t="shared" ref="X82" si="148">W82*$D82</f>
+        <f t="shared" ref="X82:X86" si="153">W82*$D82</f>
         <v>0.75</v>
       </c>
       <c r="Y82" s="16">
@@ -33272,11 +33274,11 @@
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
-        <f t="shared" ref="AB82" si="149">AA82*$D82</f>
+        <f t="shared" ref="AB82:AB86" si="154">AA82*$D82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="16">
@@ -33303,7 +33305,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
@@ -33315,7 +33317,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
@@ -33327,7 +33329,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
@@ -33342,7 +33344,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>40</v>
       </c>
       <c r="T83" s="15">
@@ -33357,7 +33359,7 @@
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>2.5</v>
       </c>
       <c r="X83" s="15">
@@ -33369,7 +33371,7 @@
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
@@ -33395,7 +33397,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="G84" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
@@ -33403,73 +33405,73 @@
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" ref="I84:I93" si="150">H84</f>
+        <f t="shared" ref="I84:I93" si="155">H84</f>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.05</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="151">K84</f>
+        <f t="shared" ref="L84:L93" si="156">K84</f>
         <v>0.05</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="152">L84</f>
+        <f t="shared" ref="M84:M93" si="157">L84</f>
         <v>0.05</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="153">O84</f>
+        <f t="shared" ref="P84:P93" si="158">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="154">P84</f>
+        <f t="shared" ref="Q84:Q93" si="159">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0.5</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="155">S84</f>
+        <f t="shared" ref="T84:T93" si="160">S84</f>
         <v>0.5</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="156">T84</f>
+        <f t="shared" ref="U84:U93" si="161">T84</f>
         <v>0.5</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="157">W84</f>
+        <f t="shared" ref="X84:X93" si="162">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="158">X84</f>
+        <f t="shared" ref="Y84:Y93" si="163">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="159">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="164">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="160">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="165">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -33487,7 +33489,7 @@
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="G85" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H85" s="15">
@@ -33495,73 +33497,73 @@
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>15</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>15</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>15</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>22.5</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>22.5</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>22.5</v>
       </c>
       <c r="W85" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
     </row>
@@ -33582,7 +33584,7 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>0.125</v>
       </c>
       <c r="H86" s="15">
@@ -33590,82 +33592,82 @@
         <v>0.125</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0.125</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.1</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0.1</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>0.1</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0.05</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0.05</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0.05</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>1</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>1</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>1</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0.25</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0.25</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0.25</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0.375</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0.375</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0.375</v>
       </c>
     </row>
@@ -33686,7 +33688,7 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>17.5</v>
       </c>
       <c r="H87" s="15">
@@ -33694,82 +33696,82 @@
         <v>17.5</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>17.5</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>15</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>15</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>15</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>17.5</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>17.5</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>17.5</v>
       </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>25</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>25</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>25</v>
       </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>22.5</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>22.5</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>22.5</v>
       </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>17.5</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>17.5</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>17.5</v>
       </c>
     </row>
@@ -33787,7 +33789,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="G88" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
@@ -33795,67 +33797,67 @@
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="O88" s="12">
-        <f t="shared" si="132"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="Q88" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="S88" s="12">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="W88" s="12">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="Y88" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AC88" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
     </row>
@@ -33879,67 +33881,67 @@
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K90" si="161">J89</f>
+        <f t="shared" ref="K89:K93" si="166">J89</f>
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" ref="O89:O90" si="162">N89</f>
+        <f t="shared" ref="O89:O93" si="167">N89</f>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="Q89" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" ref="S89:S90" si="163">R89</f>
+        <f t="shared" ref="S89:S93" si="168">R89</f>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" ref="W89:W90" si="164">V89</f>
+        <f t="shared" ref="W89:W93" si="169">V89</f>
         <v>0</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="Y89" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA90" si="165">Z89</f>
+        <f t="shared" ref="AA89:AA93" si="170">Z89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AC89" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
     </row>
@@ -33963,67 +33965,67 @@
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="15">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="16">
         <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="L90" s="15">
-        <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="152"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
+      <c r="W90" s="12">
+        <f t="shared" si="169"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="15">
         <f t="shared" si="162"/>
         <v>0</v>
       </c>
-      <c r="P90" s="15">
-        <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="16">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="12">
+      <c r="Y90" s="16">
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="T90" s="15">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="12">
+      <c r="AA90" s="12">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="15">
         <f t="shared" si="164"/>
         <v>0</v>
       </c>
-      <c r="X90" s="15">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="158"/>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="12">
+      <c r="AC90" s="16">
         <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="15">
-        <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="AC90" s="16">
-        <f t="shared" si="160"/>
         <v>0</v>
       </c>
     </row>
@@ -34049,7 +34051,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -34057,11 +34059,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -34069,11 +34071,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -34084,11 +34086,11 @@
         <v>4.5</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>4.5</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>4.5</v>
       </c>
       <c r="W91" s="12">
@@ -34096,11 +34098,11 @@
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -34108,11 +34110,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
     </row>
@@ -34136,70 +34138,70 @@
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92:K93" si="166">J92</f>
+        <f t="shared" ref="K92:K93" si="171">J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92:O93" si="167">N92</f>
+        <f t="shared" ref="O92:O93" si="172">N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92:S93" si="168">R92</f>
+        <f t="shared" ref="S92:S93" si="173">R92</f>
         <v>1</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>1</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>1</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" ref="W92:W93" si="169">V92</f>
+        <f t="shared" ref="W92:W93" si="174">V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" ref="AA92:AA93" si="170">Z92</f>
+        <f t="shared" ref="AA92:AA93" si="175">Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
     </row>
@@ -34223,70 +34225,70 @@
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" si="173"/>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="160"/>
         <v>5</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="161"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" si="174"/>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
     </row>
@@ -48673,7 +48675,7 @@
       </c>
       <c r="AK59">
         <f>'3_MechRemove_ModSeverity'!T59</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AL59">
         <f>'3_MechRemove_ModSeverity'!U59</f>
@@ -48689,7 +48691,7 @@
       </c>
       <c r="AO59">
         <f>'3_MechRemove_HighSeverity'!U59</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AP59">
         <f>'3_MechRemove_LowSeverity'!V59</f>
@@ -48919,7 +48921,7 @@
       </c>
       <c r="AK60">
         <f>'3_MechRemove_ModSeverity'!T60</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL60">
         <f>'3_MechRemove_ModSeverity'!U60</f>
@@ -48935,7 +48937,7 @@
       </c>
       <c r="AO60">
         <f>'3_MechRemove_HighSeverity'!U60</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP60">
         <f>'3_MechRemove_LowSeverity'!V60</f>
@@ -49165,7 +49167,7 @@
       </c>
       <c r="AK61">
         <f>'3_MechRemove_ModSeverity'!T61</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="AL61">
         <f>'3_MechRemove_ModSeverity'!U61</f>
@@ -49205,7 +49207,7 @@
       </c>
       <c r="AU61">
         <f>'3_MechRemove_ModSeverity'!X61</f>
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="AV61">
         <f>'3_MechRemove_ModSeverity'!Y61</f>
@@ -49245,7 +49247,7 @@
       </c>
       <c r="BE61">
         <f>'3_MechRemove_ModSeverity'!AB61</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF61">
         <f>'3_MechRemove_ModSeverity'!AC61</f>
@@ -49907,7 +49909,7 @@
       </c>
       <c r="AL64">
         <f>'3_MechRemove_ModSeverity'!U64</f>
-        <v>50</v>
+        <v>1850</v>
       </c>
       <c r="AM64">
         <f>'3_MechRemove_HighSeverity'!S64</f>
@@ -49947,7 +49949,7 @@
       </c>
       <c r="AV64">
         <f>'3_MechRemove_ModSeverity'!Y64</f>
-        <v>5</v>
+        <v>102.5</v>
       </c>
       <c r="AW64">
         <f>'3_MechRemove_HighSeverity'!W64</f>
@@ -49987,7 +49989,7 @@
       </c>
       <c r="BF64">
         <f>'3_MechRemove_ModSeverity'!AC64</f>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="BG64">
         <f>'3_MechRemove_HighSeverity'!AA64</f>

--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="455">
   <si>
     <t>* = 1.1</t>
   </si>
@@ -2606,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+    <sheetView topLeftCell="A49" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,7 +3993,7 @@
         <v>372</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="J78" s="22" t="s">
         <v>11</v>
@@ -4022,7 +4022,7 @@
         <v>372</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="J79" s="22" t="s">
         <v>11</v>
@@ -4051,7 +4051,7 @@
         <v>372</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="J80" s="22" t="s">
         <v>372</v>
@@ -4077,7 +4077,7 @@
         <v>372</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="J81" s="22" t="s">
         <v>372</v>
@@ -4103,7 +4103,7 @@
         <v>372</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="J82" s="22" t="s">
         <v>11</v>
@@ -4132,7 +4132,7 @@
         <v>372</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="J83" s="22" t="s">
         <v>11</v>
@@ -4250,6 +4250,12 @@
         <v>256</v>
       </c>
       <c r="D89" s="22"/>
+      <c r="F89" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
@@ -4290,6 +4296,12 @@
         <v>256</v>
       </c>
       <c r="D92" s="22"/>
+      <c r="F92" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
@@ -7630,9 +7642,9 @@
   <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="450" topLeftCell="A2" activePane="bottomLeft"/>
+      <pane ySplit="450" topLeftCell="A45" activePane="bottomLeft"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16516,10 +16528,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="T61" sqref="T61"/>
+      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23916,7 +23928,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" ref="G78:G88" si="142">$C78*F78</f>
+        <f t="shared" ref="G78:G89" si="142">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
@@ -23928,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K88" si="143">$C78*J78</f>
+        <f t="shared" ref="K78:K89" si="143">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
@@ -23940,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O88" si="144">$C78*N78</f>
+        <f t="shared" ref="O78:O89" si="144">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
@@ -23955,7 +23967,7 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S88" si="145">$C78*R78</f>
+        <f t="shared" ref="S78:S89" si="145">$C78*R78</f>
         <v>1</v>
       </c>
       <c r="T78" s="15">
@@ -23967,7 +23979,7 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W88" si="146">$C78*V78</f>
+        <f t="shared" ref="W78:W89" si="146">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
@@ -23979,7 +23991,7 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA88" si="147">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA89" si="147">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
@@ -24973,11 +24985,13 @@
       <c r="B89" t="s">
         <v>361</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="4">
+        <v>0.5</v>
+      </c>
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
       <c r="G89" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="H89" s="15">
@@ -24989,7 +25003,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" ref="K89:K93" si="163">J89</f>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="L89" s="15">
@@ -25001,7 +25015,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" ref="O89:O93" si="164">N89</f>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P89" s="15">
@@ -25013,7 +25027,7 @@
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" ref="S89:S93" si="165">R89</f>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="T89" s="15">
@@ -25025,7 +25039,7 @@
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" ref="W89:W93" si="166">V89</f>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="X89" s="15">
@@ -25037,7 +25051,7 @@
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA93" si="167">Z89</f>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
@@ -25073,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" si="163"/>
+        <f t="shared" ref="K90:K93" si="163">J90</f>
         <v>0</v>
       </c>
       <c r="L90" s="15">
@@ -25085,7 +25099,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="12">
-        <f t="shared" si="164"/>
+        <f t="shared" ref="O90:O93" si="164">N90</f>
         <v>0</v>
       </c>
       <c r="P90" s="15">
@@ -25097,7 +25111,7 @@
         <v>0</v>
       </c>
       <c r="S90" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" ref="S90:S93" si="165">R90</f>
         <v>0</v>
       </c>
       <c r="T90" s="15">
@@ -25109,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="W90" s="12">
-        <f t="shared" si="166"/>
+        <f t="shared" ref="W90:W93" si="166">V90</f>
         <v>0</v>
       </c>
       <c r="X90" s="15">
@@ -25121,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="AA90" s="12">
-        <f t="shared" si="167"/>
+        <f t="shared" ref="AA90:AA93" si="167">Z90</f>
         <v>0</v>
       </c>
       <c r="AB90" s="15">
@@ -25230,11 +25244,13 @@
       <c r="B92" t="s">
         <v>364</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4">
+        <v>0.5</v>
+      </c>
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
       <c r="G92" s="12">
-        <f t="shared" si="109"/>
+        <f>$C92*F92</f>
         <v>0</v>
       </c>
       <c r="H92" s="15">
@@ -25246,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92:K93" si="168">J92</f>
+        <f>$C92*J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
@@ -25258,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92:O93" si="169">N92</f>
+        <f>$C92*N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
@@ -25273,19 +25289,19 @@
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92:S93" si="170">R92</f>
-        <v>1</v>
+        <f>$C92*R92</f>
+        <v>0.5</v>
       </c>
       <c r="T92" s="15">
         <f t="shared" si="157"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U92" s="16">
         <f t="shared" si="158"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" ref="W92:W93" si="171">V92</f>
+        <f>$C92*V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="15">
@@ -25297,7 +25313,7 @@
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" ref="AA92:AA93" si="172">Z92</f>
+        <f>$C92*Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
@@ -25333,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="168"/>
+        <f t="shared" ref="K93" si="168">J93</f>
         <v>0</v>
       </c>
       <c r="L93" s="15">
@@ -25345,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="169"/>
+        <f t="shared" ref="O93" si="169">N93</f>
         <v>0</v>
       </c>
       <c r="P93" s="15">
@@ -25360,7 +25376,7 @@
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="170"/>
+        <f t="shared" ref="S93" si="170">R93</f>
         <v>5</v>
       </c>
       <c r="T93" s="15">
@@ -25372,7 +25388,7 @@
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="W93" si="171">V93</f>
         <v>0</v>
       </c>
       <c r="X93" s="15">
@@ -25384,7 +25400,7 @@
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" ref="AA93" si="172">Z93</f>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
@@ -25405,10 +25421,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="450" topLeftCell="A2" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="T61" sqref="T61"/>
+      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33869,7 +33885,9 @@
       <c r="B89" t="s">
         <v>361</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="4">
+        <v>0.25</v>
+      </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="G89" s="12">
@@ -34126,11 +34144,13 @@
       <c r="B92" t="s">
         <v>364</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4">
+        <v>0.25</v>
+      </c>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="G92" s="12">
-        <f t="shared" si="93"/>
+        <f>$C92*F92</f>
         <v>0</v>
       </c>
       <c r="H92" s="15">
@@ -34142,7 +34162,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" ref="K92:K93" si="171">J92</f>
+        <f>$C92*J92</f>
         <v>0</v>
       </c>
       <c r="L92" s="15">
@@ -34154,7 +34174,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" ref="O92:O93" si="172">N92</f>
+        <f>$C92*N92</f>
         <v>0</v>
       </c>
       <c r="P92" s="15">
@@ -34169,19 +34189,19 @@
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" ref="S92:S93" si="173">R92</f>
-        <v>1</v>
+        <f>$C92*R92</f>
+        <v>0.25</v>
       </c>
       <c r="T92" s="15">
         <f t="shared" si="160"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="U92" s="16">
         <f t="shared" si="161"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" ref="W92:W93" si="174">V92</f>
+        <f>$C92*V92</f>
         <v>0</v>
       </c>
       <c r="X92" s="15">
@@ -34193,7 +34213,7 @@
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" ref="AA92:AA93" si="175">Z92</f>
+        <f>$C92*Z92</f>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
@@ -34229,7 +34249,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="K93" si="171">J93</f>
         <v>0</v>
       </c>
       <c r="L93" s="15">
@@ -34241,7 +34261,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="172"/>
+        <f t="shared" ref="O93" si="172">N93</f>
         <v>0</v>
       </c>
       <c r="P93" s="15">
@@ -34256,7 +34276,7 @@
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="173"/>
+        <f t="shared" ref="S93" si="173">R93</f>
         <v>5</v>
       </c>
       <c r="T93" s="15">
@@ -34268,7 +34288,7 @@
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" si="174"/>
+        <f t="shared" ref="W93" si="174">V93</f>
         <v>0</v>
       </c>
       <c r="X93" s="15">
@@ -34280,7 +34300,7 @@
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" ref="AA93" si="175">Z93</f>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
@@ -56789,27 +56809,27 @@
       </c>
       <c r="AJ92">
         <f>'3_MechRemove_ModSeverity'!S92</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK92">
         <f>'3_MechRemove_ModSeverity'!T92</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AL92">
         <f>'3_MechRemove_ModSeverity'!U92</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM92">
         <f>'3_MechRemove_HighSeverity'!S92</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AN92">
         <f>'3_MechRemove_HighSeverity'!T92</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO92">
         <f>'3_MechRemove_HighSeverity'!U92</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP92">
         <f>'3_MechRemove_LowSeverity'!V92</f>

--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="455">
   <si>
     <t>* = 1.1</t>
   </si>
@@ -2606,20 +2606,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView topLeftCell="B42" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78:K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.7109375" style="27" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="21" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="25" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="26" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="21" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="26" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" style="21" customWidth="1"/>
     <col min="10" max="10" width="27.140625" style="25" customWidth="1"/>
     <col min="11" max="11" width="27.140625" style="26" customWidth="1"/>
@@ -3995,11 +3995,9 @@
       <c r="I78" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J78" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="J78" s="22"/>
       <c r="K78" s="35" t="s">
-        <v>265</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4024,11 +4022,9 @@
       <c r="I79" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J79" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="J79" s="22"/>
       <c r="K79" s="35" t="s">
-        <v>265</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4054,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4080,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4105,11 +4101,9 @@
       <c r="I82" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J82" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="J82" s="22"/>
       <c r="K82" s="35" t="s">
-        <v>265</v>
+        <v>373</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4134,11 +4128,9 @@
       <c r="I83" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J83" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="J83" s="22"/>
       <c r="K83" s="35" t="s">
-        <v>265</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -16528,15 +16520,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
-      <selection activeCell="C1" sqref="C1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.85546875" style="29" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="101.85546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="29" bestFit="1" customWidth="1"/>
@@ -16966,7 +16958,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5:K20" si="7">J5</f>
+        <f t="shared" ref="K5" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -16978,7 +16970,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O20" si="9">N5</f>
+        <f t="shared" ref="O5" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -16993,7 +16985,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S20" si="11">R5</f>
+        <f t="shared" ref="S5" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -17008,7 +17000,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:W20" si="13">V5</f>
+        <f t="shared" ref="W5" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -17023,7 +17015,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
+        <f t="shared" ref="AA5" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -17433,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10:K25" si="17">J10</f>
+        <f t="shared" ref="K10" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -17445,7 +17437,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10:O25" si="18">N10</f>
+        <f t="shared" ref="O10" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -17457,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10:S25" si="19">R10</f>
+        <f t="shared" ref="S10" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -17472,7 +17464,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10:W25" si="20">V10</f>
+        <f t="shared" ref="W10" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -17484,7 +17476,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
+        <f t="shared" ref="AA10" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -17510,7 +17502,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="G11" s="12">
-        <f t="shared" ref="G11:G17" si="22">$C11*F11</f>
+        <f>$C11*F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="15">
@@ -17522,7 +17514,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="12">
-        <f t="shared" ref="K11:K17" si="23">$C11*J11</f>
+        <f>$C11*J11</f>
         <v>0</v>
       </c>
       <c r="L11" s="15">
@@ -17534,7 +17526,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="12">
-        <f t="shared" ref="O11:O17" si="24">$C11*N11</f>
+        <f>$C11*N11</f>
         <v>0</v>
       </c>
       <c r="P11" s="15">
@@ -17546,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="12">
-        <f t="shared" ref="S11:S17" si="25">$C11*R11</f>
+        <f>$C11*R11</f>
         <v>0</v>
       </c>
       <c r="T11" s="15">
@@ -17561,7 +17553,7 @@
         <v>50</v>
       </c>
       <c r="W11" s="12">
-        <f t="shared" ref="W11:W17" si="26">$C11*V11</f>
+        <f>$C11*V11</f>
         <v>25</v>
       </c>
       <c r="X11" s="15">
@@ -17573,7 +17565,7 @@
         <v>25</v>
       </c>
       <c r="AA11" s="12">
-        <f t="shared" ref="AA11:AA17" si="27">$C11*Z11</f>
+        <f>$C11*Z11</f>
         <v>0</v>
       </c>
       <c r="AB11" s="15">
@@ -17599,7 +17591,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="G12" s="12">
-        <f t="shared" si="22"/>
+        <f>$C12*F12</f>
         <v>0</v>
       </c>
       <c r="H12" s="15">
@@ -17611,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="12">
-        <f t="shared" si="23"/>
+        <f>$C12*J12</f>
         <v>0</v>
       </c>
       <c r="L12" s="15">
@@ -17623,7 +17615,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="12">
-        <f t="shared" si="24"/>
+        <f>$C12*N12</f>
         <v>0</v>
       </c>
       <c r="P12" s="15">
@@ -17635,7 +17627,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="12">
-        <f t="shared" si="25"/>
+        <f>$C12*R12</f>
         <v>0</v>
       </c>
       <c r="T12" s="15">
@@ -17650,7 +17642,7 @@
         <v>150</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" si="26"/>
+        <f>$C12*V12</f>
         <v>75</v>
       </c>
       <c r="X12" s="15">
@@ -17662,7 +17654,7 @@
         <v>75</v>
       </c>
       <c r="AA12" s="12">
-        <f t="shared" si="27"/>
+        <f>$C12*Z12</f>
         <v>0</v>
       </c>
       <c r="AB12" s="15">
@@ -17688,7 +17680,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="G13" s="12">
-        <f t="shared" si="22"/>
+        <f>$C13*F13</f>
         <v>0</v>
       </c>
       <c r="H13" s="15">
@@ -17700,7 +17692,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" si="23"/>
+        <f>$C13*J13</f>
         <v>0</v>
       </c>
       <c r="L13" s="15">
@@ -17712,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" si="24"/>
+        <f>$C13*N13</f>
         <v>0</v>
       </c>
       <c r="P13" s="15">
@@ -17727,7 +17719,7 @@
         <v>0.5</v>
       </c>
       <c r="S13" s="12">
-        <f t="shared" si="25"/>
+        <f>$C13*R13</f>
         <v>0</v>
       </c>
       <c r="T13" s="15">
@@ -17742,7 +17734,7 @@
         <v>1.7</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" si="26"/>
+        <f>$C13*V13</f>
         <v>0</v>
       </c>
       <c r="X13" s="15">
@@ -17757,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="12">
-        <f t="shared" si="27"/>
+        <f>$C13*Z13</f>
         <v>0</v>
       </c>
       <c r="AB13" s="15">
@@ -17783,7 +17775,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="G14" s="12">
-        <f t="shared" si="22"/>
+        <f>$C14*F14</f>
         <v>0</v>
       </c>
       <c r="H14" s="15">
@@ -17795,7 +17787,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" si="23"/>
+        <f>$C14*J14</f>
         <v>0</v>
       </c>
       <c r="L14" s="15">
@@ -17807,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="12">
-        <f t="shared" si="24"/>
+        <f>$C14*N14</f>
         <v>0</v>
       </c>
       <c r="P14" s="15">
@@ -17822,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="12">
-        <f t="shared" si="25"/>
+        <f>$C14*R14</f>
         <v>0</v>
       </c>
       <c r="T14" s="15">
@@ -17837,7 +17829,7 @@
         <v>2</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" si="26"/>
+        <f>$C14*V14</f>
         <v>0</v>
       </c>
       <c r="X14" s="15">
@@ -17852,7 +17844,7 @@
         <v>2</v>
       </c>
       <c r="AA14" s="12">
-        <f t="shared" si="27"/>
+        <f>$C14*Z14</f>
         <v>0</v>
       </c>
       <c r="AB14" s="15">
@@ -17878,7 +17870,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
       <c r="G15" s="12">
-        <f t="shared" si="22"/>
+        <f>$C15*F15</f>
         <v>0</v>
       </c>
       <c r="H15" s="15">
@@ -17890,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" si="23"/>
+        <f>$C15*J15</f>
         <v>0</v>
       </c>
       <c r="L15" s="15">
@@ -17902,7 +17894,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="12">
-        <f t="shared" si="24"/>
+        <f>$C15*N15</f>
         <v>0</v>
       </c>
       <c r="P15" s="15">
@@ -17917,7 +17909,7 @@
         <v>1.5</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" si="25"/>
+        <f>$C15*R15</f>
         <v>0</v>
       </c>
       <c r="T15" s="15">
@@ -17932,7 +17924,7 @@
         <v>10</v>
       </c>
       <c r="W15" s="12">
-        <f t="shared" si="26"/>
+        <f>$C15*V15</f>
         <v>0</v>
       </c>
       <c r="X15" s="15">
@@ -17947,7 +17939,7 @@
         <v>5</v>
       </c>
       <c r="AA15" s="12">
-        <f t="shared" si="27"/>
+        <f>$C15*Z15</f>
         <v>0</v>
       </c>
       <c r="AB15" s="15">
@@ -17973,7 +17965,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="G16" s="12">
-        <f t="shared" si="22"/>
+        <f>$C16*F16</f>
         <v>0</v>
       </c>
       <c r="H16" s="15">
@@ -17985,7 +17977,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="12">
-        <f t="shared" si="23"/>
+        <f>$C16*J16</f>
         <v>0</v>
       </c>
       <c r="L16" s="15">
@@ -17997,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="12">
-        <f t="shared" si="24"/>
+        <f>$C16*N16</f>
         <v>0</v>
       </c>
       <c r="P16" s="15">
@@ -18012,7 +18004,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="12">
-        <f t="shared" si="25"/>
+        <f>$C16*R16</f>
         <v>0</v>
       </c>
       <c r="T16" s="15">
@@ -18027,7 +18019,7 @@
         <v>30</v>
       </c>
       <c r="W16" s="12">
-        <f t="shared" si="26"/>
+        <f>$C16*V16</f>
         <v>0</v>
       </c>
       <c r="X16" s="15">
@@ -18042,7 +18034,7 @@
         <v>5</v>
       </c>
       <c r="AA16" s="12">
-        <f t="shared" si="27"/>
+        <f>$C16*Z16</f>
         <v>0</v>
       </c>
       <c r="AB16" s="15">
@@ -18068,7 +18060,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="G17" s="12">
-        <f t="shared" si="22"/>
+        <f>$C17*F17</f>
         <v>0</v>
       </c>
       <c r="H17" s="15">
@@ -18080,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" si="23"/>
+        <f>$C17*J17</f>
         <v>0</v>
       </c>
       <c r="L17" s="15">
@@ -18092,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="12">
-        <f t="shared" si="24"/>
+        <f>$C17*N17</f>
         <v>0</v>
       </c>
       <c r="P17" s="15">
@@ -18107,7 +18099,7 @@
         <v>1000</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" si="25"/>
+        <f>$C17*R17</f>
         <v>0</v>
       </c>
       <c r="T17" s="15">
@@ -18122,7 +18114,7 @@
         <v>1000</v>
       </c>
       <c r="W17" s="12">
-        <f t="shared" si="26"/>
+        <f>$C17*V17</f>
         <v>0</v>
       </c>
       <c r="X17" s="15">
@@ -18137,7 +18129,7 @@
         <v>25</v>
       </c>
       <c r="AA17" s="12">
-        <f t="shared" si="27"/>
+        <f>$C17*Z17</f>
         <v>0</v>
       </c>
       <c r="AB17" s="15">
@@ -18161,7 +18153,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="31"/>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:H33" si="28">F18</f>
+        <f t="shared" ref="G18:H33" si="22">F18</f>
         <v>0</v>
       </c>
       <c r="H18" s="15">
@@ -18173,7 +18165,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" ref="K18:K33" si="29">J18</f>
+        <f t="shared" ref="K18:K33" si="23">J18</f>
         <v>0</v>
       </c>
       <c r="L18" s="15">
@@ -18185,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" ref="O18:O33" si="30">N18</f>
+        <f t="shared" ref="O18:O33" si="24">N18</f>
         <v>0</v>
       </c>
       <c r="P18" s="15">
@@ -18200,7 +18192,7 @@
         <v>3.5</v>
       </c>
       <c r="S18" s="12">
-        <f t="shared" ref="S18:S33" si="31">R18</f>
+        <f t="shared" ref="S18:S33" si="25">R18</f>
         <v>3.5</v>
       </c>
       <c r="T18" s="15">
@@ -18215,7 +18207,7 @@
         <v>13</v>
       </c>
       <c r="W18" s="12">
-        <f t="shared" ref="W18:W33" si="32">V18</f>
+        <f t="shared" ref="W18:W33" si="26">V18</f>
         <v>13</v>
       </c>
       <c r="X18" s="15">
@@ -18227,7 +18219,7 @@
         <v>13</v>
       </c>
       <c r="AA18" s="12">
-        <f t="shared" ref="AA18:AA33" si="33">Z18</f>
+        <f t="shared" ref="AA18:AA33" si="27">Z18</f>
         <v>0</v>
       </c>
       <c r="AB18" s="15">
@@ -18251,7 +18243,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="31"/>
       <c r="G19" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H19" s="15">
@@ -18263,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L19" s="15">
@@ -18275,7 +18267,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P19" s="15">
@@ -18290,7 +18282,7 @@
         <v>25</v>
       </c>
       <c r="S19" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="T19" s="15">
@@ -18305,7 +18297,7 @@
         <v>55</v>
       </c>
       <c r="W19" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>55</v>
       </c>
       <c r="X19" s="15">
@@ -18317,7 +18309,7 @@
         <v>55</v>
       </c>
       <c r="AA19" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB19" s="15">
@@ -18341,7 +18333,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="31"/>
       <c r="G20" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H20" s="15">
@@ -18353,7 +18345,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L20" s="15">
@@ -18365,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P20" s="15">
@@ -18380,7 +18372,7 @@
         <v>100</v>
       </c>
       <c r="S20" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="T20" s="15">
@@ -18395,7 +18387,7 @@
         <v>5</v>
       </c>
       <c r="W20" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="X20" s="15">
@@ -18407,7 +18399,7 @@
         <v>5</v>
       </c>
       <c r="AA20" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB20" s="15">
@@ -18431,11 +18423,11 @@
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="G21" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H21" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I21" s="16">
@@ -18443,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L21" s="15">
@@ -18455,7 +18447,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P21" s="15">
@@ -18467,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T21" s="15">
@@ -18482,7 +18474,7 @@
         <v>33.35</v>
       </c>
       <c r="W21" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>33.35</v>
       </c>
       <c r="X21" s="15">
@@ -18494,7 +18486,7 @@
         <v>33.35</v>
       </c>
       <c r="AA21" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB21" s="15">
@@ -18518,11 +18510,11 @@
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="G22" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I22" s="16">
@@ -18530,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L22" s="15">
@@ -18542,7 +18534,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P22" s="15">
@@ -18554,7 +18546,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T22" s="15">
@@ -18569,7 +18561,7 @@
         <v>9</v>
       </c>
       <c r="W22" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="X22" s="15">
@@ -18581,7 +18573,7 @@
         <v>9</v>
       </c>
       <c r="AA22" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB22" s="15">
@@ -18605,11 +18597,11 @@
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
       <c r="G23" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I23" s="16">
@@ -18617,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L23" s="15">
@@ -18629,7 +18621,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P23" s="15">
@@ -18641,7 +18633,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T23" s="15">
@@ -18656,7 +18648,7 @@
         <v>50</v>
       </c>
       <c r="W23" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="X23" s="15">
@@ -18668,7 +18660,7 @@
         <v>50</v>
       </c>
       <c r="AA23" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB23" s="15">
@@ -18692,11 +18684,11 @@
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
       <c r="G24" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H24" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I24" s="16">
@@ -18704,7 +18696,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L24" s="15">
@@ -18716,7 +18708,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P24" s="15">
@@ -18728,7 +18720,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T24" s="15">
@@ -18743,7 +18735,7 @@
         <v>0.5071</v>
       </c>
       <c r="W24" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>0.5071</v>
       </c>
       <c r="X24" s="15">
@@ -18755,7 +18747,7 @@
         <v>0.5071</v>
       </c>
       <c r="AA24" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB24" s="15">
@@ -18779,11 +18771,11 @@
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
       <c r="G25" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I25" s="16">
@@ -18791,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L25" s="15">
@@ -18803,7 +18795,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P25" s="15">
@@ -18815,7 +18807,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T25" s="15">
@@ -18830,7 +18822,7 @@
         <v>5</v>
       </c>
       <c r="W25" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="X25" s="15">
@@ -18842,7 +18834,7 @@
         <v>5</v>
       </c>
       <c r="AA25" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB25" s="15">
@@ -18866,11 +18858,11 @@
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="G26" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I26" s="16">
@@ -18878,7 +18870,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -18890,7 +18882,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P26" s="15">
@@ -18905,7 +18897,7 @@
         <v>3.5</v>
       </c>
       <c r="S26" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>3.5</v>
       </c>
       <c r="T26" s="15">
@@ -18920,7 +18912,7 @@
         <v>11</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="X26" s="15">
@@ -18935,7 +18927,7 @@
         <v>12</v>
       </c>
       <c r="AA26" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="AB26" s="15">
@@ -18959,11 +18951,11 @@
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="G27" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I27" s="16">
@@ -18971,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -18983,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P27" s="15">
@@ -18998,7 +18990,7 @@
         <v>20</v>
       </c>
       <c r="S27" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="T27" s="15">
@@ -19013,7 +19005,7 @@
         <v>50</v>
       </c>
       <c r="W27" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="X27" s="15">
@@ -19028,7 +19020,7 @@
         <v>70</v>
       </c>
       <c r="AA27" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>70</v>
       </c>
       <c r="AB27" s="15">
@@ -19052,11 +19044,11 @@
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="G28" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I28" s="16">
@@ -19064,7 +19056,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -19076,7 +19068,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P28" s="15">
@@ -19091,7 +19083,7 @@
         <v>150</v>
       </c>
       <c r="S28" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>150</v>
       </c>
       <c r="T28" s="15">
@@ -19106,7 +19098,7 @@
         <v>10</v>
       </c>
       <c r="W28" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="X28" s="15">
@@ -19121,7 +19113,7 @@
         <v>3</v>
       </c>
       <c r="AA28" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="AB28" s="15">
@@ -19148,11 +19140,11 @@
         <v>9</v>
       </c>
       <c r="G29" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="I29" s="16">
@@ -19160,7 +19152,7 @@
         <v>9</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -19172,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P29" s="15">
@@ -19187,7 +19179,7 @@
         <v>3.5</v>
       </c>
       <c r="S29" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>3.5</v>
       </c>
       <c r="T29" s="15">
@@ -19202,7 +19194,7 @@
         <v>11</v>
       </c>
       <c r="W29" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="X29" s="15">
@@ -19217,7 +19209,7 @@
         <v>10</v>
       </c>
       <c r="AA29" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="AB29" s="15">
@@ -19244,11 +19236,11 @@
         <v>60</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="I30" s="16">
@@ -19256,7 +19248,7 @@
         <v>60</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -19268,7 +19260,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P30" s="15">
@@ -19283,7 +19275,7 @@
         <v>15</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="T30" s="15">
@@ -19298,7 +19290,7 @@
         <v>40</v>
       </c>
       <c r="W30" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>40</v>
       </c>
       <c r="X30" s="15">
@@ -19313,7 +19305,7 @@
         <v>60</v>
       </c>
       <c r="AA30" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>60</v>
       </c>
       <c r="AB30" s="15">
@@ -19340,11 +19332,11 @@
         <v>3</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="I31" s="16">
@@ -19352,7 +19344,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -19364,7 +19356,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P31" s="15">
@@ -19379,7 +19371,7 @@
         <v>150</v>
       </c>
       <c r="S31" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>150</v>
       </c>
       <c r="T31" s="15">
@@ -19394,7 +19386,7 @@
         <v>5</v>
       </c>
       <c r="W31" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="X31" s="15">
@@ -19409,7 +19401,7 @@
         <v>3</v>
       </c>
       <c r="AA31" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="AB31" s="15">
@@ -19433,11 +19425,11 @@
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="G32" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I32" s="16">
@@ -19445,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -19457,7 +19449,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P32" s="15">
@@ -19472,7 +19464,7 @@
         <v>4</v>
       </c>
       <c r="S32" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="T32" s="15">
@@ -19487,7 +19479,7 @@
         <v>15</v>
       </c>
       <c r="W32" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="X32" s="15">
@@ -19499,7 +19491,7 @@
         <v>15</v>
       </c>
       <c r="AA32" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB32" s="15">
@@ -19523,11 +19515,11 @@
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="G33" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I33" s="16">
@@ -19535,7 +19527,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L33" s="15">
@@ -19547,7 +19539,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P33" s="15">
@@ -19562,7 +19554,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T33" s="15">
@@ -19577,7 +19569,7 @@
         <v>5</v>
       </c>
       <c r="W33" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="X33" s="15">
@@ -19589,7 +19581,7 @@
         <v>5</v>
       </c>
       <c r="AA33" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB33" s="15">
@@ -19620,11 +19612,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" ref="H34:I47" si="34">G34</f>
+        <f t="shared" ref="H34:I47" si="28">G34</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I34" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="J34" s="11">
@@ -19934,81 +19926,81 @@
         <v>0.3</v>
       </c>
       <c r="G37" s="12">
-        <f t="shared" ref="G37:H44" si="35">F37</f>
+        <f t="shared" ref="G37:H44" si="29">F37</f>
         <v>0.3</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>0.3</v>
       </c>
       <c r="I37" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>0.3</v>
       </c>
       <c r="J37" s="11">
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37:K44" si="36">J37</f>
+        <f t="shared" ref="K37" si="30">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37:L44" si="37">K37</f>
+        <f t="shared" ref="L37" si="31">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37:M50" si="38">L37</f>
+        <f t="shared" ref="M37" si="32">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37:O44" si="39">N37</f>
+        <f t="shared" ref="O37" si="33">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:P44" si="40">O37</f>
+        <f t="shared" ref="P37" si="34">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37:Q50" si="41">P37</f>
+        <f t="shared" ref="Q37" si="35">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37:S44" si="42">R37</f>
+        <f t="shared" ref="S37" si="36">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37:T44" si="43">S37</f>
+        <f t="shared" ref="T37" si="37">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37:U50" si="44">T37</f>
+        <f t="shared" ref="U37" si="38">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37:W44" si="45">V37</f>
+        <f t="shared" ref="W37" si="39">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37:X44" si="46">W37</f>
+        <f t="shared" ref="X37" si="40">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37:Y50" si="47">X37</f>
+        <f t="shared" ref="Y37" si="41">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37:AA44" si="48">Z37</f>
+        <f t="shared" ref="AA37" si="42">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AB44" si="49">AA37</f>
+        <f t="shared" ref="AB37" si="43">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37:AC50" si="50">AB37</f>
+        <f t="shared" ref="AC37" si="44">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -20140,7 +20132,7 @@
         <v>95</v>
       </c>
       <c r="I39" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>95</v>
       </c>
       <c r="J39" s="11">
@@ -20155,7 +20147,7 @@
         <v>85</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" ref="M39:M52" si="51">L39</f>
+        <f t="shared" ref="M39:M40" si="45">L39</f>
         <v>85</v>
       </c>
       <c r="O39" s="12">
@@ -20167,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="16">
-        <f t="shared" ref="Q39:Q52" si="52">P39</f>
+        <f t="shared" ref="Q39:Q40" si="46">P39</f>
         <v>0</v>
       </c>
       <c r="R39" s="11">
@@ -20182,7 +20174,7 @@
         <v>90</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" ref="U39:U52" si="53">T39</f>
+        <f t="shared" ref="U39:U40" si="47">T39</f>
         <v>90</v>
       </c>
       <c r="W39" s="12">
@@ -20194,7 +20186,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="16">
-        <f t="shared" ref="Y39:Y52" si="54">X39</f>
+        <f t="shared" ref="Y39:Y40" si="48">X39</f>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
@@ -20206,7 +20198,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" ref="AC39:AC52" si="55">AB39</f>
+        <f t="shared" ref="AC39:AC40" si="49">AB39</f>
         <v>0</v>
       </c>
     </row>
@@ -20225,87 +20217,87 @@
         <v>0.9</v>
       </c>
       <c r="G40" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="I40" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K47" si="56">J40</f>
+        <f t="shared" ref="K40" si="50">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40:L47" si="57">K40</f>
+        <f t="shared" ref="L40" si="51">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40:O47" si="58">N40</f>
+        <f t="shared" ref="O40" si="52">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:P47" si="59">O40</f>
+        <f t="shared" ref="P40" si="53">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40:S47" si="60">R40</f>
+        <f t="shared" ref="S40" si="54">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40:T47" si="61">S40</f>
+        <f t="shared" ref="T40" si="55">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40:W47" si="62">V40</f>
+        <f t="shared" ref="W40" si="56">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40:X47" si="63">W40</f>
+        <f t="shared" ref="X40" si="57">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40:AA47" si="64">Z40</f>
+        <f t="shared" ref="AA40" si="58">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40:AB47" si="65">AA40</f>
+        <f t="shared" ref="AB40" si="59">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
     </row>
@@ -20549,7 +20541,7 @@
         <v>95</v>
       </c>
       <c r="I43" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>95</v>
       </c>
       <c r="K43" s="12">
@@ -20561,7 +20553,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M56" si="66">L43</f>
+        <f t="shared" ref="M43:M44" si="60">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -20576,7 +20568,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q56" si="67">P43</f>
+        <f t="shared" ref="Q43:Q44" si="61">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -20591,7 +20583,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U56" si="68">T43</f>
+        <f t="shared" ref="U43:U44" si="62">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -20606,7 +20598,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y56" si="69">X43</f>
+        <f t="shared" ref="Y43:Y44" si="63">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -20621,7 +20613,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC56" si="70">AB43</f>
+        <f t="shared" ref="AC43:AC44" si="64">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -20640,84 +20632,84 @@
         <v>0.9</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44:K51" si="71">J44</f>
+        <f t="shared" ref="K44" si="65">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44:L51" si="72">K44</f>
+        <f t="shared" ref="L44" si="66">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N44" s="11">
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44:O51" si="73">N44</f>
+        <f t="shared" ref="O44" si="67">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44:P51" si="74">O44</f>
+        <f t="shared" ref="P44" si="68">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="R44" s="11">
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44:S51" si="75">R44</f>
+        <f t="shared" ref="S44" si="69">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44:T51" si="76">S44</f>
+        <f t="shared" ref="T44" si="70">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44:W51" si="77">V44</f>
+        <f t="shared" ref="W44" si="71">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44:X51" si="78">W44</f>
+        <f t="shared" ref="X44" si="72">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Z44" s="11">
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44:AA51" si="79">Z44</f>
+        <f t="shared" ref="AA44" si="73">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44:AB51" si="80">AA44</f>
+        <f t="shared" ref="AB44" si="74">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
     </row>
@@ -20955,7 +20947,7 @@
         <v>85</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>85</v>
       </c>
       <c r="K47" s="12">
@@ -20967,7 +20959,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47:M60" si="81">L47</f>
+        <f t="shared" ref="M47" si="75">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -20982,7 +20974,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47:Q60" si="82">P47</f>
+        <f t="shared" ref="Q47" si="76">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -20997,7 +20989,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47:U60" si="83">T47</f>
+        <f t="shared" ref="U47" si="77">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -21009,7 +21001,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47:Y60" si="84">X47</f>
+        <f t="shared" ref="Y47" si="78">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -21024,7 +21016,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47:AC60" si="85">AB47</f>
+        <f t="shared" ref="AC47" si="79">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -21052,11 +21044,11 @@
         <v>2</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" ref="H48:H77" si="86">G48</f>
+        <f t="shared" ref="H48:H77" si="80">G48</f>
         <v>2</v>
       </c>
       <c r="I48" s="16">
-        <f t="shared" ref="I48:I55" si="87">$E48*H48</f>
+        <f>$E48*H48</f>
         <v>4</v>
       </c>
       <c r="J48" s="11">
@@ -21067,11 +21059,11 @@
         <v>0.5</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" ref="L48:L77" si="88">K48</f>
+        <f t="shared" ref="L48:L52" si="81">K48</f>
         <v>0.5</v>
       </c>
       <c r="M48" s="16">
-        <f t="shared" ref="M48:M55" si="89">$E48*L48</f>
+        <f>$E48*L48</f>
         <v>1</v>
       </c>
       <c r="O48" s="12">
@@ -21079,11 +21071,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48:P77" si="90">O48</f>
+        <f t="shared" ref="P48:P52" si="82">O48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
-        <f t="shared" ref="Q48:Q55" si="91">$E48*P48</f>
+        <f>$E48*P48</f>
         <v>0</v>
       </c>
       <c r="R48" s="11">
@@ -21094,11 +21086,11 @@
         <v>0.25</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T77" si="92">S48</f>
+        <f t="shared" ref="T48:T52" si="83">S48</f>
         <v>0.25</v>
       </c>
       <c r="U48" s="16">
-        <f t="shared" ref="U48:U55" si="93">$E48*T48</f>
+        <f>$E48*T48</f>
         <v>0.5</v>
       </c>
       <c r="V48" s="11">
@@ -21109,11 +21101,11 @@
         <v>0.5</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" ref="X48:X77" si="94">W48</f>
+        <f t="shared" ref="X48:X52" si="84">W48</f>
         <v>0.5</v>
       </c>
       <c r="Y48" s="16">
-        <f t="shared" ref="Y48:Y55" si="95">$E48*X48</f>
+        <f>$E48*X48</f>
         <v>1</v>
       </c>
       <c r="Z48" s="11">
@@ -21124,11 +21116,11 @@
         <v>0.25</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="AB48:AB77" si="96">AA48</f>
+        <f t="shared" ref="AB48:AB52" si="85">AA48</f>
         <v>0.25</v>
       </c>
       <c r="AC48" s="16">
-        <f t="shared" ref="AC48:AC55" si="97">$E48*AB48</f>
+        <f>$E48*AB48</f>
         <v>0.5</v>
       </c>
     </row>
@@ -21152,87 +21144,87 @@
         <v>70</v>
       </c>
       <c r="G49" s="12">
-        <f t="shared" ref="G49:G58" si="98">$C49*F49</f>
+        <f>$C49*F49</f>
         <v>35</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>35</v>
       </c>
       <c r="I49" s="16">
-        <f t="shared" si="87"/>
+        <f>$E49*H49</f>
         <v>70</v>
       </c>
       <c r="J49" s="11">
         <v>50</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" ref="K49:K58" si="99">$C49*J49</f>
+        <f>$C49*J49</f>
         <v>25</v>
       </c>
       <c r="L49" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>25</v>
       </c>
       <c r="M49" s="16">
-        <f t="shared" si="89"/>
+        <f>$E49*L49</f>
         <v>50</v>
       </c>
       <c r="O49" s="12">
-        <f t="shared" ref="O49:O58" si="100">$C49*N49</f>
+        <f>$C49*N49</f>
         <v>0</v>
       </c>
       <c r="P49" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="91"/>
+        <f>$E49*P49</f>
         <v>0</v>
       </c>
       <c r="R49" s="11">
         <v>30</v>
       </c>
       <c r="S49" s="12">
-        <f t="shared" ref="S49:S58" si="101">$C49*R49</f>
+        <f>$C49*R49</f>
         <v>15</v>
       </c>
       <c r="T49" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="83"/>
         <v>15</v>
       </c>
       <c r="U49" s="16">
-        <f t="shared" si="93"/>
+        <f>$E49*T49</f>
         <v>30</v>
       </c>
       <c r="V49" s="11">
         <v>40</v>
       </c>
       <c r="W49" s="12">
-        <f t="shared" ref="W49:W58" si="102">$C49*V49</f>
+        <f>$C49*V49</f>
         <v>20</v>
       </c>
       <c r="X49" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="84"/>
         <v>20</v>
       </c>
       <c r="Y49" s="16">
-        <f t="shared" si="95"/>
+        <f>$E49*X49</f>
         <v>40</v>
       </c>
       <c r="Z49" s="11">
         <v>15</v>
       </c>
       <c r="AA49" s="12">
-        <f t="shared" ref="AA49:AA58" si="103">$C49*Z49</f>
+        <f>$C49*Z49</f>
         <v>7.5</v>
       </c>
       <c r="AB49" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="85"/>
         <v>7.5</v>
       </c>
       <c r="AC49" s="16">
-        <f t="shared" si="97"/>
+        <f>$E49*AB49</f>
         <v>15</v>
       </c>
     </row>
@@ -21256,87 +21248,87 @@
         <v>2</v>
       </c>
       <c r="G50" s="12">
-        <f t="shared" si="98"/>
+        <f>$C50*F50</f>
         <v>1</v>
       </c>
       <c r="H50" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="I50" s="16">
-        <f t="shared" si="87"/>
+        <f>$E50*H50</f>
         <v>2</v>
       </c>
       <c r="J50" s="11">
         <v>1</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" si="99"/>
+        <f>$C50*J50</f>
         <v>0.5</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="M50" s="16">
-        <f t="shared" si="89"/>
+        <f>$E50*L50</f>
         <v>1</v>
       </c>
       <c r="O50" s="12">
-        <f t="shared" si="100"/>
+        <f>$C50*N50</f>
         <v>0</v>
       </c>
       <c r="P50" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q50" s="16">
-        <f t="shared" si="91"/>
+        <f>$E50*P50</f>
         <v>0</v>
       </c>
       <c r="R50" s="11">
         <v>0.5</v>
       </c>
       <c r="S50" s="12">
-        <f t="shared" si="101"/>
+        <f>$C50*R50</f>
         <v>0.25</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="83"/>
         <v>0.25</v>
       </c>
       <c r="U50" s="16">
-        <f t="shared" si="93"/>
+        <f>$E50*T50</f>
         <v>0.5</v>
       </c>
       <c r="V50" s="11">
         <v>1</v>
       </c>
       <c r="W50" s="12">
-        <f t="shared" si="102"/>
+        <f>$C50*V50</f>
         <v>0.5</v>
       </c>
       <c r="X50" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="84"/>
         <v>0.5</v>
       </c>
       <c r="Y50" s="16">
-        <f t="shared" si="95"/>
+        <f>$E50*X50</f>
         <v>1</v>
       </c>
       <c r="Z50" s="11">
         <v>0.3</v>
       </c>
       <c r="AA50" s="12">
-        <f t="shared" si="103"/>
+        <f>$C50*Z50</f>
         <v>0.15</v>
       </c>
       <c r="AB50" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="85"/>
         <v>0.15</v>
       </c>
       <c r="AC50" s="16">
-        <f t="shared" si="97"/>
+        <f>$E50*AB50</f>
         <v>0.3</v>
       </c>
     </row>
@@ -21360,87 +21352,87 @@
         <v>1.5</v>
       </c>
       <c r="G51" s="12">
-        <f t="shared" si="98"/>
+        <f>$C51*F51</f>
         <v>0.75</v>
       </c>
       <c r="H51" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.75</v>
       </c>
       <c r="I51" s="16">
-        <f t="shared" si="87"/>
+        <f>$E51*H51</f>
         <v>1.5</v>
       </c>
       <c r="J51" s="11">
         <v>1</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="99"/>
+        <f>$C51*J51</f>
         <v>0.5</v>
       </c>
       <c r="L51" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="M51" s="16">
-        <f t="shared" si="89"/>
+        <f>$E51*L51</f>
         <v>1</v>
       </c>
       <c r="O51" s="12">
-        <f t="shared" si="100"/>
+        <f>$C51*N51</f>
         <v>0</v>
       </c>
       <c r="P51" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q51" s="16">
-        <f t="shared" si="91"/>
+        <f>$E51*P51</f>
         <v>0</v>
       </c>
       <c r="R51" s="11">
         <v>0.2</v>
       </c>
       <c r="S51" s="12">
-        <f t="shared" si="101"/>
+        <f>$C51*R51</f>
         <v>0.1</v>
       </c>
       <c r="T51" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="83"/>
         <v>0.1</v>
       </c>
       <c r="U51" s="16">
-        <f t="shared" si="93"/>
+        <f>$E51*T51</f>
         <v>0.2</v>
       </c>
       <c r="V51" s="11">
         <v>0.5</v>
       </c>
       <c r="W51" s="12">
-        <f t="shared" si="102"/>
+        <f>$C51*V51</f>
         <v>0.25</v>
       </c>
       <c r="X51" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="84"/>
         <v>0.25</v>
       </c>
       <c r="Y51" s="16">
-        <f t="shared" si="95"/>
+        <f>$E51*X51</f>
         <v>0.5</v>
       </c>
       <c r="Z51" s="11">
         <v>0.4</v>
       </c>
       <c r="AA51" s="12">
-        <f t="shared" si="103"/>
+        <f>$C51*Z51</f>
         <v>0.2</v>
       </c>
       <c r="AB51" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="85"/>
         <v>0.2</v>
       </c>
       <c r="AC51" s="16">
-        <f t="shared" si="97"/>
+        <f>$E51*AB51</f>
         <v>0.4</v>
       </c>
     </row>
@@ -21464,87 +21456,87 @@
         <v>1</v>
       </c>
       <c r="G52" s="12">
-        <f t="shared" si="98"/>
+        <f>$C52*F52</f>
         <v>0.5</v>
       </c>
       <c r="H52" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.5</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" si="87"/>
+        <f>$E52*H52</f>
         <v>1</v>
       </c>
       <c r="J52" s="11">
         <v>0.5</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="99"/>
+        <f>$C52*J52</f>
         <v>0.25</v>
       </c>
       <c r="L52" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>0.25</v>
       </c>
       <c r="M52" s="16">
-        <f t="shared" si="89"/>
+        <f>$E52*L52</f>
         <v>0.5</v>
       </c>
       <c r="O52" s="12">
-        <f t="shared" si="100"/>
+        <f>$C52*N52</f>
         <v>0</v>
       </c>
       <c r="P52" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q52" s="16">
-        <f t="shared" si="91"/>
+        <f>$E52*P52</f>
         <v>0</v>
       </c>
       <c r="R52" s="11">
         <v>0.1</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="101"/>
+        <f>$C52*R52</f>
         <v>0.05</v>
       </c>
       <c r="T52" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="83"/>
         <v>0.05</v>
       </c>
       <c r="U52" s="16">
-        <f t="shared" si="93"/>
+        <f>$E52*T52</f>
         <v>0.1</v>
       </c>
       <c r="V52" s="11">
         <v>0.3</v>
       </c>
       <c r="W52" s="12">
-        <f t="shared" si="102"/>
+        <f>$C52*V52</f>
         <v>0.15</v>
       </c>
       <c r="X52" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="84"/>
         <v>0.15</v>
       </c>
       <c r="Y52" s="16">
-        <f t="shared" si="95"/>
+        <f>$E52*X52</f>
         <v>0.3</v>
       </c>
       <c r="Z52" s="11">
         <v>0.02</v>
       </c>
       <c r="AA52" s="12">
-        <f t="shared" si="103"/>
+        <f>$C52*Z52</f>
         <v>0.01</v>
       </c>
       <c r="AB52" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="85"/>
         <v>0.01</v>
       </c>
       <c r="AC52" s="16">
-        <f t="shared" si="97"/>
+        <f>$E52*AB52</f>
         <v>0.02</v>
       </c>
     </row>
@@ -21569,7 +21561,7 @@
         <v>6</v>
       </c>
       <c r="G53" s="12">
-        <f t="shared" si="98"/>
+        <f>$C53*F53</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="H53" s="15">
@@ -21577,14 +21569,14 @@
         <v>3.6000000000000005</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" si="87"/>
+        <f>$E53*H53</f>
         <v>1.8000000000000003</v>
       </c>
       <c r="J53" s="11">
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="99"/>
+        <f>$C53*J53</f>
         <v>0</v>
       </c>
       <c r="L53" s="15">
@@ -21592,11 +21584,11 @@
         <v>0</v>
       </c>
       <c r="M53" s="16">
-        <f t="shared" si="89"/>
+        <f>$E53*L53</f>
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" si="100"/>
+        <f>$C53*N53</f>
         <v>0</v>
       </c>
       <c r="P53" s="15">
@@ -21604,14 +21596,14 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="91"/>
+        <f>$E53*P53</f>
         <v>0</v>
       </c>
       <c r="R53" s="11">
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" si="101"/>
+        <f>$C53*R53</f>
         <v>0.8</v>
       </c>
       <c r="T53" s="15">
@@ -21619,14 +21611,14 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="U53" s="16">
-        <f t="shared" si="93"/>
+        <f>$E53*T53</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="V53" s="11">
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" si="102"/>
+        <f>$C53*V53</f>
         <v>0.96</v>
       </c>
       <c r="X53" s="15">
@@ -21634,14 +21626,14 @@
         <v>0.72</v>
       </c>
       <c r="Y53" s="16">
-        <f t="shared" si="95"/>
+        <f>$E53*X53</f>
         <v>0.36</v>
       </c>
       <c r="Z53" s="11">
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" si="103"/>
+        <f>$C53*Z53</f>
         <v>0.4</v>
       </c>
       <c r="AB53" s="15">
@@ -21649,7 +21641,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AC53" s="16">
-        <f t="shared" si="97"/>
+        <f>$E53*AB53</f>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -21674,7 +21666,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" si="98"/>
+        <f>$C54*F54</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="H54" s="15">
@@ -21682,14 +21674,14 @@
         <v>7.2000000000000011</v>
       </c>
       <c r="I54" s="16">
-        <f t="shared" si="87"/>
+        <f>$E54*H54</f>
         <v>3.6000000000000005</v>
       </c>
       <c r="J54" s="11">
         <v>0</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="99"/>
+        <f>$C54*J54</f>
         <v>0</v>
       </c>
       <c r="L54" s="15">
@@ -21697,11 +21689,11 @@
         <v>0</v>
       </c>
       <c r="M54" s="16">
-        <f t="shared" si="89"/>
+        <f>$E54*L54</f>
         <v>0</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="100"/>
+        <f>$C54*N54</f>
         <v>0</v>
       </c>
       <c r="P54" s="15">
@@ -21709,14 +21701,14 @@
         <v>0</v>
       </c>
       <c r="Q54" s="16">
-        <f t="shared" si="91"/>
+        <f>$E54*P54</f>
         <v>0</v>
       </c>
       <c r="R54" s="11">
         <v>0</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="101"/>
+        <f>$C54*R54</f>
         <v>0</v>
       </c>
       <c r="T54" s="15">
@@ -21724,14 +21716,14 @@
         <v>0</v>
       </c>
       <c r="U54" s="16">
-        <f t="shared" si="93"/>
+        <f>$E54*T54</f>
         <v>0</v>
       </c>
       <c r="V54" s="11">
         <v>0.5</v>
       </c>
       <c r="W54" s="12">
-        <f t="shared" si="102"/>
+        <f>$C54*V54</f>
         <v>0.4</v>
       </c>
       <c r="X54" s="15">
@@ -21739,14 +21731,14 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="Y54" s="16">
-        <f t="shared" si="95"/>
+        <f>$E54*X54</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="Z54" s="11">
         <v>0</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" si="103"/>
+        <f>$C54*Z54</f>
         <v>0</v>
       </c>
       <c r="AB54" s="15">
@@ -21754,7 +21746,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="16">
-        <f t="shared" si="97"/>
+        <f>$E54*AB54</f>
         <v>0</v>
       </c>
     </row>
@@ -21779,7 +21771,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="12">
-        <f t="shared" si="98"/>
+        <f>$C55*F55</f>
         <v>0</v>
       </c>
       <c r="H55" s="15">
@@ -21787,14 +21779,14 @@
         <v>0</v>
       </c>
       <c r="I55" s="16">
-        <f t="shared" si="87"/>
+        <f>$E55*H55</f>
         <v>0</v>
       </c>
       <c r="J55" s="11">
         <v>0</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="99"/>
+        <f>$C55*J55</f>
         <v>0</v>
       </c>
       <c r="L55" s="15">
@@ -21802,11 +21794,11 @@
         <v>0</v>
       </c>
       <c r="M55" s="16">
-        <f t="shared" si="89"/>
+        <f>$E55*L55</f>
         <v>0</v>
       </c>
       <c r="O55" s="12">
-        <f t="shared" si="100"/>
+        <f>$C55*N55</f>
         <v>0</v>
       </c>
       <c r="P55" s="15">
@@ -21814,14 +21806,14 @@
         <v>0</v>
       </c>
       <c r="Q55" s="16">
-        <f t="shared" si="91"/>
+        <f>$E55*P55</f>
         <v>0</v>
       </c>
       <c r="R55" s="11">
         <v>0</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="101"/>
+        <f>$C55*R55</f>
         <v>0</v>
       </c>
       <c r="T55" s="15">
@@ -21829,14 +21821,14 @@
         <v>0</v>
       </c>
       <c r="U55" s="16">
-        <f t="shared" si="93"/>
+        <f>$E55*T55</f>
         <v>0</v>
       </c>
       <c r="V55" s="11">
         <v>0.5</v>
       </c>
       <c r="W55" s="12">
-        <f t="shared" si="102"/>
+        <f>$C55*V55</f>
         <v>0.4</v>
       </c>
       <c r="X55" s="15">
@@ -21844,14 +21836,14 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="Y55" s="16">
-        <f t="shared" si="95"/>
+        <f>$E55*X55</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="Z55" s="11">
         <v>0</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="103"/>
+        <f>$C55*Z55</f>
         <v>0</v>
       </c>
       <c r="AB55" s="15">
@@ -21859,7 +21851,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="16">
-        <f t="shared" si="97"/>
+        <f>$E55*AB55</f>
         <v>0</v>
       </c>
     </row>
@@ -21983,7 +21975,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="12">
-        <f t="shared" si="98"/>
+        <f>$C57*F57</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="H57" s="15">
@@ -21995,7 +21987,7 @@
         <v>14.8</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" ref="K57:K66" si="104">$C57*J57</f>
+        <f>$C57*J57</f>
         <v>0</v>
       </c>
       <c r="L57" s="15">
@@ -22007,7 +21999,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="12">
-        <f t="shared" ref="O57:O66" si="105">$C57*N57</f>
+        <f>$C57*N57</f>
         <v>0</v>
       </c>
       <c r="P57" s="15">
@@ -22022,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" ref="S57:S66" si="106">$C57*R57</f>
+        <f>$C57*R57</f>
         <v>0</v>
       </c>
       <c r="T57" s="15">
@@ -22037,7 +22029,7 @@
         <v>0.3</v>
       </c>
       <c r="W57" s="12">
-        <f t="shared" ref="W57:W66" si="107">$C57*V57</f>
+        <f>$C57*V57</f>
         <v>0.24</v>
       </c>
       <c r="X57" s="15">
@@ -22049,7 +22041,7 @@
         <v>0.49</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" ref="AA57:AA66" si="108">$C57*Z57</f>
+        <f>$C57*Z57</f>
         <v>0</v>
       </c>
       <c r="AB57" s="15">
@@ -22082,7 +22074,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" si="98"/>
+        <f>$C58*F58</f>
         <v>0</v>
       </c>
       <c r="H58" s="15">
@@ -22094,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="12">
-        <f t="shared" si="104"/>
+        <f>$C58*J58</f>
         <v>0</v>
       </c>
       <c r="L58" s="15">
@@ -22106,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="12">
-        <f t="shared" si="105"/>
+        <f>$C58*N58</f>
         <v>0</v>
       </c>
       <c r="P58" s="15">
@@ -22121,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="106"/>
+        <f>$C58*R58</f>
         <v>0</v>
       </c>
       <c r="T58" s="15">
@@ -22136,7 +22128,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="12">
-        <f t="shared" si="107"/>
+        <f>$C58*V58</f>
         <v>0</v>
       </c>
       <c r="X58" s="15">
@@ -22148,7 +22140,7 @@
         <v>0.25</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" si="108"/>
+        <f>$C58*Z58</f>
         <v>0</v>
       </c>
       <c r="AB58" s="15">
@@ -22177,7 +22169,7 @@
         <v>9.6</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" ref="G59:H93" si="109">F59</f>
+        <f t="shared" ref="G59:H93" si="86">F59</f>
         <v>9.6</v>
       </c>
       <c r="H59" s="15">
@@ -22189,7 +22181,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K93" si="110">J59</f>
+        <f t="shared" ref="K59:K60" si="87">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
@@ -22201,7 +22193,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O93" si="111">N59</f>
+        <f t="shared" ref="O59:O60" si="88">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
@@ -22216,7 +22208,7 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S93" si="112">R59</f>
+        <f t="shared" ref="S59:S60" si="89">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
@@ -22228,7 +22220,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W93" si="113">V59</f>
+        <f t="shared" ref="W59:W60" si="90">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
@@ -22240,7 +22232,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA93" si="114">Z59</f>
+        <f t="shared" ref="AA59:AA60" si="91">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
@@ -22269,7 +22261,7 @@
         <v>0.4</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0.4</v>
       </c>
       <c r="H60" s="15">
@@ -22281,7 +22273,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="L60" s="15">
@@ -22293,7 +22285,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="P60" s="15">
@@ -22308,7 +22300,7 @@
         <v>2</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="89"/>
         <v>2</v>
       </c>
       <c r="T60" s="15">
@@ -22320,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="12">
-        <f t="shared" si="113"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="X60" s="15">
@@ -22332,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AB60" s="15">
@@ -22455,11 +22447,11 @@
         <v>9.6</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>9.6</v>
       </c>
       <c r="H62" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>9.6</v>
       </c>
       <c r="I62" s="16">
@@ -22467,11 +22459,11 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="115">J62</f>
+        <f t="shared" ref="K62:K67" si="92">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" ref="L62:L91" si="116">K62</f>
+        <f t="shared" ref="L62:L77" si="93">K62</f>
         <v>0</v>
       </c>
       <c r="M62" s="16">
@@ -22479,11 +22471,11 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="117">N62</f>
+        <f t="shared" ref="O62:O67" si="94">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
-        <f t="shared" ref="P62:P91" si="118">O62</f>
+        <f t="shared" ref="P62:P77" si="95">O62</f>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
@@ -22494,11 +22486,11 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="119">R62</f>
+        <f t="shared" ref="S62:S67" si="96">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" ref="T62:T91" si="120">S62</f>
+        <f t="shared" ref="T62:T77" si="97">S62</f>
         <v>3.5</v>
       </c>
       <c r="U62" s="16">
@@ -22509,11 +22501,11 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="121">V62</f>
+        <f t="shared" ref="W62:W67" si="98">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" ref="X62:X91" si="122">W62</f>
+        <f t="shared" ref="X62:X77" si="99">W62</f>
         <v>10</v>
       </c>
       <c r="Y62" s="16">
@@ -22524,11 +22516,11 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="123">Z62</f>
+        <f t="shared" ref="AA62:AA67" si="100">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" ref="AB62:AB91" si="124">AA62</f>
+        <f t="shared" ref="AB62:AB77" si="101">AA62</f>
         <v>10</v>
       </c>
       <c r="AC62" s="16">
@@ -22553,11 +22545,11 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0.4</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0.4</v>
       </c>
       <c r="I63" s="16">
@@ -22565,11 +22557,11 @@
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M63" s="16">
@@ -22577,11 +22569,11 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
@@ -22592,11 +22584,11 @@
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="96"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>2</v>
       </c>
       <c r="U63" s="16">
@@ -22607,11 +22599,11 @@
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="X63" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
       <c r="Y63" s="16">
@@ -22622,11 +22614,11 @@
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
       <c r="AB63" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="AC63" s="16">
@@ -22651,11 +22643,11 @@
         <v>115</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>115</v>
       </c>
       <c r="H64" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>115</v>
       </c>
       <c r="I64" s="16">
@@ -22663,11 +22655,11 @@
         <v>236</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M64" s="16">
@@ -22675,11 +22667,11 @@
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
@@ -22690,11 +22682,11 @@
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="96"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>50</v>
       </c>
       <c r="U64" s="16">
@@ -22705,11 +22697,11 @@
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="98"/>
         <v>5</v>
       </c>
       <c r="X64" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>5</v>
       </c>
       <c r="Y64" s="16">
@@ -22720,11 +22712,11 @@
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="100"/>
         <v>3</v>
       </c>
       <c r="AB64" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>3</v>
       </c>
       <c r="AC64" s="16">
@@ -22744,11 +22736,11 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
       <c r="G65" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I65" s="16">
@@ -22756,11 +22748,11 @@
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M65" s="16">
@@ -22768,11 +22760,11 @@
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P65" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q65" s="16">
@@ -22780,11 +22772,11 @@
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T65" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U65" s="16">
@@ -22792,11 +22784,11 @@
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="X65" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y65" s="16">
@@ -22804,11 +22796,11 @@
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="AB65" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
@@ -22828,11 +22820,11 @@
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
       <c r="G66" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H66" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I66" s="16">
@@ -22840,11 +22832,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M66" s="16">
@@ -22852,11 +22844,11 @@
         <v>0</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P66" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q66" s="16">
@@ -22864,11 +22856,11 @@
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U66" s="16">
@@ -22876,11 +22868,11 @@
         <v>0</v>
       </c>
       <c r="W66" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y66" s="16">
@@ -22888,11 +22880,11 @@
         <v>0</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="AB66" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC66" s="16">
@@ -22912,75 +22904,75 @@
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
       <c r="G67" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H67" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" ref="I67:I93" si="125">H67</f>
+        <f t="shared" ref="I67:I93" si="102">H67</f>
         <v>0</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="L67" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M67" s="16">
-        <f t="shared" ref="M67:M93" si="126">L67</f>
+        <f t="shared" ref="M67:M77" si="103">L67</f>
         <v>0</v>
       </c>
       <c r="O67" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P67" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q67" s="16">
-        <f t="shared" ref="Q67:Q93" si="127">P67</f>
+        <f t="shared" ref="Q67:Q77" si="104">P67</f>
         <v>0</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="119"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="T67" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U67" s="16">
-        <f t="shared" ref="U67:U93" si="128">T67</f>
+        <f t="shared" ref="U67:U77" si="105">T67</f>
         <v>0</v>
       </c>
       <c r="W67" s="12">
-        <f t="shared" si="121"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="X67" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y67" s="16">
-        <f t="shared" ref="Y67:Y93" si="129">X67</f>
+        <f t="shared" ref="Y67:Y77" si="106">X67</f>
         <v>0</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="123"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="AB67" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC67" s="16">
-        <f t="shared" ref="AC67:AC93" si="130">AB67</f>
+        <f t="shared" ref="AC67:AC77" si="107">AB67</f>
         <v>0</v>
       </c>
     </row>
@@ -23001,90 +22993,90 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" ref="G68:G70" si="131">$C68*F68</f>
+        <f>$C68*F68</f>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="H68" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" ref="K68:K70" si="132">$C68*J68</f>
+        <f>$C68*J68</f>
         <v>0</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" ref="O68:O70" si="133">$C68*N68</f>
+        <f>$C68*N68</f>
         <v>0</v>
       </c>
       <c r="P68" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" ref="S68:S70" si="134">$C68*R68</f>
+        <f>$C68*R68</f>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="105"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" ref="W68:W70" si="135">$C68*V68</f>
+        <f>$C68*V68</f>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="Y68" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="106"/>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" ref="AA68:AA70" si="136">$C68*Z68</f>
+        <f>$C68*Z68</f>
         <v>0</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
     </row>
@@ -23105,90 +23097,90 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="131"/>
+        <f>$C69*F69</f>
         <v>0</v>
       </c>
       <c r="H69" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="132"/>
+        <f>$C69*J69</f>
         <v>0</v>
       </c>
       <c r="L69" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M69" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N69" s="11">
         <v>0</v>
       </c>
       <c r="O69" s="12">
-        <f t="shared" si="133"/>
+        <f>$C69*N69</f>
         <v>0</v>
       </c>
       <c r="P69" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q69" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="R69" s="11">
         <v>0</v>
       </c>
       <c r="S69" s="12">
-        <f t="shared" si="134"/>
+        <f>$C69*R69</f>
         <v>0</v>
       </c>
       <c r="T69" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U69" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="V69" s="11">
         <v>0</v>
       </c>
       <c r="W69" s="12">
-        <f t="shared" si="135"/>
+        <f>$C69*V69</f>
         <v>0</v>
       </c>
       <c r="X69" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y69" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
       </c>
       <c r="AA69" s="12">
-        <f t="shared" si="136"/>
+        <f>$C69*Z69</f>
         <v>0</v>
       </c>
       <c r="AB69" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC69" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
     </row>
@@ -23209,90 +23201,90 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
-        <f t="shared" si="131"/>
+        <f>$C70*F70</f>
         <v>0</v>
       </c>
       <c r="H70" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="132"/>
+        <f>$C70*J70</f>
         <v>0</v>
       </c>
       <c r="L70" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M70" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N70" s="11">
         <v>0</v>
       </c>
       <c r="O70" s="12">
-        <f t="shared" si="133"/>
+        <f>$C70*N70</f>
         <v>0</v>
       </c>
       <c r="P70" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q70" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="R70" s="11">
         <v>0</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="134"/>
+        <f>$C70*R70</f>
         <v>0</v>
       </c>
       <c r="T70" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U70" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="V70" s="11">
         <v>0</v>
       </c>
       <c r="W70" s="12">
-        <f t="shared" si="135"/>
+        <f>$C70*V70</f>
         <v>0</v>
       </c>
       <c r="X70" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y70" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Z70" s="11">
         <v>0</v>
       </c>
       <c r="AA70" s="12">
-        <f t="shared" si="136"/>
+        <f>$C70*Z70</f>
         <v>0</v>
       </c>
       <c r="AB70" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC70" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
     </row>
@@ -23308,78 +23300,78 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
       <c r="G71" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H71" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K93" si="137">J71</f>
+        <f t="shared" ref="K71:K77" si="108">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O93" si="138">N71</f>
+        <f t="shared" ref="O71:O77" si="109">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S93" si="139">R71</f>
+        <f t="shared" ref="S71:S77" si="110">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W93" si="140">V71</f>
+        <f t="shared" ref="W71:W77" si="111">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>90</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="106"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA93" si="141">Z71</f>
+        <f t="shared" ref="AA71:AA77" si="112">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
     </row>
@@ -23395,78 +23387,78 @@
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
       <c r="G72" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H72" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="108"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="103"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X72" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
     </row>
@@ -23482,78 +23474,78 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
       <c r="G73" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H73" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="109"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>100</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="104"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X73" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
     </row>
@@ -23572,81 +23564,81 @@
         <v>50</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" si="109"/>
-        <v>50</v>
-      </c>
-      <c r="H74" s="15">
         <f t="shared" si="86"/>
         <v>50</v>
       </c>
+      <c r="H74" s="15">
+        <f t="shared" si="80"/>
+        <v>50</v>
+      </c>
       <c r="I74" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="P74" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="111"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="106"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="112"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="107"/>
         <v>40</v>
       </c>
     </row>
@@ -23665,78 +23657,78 @@
         <v>50</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="109"/>
-        <v>50</v>
-      </c>
-      <c r="H75" s="15">
         <f t="shared" si="86"/>
         <v>50</v>
       </c>
+      <c r="H75" s="15">
+        <f t="shared" si="80"/>
+        <v>50</v>
+      </c>
       <c r="I75" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="126"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="138"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="110"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="105"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
     </row>
@@ -23752,78 +23744,78 @@
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="G76" s="12">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="15">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="16">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="12">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="15">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="16">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="12">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="H76" s="15">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="16">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="12">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="15">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="16">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="O76" s="12">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
       <c r="P76" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="112"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="107"/>
         <v>60</v>
       </c>
     </row>
@@ -23839,75 +23831,75 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="G77" s="12">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="15">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="16">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="12">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="15">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="16">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="12">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="H77" s="15">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="16">
-        <f t="shared" si="125"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="12">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="15">
-        <f t="shared" si="116"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="16">
-        <f t="shared" si="126"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="12">
-        <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
       <c r="P77" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q77" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="S77" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="T77" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="U77" s="16">
-        <f t="shared" si="128"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="W77" s="12">
-        <f t="shared" si="140"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="X77" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Y77" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="AB77" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="AC77" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
     </row>
@@ -23928,7 +23920,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" ref="G78:G89" si="142">$C78*F78</f>
+        <f>$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
@@ -23940,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K89" si="143">$C78*J78</f>
+        <f>$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
@@ -23952,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O89" si="144">$C78*N78</f>
+        <f>$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
@@ -23967,7 +23959,7 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S89" si="145">$C78*R78</f>
+        <f>$C78*R78</f>
         <v>1</v>
       </c>
       <c r="T78" s="15">
@@ -23979,7 +23971,7 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W89" si="146">$C78*V78</f>
+        <f>$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
@@ -23991,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA89" si="147">$C78*Z78</f>
+        <f>$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
@@ -24020,7 +24012,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="12">
-        <f t="shared" si="142"/>
+        <f>$C79*F79</f>
         <v>0</v>
       </c>
       <c r="H79" s="15">
@@ -24032,7 +24024,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="143"/>
+        <f>$C79*J79</f>
         <v>0</v>
       </c>
       <c r="L79" s="15">
@@ -24044,7 +24036,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="144"/>
+        <f>$C79*N79</f>
         <v>0</v>
       </c>
       <c r="P79" s="15">
@@ -24059,7 +24051,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="145"/>
+        <f>$C79*R79</f>
         <v>2.5</v>
       </c>
       <c r="T79" s="15">
@@ -24071,7 +24063,7 @@
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="146"/>
+        <f>$C79*V79</f>
         <v>0</v>
       </c>
       <c r="X79" s="15">
@@ -24083,7 +24075,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="147"/>
+        <f>$C79*Z79</f>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
@@ -24115,7 +24107,7 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="142"/>
+        <f>$C80*F80</f>
         <v>0.1</v>
       </c>
       <c r="H80" s="15">
@@ -24123,14 +24115,14 @@
         <v>0.2</v>
       </c>
       <c r="I80" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0.2</v>
       </c>
       <c r="J80" s="11">
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="143"/>
+        <f>$C80*J80</f>
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
@@ -24138,14 +24130,14 @@
         <v>1</v>
       </c>
       <c r="M80" s="16">
-        <f t="shared" ref="M80:M93" si="148">L80</f>
+        <f t="shared" ref="M80:M81" si="113">L80</f>
         <v>1</v>
       </c>
       <c r="N80" s="11">
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="144"/>
+        <f>$C80*N80</f>
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
@@ -24153,14 +24145,14 @@
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
-        <f t="shared" ref="Q80:Q93" si="149">P80</f>
+        <f t="shared" ref="Q80:Q81" si="114">P80</f>
         <v>2.5</v>
       </c>
       <c r="R80" s="11">
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="145"/>
+        <f>$C80*R80</f>
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
@@ -24168,14 +24160,14 @@
         <v>1</v>
       </c>
       <c r="U80" s="16">
-        <f t="shared" ref="U80:U93" si="150">T80</f>
+        <f t="shared" ref="U80:U81" si="115">T80</f>
         <v>1</v>
       </c>
       <c r="V80" s="11">
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="146"/>
+        <f>$C80*V80</f>
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
@@ -24183,14 +24175,14 @@
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
-        <f t="shared" ref="Y80:Y93" si="151">X80</f>
+        <f t="shared" ref="Y80:Y81" si="116">X80</f>
         <v>1.5</v>
       </c>
       <c r="Z80" s="11">
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="147"/>
+        <f>$C80*Z80</f>
         <v>1</v>
       </c>
       <c r="AB80" s="15">
@@ -24198,7 +24190,7 @@
         <v>2</v>
       </c>
       <c r="AC80" s="16">
-        <f t="shared" ref="AC80:AC93" si="152">AB80</f>
+        <f t="shared" ref="AC80:AC81" si="117">AB80</f>
         <v>2</v>
       </c>
     </row>
@@ -24222,7 +24214,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="142"/>
+        <f>$C81*F81</f>
         <v>35</v>
       </c>
       <c r="H81" s="15">
@@ -24230,14 +24222,14 @@
         <v>70</v>
       </c>
       <c r="I81" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>70</v>
       </c>
       <c r="J81" s="11">
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="143"/>
+        <f>$C81*J81</f>
         <v>30</v>
       </c>
       <c r="L81" s="15">
@@ -24245,14 +24237,14 @@
         <v>60</v>
       </c>
       <c r="M81" s="16">
-        <f t="shared" si="148"/>
+        <f t="shared" si="113"/>
         <v>60</v>
       </c>
       <c r="N81" s="11">
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="144"/>
+        <f>$C81*N81</f>
         <v>2.5</v>
       </c>
       <c r="P81" s="15">
@@ -24260,14 +24252,14 @@
         <v>5</v>
       </c>
       <c r="Q81" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="114"/>
         <v>5</v>
       </c>
       <c r="R81" s="11">
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="145"/>
+        <f>$C81*R81</f>
         <v>7.5</v>
       </c>
       <c r="T81" s="15">
@@ -24275,14 +24267,14 @@
         <v>15</v>
       </c>
       <c r="U81" s="16">
-        <f t="shared" si="150"/>
+        <f t="shared" si="115"/>
         <v>15</v>
       </c>
       <c r="V81" s="11">
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="146"/>
+        <f>$C81*V81</f>
         <v>45</v>
       </c>
       <c r="X81" s="15">
@@ -24290,14 +24282,14 @@
         <v>90</v>
       </c>
       <c r="Y81" s="16">
-        <f t="shared" si="151"/>
+        <f t="shared" si="116"/>
         <v>90</v>
       </c>
       <c r="Z81" s="11">
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="147"/>
+        <f>$C81*Z81</f>
         <v>35</v>
       </c>
       <c r="AB81" s="15">
@@ -24305,7 +24297,7 @@
         <v>70</v>
       </c>
       <c r="AC81" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="117"/>
         <v>70</v>
       </c>
     </row>
@@ -24326,7 +24318,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="12">
-        <f t="shared" si="142"/>
+        <f>$C82*F82</f>
         <v>0</v>
       </c>
       <c r="H82" s="15">
@@ -24338,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="143"/>
+        <f>$C82*J82</f>
         <v>0</v>
       </c>
       <c r="L82" s="15">
@@ -24350,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="144"/>
+        <f>$C82*N82</f>
         <v>0</v>
       </c>
       <c r="P82" s="15">
@@ -24365,7 +24357,7 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="145"/>
+        <f>$C82*R82</f>
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
@@ -24380,7 +24372,7 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="146"/>
+        <f>$C82*V82</f>
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
@@ -24392,7 +24384,7 @@
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="147"/>
+        <f>$C82*Z82</f>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
@@ -24421,7 +24413,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="12">
-        <f t="shared" si="142"/>
+        <f>$C83*F83</f>
         <v>0</v>
       </c>
       <c r="H83" s="15">
@@ -24433,7 +24425,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="143"/>
+        <f>$C83*J83</f>
         <v>0</v>
       </c>
       <c r="L83" s="15">
@@ -24445,7 +24437,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="144"/>
+        <f>$C83*N83</f>
         <v>0</v>
       </c>
       <c r="P83" s="15">
@@ -24460,7 +24452,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="145"/>
+        <f>$C83*R83</f>
         <v>40</v>
       </c>
       <c r="T83" s="15">
@@ -24475,7 +24467,7 @@
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="146"/>
+        <f>$C83*V83</f>
         <v>2.5</v>
       </c>
       <c r="X83" s="15">
@@ -24487,7 +24479,7 @@
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="147"/>
+        <f>$C83*Z83</f>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
@@ -24513,81 +24505,81 @@
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
       <c r="G84" s="12">
-        <f t="shared" si="142"/>
+        <f>$C84*F84</f>
         <v>0</v>
       </c>
       <c r="H84" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="143"/>
+        <f>$C84*J84</f>
         <v>0.1</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="153">K84</f>
+        <f t="shared" ref="L84:L93" si="118">K84</f>
         <v>0.1</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="154">L84</f>
+        <f t="shared" ref="M84:M93" si="119">L84</f>
         <v>0.1</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="144"/>
+        <f>$C84*N84</f>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="155">O84</f>
+        <f t="shared" ref="P84:P93" si="120">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="156">P84</f>
+        <f t="shared" ref="Q84:Q93" si="121">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="145"/>
+        <f>$C84*R84</f>
         <v>1</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="157">S84</f>
+        <f t="shared" ref="T84:T93" si="122">S84</f>
         <v>1</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="158">T84</f>
+        <f t="shared" ref="U84:U93" si="123">T84</f>
         <v>1</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="146"/>
+        <f>$C84*V84</f>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="159">W84</f>
+        <f t="shared" ref="X84:X93" si="124">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="160">X84</f>
+        <f t="shared" ref="Y84:Y93" si="125">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="147"/>
+        <f>$C84*Z84</f>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="161">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="126">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="162">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="127">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -24605,81 +24597,81 @@
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
       <c r="G85" s="12">
-        <f t="shared" si="142"/>
+        <f>$C85*F85</f>
         <v>0</v>
       </c>
       <c r="H85" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="143"/>
+        <f>$C85*J85</f>
         <v>30</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="118"/>
         <v>30</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="119"/>
         <v>30</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="144"/>
+        <f>$C85*N85</f>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="145"/>
+        <f>$C85*R85</f>
         <v>45</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="122"/>
         <v>45</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="123"/>
         <v>45</v>
       </c>
       <c r="W85" s="12">
-        <f t="shared" si="146"/>
+        <f>$C85*V85</f>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="147"/>
+        <f>$C85*Z85</f>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
     </row>
@@ -24700,90 +24692,90 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="142"/>
+        <f>$C86*F86</f>
         <v>0.25</v>
       </c>
       <c r="H86" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0.25</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0.25</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="143"/>
+        <f>$C86*J86</f>
         <v>0.2</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="118"/>
         <v>0.2</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="119"/>
         <v>0.2</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="144"/>
+        <f>$C86*N86</f>
         <v>0.1</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="120"/>
         <v>0.1</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="121"/>
         <v>0.1</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="145"/>
+        <f>$C86*R86</f>
         <v>2</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="122"/>
         <v>2</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="123"/>
         <v>2</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="146"/>
+        <f>$C86*V86</f>
         <v>0.5</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="124"/>
         <v>0.5</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="125"/>
         <v>0.5</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="147"/>
+        <f>$C86*Z86</f>
         <v>0.75</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="126"/>
         <v>0.75</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="127"/>
         <v>0.75</v>
       </c>
     </row>
@@ -24804,90 +24796,90 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="142"/>
+        <f>$C87*F87</f>
         <v>35</v>
       </c>
       <c r="H87" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>35</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>35</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="143"/>
+        <f>$C87*J87</f>
         <v>30</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="118"/>
         <v>30</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="119"/>
         <v>30</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="144"/>
+        <f>$C87*N87</f>
         <v>35</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="120"/>
         <v>35</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="121"/>
         <v>35</v>
       </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="145"/>
+        <f>$C87*R87</f>
         <v>50</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="122"/>
         <v>50</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="123"/>
         <v>50</v>
       </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="146"/>
+        <f>$C87*V87</f>
         <v>45</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="124"/>
         <v>45</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="125"/>
         <v>45</v>
       </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="147"/>
+        <f>$C87*Z87</f>
         <v>35</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="126"/>
         <v>35</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="127"/>
         <v>35</v>
       </c>
     </row>
@@ -24905,75 +24897,75 @@
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="G88" s="12">
-        <f t="shared" si="142"/>
+        <f>$C88*F88</f>
         <v>0</v>
       </c>
       <c r="H88" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I88" s="16">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="12">
+        <f>$C88*J88</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="15">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="12">
+        <f>$C88*N88</f>
+        <v>0</v>
+      </c>
+      <c r="P88" s="15">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="16">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="12">
+        <f>$C88*R88</f>
+        <v>0</v>
+      </c>
+      <c r="T88" s="15">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="16">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="W88" s="12">
+        <f>$C88*V88</f>
+        <v>0</v>
+      </c>
+      <c r="X88" s="15">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="16">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="K88" s="12">
-        <f t="shared" si="143"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="15">
-        <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="16">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="O88" s="12">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="P88" s="15">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="Q88" s="16">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="12">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="T88" s="15">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="16">
-        <f t="shared" si="158"/>
-        <v>0</v>
-      </c>
-      <c r="W88" s="12">
-        <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="X88" s="15">
-        <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="16">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
       <c r="AA88" s="12">
-        <f t="shared" si="147"/>
+        <f>$C88*Z88</f>
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AC88" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
     </row>
@@ -24991,75 +24983,75 @@
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
       <c r="G89" s="12">
-        <f t="shared" si="142"/>
+        <f>$C89*F89</f>
         <v>0</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I89" s="16">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="12">
+        <f>$C89*J89</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="12">
+        <f>$C89*N89</f>
+        <v>0</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="16">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="12">
+        <f>$C89*R89</f>
+        <v>0</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="16">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="12">
+        <f>$C89*V89</f>
+        <v>0</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="Y89" s="16">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="K89" s="12">
-        <f t="shared" si="143"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="16">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="12">
-        <f t="shared" si="144"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="16">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="12">
-        <f t="shared" si="145"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="16">
-        <f t="shared" si="158"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="12">
-        <f t="shared" si="146"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="16">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
       <c r="AA89" s="12">
-        <f t="shared" si="147"/>
+        <f>$C89*Z89</f>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AC89" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
     </row>
@@ -25075,75 +25067,75 @@
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
       <c r="G90" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H90" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I90" s="16">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="12">
+        <f t="shared" ref="K90" si="128">J90</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" ref="O90" si="129">N90</f>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" ref="S90" si="130">R90</f>
+        <v>0</v>
+      </c>
+      <c r="T90" s="15">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="16">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="12">
+        <f t="shared" ref="W90" si="131">V90</f>
+        <v>0</v>
+      </c>
+      <c r="X90" s="15">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="16">
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="K90" s="12">
-        <f t="shared" ref="K90:K93" si="163">J90</f>
-        <v>0</v>
-      </c>
-      <c r="L90" s="15">
-        <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="154"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
-        <f t="shared" ref="O90:O93" si="164">N90</f>
-        <v>0</v>
-      </c>
-      <c r="P90" s="15">
-        <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="16">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="12">
-        <f t="shared" ref="S90:S93" si="165">R90</f>
-        <v>0</v>
-      </c>
-      <c r="T90" s="15">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="158"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="12">
-        <f t="shared" ref="W90:W93" si="166">V90</f>
-        <v>0</v>
-      </c>
-      <c r="X90" s="15">
-        <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
       <c r="AA90" s="12">
-        <f t="shared" ref="AA90:AA93" si="167">Z90</f>
+        <f t="shared" ref="AA90" si="132">Z90</f>
         <v>0</v>
       </c>
       <c r="AB90" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AC90" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
     </row>
@@ -25165,11 +25157,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -25177,11 +25169,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -25189,11 +25181,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -25204,11 +25196,11 @@
         <v>9</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="122"/>
         <v>9</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="123"/>
         <v>9</v>
       </c>
       <c r="W91" s="12">
@@ -25216,11 +25208,11 @@
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -25228,11 +25220,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
     </row>
@@ -25254,11 +25246,11 @@
         <v>0</v>
       </c>
       <c r="H92" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
@@ -25266,11 +25258,11 @@
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
@@ -25278,11 +25270,11 @@
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
@@ -25293,11 +25285,11 @@
         <v>0.5</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="122"/>
         <v>0.5</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="123"/>
         <v>0.5</v>
       </c>
       <c r="W92" s="12">
@@ -25305,11 +25297,11 @@
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
@@ -25317,11 +25309,11 @@
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
     </row>
@@ -25337,78 +25329,78 @@
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
       <c r="G93" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H93" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" ref="K93" si="168">J93</f>
+        <f t="shared" ref="K93" si="133">J93</f>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" ref="O93" si="169">N93</f>
+        <f t="shared" ref="O93" si="134">N93</f>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="156"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" ref="S93" si="170">R93</f>
+        <f t="shared" ref="S93" si="135">R93</f>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="122"/>
         <v>5</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="158"/>
+        <f t="shared" si="123"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" ref="W93" si="171">V93</f>
+        <f t="shared" ref="W93" si="136">V93</f>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="160"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" ref="AA93" si="172">Z93</f>
+        <f t="shared" ref="AA93" si="137">Z93</f>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="162"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
     </row>
@@ -25421,10 +25413,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="450" activePane="bottomLeft"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="450"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25858,7 +25850,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5:K20" si="7">J5</f>
+        <f t="shared" ref="K5" si="7">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
@@ -25870,7 +25862,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O20" si="9">N5</f>
+        <f t="shared" ref="O5" si="9">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
@@ -25885,7 +25877,7 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5:S20" si="11">R5</f>
+        <f t="shared" ref="S5" si="11">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
@@ -25900,7 +25892,7 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:W20" si="13">V5</f>
+        <f t="shared" ref="W5" si="13">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
@@ -25915,7 +25907,7 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5:AA20" si="15">Z5</f>
+        <f t="shared" ref="AA5" si="15">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
@@ -26325,7 +26317,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10:K25" si="17">J10</f>
+        <f t="shared" ref="K10" si="17">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -26337,7 +26329,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10:O25" si="18">N10</f>
+        <f t="shared" ref="O10" si="18">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
@@ -26349,7 +26341,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10:S25" si="19">R10</f>
+        <f t="shared" ref="S10" si="19">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
@@ -26364,7 +26356,7 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10:W25" si="20">V10</f>
+        <f t="shared" ref="W10" si="20">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
@@ -26376,7 +26368,7 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10:AA25" si="21">Z10</f>
+        <f t="shared" ref="AA10" si="21">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
@@ -28841,66 +28833,66 @@
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37:K44" si="36">J37</f>
+        <f t="shared" ref="K37" si="36">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37:L44" si="37">K37</f>
+        <f t="shared" ref="L37" si="37">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37:M50" si="38">L37</f>
+        <f t="shared" ref="M37" si="38">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37:O44" si="39">N37</f>
+        <f t="shared" ref="O37" si="39">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:P44" si="40">O37</f>
+        <f t="shared" ref="P37" si="40">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37:Q50" si="41">P37</f>
+        <f t="shared" ref="Q37" si="41">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37:S44" si="42">R37</f>
+        <f t="shared" ref="S37" si="42">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37:T44" si="43">S37</f>
+        <f t="shared" ref="T37" si="43">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37:U50" si="44">T37</f>
+        <f t="shared" ref="U37" si="44">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37:W44" si="45">V37</f>
+        <f t="shared" ref="W37" si="45">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37:X44" si="46">W37</f>
+        <f t="shared" ref="X37" si="46">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37:Y50" si="47">X37</f>
+        <f t="shared" ref="Y37" si="47">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37:AA44" si="48">Z37</f>
+        <f t="shared" ref="AA37" si="48">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37:AB44" si="49">AA37</f>
+        <f t="shared" ref="AB37" si="49">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37:AC50" si="50">AB37</f>
+        <f t="shared" ref="AC37" si="50">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -29129,75 +29121,75 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40:K47" si="51">J40</f>
+        <f t="shared" ref="K40" si="51">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40:L47" si="52">K40</f>
+        <f t="shared" ref="L40" si="52">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" ref="M40:M53" si="53">L40</f>
+        <f t="shared" ref="M40" si="53">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40:O47" si="54">N40</f>
+        <f t="shared" ref="O40" si="54">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:P47" si="55">O40</f>
+        <f t="shared" ref="P40" si="55">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" ref="Q40:Q53" si="56">P40</f>
+        <f t="shared" ref="Q40" si="56">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40:S47" si="57">R40</f>
+        <f t="shared" ref="S40" si="57">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40:T47" si="58">S40</f>
+        <f t="shared" ref="T40" si="58">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" ref="U40:U53" si="59">T40</f>
+        <f t="shared" ref="U40" si="59">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40:W47" si="60">V40</f>
+        <f t="shared" ref="W40" si="60">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40:X47" si="61">W40</f>
+        <f t="shared" ref="X40" si="61">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" ref="Y40:Y53" si="62">X40</f>
+        <f t="shared" ref="Y40" si="62">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40:AA47" si="63">Z40</f>
+        <f t="shared" ref="AA40" si="63">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40:AB47" si="64">AA40</f>
+        <f t="shared" ref="AB40" si="64">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" ref="AC40:AC53" si="65">AB40</f>
+        <f t="shared" ref="AC40" si="65">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -29548,11 +29540,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44:L51" si="66">K44</f>
+        <f t="shared" ref="L44" si="66">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" ref="M44:M57" si="67">L44</f>
+        <f t="shared" ref="M44" si="67">L44</f>
         <v>0</v>
       </c>
       <c r="N44" s="11">
@@ -29563,11 +29555,11 @@
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44:P51" si="68">O44</f>
+        <f t="shared" ref="P44" si="68">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" ref="Q44:Q57" si="69">P44</f>
+        <f t="shared" ref="Q44" si="69">P44</f>
         <v>1</v>
       </c>
       <c r="R44" s="11">
@@ -29578,11 +29570,11 @@
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44:T51" si="70">S44</f>
+        <f t="shared" ref="T44" si="70">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" ref="U44:U57" si="71">T44</f>
+        <f t="shared" ref="U44" si="71">T44</f>
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
@@ -29590,11 +29582,11 @@
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44:X51" si="72">W44</f>
+        <f t="shared" ref="X44" si="72">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" ref="Y44:Y57" si="73">X44</f>
+        <f t="shared" ref="Y44" si="73">X44</f>
         <v>0</v>
       </c>
       <c r="Z44" s="11">
@@ -29605,11 +29597,11 @@
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44:AB51" si="74">AA44</f>
+        <f t="shared" ref="AB44" si="74">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" ref="AC44:AC57" si="75">AB44</f>
+        <f t="shared" ref="AC44" si="75">AB44</f>
         <v>1</v>
       </c>
     </row>
@@ -29859,7 +29851,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47:M60" si="82">L47</f>
+        <f t="shared" ref="M47" si="82">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
@@ -29874,7 +29866,7 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47:Q60" si="83">P47</f>
+        <f t="shared" ref="Q47" si="83">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
@@ -29889,7 +29881,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47:U60" si="84">T47</f>
+        <f t="shared" ref="U47" si="84">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
@@ -29901,7 +29893,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47:Y60" si="85">X47</f>
+        <f t="shared" ref="Y47" si="85">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
@@ -29916,7 +29908,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47:AC60" si="86">AB47</f>
+        <f t="shared" ref="AC47" si="86">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -31081,7 +31073,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K93" si="95">J59</f>
+        <f t="shared" ref="K59:K60" si="95">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
@@ -31093,7 +31085,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O93" si="97">N59</f>
+        <f t="shared" ref="O59:O60" si="97">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
@@ -31108,7 +31100,7 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S93" si="99">R59</f>
+        <f t="shared" ref="S59:S60" si="99">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
@@ -31120,7 +31112,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W93" si="101">V59</f>
+        <f t="shared" ref="W59:W60" si="101">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
@@ -31132,7 +31124,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA93" si="103">Z59</f>
+        <f t="shared" ref="AA59:AA60" si="103">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
@@ -31359,7 +31351,7 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K93" si="111">J62</f>
+        <f t="shared" ref="K62:K67" si="111">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
@@ -31371,7 +31363,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O93" si="112">N62</f>
+        <f t="shared" ref="O62:O67" si="112">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
@@ -31386,7 +31378,7 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S93" si="113">R62</f>
+        <f t="shared" ref="S62:S67" si="113">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
@@ -31401,7 +31393,7 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W93" si="114">V62</f>
+        <f t="shared" ref="W62:W67" si="114">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
@@ -31416,7 +31408,7 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA93" si="115">Z62</f>
+        <f t="shared" ref="AA62:AA67" si="115">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
@@ -32212,7 +32204,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K93" si="128">J71</f>
+        <f t="shared" ref="K71:K77" si="128">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
@@ -32224,7 +32216,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O93" si="129">N71</f>
+        <f t="shared" ref="O71:O77" si="129">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
@@ -32236,7 +32228,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S93" si="130">R71</f>
+        <f t="shared" ref="S71:S77" si="130">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
@@ -32251,7 +32243,7 @@
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W93" si="131">V71</f>
+        <f t="shared" ref="W71:W77" si="131">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
@@ -32263,7 +32255,7 @@
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA93" si="132">Z71</f>
+        <f t="shared" ref="AA71:AA77" si="132">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
@@ -32812,21 +32804,19 @@
         <v>350</v>
       </c>
       <c r="C78" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D78" s="8">
-        <v>1.5</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="D78" s="8"/>
       <c r="E78" s="6">
-        <f>1/(0.5*1.5)</f>
-        <v>1.3333333333333333</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="G78" s="12">
         <f t="shared" ref="G78:G88" si="133">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
-        <f t="shared" ref="H78:H82" si="134">G78*$D78</f>
+        <f>G78</f>
         <v>0</v>
       </c>
       <c r="I78" s="16">
@@ -32834,11 +32824,11 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" ref="K78:K88" si="135">$C78*J78</f>
+        <f t="shared" ref="K78:K88" si="134">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
-        <f t="shared" ref="L78:L82" si="136">K78*$D78</f>
+        <f>K78</f>
         <v>0</v>
       </c>
       <c r="M78" s="16">
@@ -32846,11 +32836,11 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" ref="O78:O88" si="137">$C78*N78</f>
+        <f t="shared" ref="O78:O88" si="135">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
-        <f t="shared" ref="P78:P82" si="138">O78*$D78</f>
+        <f>O78</f>
         <v>0</v>
       </c>
       <c r="Q78" s="16">
@@ -32861,23 +32851,23 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" ref="S78:S88" si="139">$C78*R78</f>
-        <v>1</v>
+        <f t="shared" ref="S78:S88" si="136">$C78*R78</f>
+        <v>0.5</v>
       </c>
       <c r="T78" s="15">
-        <f t="shared" ref="T78:T82" si="140">S78*$D78</f>
-        <v>1.5</v>
+        <f>S78</f>
+        <v>0.5</v>
       </c>
       <c r="U78" s="16">
         <f>T78*$E78</f>
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" ref="W78:W88" si="141">$C78*V78</f>
+        <f t="shared" ref="W78:W88" si="137">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
-        <f t="shared" ref="X78:X82" si="142">W78*$D78</f>
+        <f>W78</f>
         <v>0</v>
       </c>
       <c r="Y78" s="16">
@@ -32885,11 +32875,11 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" ref="AA78:AA88" si="143">$C78*Z78</f>
+        <f t="shared" ref="AA78:AA88" si="138">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
-        <f t="shared" ref="AB78:AB82" si="144">AA78*$D78</f>
+        <f>AA78</f>
         <v>0</v>
       </c>
       <c r="AC78" s="16">
@@ -32906,21 +32896,19 @@
         <v>351</v>
       </c>
       <c r="C79" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D79" s="8">
-        <v>1.5</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="D79" s="8"/>
       <c r="E79" s="6">
-        <f>1/(0.5*1.5)</f>
-        <v>1.3333333333333333</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="G79" s="12">
         <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H79" s="15">
-        <f>MIN(100,G79*$D79)</f>
+        <f>G79</f>
         <v>0</v>
       </c>
       <c r="I79" s="16">
@@ -32928,11 +32916,11 @@
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
-        <f>MIN(100,K79*$D79)</f>
+        <f>K79</f>
         <v>0</v>
       </c>
       <c r="M79" s="16">
@@ -32940,11 +32928,11 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
-        <f>MIN(100,O79*$D79)</f>
+        <f>O79</f>
         <v>0</v>
       </c>
       <c r="Q79" s="16">
@@ -32955,23 +32943,23 @@
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="139"/>
-        <v>2.5</v>
+        <f t="shared" si="136"/>
+        <v>1.25</v>
       </c>
       <c r="T79" s="15">
-        <f>MIN(100,S79*$D79)</f>
-        <v>3.75</v>
+        <f>S79</f>
+        <v>1.25</v>
       </c>
       <c r="U79" s="16">
         <f>MIN(100,T79*$E79)</f>
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
-        <f>MIN(100,W79*$D79)</f>
+        <f>W79</f>
         <v>0</v>
       </c>
       <c r="Y79" s="16">
@@ -32979,11 +32967,11 @@
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
-        <f>MIN(100,AA79*$D79)</f>
+        <f>AA79</f>
         <v>0</v>
       </c>
       <c r="AC79" s="16">
@@ -33000,11 +32988,11 @@
         <v>352</v>
       </c>
       <c r="C80" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D80" s="8">
-        <f>1/0.5</f>
-        <v>2</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="11">
@@ -33012,10 +33000,10 @@
       </c>
       <c r="G80" s="12">
         <f t="shared" si="133"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" ref="H80" si="139">G80*$D80</f>
         <v>0.2</v>
       </c>
       <c r="I80" s="16">
@@ -33026,11 +33014,11 @@
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="135"/>
-        <v>0.5</v>
+        <f t="shared" si="134"/>
+        <v>0.25</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" ref="L80:L84" si="145">K80*$D80</f>
+        <f t="shared" ref="L80" si="140">K80*$D80</f>
         <v>1</v>
       </c>
       <c r="M80" s="16">
@@ -33041,11 +33029,11 @@
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="137"/>
-        <v>1.25</v>
+        <f t="shared" si="135"/>
+        <v>0.625</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" ref="P80:P84" si="146">O80*$D80</f>
+        <f t="shared" ref="P80" si="141">O80*$D80</f>
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
@@ -33056,11 +33044,11 @@
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="139"/>
-        <v>0.5</v>
+        <f t="shared" si="136"/>
+        <v>0.25</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" ref="T80:T84" si="147">S80*$D80</f>
+        <f t="shared" ref="T80" si="142">S80*$D80</f>
         <v>1</v>
       </c>
       <c r="U80" s="16">
@@ -33071,11 +33059,11 @@
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="141"/>
-        <v>0.75</v>
+        <f t="shared" si="137"/>
+        <v>0.375</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" ref="X80:X84" si="148">W80*$D80</f>
+        <f t="shared" ref="X80" si="143">W80*$D80</f>
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
@@ -33086,11 +33074,11 @@
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="143"/>
-        <v>1</v>
+        <f t="shared" si="138"/>
+        <v>0.5</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" ref="AB80:AB84" si="149">AA80*$D80</f>
+        <f t="shared" ref="AB80" si="144">AA80*$D80</f>
         <v>2</v>
       </c>
       <c r="AC80" s="16">
@@ -33107,11 +33095,11 @@
         <v>353</v>
       </c>
       <c r="C81" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D81" s="8">
-        <f>1/0.5</f>
-        <v>2</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="11">
@@ -33119,7 +33107,7 @@
       </c>
       <c r="G81" s="12">
         <f t="shared" si="133"/>
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="H81" s="15">
         <f>MIN(100,G81*$D81)</f>
@@ -33133,8 +33121,8 @@
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="135"/>
-        <v>30</v>
+        <f t="shared" si="134"/>
+        <v>15</v>
       </c>
       <c r="L81" s="15">
         <f>MIN(100,K81*$D81)</f>
@@ -33148,8 +33136,8 @@
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="137"/>
-        <v>2.5</v>
+        <f t="shared" si="135"/>
+        <v>1.25</v>
       </c>
       <c r="P81" s="15">
         <f>MIN(100,O81*$D81)</f>
@@ -33163,8 +33151,8 @@
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="139"/>
-        <v>7.5</v>
+        <f t="shared" si="136"/>
+        <v>3.75</v>
       </c>
       <c r="T81" s="15">
         <f>MIN(100,S81*$D81)</f>
@@ -33178,8 +33166,8 @@
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="141"/>
-        <v>45</v>
+        <f t="shared" si="137"/>
+        <v>22.5</v>
       </c>
       <c r="X81" s="15">
         <f>MIN(100,W81*$D81)</f>
@@ -33193,8 +33181,8 @@
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="143"/>
-        <v>35</v>
+        <f t="shared" si="138"/>
+        <v>17.5</v>
       </c>
       <c r="AB81" s="15">
         <f>MIN(100,AA81*$D81)</f>
@@ -33214,21 +33202,19 @@
         <v>354</v>
       </c>
       <c r="C82" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D82" s="8">
-        <v>1.5</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="D82" s="8"/>
       <c r="E82" s="6">
-        <f>1/(0.5*1.5)</f>
-        <v>1.3333333333333333</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="G82" s="12">
         <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
-        <f t="shared" si="134"/>
+        <f>G82</f>
         <v>0</v>
       </c>
       <c r="I82" s="16">
@@ -33236,11 +33222,11 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" ref="L82:L86" si="150">K82*$D82</f>
+        <f>K82</f>
         <v>0</v>
       </c>
       <c r="M82" s="16">
@@ -33248,11 +33234,11 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" ref="P82:P86" si="151">O82*$D82</f>
+        <f>O82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="16">
@@ -33263,12 +33249,12 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="139"/>
-        <v>1.25</v>
+        <f t="shared" si="136"/>
+        <v>0.625</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" ref="T82:T86" si="152">S82*$D82</f>
-        <v>1.875</v>
+        <f>S82</f>
+        <v>0.625</v>
       </c>
       <c r="U82" s="16">
         <f>T82*$E82</f>
@@ -33278,23 +33264,23 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="141"/>
-        <v>0.5</v>
+        <f t="shared" si="137"/>
+        <v>0.25</v>
       </c>
       <c r="X82" s="15">
-        <f t="shared" ref="X82:X86" si="153">W82*$D82</f>
-        <v>0.75</v>
+        <f>W82</f>
+        <v>0.25</v>
       </c>
       <c r="Y82" s="16">
         <f>X82*$E82</f>
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
-        <f t="shared" ref="AB82:AB86" si="154">AA82*$D82</f>
+        <f>AA82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="16">
@@ -33311,21 +33297,19 @@
         <v>355</v>
       </c>
       <c r="C83" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D83" s="8">
-        <v>1.5</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="D83" s="8"/>
       <c r="E83" s="6">
-        <f>1/(0.5*1.5)</f>
-        <v>1.3333333333333333</v>
+        <f>1/0.25</f>
+        <v>4</v>
       </c>
       <c r="G83" s="12">
         <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
-        <f>MIN(100,G83*$D83)</f>
+        <f>G83</f>
         <v>0</v>
       </c>
       <c r="I83" s="16">
@@ -33333,11 +33317,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
-        <f>MIN(100,K83*$D83)</f>
+        <f>K83</f>
         <v>0</v>
       </c>
       <c r="M83" s="16">
@@ -33345,11 +33329,11 @@
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
-        <f>MIN(100,O83*$D83)</f>
+        <f>O83</f>
         <v>0</v>
       </c>
       <c r="Q83" s="16">
@@ -33360,12 +33344,12 @@
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="139"/>
-        <v>40</v>
+        <f t="shared" si="136"/>
+        <v>20</v>
       </c>
       <c r="T83" s="15">
-        <f>MIN(100,S83*$D83)</f>
-        <v>60</v>
+        <f>S83</f>
+        <v>20</v>
       </c>
       <c r="U83" s="16">
         <f>MIN(100,T83*$E83)</f>
@@ -33375,23 +33359,23 @@
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="141"/>
-        <v>2.5</v>
+        <f t="shared" si="137"/>
+        <v>1.25</v>
       </c>
       <c r="X83" s="15">
-        <f>MIN(100,W83*$D83)</f>
-        <v>3.75</v>
+        <f>W83</f>
+        <v>1.25</v>
       </c>
       <c r="Y83" s="16">
         <f>MIN(100,X83*$E83)</f>
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
-        <f>MIN(100,AA83*$D83)</f>
+        <f>AA83</f>
         <v>0</v>
       </c>
       <c r="AC83" s="16">
@@ -33421,73 +33405,73 @@
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" ref="I84:I93" si="155">H84</f>
+        <f t="shared" ref="I84:I93" si="145">H84</f>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
+        <f t="shared" si="134"/>
+        <v>0.05</v>
+      </c>
+      <c r="L84" s="15">
+        <f t="shared" ref="L84:L93" si="146">K84</f>
+        <v>0.05</v>
+      </c>
+      <c r="M84" s="16">
+        <f t="shared" ref="M84:M93" si="147">L84</f>
+        <v>0.05</v>
+      </c>
+      <c r="O84" s="12">
         <f t="shared" si="135"/>
-        <v>0.05</v>
-      </c>
-      <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="156">K84</f>
-        <v>0.05</v>
-      </c>
-      <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="157">L84</f>
-        <v>0.05</v>
-      </c>
-      <c r="O84" s="12">
-        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="158">O84</f>
+        <f t="shared" ref="P84:P93" si="148">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="159">P84</f>
+        <f t="shared" ref="Q84:Q93" si="149">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="136"/>
         <v>0.5</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="160">S84</f>
+        <f t="shared" ref="T84:T93" si="150">S84</f>
         <v>0.5</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="161">T84</f>
+        <f t="shared" ref="U84:U93" si="151">T84</f>
         <v>0.5</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="162">W84</f>
+        <f t="shared" ref="X84:X93" si="152">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="163">X84</f>
+        <f t="shared" ref="Y84:Y93" si="153">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="164">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="154">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="165">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="155">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -33513,73 +33497,73 @@
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
+        <f t="shared" si="134"/>
+        <v>15</v>
+      </c>
+      <c r="L85" s="15">
+        <f t="shared" si="146"/>
+        <v>15</v>
+      </c>
+      <c r="M85" s="16">
+        <f t="shared" si="147"/>
+        <v>15</v>
+      </c>
+      <c r="O85" s="12">
         <f t="shared" si="135"/>
-        <v>15</v>
-      </c>
-      <c r="L85" s="15">
-        <f t="shared" si="156"/>
-        <v>15</v>
-      </c>
-      <c r="M85" s="16">
-        <f t="shared" si="157"/>
-        <v>15</v>
-      </c>
-      <c r="O85" s="12">
-        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="136"/>
         <v>22.5</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="150"/>
         <v>22.5</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="151"/>
         <v>22.5</v>
       </c>
       <c r="W85" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="163"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
     </row>
@@ -33608,82 +33592,82 @@
         <v>0.125</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="145"/>
         <v>0.125</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.1</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="146"/>
         <v>0.1</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="147"/>
         <v>0.1</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>0.05</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="148"/>
         <v>0.05</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="149"/>
         <v>0.05</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="150"/>
         <v>1</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>0.25</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="152"/>
         <v>0.25</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="163"/>
+        <f t="shared" si="153"/>
         <v>0.25</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>0.375</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="154"/>
         <v>0.375</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="155"/>
         <v>0.375</v>
       </c>
     </row>
@@ -33712,82 +33696,82 @@
         <v>17.5</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="145"/>
         <v>17.5</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>15</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="146"/>
         <v>15</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="147"/>
         <v>15</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>17.5</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="148"/>
         <v>17.5</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="149"/>
         <v>17.5</v>
       </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="139"/>
+        <f t="shared" si="136"/>
         <v>25</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="150"/>
         <v>25</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="151"/>
         <v>25</v>
       </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>22.5</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="152"/>
         <v>22.5</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="163"/>
+        <f t="shared" si="153"/>
         <v>22.5</v>
       </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="138"/>
         <v>17.5</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="154"/>
         <v>17.5</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="155"/>
         <v>17.5</v>
       </c>
     </row>
@@ -33813,67 +33797,67 @@
         <v>0</v>
       </c>
       <c r="I88" s="16">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="12">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="15">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="16">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="12">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="15">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="16">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="12">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="15">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="16">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="W88" s="12">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="X88" s="15">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="16">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="AA88" s="12">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="AB88" s="15">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="AC88" s="16">
         <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="12">
-        <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="15">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="16">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="O88" s="12">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="P88" s="15">
-        <f t="shared" si="158"/>
-        <v>0</v>
-      </c>
-      <c r="Q88" s="16">
-        <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="12">
-        <f t="shared" si="139"/>
-        <v>0</v>
-      </c>
-      <c r="T88" s="15">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="16">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="W88" s="12">
-        <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-      <c r="X88" s="15">
-        <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="16">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="AA88" s="12">
-        <f t="shared" si="143"/>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="15">
-        <f t="shared" si="164"/>
-        <v>0</v>
-      </c>
-      <c r="AC88" s="16">
-        <f t="shared" si="165"/>
         <v>0</v>
       </c>
     </row>
@@ -33899,67 +33883,67 @@
         <v>0</v>
       </c>
       <c r="I89" s="16">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="12">
+        <f t="shared" ref="K89:K90" si="156">J89</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="16">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="12">
+        <f t="shared" ref="O89:O90" si="157">N89</f>
+        <v>0</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="16">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="12">
+        <f t="shared" ref="S89:S90" si="158">R89</f>
+        <v>0</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="16">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="12">
+        <f t="shared" ref="W89:W90" si="159">V89</f>
+        <v>0</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="Y89" s="16">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="12">
+        <f t="shared" ref="AA89:AA90" si="160">Z89</f>
+        <v>0</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="AC89" s="16">
         <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="12">
-        <f t="shared" ref="K89:K93" si="166">J89</f>
-        <v>0</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="16">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="12">
-        <f t="shared" ref="O89:O93" si="167">N89</f>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="158"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="16">
-        <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="12">
-        <f t="shared" ref="S89:S93" si="168">R89</f>
-        <v>0</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="16">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="12">
-        <f t="shared" ref="W89:W93" si="169">V89</f>
-        <v>0</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="16">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="12">
-        <f t="shared" ref="AA89:AA93" si="170">Z89</f>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="164"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="16">
-        <f t="shared" si="165"/>
         <v>0</v>
       </c>
     </row>
@@ -33983,67 +33967,67 @@
         <v>0</v>
       </c>
       <c r="I90" s="16">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="12">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="15">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="16">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="12">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="X90" s="15">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="16">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="AA90" s="12">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="15">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="AC90" s="16">
         <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="12">
-        <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="15">
-        <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="16">
-        <f t="shared" si="157"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="12">
-        <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="15">
-        <f t="shared" si="158"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="16">
-        <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="12">
-        <f t="shared" si="168"/>
-        <v>0</v>
-      </c>
-      <c r="T90" s="15">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="16">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="12">
-        <f t="shared" si="169"/>
-        <v>0</v>
-      </c>
-      <c r="X90" s="15">
-        <f t="shared" si="162"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="16">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="12">
-        <f t="shared" si="170"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="15">
-        <f t="shared" si="164"/>
-        <v>0</v>
-      </c>
-      <c r="AC90" s="16">
-        <f t="shared" si="165"/>
         <v>0</v>
       </c>
     </row>
@@ -34069,7 +34053,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -34077,11 +34061,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -34089,11 +34073,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -34104,11 +34088,11 @@
         <v>4.5</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="150"/>
         <v>4.5</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="151"/>
         <v>4.5</v>
       </c>
       <c r="W91" s="12">
@@ -34116,11 +34100,11 @@
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="163"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -34128,11 +34112,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
     </row>
@@ -34158,7 +34142,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
@@ -34166,11 +34150,11 @@
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
@@ -34178,11 +34162,11 @@
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
@@ -34193,11 +34177,11 @@
         <v>0.25</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="150"/>
         <v>0.25</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="151"/>
         <v>0.25</v>
       </c>
       <c r="W92" s="12">
@@ -34205,11 +34189,11 @@
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="163"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
@@ -34217,11 +34201,11 @@
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
     </row>
@@ -34245,70 +34229,70 @@
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="155"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" ref="K93" si="171">J93</f>
+        <f t="shared" ref="K93" si="161">J93</f>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="157"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" ref="O93" si="172">N93</f>
+        <f t="shared" ref="O93" si="162">N93</f>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="159"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" ref="S93" si="173">R93</f>
+        <f t="shared" ref="S93" si="163">R93</f>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="150"/>
         <v>5</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="151"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" ref="W93" si="174">V93</f>
+        <f t="shared" ref="W93" si="164">V93</f>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="163"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" ref="AA93" si="175">Z93</f>
+        <f t="shared" ref="AA93" si="165">Z93</f>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="165"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
     </row>
@@ -53377,11 +53361,11 @@
       </c>
       <c r="AM78">
         <f>'3_MechRemove_HighSeverity'!S78</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN78">
         <f>'3_MechRemove_HighSeverity'!T78</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO78">
         <f>'3_MechRemove_HighSeverity'!U78</f>
@@ -53623,11 +53607,11 @@
       </c>
       <c r="AM79">
         <f>'3_MechRemove_HighSeverity'!S79</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AN79">
         <f>'3_MechRemove_HighSeverity'!T79</f>
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO79">
         <f>'3_MechRemove_HighSeverity'!U79</f>
@@ -53749,7 +53733,7 @@
       </c>
       <c r="I80">
         <f>'3_MechRemove_HighSeverity'!G80</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J80">
         <f>'3_MechRemove_HighSeverity'!H80</f>
@@ -53789,7 +53773,7 @@
       </c>
       <c r="S80">
         <f>'3_MechRemove_HighSeverity'!K80</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="T80">
         <f>'3_MechRemove_HighSeverity'!L80</f>
@@ -53829,7 +53813,7 @@
       </c>
       <c r="AC80">
         <f>'3_MechRemove_HighSeverity'!O80</f>
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="AD80">
         <f>'3_MechRemove_HighSeverity'!P80</f>
@@ -53869,7 +53853,7 @@
       </c>
       <c r="AM80">
         <f>'3_MechRemove_HighSeverity'!S80</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AN80">
         <f>'3_MechRemove_HighSeverity'!T80</f>
@@ -53909,7 +53893,7 @@
       </c>
       <c r="AW80">
         <f>'3_MechRemove_HighSeverity'!W80</f>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AX80">
         <f>'3_MechRemove_HighSeverity'!X80</f>
@@ -53949,7 +53933,7 @@
       </c>
       <c r="BG80">
         <f>'3_MechRemove_HighSeverity'!AA80</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BH80">
         <f>'3_MechRemove_HighSeverity'!AB80</f>
@@ -53995,7 +53979,7 @@
       </c>
       <c r="I81">
         <f>'3_MechRemove_HighSeverity'!G81</f>
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="J81">
         <f>'3_MechRemove_HighSeverity'!H81</f>
@@ -54035,7 +54019,7 @@
       </c>
       <c r="S81">
         <f>'3_MechRemove_HighSeverity'!K81</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T81">
         <f>'3_MechRemove_HighSeverity'!L81</f>
@@ -54075,7 +54059,7 @@
       </c>
       <c r="AC81">
         <f>'3_MechRemove_HighSeverity'!O81</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AD81">
         <f>'3_MechRemove_HighSeverity'!P81</f>
@@ -54115,7 +54099,7 @@
       </c>
       <c r="AM81">
         <f>'3_MechRemove_HighSeverity'!S81</f>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="AN81">
         <f>'3_MechRemove_HighSeverity'!T81</f>
@@ -54155,7 +54139,7 @@
       </c>
       <c r="AW81">
         <f>'3_MechRemove_HighSeverity'!W81</f>
-        <v>45</v>
+        <v>22.5</v>
       </c>
       <c r="AX81">
         <f>'3_MechRemove_HighSeverity'!X81</f>
@@ -54195,7 +54179,7 @@
       </c>
       <c r="BG81">
         <f>'3_MechRemove_HighSeverity'!AA81</f>
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="BH81">
         <f>'3_MechRemove_HighSeverity'!AB81</f>
@@ -54361,11 +54345,11 @@
       </c>
       <c r="AM82">
         <f>'3_MechRemove_HighSeverity'!S82</f>
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="AN82">
         <f>'3_MechRemove_HighSeverity'!T82</f>
-        <v>1.875</v>
+        <v>0.625</v>
       </c>
       <c r="AO82">
         <f>'3_MechRemove_HighSeverity'!U82</f>
@@ -54401,11 +54385,11 @@
       </c>
       <c r="AW82">
         <f>'3_MechRemove_HighSeverity'!W82</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AX82">
         <f>'3_MechRemove_HighSeverity'!X82</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AY82">
         <f>'3_MechRemove_HighSeverity'!Y82</f>
@@ -54607,11 +54591,11 @@
       </c>
       <c r="AM83">
         <f>'3_MechRemove_HighSeverity'!S83</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AN83">
         <f>'3_MechRemove_HighSeverity'!T83</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AO83">
         <f>'3_MechRemove_HighSeverity'!U83</f>
@@ -54647,11 +54631,11 @@
       </c>
       <c r="AW83">
         <f>'3_MechRemove_HighSeverity'!W83</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AX83">
         <f>'3_MechRemove_HighSeverity'!X83</f>
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="AY83">
         <f>'3_MechRemove_HighSeverity'!Y83</f>

--- a/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
+++ b/specifications/3_MechRemove/ScriptRules_MechRemove.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LANDFIRE\landfiredisturbance-clone\specifications\3_MechRemove\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\Landfire_BB\landfiredisturbance\specifications\3_MechRemove\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11025" windowHeight="9615" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="457">
   <si>
     <t>* = 1.1</t>
   </si>
@@ -1483,6 +1483,12 @@
   <si>
     <t>LStump_Density</t>
   </si>
+  <si>
+    <t>* = (1/0.5)*0.33</t>
+  </si>
+  <si>
+    <t>* = (1/0.25)*0.33</t>
+  </si>
 </sst>
 </file>
 
@@ -2606,20 +2612,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="B42" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78:K93"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.7109375" style="27" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="21" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="25" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="26" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="21" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="25" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="26" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="26" customWidth="1"/>
     <col min="9" max="9" width="27.140625" style="21" customWidth="1"/>
     <col min="10" max="10" width="27.140625" style="25" customWidth="1"/>
     <col min="11" max="11" width="27.140625" style="26" customWidth="1"/>
@@ -3413,14 +3419,14 @@
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="23" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="I48" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="23" t="s">
-        <v>373</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3442,14 +3448,14 @@
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="23" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="I49" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J49" s="22"/>
       <c r="K49" s="23" t="s">
-        <v>373</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3471,14 +3477,14 @@
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="23" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="I50" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J50" s="22"/>
       <c r="K50" s="23" t="s">
-        <v>373</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3500,14 +3506,14 @@
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="23" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="I51" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J51" s="22"/>
       <c r="K51" s="23" t="s">
-        <v>373</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3529,14 +3535,14 @@
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="23" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="I52" s="21" t="s">
         <v>1</v>
       </c>
       <c r="J52" s="22"/>
       <c r="K52" s="23" t="s">
-        <v>373</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -16520,10 +16526,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17502,7 +17508,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="G11" s="12">
-        <f>$C11*F11</f>
+        <f t="shared" ref="G11:G17" si="22">$C11*F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="15">
@@ -17514,7 +17520,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="12">
-        <f>$C11*J11</f>
+        <f t="shared" ref="K11:K17" si="23">$C11*J11</f>
         <v>0</v>
       </c>
       <c r="L11" s="15">
@@ -17526,7 +17532,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="12">
-        <f>$C11*N11</f>
+        <f t="shared" ref="O11:O17" si="24">$C11*N11</f>
         <v>0</v>
       </c>
       <c r="P11" s="15">
@@ -17538,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="12">
-        <f>$C11*R11</f>
+        <f t="shared" ref="S11:S17" si="25">$C11*R11</f>
         <v>0</v>
       </c>
       <c r="T11" s="15">
@@ -17553,7 +17559,7 @@
         <v>50</v>
       </c>
       <c r="W11" s="12">
-        <f>$C11*V11</f>
+        <f t="shared" ref="W11:W17" si="26">$C11*V11</f>
         <v>25</v>
       </c>
       <c r="X11" s="15">
@@ -17565,7 +17571,7 @@
         <v>25</v>
       </c>
       <c r="AA11" s="12">
-        <f>$C11*Z11</f>
+        <f t="shared" ref="AA11:AA17" si="27">$C11*Z11</f>
         <v>0</v>
       </c>
       <c r="AB11" s="15">
@@ -17591,7 +17597,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="G12" s="12">
-        <f>$C12*F12</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H12" s="15">
@@ -17603,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="12">
-        <f>$C12*J12</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L12" s="15">
@@ -17615,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="12">
-        <f>$C12*N12</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P12" s="15">
@@ -17627,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="12">
-        <f>$C12*R12</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T12" s="15">
@@ -17642,7 +17648,7 @@
         <v>150</v>
       </c>
       <c r="W12" s="12">
-        <f>$C12*V12</f>
+        <f t="shared" si="26"/>
         <v>75</v>
       </c>
       <c r="X12" s="15">
@@ -17654,7 +17660,7 @@
         <v>75</v>
       </c>
       <c r="AA12" s="12">
-        <f>$C12*Z12</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB12" s="15">
@@ -17680,7 +17686,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="G13" s="12">
-        <f>$C13*F13</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H13" s="15">
@@ -17692,7 +17698,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12">
-        <f>$C13*J13</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L13" s="15">
@@ -17704,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="12">
-        <f>$C13*N13</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P13" s="15">
@@ -17719,7 +17725,7 @@
         <v>0.5</v>
       </c>
       <c r="S13" s="12">
-        <f>$C13*R13</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T13" s="15">
@@ -17734,7 +17740,7 @@
         <v>1.7</v>
       </c>
       <c r="W13" s="12">
-        <f>$C13*V13</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X13" s="15">
@@ -17749,7 +17755,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="12">
-        <f>$C13*Z13</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB13" s="15">
@@ -17775,7 +17781,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="G14" s="12">
-        <f>$C14*F14</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H14" s="15">
@@ -17787,7 +17793,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12">
-        <f>$C14*J14</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L14" s="15">
@@ -17799,7 +17805,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="12">
-        <f>$C14*N14</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P14" s="15">
@@ -17814,7 +17820,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="12">
-        <f>$C14*R14</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T14" s="15">
@@ -17829,7 +17835,7 @@
         <v>2</v>
       </c>
       <c r="W14" s="12">
-        <f>$C14*V14</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X14" s="15">
@@ -17844,7 +17850,7 @@
         <v>2</v>
       </c>
       <c r="AA14" s="12">
-        <f>$C14*Z14</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB14" s="15">
@@ -17870,7 +17876,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
       <c r="G15" s="12">
-        <f>$C15*F15</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H15" s="15">
@@ -17882,7 +17888,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="12">
-        <f>$C15*J15</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L15" s="15">
@@ -17894,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="12">
-        <f>$C15*N15</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P15" s="15">
@@ -17909,7 +17915,7 @@
         <v>1.5</v>
       </c>
       <c r="S15" s="12">
-        <f>$C15*R15</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T15" s="15">
@@ -17924,7 +17930,7 @@
         <v>10</v>
       </c>
       <c r="W15" s="12">
-        <f>$C15*V15</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X15" s="15">
@@ -17939,7 +17945,7 @@
         <v>5</v>
       </c>
       <c r="AA15" s="12">
-        <f>$C15*Z15</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB15" s="15">
@@ -17965,7 +17971,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="G16" s="12">
-        <f>$C16*F16</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H16" s="15">
@@ -17977,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="12">
-        <f>$C16*J16</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L16" s="15">
@@ -17989,7 +17995,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="12">
-        <f>$C16*N16</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P16" s="15">
@@ -18004,7 +18010,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="12">
-        <f>$C16*R16</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T16" s="15">
@@ -18019,7 +18025,7 @@
         <v>30</v>
       </c>
       <c r="W16" s="12">
-        <f>$C16*V16</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X16" s="15">
@@ -18034,7 +18040,7 @@
         <v>5</v>
       </c>
       <c r="AA16" s="12">
-        <f>$C16*Z16</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB16" s="15">
@@ -18060,7 +18066,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="G17" s="12">
-        <f>$C17*F17</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H17" s="15">
@@ -18072,7 +18078,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="12">
-        <f>$C17*J17</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L17" s="15">
@@ -18084,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="12">
-        <f>$C17*N17</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P17" s="15">
@@ -18099,7 +18105,7 @@
         <v>1000</v>
       </c>
       <c r="S17" s="12">
-        <f>$C17*R17</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T17" s="15">
@@ -18114,7 +18120,7 @@
         <v>1000</v>
       </c>
       <c r="W17" s="12">
-        <f>$C17*V17</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X17" s="15">
@@ -18129,7 +18135,7 @@
         <v>25</v>
       </c>
       <c r="AA17" s="12">
-        <f>$C17*Z17</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB17" s="15">
@@ -18153,7 +18159,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="31"/>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:H33" si="22">F18</f>
+        <f t="shared" ref="G18:H33" si="28">F18</f>
         <v>0</v>
       </c>
       <c r="H18" s="15">
@@ -18165,7 +18171,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" ref="K18:K33" si="23">J18</f>
+        <f t="shared" ref="K18:K33" si="29">J18</f>
         <v>0</v>
       </c>
       <c r="L18" s="15">
@@ -18177,7 +18183,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" ref="O18:O33" si="24">N18</f>
+        <f t="shared" ref="O18:O33" si="30">N18</f>
         <v>0</v>
       </c>
       <c r="P18" s="15">
@@ -18192,7 +18198,7 @@
         <v>3.5</v>
       </c>
       <c r="S18" s="12">
-        <f t="shared" ref="S18:S33" si="25">R18</f>
+        <f t="shared" ref="S18:S33" si="31">R18</f>
         <v>3.5</v>
       </c>
       <c r="T18" s="15">
@@ -18207,7 +18213,7 @@
         <v>13</v>
       </c>
       <c r="W18" s="12">
-        <f t="shared" ref="W18:W33" si="26">V18</f>
+        <f t="shared" ref="W18:W33" si="32">V18</f>
         <v>13</v>
       </c>
       <c r="X18" s="15">
@@ -18219,7 +18225,7 @@
         <v>13</v>
       </c>
       <c r="AA18" s="12">
-        <f t="shared" ref="AA18:AA33" si="27">Z18</f>
+        <f t="shared" ref="AA18:AA33" si="33">Z18</f>
         <v>0</v>
       </c>
       <c r="AB18" s="15">
@@ -18243,7 +18249,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="31"/>
       <c r="G19" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H19" s="15">
@@ -18255,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L19" s="15">
@@ -18267,7 +18273,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P19" s="15">
@@ -18282,7 +18288,7 @@
         <v>25</v>
       </c>
       <c r="S19" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>25</v>
       </c>
       <c r="T19" s="15">
@@ -18297,7 +18303,7 @@
         <v>55</v>
       </c>
       <c r="W19" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>55</v>
       </c>
       <c r="X19" s="15">
@@ -18309,7 +18315,7 @@
         <v>55</v>
       </c>
       <c r="AA19" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB19" s="15">
@@ -18333,7 +18339,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="31"/>
       <c r="G20" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H20" s="15">
@@ -18345,7 +18351,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L20" s="15">
@@ -18357,7 +18363,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P20" s="15">
@@ -18372,7 +18378,7 @@
         <v>100</v>
       </c>
       <c r="S20" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="T20" s="15">
@@ -18387,7 +18393,7 @@
         <v>5</v>
       </c>
       <c r="W20" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="X20" s="15">
@@ -18399,7 +18405,7 @@
         <v>5</v>
       </c>
       <c r="AA20" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB20" s="15">
@@ -18423,11 +18429,11 @@
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
       <c r="G21" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H21" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I21" s="16">
@@ -18435,7 +18441,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L21" s="15">
@@ -18447,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P21" s="15">
@@ -18459,7 +18465,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T21" s="15">
@@ -18474,7 +18480,7 @@
         <v>33.35</v>
       </c>
       <c r="W21" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>33.35</v>
       </c>
       <c r="X21" s="15">
@@ -18486,7 +18492,7 @@
         <v>33.35</v>
       </c>
       <c r="AA21" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB21" s="15">
@@ -18510,11 +18516,11 @@
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
       <c r="G22" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I22" s="16">
@@ -18522,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L22" s="15">
@@ -18534,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P22" s="15">
@@ -18546,7 +18552,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T22" s="15">
@@ -18561,7 +18567,7 @@
         <v>9</v>
       </c>
       <c r="W22" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="X22" s="15">
@@ -18573,7 +18579,7 @@
         <v>9</v>
       </c>
       <c r="AA22" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB22" s="15">
@@ -18597,11 +18603,11 @@
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
       <c r="G23" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I23" s="16">
@@ -18609,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L23" s="15">
@@ -18621,7 +18627,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P23" s="15">
@@ -18633,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T23" s="15">
@@ -18648,7 +18654,7 @@
         <v>50</v>
       </c>
       <c r="W23" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="X23" s="15">
@@ -18660,7 +18666,7 @@
         <v>50</v>
       </c>
       <c r="AA23" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB23" s="15">
@@ -18684,11 +18690,11 @@
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
       <c r="G24" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H24" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I24" s="16">
@@ -18696,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L24" s="15">
@@ -18708,7 +18714,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P24" s="15">
@@ -18720,7 +18726,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T24" s="15">
@@ -18735,7 +18741,7 @@
         <v>0.5071</v>
       </c>
       <c r="W24" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.5071</v>
       </c>
       <c r="X24" s="15">
@@ -18747,7 +18753,7 @@
         <v>0.5071</v>
       </c>
       <c r="AA24" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB24" s="15">
@@ -18771,11 +18777,11 @@
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
       <c r="G25" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I25" s="16">
@@ -18783,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L25" s="15">
@@ -18795,7 +18801,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P25" s="15">
@@ -18807,7 +18813,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T25" s="15">
@@ -18822,7 +18828,7 @@
         <v>5</v>
       </c>
       <c r="W25" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="X25" s="15">
@@ -18834,7 +18840,7 @@
         <v>5</v>
       </c>
       <c r="AA25" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB25" s="15">
@@ -18858,11 +18864,11 @@
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="G26" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I26" s="16">
@@ -18870,7 +18876,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -18882,7 +18888,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P26" s="15">
@@ -18897,7 +18903,7 @@
         <v>3.5</v>
       </c>
       <c r="S26" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.5</v>
       </c>
       <c r="T26" s="15">
@@ -18912,7 +18918,7 @@
         <v>11</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="X26" s="15">
@@ -18927,7 +18933,7 @@
         <v>12</v>
       </c>
       <c r="AA26" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="AB26" s="15">
@@ -18951,11 +18957,11 @@
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="G27" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I27" s="16">
@@ -18963,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -18975,7 +18981,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P27" s="15">
@@ -18990,7 +18996,7 @@
         <v>20</v>
       </c>
       <c r="S27" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="T27" s="15">
@@ -19005,7 +19011,7 @@
         <v>50</v>
       </c>
       <c r="W27" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="X27" s="15">
@@ -19020,7 +19026,7 @@
         <v>70</v>
       </c>
       <c r="AA27" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>70</v>
       </c>
       <c r="AB27" s="15">
@@ -19044,11 +19050,11 @@
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="G28" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H28" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I28" s="16">
@@ -19056,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -19068,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P28" s="15">
@@ -19083,7 +19089,7 @@
         <v>150</v>
       </c>
       <c r="S28" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>150</v>
       </c>
       <c r="T28" s="15">
@@ -19098,7 +19104,7 @@
         <v>10</v>
       </c>
       <c r="W28" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="X28" s="15">
@@ -19113,7 +19119,7 @@
         <v>3</v>
       </c>
       <c r="AA28" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AB28" s="15">
@@ -19140,11 +19146,11 @@
         <v>9</v>
       </c>
       <c r="G29" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="I29" s="16">
@@ -19152,7 +19158,7 @@
         <v>9</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
@@ -19164,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P29" s="15">
@@ -19179,7 +19185,7 @@
         <v>3.5</v>
       </c>
       <c r="S29" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.5</v>
       </c>
       <c r="T29" s="15">
@@ -19194,7 +19200,7 @@
         <v>11</v>
       </c>
       <c r="W29" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="X29" s="15">
@@ -19209,7 +19215,7 @@
         <v>10</v>
       </c>
       <c r="AA29" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="AB29" s="15">
@@ -19236,11 +19242,11 @@
         <v>60</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>60</v>
       </c>
       <c r="I30" s="16">
@@ -19248,7 +19254,7 @@
         <v>60</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L30" s="15">
@@ -19260,7 +19266,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P30" s="15">
@@ -19275,7 +19281,7 @@
         <v>15</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="T30" s="15">
@@ -19290,7 +19296,7 @@
         <v>40</v>
       </c>
       <c r="W30" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>40</v>
       </c>
       <c r="X30" s="15">
@@ -19305,7 +19311,7 @@
         <v>60</v>
       </c>
       <c r="AA30" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>60</v>
       </c>
       <c r="AB30" s="15">
@@ -19332,11 +19338,11 @@
         <v>3</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I31" s="16">
@@ -19344,7 +19350,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
@@ -19356,7 +19362,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P31" s="15">
@@ -19371,7 +19377,7 @@
         <v>150</v>
       </c>
       <c r="S31" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>150</v>
       </c>
       <c r="T31" s="15">
@@ -19386,7 +19392,7 @@
         <v>5</v>
       </c>
       <c r="W31" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="X31" s="15">
@@ -19401,7 +19407,7 @@
         <v>3</v>
       </c>
       <c r="AA31" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AB31" s="15">
@@ -19425,11 +19431,11 @@
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="G32" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I32" s="16">
@@ -19437,7 +19443,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L32" s="15">
@@ -19449,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P32" s="15">
@@ -19464,7 +19470,7 @@
         <v>4</v>
       </c>
       <c r="S32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="T32" s="15">
@@ -19479,7 +19485,7 @@
         <v>15</v>
       </c>
       <c r="W32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>15</v>
       </c>
       <c r="X32" s="15">
@@ -19491,7 +19497,7 @@
         <v>15</v>
       </c>
       <c r="AA32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB32" s="15">
@@ -19515,11 +19521,11 @@
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="G33" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I33" s="16">
@@ -19527,7 +19533,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L33" s="15">
@@ -19539,7 +19545,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P33" s="15">
@@ -19554,7 +19560,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T33" s="15">
@@ -19569,7 +19575,7 @@
         <v>5</v>
       </c>
       <c r="W33" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="X33" s="15">
@@ -19581,7 +19587,7 @@
         <v>5</v>
       </c>
       <c r="AA33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB33" s="15">
@@ -19612,11 +19618,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" ref="H34:I47" si="28">G34</f>
+        <f t="shared" ref="H34:I47" si="34">G34</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I34" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="J34" s="11">
@@ -19926,81 +19932,81 @@
         <v>0.3</v>
       </c>
       <c r="G37" s="12">
-        <f t="shared" ref="G37:H44" si="29">F37</f>
+        <f t="shared" ref="G37:H44" si="35">F37</f>
         <v>0.3</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.3</v>
       </c>
       <c r="I37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.3</v>
       </c>
       <c r="J37" s="11">
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" ref="K37" si="30">J37</f>
+        <f t="shared" ref="K37" si="36">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="31">K37</f>
+        <f t="shared" ref="L37" si="37">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" ref="M37" si="32">L37</f>
+        <f t="shared" ref="M37" si="38">L37</f>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" ref="O37" si="33">N37</f>
+        <f t="shared" ref="O37" si="39">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37" si="34">O37</f>
+        <f t="shared" ref="P37" si="40">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" ref="Q37" si="35">P37</f>
+        <f t="shared" ref="Q37" si="41">P37</f>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" ref="S37" si="36">R37</f>
+        <f t="shared" ref="S37" si="42">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37" si="37">S37</f>
+        <f t="shared" ref="T37" si="43">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" ref="U37" si="38">T37</f>
+        <f t="shared" ref="U37" si="44">T37</f>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" ref="W37" si="39">V37</f>
+        <f t="shared" ref="W37" si="45">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" ref="X37" si="40">W37</f>
+        <f t="shared" ref="X37" si="46">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" ref="Y37" si="41">X37</f>
+        <f t="shared" ref="Y37" si="47">X37</f>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="42">Z37</f>
+        <f t="shared" ref="AA37" si="48">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" ref="AB37" si="43">AA37</f>
+        <f t="shared" ref="AB37" si="49">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" ref="AC37" si="44">AB37</f>
+        <f t="shared" ref="AC37" si="50">AB37</f>
         <v>0</v>
       </c>
     </row>
@@ -20132,7 +20138,7 @@
         <v>95</v>
       </c>
       <c r="I39" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>95</v>
       </c>
       <c r="J39" s="11">
@@ -20147,7 +20153,7 @@
         <v>85</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" ref="M39:M40" si="45">L39</f>
+        <f t="shared" ref="M39:M40" si="51">L39</f>
         <v>85</v>
       </c>
       <c r="O39" s="12">
@@ -20159,7 +20165,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="16">
-        <f t="shared" ref="Q39:Q40" si="46">P39</f>
+        <f t="shared" ref="Q39:Q40" si="52">P39</f>
         <v>0</v>
       </c>
       <c r="R39" s="11">
@@ -20174,7 +20180,7 @@
         <v>90</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" ref="U39:U40" si="47">T39</f>
+        <f t="shared" ref="U39:U40" si="53">T39</f>
         <v>90</v>
       </c>
       <c r="W39" s="12">
@@ -20186,7 +20192,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="16">
-        <f t="shared" ref="Y39:Y40" si="48">X39</f>
+        <f t="shared" ref="Y39:Y40" si="54">X39</f>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
@@ -20198,7 +20204,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" ref="AC39:AC40" si="49">AB39</f>
+        <f t="shared" ref="AC39:AC40" si="55">AB39</f>
         <v>0</v>
       </c>
     </row>
@@ -20217,87 +20223,87 @@
         <v>0.9</v>
       </c>
       <c r="G40" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.9</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.9</v>
       </c>
       <c r="I40" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" ref="K40" si="50">J40</f>
+        <f t="shared" ref="K40" si="56">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40" si="51">K40</f>
+        <f t="shared" ref="L40" si="57">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" ref="O40" si="52">N40</f>
+        <f t="shared" ref="O40" si="58">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40" si="53">O40</f>
+        <f t="shared" ref="P40" si="59">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" ref="S40" si="54">R40</f>
+        <f t="shared" ref="S40" si="60">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40" si="55">S40</f>
+        <f t="shared" ref="T40" si="61">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" ref="W40" si="56">V40</f>
+        <f t="shared" ref="W40" si="62">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ref="X40" si="57">W40</f>
+        <f t="shared" ref="X40" si="63">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40" si="58">Z40</f>
+        <f t="shared" ref="AA40" si="64">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="AB40" si="59">AA40</f>
+        <f t="shared" ref="AB40" si="65">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
     </row>
@@ -20541,7 +20547,7 @@
         <v>95</v>
       </c>
       <c r="I43" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>95</v>
       </c>
       <c r="K43" s="12">
@@ -20553,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" ref="M43:M44" si="60">L43</f>
+        <f t="shared" ref="M43:M44" si="66">L43</f>
         <v>0</v>
       </c>
       <c r="N43" s="11">
@@ -20568,7 +20574,7 @@
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" ref="Q43:Q44" si="61">P43</f>
+        <f t="shared" ref="Q43:Q44" si="67">P43</f>
         <v>85</v>
       </c>
       <c r="R43" s="11">
@@ -20583,7 +20589,7 @@
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" ref="U43:U44" si="62">T43</f>
+        <f t="shared" ref="U43:U44" si="68">T43</f>
         <v>90</v>
       </c>
       <c r="V43" s="11">
@@ -20598,7 +20604,7 @@
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" ref="Y43:Y44" si="63">X43</f>
+        <f t="shared" ref="Y43:Y44" si="69">X43</f>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
@@ -20613,7 +20619,7 @@
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AC44" si="64">AB43</f>
+        <f t="shared" ref="AC43:AC44" si="70">AB43</f>
         <v>60</v>
       </c>
     </row>
@@ -20632,84 +20638,84 @@
         <v>0.9</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.9</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.9</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44" si="65">J44</f>
+        <f t="shared" ref="K44" si="71">J44</f>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" ref="L44" si="66">K44</f>
+        <f t="shared" ref="L44" si="72">K44</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="N44" s="11">
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44" si="67">N44</f>
+        <f t="shared" ref="O44" si="73">N44</f>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" ref="P44" si="68">O44</f>
+        <f t="shared" ref="P44" si="74">O44</f>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="R44" s="11">
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" ref="S44" si="69">R44</f>
+        <f t="shared" ref="S44" si="75">R44</f>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" ref="T44" si="70">S44</f>
+        <f t="shared" ref="T44" si="76">S44</f>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" ref="W44" si="71">V44</f>
+        <f t="shared" ref="W44" si="77">V44</f>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" ref="X44" si="72">W44</f>
+        <f t="shared" ref="X44" si="78">W44</f>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Z44" s="11">
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44" si="73">Z44</f>
+        <f t="shared" ref="AA44" si="79">Z44</f>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="AB44" si="74">AA44</f>
+        <f t="shared" ref="AB44" si="80">AA44</f>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
     </row>
@@ -20735,7 +20741,7 @@
         <v>0.1</v>
       </c>
       <c r="G45" s="12">
-        <f>$C45*F45</f>
+        <f t="shared" ref="G45:G58" si="81">$C45*F45</f>
         <v>0.05</v>
       </c>
       <c r="H45" s="15">
@@ -20747,7 +20753,7 @@
         <v>0.1</v>
       </c>
       <c r="K45" s="12">
-        <f>$C45*J45</f>
+        <f t="shared" ref="K45:K58" si="82">$C45*J45</f>
         <v>0</v>
       </c>
       <c r="L45" s="15">
@@ -20762,7 +20768,7 @@
         <v>0.01</v>
       </c>
       <c r="O45" s="12">
-        <f>$C45*N45</f>
+        <f t="shared" ref="O45:O58" si="83">$C45*N45</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="P45" s="15">
@@ -20777,7 +20783,7 @@
         <v>0.02</v>
       </c>
       <c r="S45" s="12">
-        <f>$C45*R45</f>
+        <f t="shared" ref="S45:S58" si="84">$C45*R45</f>
         <v>0.01</v>
       </c>
       <c r="T45" s="15">
@@ -20789,7 +20795,7 @@
         <v>1.9999999999999997E-2</v>
       </c>
       <c r="W45" s="12">
-        <f>$C45*V45</f>
+        <f t="shared" ref="W45:W58" si="85">$C45*V45</f>
         <v>0</v>
       </c>
       <c r="X45" s="15">
@@ -20804,7 +20810,7 @@
         <v>0.1</v>
       </c>
       <c r="AA45" s="12">
-        <f>$C45*Z45</f>
+        <f t="shared" ref="AA45:AA58" si="86">$C45*Z45</f>
         <v>0.05</v>
       </c>
       <c r="AB45" s="15">
@@ -20838,7 +20844,7 @@
         <v>0.2</v>
       </c>
       <c r="G46" s="12">
-        <f>$C46*F46</f>
+        <f t="shared" si="81"/>
         <v>0.1</v>
       </c>
       <c r="H46" s="15">
@@ -20850,7 +20856,7 @@
         <v>0.2</v>
       </c>
       <c r="K46" s="12">
-        <f>$C46*J46</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L46" s="15">
@@ -20865,7 +20871,7 @@
         <v>8</v>
       </c>
       <c r="O46" s="12">
-        <f>$C46*N46</f>
+        <f t="shared" si="83"/>
         <v>4</v>
       </c>
       <c r="P46" s="15">
@@ -20880,7 +20886,7 @@
         <v>5</v>
       </c>
       <c r="S46" s="12">
-        <f>$C46*R46</f>
+        <f t="shared" si="84"/>
         <v>2.5</v>
       </c>
       <c r="T46" s="15">
@@ -20892,7 +20898,7 @@
         <v>5</v>
       </c>
       <c r="W46" s="12">
-        <f>$C46*V46</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="X46" s="15">
@@ -20907,7 +20913,7 @@
         <v>20</v>
       </c>
       <c r="AA46" s="12">
-        <f>$C46*Z46</f>
+        <f t="shared" si="86"/>
         <v>10</v>
       </c>
       <c r="AB46" s="15">
@@ -20939,7 +20945,7 @@
         <v>85</v>
       </c>
       <c r="G47" s="12">
-        <f>$C47*F47</f>
+        <f t="shared" si="81"/>
         <v>42.5</v>
       </c>
       <c r="H47" s="15">
@@ -20947,11 +20953,11 @@
         <v>85</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>85</v>
       </c>
       <c r="K47" s="12">
-        <f>$C47*J47</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L47" s="15">
@@ -20959,14 +20965,14 @@
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" ref="M47" si="75">L47</f>
+        <f t="shared" ref="M47" si="87">L47</f>
         <v>0</v>
       </c>
       <c r="N47" s="11">
         <v>70</v>
       </c>
       <c r="O47" s="12">
-        <f>$C47*N47</f>
+        <f t="shared" si="83"/>
         <v>35</v>
       </c>
       <c r="P47" s="15">
@@ -20974,14 +20980,14 @@
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" ref="Q47" si="76">P47</f>
+        <f t="shared" ref="Q47" si="88">P47</f>
         <v>70</v>
       </c>
       <c r="R47" s="11">
         <v>90</v>
       </c>
       <c r="S47" s="12">
-        <f>$C47*R47</f>
+        <f t="shared" si="84"/>
         <v>45</v>
       </c>
       <c r="T47" s="15">
@@ -20989,11 +20995,11 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" ref="U47" si="77">T47</f>
+        <f t="shared" ref="U47" si="89">T47</f>
         <v>90</v>
       </c>
       <c r="W47" s="12">
-        <f>$C47*V47</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="X47" s="15">
@@ -21001,14 +21007,14 @@
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" ref="Y47" si="78">X47</f>
+        <f t="shared" ref="Y47" si="90">X47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
         <v>60</v>
       </c>
       <c r="AA47" s="12">
-        <f>$C47*Z47</f>
+        <f t="shared" si="86"/>
         <v>30</v>
       </c>
       <c r="AB47" s="15">
@@ -21016,7 +21022,7 @@
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" ref="AC47" si="79">AB47</f>
+        <f t="shared" ref="AC47" si="91">AB47</f>
         <v>60</v>
       </c>
     </row>
@@ -21033,95 +21039,95 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="9">
-        <f>1/0.5</f>
-        <v>2</v>
+        <f>(1/0.5)*0.33</f>
+        <v>0.66</v>
       </c>
       <c r="F48" s="11">
         <v>4</v>
       </c>
       <c r="G48" s="12">
-        <f>$C48*F48</f>
+        <f t="shared" si="81"/>
         <v>2</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" ref="H48:H77" si="80">G48</f>
+        <f t="shared" ref="H48:H77" si="92">G48</f>
         <v>2</v>
       </c>
       <c r="I48" s="16">
-        <f>$E48*H48</f>
-        <v>4</v>
+        <f t="shared" ref="I48:I55" si="93">$E48*H48</f>
+        <v>1.32</v>
       </c>
       <c r="J48" s="11">
         <v>1</v>
       </c>
       <c r="K48" s="12">
-        <f>$C48*J48</f>
+        <f t="shared" si="82"/>
         <v>0.5</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" ref="L48:L52" si="81">K48</f>
+        <f t="shared" ref="L48:L52" si="94">K48</f>
         <v>0.5</v>
       </c>
       <c r="M48" s="16">
-        <f>$E48*L48</f>
-        <v>1</v>
+        <f t="shared" ref="M48:M55" si="95">$E48*L48</f>
+        <v>0.33</v>
       </c>
       <c r="O48" s="12">
-        <f>$C48*N48</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48:P52" si="82">O48</f>
+        <f t="shared" ref="P48:P52" si="96">O48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
-        <f>$E48*P48</f>
+        <f t="shared" ref="Q48:Q55" si="97">$E48*P48</f>
         <v>0</v>
       </c>
       <c r="R48" s="11">
         <v>0.5</v>
       </c>
       <c r="S48" s="12">
-        <f>$C48*R48</f>
+        <f t="shared" si="84"/>
         <v>0.25</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T52" si="83">S48</f>
+        <f t="shared" ref="T48:T52" si="98">S48</f>
         <v>0.25</v>
       </c>
       <c r="U48" s="16">
-        <f>$E48*T48</f>
-        <v>0.5</v>
+        <f t="shared" ref="U48:U55" si="99">$E48*T48</f>
+        <v>0.16500000000000001</v>
       </c>
       <c r="V48" s="11">
         <v>1</v>
       </c>
       <c r="W48" s="12">
-        <f>$C48*V48</f>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="X48" s="15">
-        <f t="shared" ref="X48:X52" si="84">W48</f>
+        <f t="shared" ref="X48:X52" si="100">W48</f>
         <v>0.5</v>
       </c>
       <c r="Y48" s="16">
-        <f>$E48*X48</f>
-        <v>1</v>
+        <f t="shared" ref="Y48:Y55" si="101">$E48*X48</f>
+        <v>0.33</v>
       </c>
       <c r="Z48" s="11">
         <v>0.5</v>
       </c>
       <c r="AA48" s="12">
-        <f>$C48*Z48</f>
+        <f t="shared" si="86"/>
         <v>0.25</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="AB48:AB52" si="85">AA48</f>
+        <f t="shared" ref="AB48:AB52" si="102">AA48</f>
         <v>0.25</v>
       </c>
       <c r="AC48" s="16">
-        <f>$E48*AB48</f>
-        <v>0.5</v>
+        <f t="shared" ref="AC48:AC55" si="103">$E48*AB48</f>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -21137,95 +21143,95 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="9">
-        <f>1/0.5</f>
-        <v>2</v>
+        <f>(1/0.5)*0.33</f>
+        <v>0.66</v>
       </c>
       <c r="F49" s="11">
         <v>70</v>
       </c>
       <c r="G49" s="12">
-        <f>$C49*F49</f>
+        <f t="shared" si="81"/>
         <v>35</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>35</v>
       </c>
       <c r="I49" s="16">
-        <f>$E49*H49</f>
-        <v>70</v>
+        <f t="shared" si="93"/>
+        <v>23.1</v>
       </c>
       <c r="J49" s="11">
         <v>50</v>
       </c>
       <c r="K49" s="12">
-        <f>$C49*J49</f>
+        <f t="shared" si="82"/>
         <v>25</v>
       </c>
       <c r="L49" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="94"/>
         <v>25</v>
       </c>
       <c r="M49" s="16">
-        <f>$E49*L49</f>
-        <v>50</v>
+        <f t="shared" si="95"/>
+        <v>16.5</v>
       </c>
       <c r="O49" s="12">
-        <f>$C49*N49</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P49" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q49" s="16">
-        <f>$E49*P49</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="R49" s="11">
         <v>30</v>
       </c>
       <c r="S49" s="12">
-        <f>$C49*R49</f>
+        <f t="shared" si="84"/>
         <v>15</v>
       </c>
       <c r="T49" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>15</v>
       </c>
       <c r="U49" s="16">
-        <f>$E49*T49</f>
-        <v>30</v>
+        <f t="shared" si="99"/>
+        <v>9.9</v>
       </c>
       <c r="V49" s="11">
         <v>40</v>
       </c>
       <c r="W49" s="12">
-        <f>$C49*V49</f>
+        <f t="shared" si="85"/>
         <v>20</v>
       </c>
       <c r="X49" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>20</v>
       </c>
       <c r="Y49" s="16">
-        <f>$E49*X49</f>
-        <v>40</v>
+        <f t="shared" si="101"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="Z49" s="11">
         <v>15</v>
       </c>
       <c r="AA49" s="12">
-        <f>$C49*Z49</f>
+        <f t="shared" si="86"/>
         <v>7.5</v>
       </c>
       <c r="AB49" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>7.5</v>
       </c>
       <c r="AC49" s="16">
-        <f>$E49*AB49</f>
-        <v>15</v>
+        <f t="shared" si="103"/>
+        <v>4.95</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -21241,95 +21247,95 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="9">
-        <f>1/0.5</f>
-        <v>2</v>
+        <f>(1/0.5)*0.33</f>
+        <v>0.66</v>
       </c>
       <c r="F50" s="11">
         <v>2</v>
       </c>
       <c r="G50" s="12">
-        <f>$C50*F50</f>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="H50" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="I50" s="16">
-        <f>$E50*H50</f>
-        <v>2</v>
+        <f t="shared" si="93"/>
+        <v>0.66</v>
       </c>
       <c r="J50" s="11">
         <v>1</v>
       </c>
       <c r="K50" s="12">
-        <f>$C50*J50</f>
+        <f t="shared" si="82"/>
         <v>0.5</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="94"/>
         <v>0.5</v>
       </c>
       <c r="M50" s="16">
-        <f>$E50*L50</f>
-        <v>1</v>
+        <f t="shared" si="95"/>
+        <v>0.33</v>
       </c>
       <c r="O50" s="12">
-        <f>$C50*N50</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P50" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q50" s="16">
-        <f>$E50*P50</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="R50" s="11">
         <v>0.5</v>
       </c>
       <c r="S50" s="12">
-        <f>$C50*R50</f>
+        <f t="shared" si="84"/>
         <v>0.25</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>0.25</v>
       </c>
       <c r="U50" s="16">
-        <f>$E50*T50</f>
-        <v>0.5</v>
+        <f t="shared" si="99"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="V50" s="11">
         <v>1</v>
       </c>
       <c r="W50" s="12">
-        <f>$C50*V50</f>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="X50" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>0.5</v>
       </c>
       <c r="Y50" s="16">
-        <f>$E50*X50</f>
-        <v>1</v>
+        <f t="shared" si="101"/>
+        <v>0.33</v>
       </c>
       <c r="Z50" s="11">
         <v>0.3</v>
       </c>
       <c r="AA50" s="12">
-        <f>$C50*Z50</f>
+        <f t="shared" si="86"/>
         <v>0.15</v>
       </c>
       <c r="AB50" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0.15</v>
       </c>
       <c r="AC50" s="16">
-        <f>$E50*AB50</f>
-        <v>0.3</v>
+        <f t="shared" si="103"/>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -21345,95 +21351,95 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="9">
-        <f>1/0.5</f>
-        <v>2</v>
+        <f>(1/0.5)*0.33</f>
+        <v>0.66</v>
       </c>
       <c r="F51" s="11">
         <v>1.5</v>
       </c>
       <c r="G51" s="12">
-        <f>$C51*F51</f>
+        <f t="shared" si="81"/>
         <v>0.75</v>
       </c>
       <c r="H51" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0.75</v>
       </c>
       <c r="I51" s="16">
-        <f>$E51*H51</f>
-        <v>1.5</v>
+        <f t="shared" si="93"/>
+        <v>0.495</v>
       </c>
       <c r="J51" s="11">
         <v>1</v>
       </c>
       <c r="K51" s="12">
-        <f>$C51*J51</f>
+        <f t="shared" si="82"/>
         <v>0.5</v>
       </c>
       <c r="L51" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="94"/>
         <v>0.5</v>
       </c>
       <c r="M51" s="16">
-        <f>$E51*L51</f>
-        <v>1</v>
+        <f t="shared" si="95"/>
+        <v>0.33</v>
       </c>
       <c r="O51" s="12">
-        <f>$C51*N51</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P51" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q51" s="16">
-        <f>$E51*P51</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="R51" s="11">
         <v>0.2</v>
       </c>
       <c r="S51" s="12">
-        <f>$C51*R51</f>
+        <f t="shared" si="84"/>
         <v>0.1</v>
       </c>
       <c r="T51" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>0.1</v>
       </c>
       <c r="U51" s="16">
-        <f>$E51*T51</f>
-        <v>0.2</v>
+        <f t="shared" si="99"/>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="V51" s="11">
         <v>0.5</v>
       </c>
       <c r="W51" s="12">
-        <f>$C51*V51</f>
+        <f t="shared" si="85"/>
         <v>0.25</v>
       </c>
       <c r="X51" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>0.25</v>
       </c>
       <c r="Y51" s="16">
-        <f>$E51*X51</f>
-        <v>0.5</v>
+        <f t="shared" si="101"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Z51" s="11">
         <v>0.4</v>
       </c>
       <c r="AA51" s="12">
-        <f>$C51*Z51</f>
+        <f t="shared" si="86"/>
         <v>0.2</v>
       </c>
       <c r="AB51" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0.2</v>
       </c>
       <c r="AC51" s="16">
-        <f>$E51*AB51</f>
-        <v>0.4</v>
+        <f t="shared" si="103"/>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -21449,95 +21455,95 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="9">
-        <f>1/0.5</f>
-        <v>2</v>
+        <f>(1/0.5)*0.33</f>
+        <v>0.66</v>
       </c>
       <c r="F52" s="11">
         <v>1</v>
       </c>
       <c r="G52" s="12">
-        <f>$C52*F52</f>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="H52" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0.5</v>
       </c>
       <c r="I52" s="16">
-        <f>$E52*H52</f>
-        <v>1</v>
+        <f t="shared" si="93"/>
+        <v>0.33</v>
       </c>
       <c r="J52" s="11">
         <v>0.5</v>
       </c>
       <c r="K52" s="12">
-        <f>$C52*J52</f>
+        <f t="shared" si="82"/>
         <v>0.25</v>
       </c>
       <c r="L52" s="15">
-        <f t="shared" si="81"/>
+        <f t="shared" si="94"/>
         <v>0.25</v>
       </c>
       <c r="M52" s="16">
-        <f>$E52*L52</f>
-        <v>0.5</v>
+        <f t="shared" si="95"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O52" s="12">
-        <f>$C52*N52</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P52" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q52" s="16">
-        <f>$E52*P52</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="R52" s="11">
         <v>0.1</v>
       </c>
       <c r="S52" s="12">
-        <f>$C52*R52</f>
+        <f t="shared" si="84"/>
         <v>0.05</v>
       </c>
       <c r="T52" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>0.05</v>
       </c>
       <c r="U52" s="16">
-        <f>$E52*T52</f>
-        <v>0.1</v>
+        <f t="shared" si="99"/>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="V52" s="11">
         <v>0.3</v>
       </c>
       <c r="W52" s="12">
-        <f>$C52*V52</f>
+        <f t="shared" si="85"/>
         <v>0.15</v>
       </c>
       <c r="X52" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>0.15</v>
       </c>
       <c r="Y52" s="16">
-        <f>$E52*X52</f>
-        <v>0.3</v>
+        <f t="shared" si="101"/>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="Z52" s="11">
         <v>0.02</v>
       </c>
       <c r="AA52" s="12">
-        <f>$C52*Z52</f>
+        <f t="shared" si="86"/>
         <v>0.01</v>
       </c>
       <c r="AB52" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>0.01</v>
       </c>
       <c r="AC52" s="16">
-        <f>$E52*AB52</f>
-        <v>0.02</v>
+        <f t="shared" si="103"/>
+        <v>6.6000000000000008E-3</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -21561,7 +21567,7 @@
         <v>6</v>
       </c>
       <c r="G53" s="12">
-        <f>$C53*F53</f>
+        <f t="shared" si="81"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="H53" s="15">
@@ -21569,14 +21575,14 @@
         <v>3.6000000000000005</v>
       </c>
       <c r="I53" s="16">
-        <f>$E53*H53</f>
+        <f t="shared" si="93"/>
         <v>1.8000000000000003</v>
       </c>
       <c r="J53" s="11">
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f>$C53*J53</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L53" s="15">
@@ -21584,11 +21590,11 @@
         <v>0</v>
       </c>
       <c r="M53" s="16">
-        <f>$E53*L53</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f>$C53*N53</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P53" s="15">
@@ -21596,14 +21602,14 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f>$E53*P53</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="R53" s="11">
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f>$C53*R53</f>
+        <f t="shared" si="84"/>
         <v>0.8</v>
       </c>
       <c r="T53" s="15">
@@ -21611,14 +21617,14 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="U53" s="16">
-        <f>$E53*T53</f>
+        <f t="shared" si="99"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="V53" s="11">
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f>$C53*V53</f>
+        <f t="shared" si="85"/>
         <v>0.96</v>
       </c>
       <c r="X53" s="15">
@@ -21626,14 +21632,14 @@
         <v>0.72</v>
       </c>
       <c r="Y53" s="16">
-        <f>$E53*X53</f>
+        <f t="shared" si="101"/>
         <v>0.36</v>
       </c>
       <c r="Z53" s="11">
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f>$C53*Z53</f>
+        <f t="shared" si="86"/>
         <v>0.4</v>
       </c>
       <c r="AB53" s="15">
@@ -21641,7 +21647,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AC53" s="16">
-        <f>$E53*AB53</f>
+        <f t="shared" si="103"/>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -21666,7 +21672,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="12">
-        <f>$C54*F54</f>
+        <f t="shared" si="81"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="H54" s="15">
@@ -21674,14 +21680,14 @@
         <v>7.2000000000000011</v>
       </c>
       <c r="I54" s="16">
-        <f>$E54*H54</f>
+        <f t="shared" si="93"/>
         <v>3.6000000000000005</v>
       </c>
       <c r="J54" s="11">
         <v>0</v>
       </c>
       <c r="K54" s="12">
-        <f>$C54*J54</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L54" s="15">
@@ -21689,11 +21695,11 @@
         <v>0</v>
       </c>
       <c r="M54" s="16">
-        <f>$E54*L54</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O54" s="12">
-        <f>$C54*N54</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P54" s="15">
@@ -21701,14 +21707,14 @@
         <v>0</v>
       </c>
       <c r="Q54" s="16">
-        <f>$E54*P54</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="R54" s="11">
         <v>0</v>
       </c>
       <c r="S54" s="12">
-        <f>$C54*R54</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="T54" s="15">
@@ -21716,14 +21722,14 @@
         <v>0</v>
       </c>
       <c r="U54" s="16">
-        <f>$E54*T54</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="V54" s="11">
         <v>0.5</v>
       </c>
       <c r="W54" s="12">
-        <f>$C54*V54</f>
+        <f t="shared" si="85"/>
         <v>0.4</v>
       </c>
       <c r="X54" s="15">
@@ -21731,14 +21737,14 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="Y54" s="16">
-        <f>$E54*X54</f>
+        <f t="shared" si="101"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="Z54" s="11">
         <v>0</v>
       </c>
       <c r="AA54" s="12">
-        <f>$C54*Z54</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AB54" s="15">
@@ -21746,7 +21752,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="16">
-        <f>$E54*AB54</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
     </row>
@@ -21771,7 +21777,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="12">
-        <f>$C55*F55</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="H55" s="15">
@@ -21779,14 +21785,14 @@
         <v>0</v>
       </c>
       <c r="I55" s="16">
-        <f>$E55*H55</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J55" s="11">
         <v>0</v>
       </c>
       <c r="K55" s="12">
-        <f>$C55*J55</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L55" s="15">
@@ -21794,11 +21800,11 @@
         <v>0</v>
       </c>
       <c r="M55" s="16">
-        <f>$E55*L55</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O55" s="12">
-        <f>$C55*N55</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P55" s="15">
@@ -21806,14 +21812,14 @@
         <v>0</v>
       </c>
       <c r="Q55" s="16">
-        <f>$E55*P55</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="R55" s="11">
         <v>0</v>
       </c>
       <c r="S55" s="12">
-        <f>$C55*R55</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="T55" s="15">
@@ -21821,14 +21827,14 @@
         <v>0</v>
       </c>
       <c r="U55" s="16">
-        <f>$E55*T55</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="V55" s="11">
         <v>0.5</v>
       </c>
       <c r="W55" s="12">
-        <f>$C55*V55</f>
+        <f t="shared" si="85"/>
         <v>0.4</v>
       </c>
       <c r="X55" s="15">
@@ -21836,14 +21842,14 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="Y55" s="16">
-        <f>$E55*X55</f>
+        <f t="shared" si="101"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="Z55" s="11">
         <v>0</v>
       </c>
       <c r="AA55" s="12">
-        <f>$C55*Z55</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AB55" s="15">
@@ -21851,7 +21857,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="16">
-        <f>$E55*AB55</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
     </row>
@@ -21876,7 +21882,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="12">
-        <f>$C56*F56</f>
+        <f t="shared" si="81"/>
         <v>4</v>
       </c>
       <c r="H56" s="15">
@@ -21888,7 +21894,7 @@
         <v>7</v>
       </c>
       <c r="K56" s="12">
-        <f>$C56*J56</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L56" s="15">
@@ -21900,7 +21906,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="12">
-        <f>$C56*N56</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P56" s="15">
@@ -21915,7 +21921,7 @@
         <v>0.5</v>
       </c>
       <c r="S56" s="12">
-        <f>$C56*R56</f>
+        <f t="shared" si="84"/>
         <v>0.4</v>
       </c>
       <c r="T56" s="15">
@@ -21930,7 +21936,7 @@
         <v>0.75</v>
       </c>
       <c r="W56" s="12">
-        <f>$C56*V56</f>
+        <f t="shared" si="85"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="X56" s="15">
@@ -21942,7 +21948,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="AA56" s="12">
-        <f>$C56*Z56</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AB56" s="15">
@@ -21975,7 +21981,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="12">
-        <f>$C57*F57</f>
+        <f t="shared" si="81"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="H57" s="15">
@@ -21987,7 +21993,7 @@
         <v>14.8</v>
       </c>
       <c r="K57" s="12">
-        <f>$C57*J57</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L57" s="15">
@@ -21999,7 +22005,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="12">
-        <f>$C57*N57</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P57" s="15">
@@ -22014,7 +22020,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="12">
-        <f>$C57*R57</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="T57" s="15">
@@ -22029,7 +22035,7 @@
         <v>0.3</v>
       </c>
       <c r="W57" s="12">
-        <f>$C57*V57</f>
+        <f t="shared" si="85"/>
         <v>0.24</v>
       </c>
       <c r="X57" s="15">
@@ -22041,7 +22047,7 @@
         <v>0.49</v>
       </c>
       <c r="AA57" s="12">
-        <f>$C57*Z57</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AB57" s="15">
@@ -22074,7 +22080,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="12">
-        <f>$C58*F58</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="H58" s="15">
@@ -22086,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="12">
-        <f>$C58*J58</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L58" s="15">
@@ -22098,7 +22104,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="12">
-        <f>$C58*N58</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P58" s="15">
@@ -22113,7 +22119,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="12">
-        <f>$C58*R58</f>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="T58" s="15">
@@ -22128,7 +22134,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="12">
-        <f>$C58*V58</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="X58" s="15">
@@ -22140,7 +22146,7 @@
         <v>0.25</v>
       </c>
       <c r="AA58" s="12">
-        <f>$C58*Z58</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AB58" s="15">
@@ -22169,7 +22175,7 @@
         <v>9.6</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" ref="G59:H93" si="86">F59</f>
+        <f t="shared" ref="G59:H93" si="104">F59</f>
         <v>9.6</v>
       </c>
       <c r="H59" s="15">
@@ -22181,7 +22187,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" ref="K59:K60" si="87">J59</f>
+        <f t="shared" ref="K59:K60" si="105">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="15">
@@ -22193,7 +22199,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" ref="O59:O60" si="88">N59</f>
+        <f t="shared" ref="O59:O60" si="106">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="15">
@@ -22208,7 +22214,7 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" ref="S59:S60" si="89">R59</f>
+        <f t="shared" ref="S59:S60" si="107">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
@@ -22220,7 +22226,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" ref="W59:W60" si="90">V59</f>
+        <f t="shared" ref="W59:W60" si="108">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="15">
@@ -22232,7 +22238,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" ref="AA59:AA60" si="91">Z59</f>
+        <f t="shared" ref="AA59:AA60" si="109">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
@@ -22261,7 +22267,7 @@
         <v>0.4</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0.4</v>
       </c>
       <c r="H60" s="15">
@@ -22273,7 +22279,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L60" s="15">
@@ -22285,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P60" s="15">
@@ -22300,7 +22306,7 @@
         <v>2</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>2</v>
       </c>
       <c r="T60" s="15">
@@ -22312,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="X60" s="15">
@@ -22324,7 +22330,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AB60" s="15">
@@ -22447,11 +22453,11 @@
         <v>9.6</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>9.6</v>
       </c>
       <c r="H62" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>9.6</v>
       </c>
       <c r="I62" s="16">
@@ -22459,11 +22465,11 @@
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" ref="K62:K67" si="92">J62</f>
+        <f t="shared" ref="K62:K67" si="110">J62</f>
         <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" ref="L62:L77" si="93">K62</f>
+        <f t="shared" ref="L62:L77" si="111">K62</f>
         <v>0</v>
       </c>
       <c r="M62" s="16">
@@ -22471,11 +22477,11 @@
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" ref="O62:O67" si="94">N62</f>
+        <f t="shared" ref="O62:O67" si="112">N62</f>
         <v>0</v>
       </c>
       <c r="P62" s="15">
-        <f t="shared" ref="P62:P77" si="95">O62</f>
+        <f t="shared" ref="P62:P77" si="113">O62</f>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
@@ -22486,11 +22492,11 @@
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" ref="S62:S67" si="96">R62</f>
+        <f t="shared" ref="S62:S67" si="114">R62</f>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" ref="T62:T77" si="97">S62</f>
+        <f t="shared" ref="T62:T77" si="115">S62</f>
         <v>3.5</v>
       </c>
       <c r="U62" s="16">
@@ -22501,11 +22507,11 @@
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" ref="W62:W67" si="98">V62</f>
+        <f t="shared" ref="W62:W67" si="116">V62</f>
         <v>10</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" ref="X62:X77" si="99">W62</f>
+        <f t="shared" ref="X62:X77" si="117">W62</f>
         <v>10</v>
       </c>
       <c r="Y62" s="16">
@@ -22516,11 +22522,11 @@
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" ref="AA62:AA67" si="100">Z62</f>
+        <f t="shared" ref="AA62:AA67" si="118">Z62</f>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" ref="AB62:AB77" si="101">AA62</f>
+        <f t="shared" ref="AB62:AB77" si="119">AA62</f>
         <v>10</v>
       </c>
       <c r="AC62" s="16">
@@ -22545,11 +22551,11 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0.4</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0.4</v>
       </c>
       <c r="I63" s="16">
@@ -22557,11 +22563,11 @@
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M63" s="16">
@@ -22569,11 +22575,11 @@
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
@@ -22584,11 +22590,11 @@
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="114"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>2</v>
       </c>
       <c r="U63" s="16">
@@ -22599,11 +22605,11 @@
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="116"/>
         <v>1</v>
       </c>
       <c r="X63" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
       <c r="Y63" s="16">
@@ -22614,11 +22620,11 @@
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>1</v>
       </c>
       <c r="AB63" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="AC63" s="16">
@@ -22643,11 +22649,11 @@
         <v>115</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>115</v>
       </c>
       <c r="H64" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>115</v>
       </c>
       <c r="I64" s="16">
@@ -22655,11 +22661,11 @@
         <v>236</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M64" s="16">
@@ -22667,11 +22673,11 @@
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
@@ -22682,11 +22688,11 @@
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="114"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>50</v>
       </c>
       <c r="U64" s="16">
@@ -22697,11 +22703,11 @@
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="116"/>
         <v>5</v>
       </c>
       <c r="X64" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>5</v>
       </c>
       <c r="Y64" s="16">
@@ -22712,11 +22718,11 @@
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>3</v>
       </c>
       <c r="AB64" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>3</v>
       </c>
       <c r="AC64" s="16">
@@ -22736,11 +22742,11 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
       <c r="G65" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I65" s="16">
@@ -22748,11 +22754,11 @@
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M65" s="16">
@@ -22760,11 +22766,11 @@
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P65" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q65" s="16">
@@ -22772,11 +22778,11 @@
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="T65" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U65" s="16">
@@ -22784,11 +22790,11 @@
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="X65" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y65" s="16">
@@ -22796,11 +22802,11 @@
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AB65" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
@@ -22820,11 +22826,11 @@
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
       <c r="G66" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H66" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I66" s="16">
@@ -22832,11 +22838,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M66" s="16">
@@ -22844,11 +22850,11 @@
         <v>0</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P66" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q66" s="16">
@@ -22856,11 +22862,11 @@
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U66" s="16">
@@ -22868,11 +22874,11 @@
         <v>0</v>
       </c>
       <c r="W66" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y66" s="16">
@@ -22880,11 +22886,11 @@
         <v>0</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AB66" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC66" s="16">
@@ -22904,75 +22910,75 @@
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
       <c r="G67" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H67" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" ref="I67:I93" si="102">H67</f>
+        <f t="shared" ref="I67:I93" si="120">H67</f>
         <v>0</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="L67" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M67" s="16">
-        <f t="shared" ref="M67:M77" si="103">L67</f>
+        <f t="shared" ref="M67:M77" si="121">L67</f>
         <v>0</v>
       </c>
       <c r="O67" s="12">
-        <f t="shared" si="94"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P67" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q67" s="16">
-        <f t="shared" ref="Q67:Q77" si="104">P67</f>
+        <f t="shared" ref="Q67:Q77" si="122">P67</f>
         <v>0</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="96"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="T67" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U67" s="16">
-        <f t="shared" ref="U67:U77" si="105">T67</f>
+        <f t="shared" ref="U67:U77" si="123">T67</f>
         <v>0</v>
       </c>
       <c r="W67" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="X67" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y67" s="16">
-        <f t="shared" ref="Y67:Y77" si="106">X67</f>
+        <f t="shared" ref="Y67:Y77" si="124">X67</f>
         <v>0</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="AB67" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC67" s="16">
-        <f t="shared" ref="AC67:AC77" si="107">AB67</f>
+        <f t="shared" ref="AC67:AC77" si="125">AB67</f>
         <v>0</v>
       </c>
     </row>
@@ -22997,11 +23003,11 @@
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="H68" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>3.9059499999999997E-2</v>
       </c>
       <c r="J68" s="11">
@@ -23012,11 +23018,11 @@
         <v>0</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
@@ -23027,11 +23033,11 @@
         <v>0</v>
       </c>
       <c r="P68" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
@@ -23042,11 +23048,11 @@
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>4.0905499999999997E-2</v>
       </c>
       <c r="V68" s="11">
@@ -23057,11 +23063,11 @@
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="Y68" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>6.7946500000000007E-2</v>
       </c>
       <c r="Z68" s="11">
@@ -23072,11 +23078,11 @@
         <v>0</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
@@ -23101,11 +23107,11 @@
         <v>0</v>
       </c>
       <c r="H69" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="J69" s="11">
@@ -23116,11 +23122,11 @@
         <v>0</v>
       </c>
       <c r="L69" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M69" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="N69" s="11">
@@ -23131,11 +23137,11 @@
         <v>0</v>
       </c>
       <c r="P69" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q69" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="R69" s="11">
@@ -23146,11 +23152,11 @@
         <v>0</v>
       </c>
       <c r="T69" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U69" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="V69" s="11">
@@ -23161,11 +23167,11 @@
         <v>0</v>
       </c>
       <c r="X69" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y69" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Z69" s="11">
@@ -23176,11 +23182,11 @@
         <v>0</v>
       </c>
       <c r="AB69" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC69" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
@@ -23205,11 +23211,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="J70" s="11">
@@ -23220,11 +23226,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M70" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="N70" s="11">
@@ -23235,11 +23241,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q70" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="R70" s="11">
@@ -23250,11 +23256,11 @@
         <v>0</v>
       </c>
       <c r="T70" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U70" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="V70" s="11">
@@ -23265,11 +23271,11 @@
         <v>0</v>
       </c>
       <c r="X70" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y70" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Z70" s="11">
@@ -23280,11 +23286,11 @@
         <v>0</v>
       </c>
       <c r="AB70" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC70" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
@@ -23300,78 +23306,78 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
       <c r="G71" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H71" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:K77" si="108">J71</f>
+        <f t="shared" ref="K71:K77" si="126">J71</f>
         <v>0</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" ref="O71:O77" si="109">N71</f>
+        <f t="shared" ref="O71:O77" si="127">N71</f>
         <v>0</v>
       </c>
       <c r="P71" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" ref="S71:S77" si="110">R71</f>
+        <f t="shared" ref="S71:S77" si="128">R71</f>
         <v>0</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" ref="W71:W77" si="111">V71</f>
+        <f t="shared" ref="W71:W77" si="129">V71</f>
         <v>90</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>90</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" ref="AA71:AA77" si="112">Z71</f>
+        <f t="shared" ref="AA71:AA77" si="130">Z71</f>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
@@ -23387,78 +23393,78 @@
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
       <c r="G72" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H72" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="X72" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
@@ -23474,78 +23480,78 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
       <c r="G73" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H73" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="127"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>100</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="X73" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
@@ -23564,81 +23570,81 @@
         <v>50</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>50</v>
       </c>
       <c r="H74" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>50</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="P74" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="129"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="130"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>40</v>
       </c>
     </row>
@@ -23657,78 +23663,78 @@
         <v>50</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>50</v>
       </c>
       <c r="H75" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>50</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="128"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
@@ -23744,78 +23750,78 @@
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="G76" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H76" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="P76" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="130"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>60</v>
       </c>
     </row>
@@ -23831,75 +23837,75 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="G77" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H77" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="L77" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M77" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="O77" s="12">
-        <f t="shared" si="109"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="P77" s="15">
-        <f t="shared" si="95"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q77" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S77" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="T77" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U77" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="W77" s="12">
-        <f t="shared" si="111"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="X77" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Y77" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="AB77" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AC77" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
@@ -23920,7 +23926,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="12">
-        <f>$C78*F78</f>
+        <f t="shared" ref="G78:G89" si="131">$C78*F78</f>
         <v>0</v>
       </c>
       <c r="H78" s="15">
@@ -23932,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f>$C78*J78</f>
+        <f t="shared" ref="K78:K89" si="132">$C78*J78</f>
         <v>0</v>
       </c>
       <c r="L78" s="15">
@@ -23944,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f>$C78*N78</f>
+        <f t="shared" ref="O78:O89" si="133">$C78*N78</f>
         <v>0</v>
       </c>
       <c r="P78" s="15">
@@ -23959,7 +23965,7 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f>$C78*R78</f>
+        <f t="shared" ref="S78:S89" si="134">$C78*R78</f>
         <v>1</v>
       </c>
       <c r="T78" s="15">
@@ -23971,7 +23977,7 @@
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f>$C78*V78</f>
+        <f t="shared" ref="W78:W89" si="135">$C78*V78</f>
         <v>0</v>
       </c>
       <c r="X78" s="15">
@@ -23983,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f>$C78*Z78</f>
+        <f t="shared" ref="AA78:AA89" si="136">$C78*Z78</f>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
@@ -24012,7 +24018,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="12">
-        <f>$C79*F79</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H79" s="15">
@@ -24024,7 +24030,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f>$C79*J79</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
@@ -24036,7 +24042,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f>$C79*N79</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
@@ -24051,7 +24057,7 @@
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f>$C79*R79</f>
+        <f t="shared" si="134"/>
         <v>2.5</v>
       </c>
       <c r="T79" s="15">
@@ -24063,7 +24069,7 @@
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f>$C79*V79</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
@@ -24075,7 +24081,7 @@
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f>$C79*Z79</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
@@ -24107,7 +24113,7 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f>$C80*F80</f>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="H80" s="15">
@@ -24115,14 +24121,14 @@
         <v>0.2</v>
       </c>
       <c r="I80" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.2</v>
       </c>
       <c r="J80" s="11">
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f>$C80*J80</f>
+        <f t="shared" si="132"/>
         <v>0.5</v>
       </c>
       <c r="L80" s="15">
@@ -24130,14 +24136,14 @@
         <v>1</v>
       </c>
       <c r="M80" s="16">
-        <f t="shared" ref="M80:M81" si="113">L80</f>
+        <f t="shared" ref="M80:M81" si="137">L80</f>
         <v>1</v>
       </c>
       <c r="N80" s="11">
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f>$C80*N80</f>
+        <f t="shared" si="133"/>
         <v>1.25</v>
       </c>
       <c r="P80" s="15">
@@ -24145,14 +24151,14 @@
         <v>2.5</v>
       </c>
       <c r="Q80" s="16">
-        <f t="shared" ref="Q80:Q81" si="114">P80</f>
+        <f t="shared" ref="Q80:Q81" si="138">P80</f>
         <v>2.5</v>
       </c>
       <c r="R80" s="11">
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f>$C80*R80</f>
+        <f t="shared" si="134"/>
         <v>0.5</v>
       </c>
       <c r="T80" s="15">
@@ -24160,14 +24166,14 @@
         <v>1</v>
       </c>
       <c r="U80" s="16">
-        <f t="shared" ref="U80:U81" si="115">T80</f>
+        <f t="shared" ref="U80:U81" si="139">T80</f>
         <v>1</v>
       </c>
       <c r="V80" s="11">
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f>$C80*V80</f>
+        <f t="shared" si="135"/>
         <v>0.75</v>
       </c>
       <c r="X80" s="15">
@@ -24175,14 +24181,14 @@
         <v>1.5</v>
       </c>
       <c r="Y80" s="16">
-        <f t="shared" ref="Y80:Y81" si="116">X80</f>
+        <f t="shared" ref="Y80:Y81" si="140">X80</f>
         <v>1.5</v>
       </c>
       <c r="Z80" s="11">
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f>$C80*Z80</f>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="AB80" s="15">
@@ -24190,7 +24196,7 @@
         <v>2</v>
       </c>
       <c r="AC80" s="16">
-        <f t="shared" ref="AC80:AC81" si="117">AB80</f>
+        <f t="shared" ref="AC80:AC81" si="141">AB80</f>
         <v>2</v>
       </c>
     </row>
@@ -24214,7 +24220,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f>$C81*F81</f>
+        <f t="shared" si="131"/>
         <v>35</v>
       </c>
       <c r="H81" s="15">
@@ -24222,14 +24228,14 @@
         <v>70</v>
       </c>
       <c r="I81" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>70</v>
       </c>
       <c r="J81" s="11">
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f>$C81*J81</f>
+        <f t="shared" si="132"/>
         <v>30</v>
       </c>
       <c r="L81" s="15">
@@ -24237,14 +24243,14 @@
         <v>60</v>
       </c>
       <c r="M81" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
         <v>60</v>
       </c>
       <c r="N81" s="11">
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f>$C81*N81</f>
+        <f t="shared" si="133"/>
         <v>2.5</v>
       </c>
       <c r="P81" s="15">
@@ -24252,14 +24258,14 @@
         <v>5</v>
       </c>
       <c r="Q81" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="138"/>
         <v>5</v>
       </c>
       <c r="R81" s="11">
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f>$C81*R81</f>
+        <f t="shared" si="134"/>
         <v>7.5</v>
       </c>
       <c r="T81" s="15">
@@ -24267,14 +24273,14 @@
         <v>15</v>
       </c>
       <c r="U81" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="139"/>
         <v>15</v>
       </c>
       <c r="V81" s="11">
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f>$C81*V81</f>
+        <f t="shared" si="135"/>
         <v>45</v>
       </c>
       <c r="X81" s="15">
@@ -24282,14 +24288,14 @@
         <v>90</v>
       </c>
       <c r="Y81" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="140"/>
         <v>90</v>
       </c>
       <c r="Z81" s="11">
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f>$C81*Z81</f>
+        <f t="shared" si="136"/>
         <v>35</v>
       </c>
       <c r="AB81" s="15">
@@ -24297,7 +24303,7 @@
         <v>70</v>
       </c>
       <c r="AC81" s="16">
-        <f t="shared" si="117"/>
+        <f t="shared" si="141"/>
         <v>70</v>
       </c>
     </row>
@@ -24318,7 +24324,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="12">
-        <f>$C82*F82</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
@@ -24330,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f>$C82*J82</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
@@ -24342,7 +24348,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f>$C82*N82</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="P82" s="15">
@@ -24357,7 +24363,7 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f>$C82*R82</f>
+        <f t="shared" si="134"/>
         <v>1.25</v>
       </c>
       <c r="T82" s="15">
@@ -24372,7 +24378,7 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f>$C82*V82</f>
+        <f t="shared" si="135"/>
         <v>0.5</v>
       </c>
       <c r="X82" s="15">
@@ -24384,7 +24390,7 @@
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f>$C82*Z82</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
@@ -24413,7 +24419,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="12">
-        <f>$C83*F83</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
@@ -24425,7 +24431,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f>$C83*J83</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
@@ -24437,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f>$C83*N83</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
@@ -24452,7 +24458,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f>$C83*R83</f>
+        <f t="shared" si="134"/>
         <v>40</v>
       </c>
       <c r="T83" s="15">
@@ -24467,7 +24473,7 @@
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f>$C83*V83</f>
+        <f t="shared" si="135"/>
         <v>2.5</v>
       </c>
       <c r="X83" s="15">
@@ -24479,7 +24485,7 @@
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f>$C83*Z83</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
@@ -24505,81 +24511,81 @@
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
       <c r="G84" s="12">
-        <f>$C84*F84</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f>$C84*J84</f>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" ref="L84:L93" si="118">K84</f>
+        <f t="shared" ref="L84:L93" si="142">K84</f>
         <v>0.1</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" ref="M84:M93" si="119">L84</f>
+        <f t="shared" ref="M84:M93" si="143">L84</f>
         <v>0.1</v>
       </c>
       <c r="O84" s="12">
-        <f>$C84*N84</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" ref="P84:P93" si="120">O84</f>
+        <f t="shared" ref="P84:P93" si="144">O84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" ref="Q84:Q93" si="121">P84</f>
+        <f t="shared" ref="Q84:Q93" si="145">P84</f>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f>$C84*R84</f>
+        <f t="shared" si="134"/>
         <v>1</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" ref="T84:T93" si="122">S84</f>
+        <f t="shared" ref="T84:T93" si="146">S84</f>
         <v>1</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U93" si="123">T84</f>
+        <f t="shared" ref="U84:U93" si="147">T84</f>
         <v>1</v>
       </c>
       <c r="W84" s="12">
-        <f>$C84*V84</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" ref="X84:X93" si="124">W84</f>
+        <f t="shared" ref="X84:X93" si="148">W84</f>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" ref="Y84:Y93" si="125">X84</f>
+        <f t="shared" ref="Y84:Y93" si="149">X84</f>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f>$C84*Z84</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" ref="AB84:AB93" si="126">AA84</f>
+        <f t="shared" ref="AB84:AB93" si="150">AA84</f>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" ref="AC84:AC93" si="127">AB84</f>
+        <f t="shared" ref="AC84:AC93" si="151">AB84</f>
         <v>0</v>
       </c>
     </row>
@@ -24597,81 +24603,81 @@
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
       <c r="G85" s="12">
-        <f>$C85*F85</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H85" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f>$C85*J85</f>
+        <f t="shared" si="132"/>
         <v>30</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>30</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>30</v>
       </c>
       <c r="O85" s="12">
-        <f>$C85*N85</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f>$C85*R85</f>
+        <f t="shared" si="134"/>
         <v>45</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>45</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>45</v>
       </c>
       <c r="W85" s="12">
-        <f>$C85*V85</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f>$C85*Z85</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
     </row>
@@ -24692,90 +24698,90 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f>$C86*F86</f>
+        <f t="shared" si="131"/>
         <v>0.25</v>
       </c>
       <c r="H86" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0.25</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0.25</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f>$C86*J86</f>
+        <f t="shared" si="132"/>
         <v>0.2</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0.2</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>0.2</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f>$C86*N86</f>
+        <f t="shared" si="133"/>
         <v>0.1</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0.1</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>0.1</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f>$C86*R86</f>
+        <f t="shared" si="134"/>
         <v>2</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>2</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>2</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f>$C86*V86</f>
+        <f t="shared" si="135"/>
         <v>0.5</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="148"/>
         <v>0.5</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="149"/>
         <v>0.5</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f>$C86*Z86</f>
+        <f t="shared" si="136"/>
         <v>0.75</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="150"/>
         <v>0.75</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="151"/>
         <v>0.75</v>
       </c>
     </row>
@@ -24796,90 +24802,90 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f>$C87*F87</f>
+        <f t="shared" si="131"/>
         <v>35</v>
       </c>
       <c r="H87" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>35</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>35</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f>$C87*J87</f>
+        <f t="shared" si="132"/>
         <v>30</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>30</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>30</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f>$C87*N87</f>
+        <f t="shared" si="133"/>
         <v>35</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>35</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>35</v>
       </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f>$C87*R87</f>
+        <f t="shared" si="134"/>
         <v>50</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>50</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>50</v>
       </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f>$C87*V87</f>
+        <f t="shared" si="135"/>
         <v>45</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="148"/>
         <v>45</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="149"/>
         <v>45</v>
       </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f>$C87*Z87</f>
+        <f t="shared" si="136"/>
         <v>35</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="150"/>
         <v>35</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="151"/>
         <v>35</v>
       </c>
     </row>
@@ -24897,75 +24903,75 @@
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="G88" s="12">
-        <f>$C88*F88</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
-        <f>$C88*J88</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="O88" s="12">
-        <f>$C88*N88</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="Q88" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="S88" s="12">
-        <f>$C88*R88</f>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="W88" s="12">
-        <f>$C88*V88</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Y88" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AA88" s="12">
-        <f>$C88*Z88</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AC88" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
     </row>
@@ -24983,75 +24989,75 @@
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
       <c r="G89" s="12">
-        <f>$C89*F89</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f>$C89*J89</f>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f>$C89*N89</f>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="Q89" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f>$C89*R89</f>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f>$C89*V89</f>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Y89" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f>$C89*Z89</f>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AC89" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
     </row>
@@ -25067,75 +25073,75 @@
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
       <c r="G90" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H90" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" ref="K90" si="128">J90</f>
+        <f t="shared" ref="K90" si="152">J90</f>
         <v>0</v>
       </c>
       <c r="L90" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="M90" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="O90" s="12">
-        <f t="shared" ref="O90" si="129">N90</f>
+        <f t="shared" ref="O90" si="153">N90</f>
         <v>0</v>
       </c>
       <c r="P90" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="Q90" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="S90" s="12">
-        <f t="shared" ref="S90" si="130">R90</f>
+        <f t="shared" ref="S90" si="154">R90</f>
         <v>0</v>
       </c>
       <c r="T90" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="U90" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="W90" s="12">
-        <f t="shared" ref="W90" si="131">V90</f>
+        <f t="shared" ref="W90" si="155">V90</f>
         <v>0</v>
       </c>
       <c r="X90" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Y90" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AA90" s="12">
-        <f t="shared" ref="AA90" si="132">Z90</f>
+        <f t="shared" ref="AA90" si="156">Z90</f>
         <v>0</v>
       </c>
       <c r="AB90" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AC90" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
     </row>
@@ -25157,11 +25163,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
@@ -25169,11 +25175,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
@@ -25181,11 +25187,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
@@ -25196,11 +25202,11 @@
         <v>9</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>9</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>9</v>
       </c>
       <c r="W91" s="12">
@@ -25208,11 +25214,11 @@
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
@@ -25220,11 +25226,11 @@
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
     </row>
@@ -25246,11 +25252,11 @@
         <v>0</v>
       </c>
       <c r="H92" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
@@ -25258,11 +25264,11 @@
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
@@ -25270,11 +25276,11 @@
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
@@ -25285,11 +25291,11 @@
         <v>0.5</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>0.5</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>0.5</v>
       </c>
       <c r="W92" s="12">
@@ -25297,11 +25303,11 @@
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
@@ -25309,11 +25315,11 @@
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
     </row>
@@ -25329,78 +25335,78 @@
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
       <c r="G93" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H93" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" ref="K93" si="133">J93</f>
+        <f t="shared" ref="K93" si="157">J93</f>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" ref="O93" si="134">N93</f>
+        <f t="shared" ref="O93" si="158">N93</f>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" ref="S93" si="135">R93</f>
+        <f t="shared" ref="S93" si="159">R93</f>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="146"/>
         <v>5</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="123"/>
+        <f t="shared" si="147"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" ref="W93" si="136">V93</f>
+        <f t="shared" ref="W93" si="160">V93</f>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="125"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" ref="AA93" si="137">Z93</f>
+        <f t="shared" ref="AA93" si="161">Z93</f>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
     </row>
@@ -25414,9 +25420,9 @@
   <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="450"/>
+      <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29925,8 +29931,8 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="9">
-        <f>1/0.25</f>
-        <v>4</v>
+        <f>(1/0.25)*0.33</f>
+        <v>1.32</v>
       </c>
       <c r="F48" s="11">
         <v>4</v>
@@ -29941,7 +29947,7 @@
       </c>
       <c r="I48" s="16">
         <f>$E48*H48</f>
-        <v>4</v>
+        <v>1.32</v>
       </c>
       <c r="J48" s="11">
         <v>1</v>
@@ -29956,7 +29962,7 @@
       </c>
       <c r="M48" s="16">
         <f>$E48*L48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O48" s="12">
         <f t="shared" si="78"/>
@@ -29983,7 +29989,7 @@
       </c>
       <c r="U48" s="16">
         <f>$E48*T48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="V48" s="11">
         <v>1</v>
@@ -29998,7 +30004,7 @@
       </c>
       <c r="Y48" s="16">
         <f>$E48*X48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="Z48" s="11">
         <v>0.5</v>
@@ -30013,7 +30019,7 @@
       </c>
       <c r="AC48" s="16">
         <f>$E48*AB48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -30029,8 +30035,8 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="9">
-        <f>1/0.25</f>
-        <v>4</v>
+        <f>(1/0.25)*0.33</f>
+        <v>1.32</v>
       </c>
       <c r="F49" s="11">
         <v>70</v>
@@ -30045,7 +30051,7 @@
       </c>
       <c r="I49" s="16">
         <f>MIN(100,$E49*H49)</f>
-        <v>70</v>
+        <v>23.1</v>
       </c>
       <c r="J49" s="11">
         <v>50</v>
@@ -30060,7 +30066,7 @@
       </c>
       <c r="M49" s="16">
         <f>MIN(100,$E49*L49)</f>
-        <v>50</v>
+        <v>16.5</v>
       </c>
       <c r="O49" s="12">
         <f t="shared" si="78"/>
@@ -30087,7 +30093,7 @@
       </c>
       <c r="U49" s="16">
         <f>MIN(100,$E49*T49)</f>
-        <v>30</v>
+        <v>9.9</v>
       </c>
       <c r="V49" s="11">
         <v>40</v>
@@ -30102,7 +30108,7 @@
       </c>
       <c r="Y49" s="16">
         <f>MIN(100,$E49*X49)</f>
-        <v>40</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="Z49" s="11">
         <v>15</v>
@@ -30117,7 +30123,7 @@
       </c>
       <c r="AC49" s="16">
         <f>MIN(100,$E49*AB49)</f>
-        <v>15</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -30133,8 +30139,8 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="9">
-        <f>1/0.25</f>
-        <v>4</v>
+        <f>(1/0.25)*0.33</f>
+        <v>1.32</v>
       </c>
       <c r="F50" s="11">
         <v>2</v>
@@ -30149,7 +30155,7 @@
       </c>
       <c r="I50" s="16">
         <f t="shared" ref="I50:I55" si="87">$E50*H50</f>
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="J50" s="11">
         <v>1</v>
@@ -30164,7 +30170,7 @@
       </c>
       <c r="M50" s="16">
         <f t="shared" ref="M50:M55" si="88">$E50*L50</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O50" s="12">
         <f t="shared" si="78"/>
@@ -30191,7 +30197,7 @@
       </c>
       <c r="U50" s="16">
         <f t="shared" ref="U50:U55" si="90">$E50*T50</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="V50" s="11">
         <v>1</v>
@@ -30206,7 +30212,7 @@
       </c>
       <c r="Y50" s="16">
         <f t="shared" ref="Y50:Y55" si="91">$E50*X50</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="Z50" s="11">
         <v>0.3</v>
@@ -30221,7 +30227,7 @@
       </c>
       <c r="AC50" s="16">
         <f t="shared" ref="AC50:AC55" si="92">$E50*AB50</f>
-        <v>0.3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -30237,8 +30243,8 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="9">
-        <f>1/0.25</f>
-        <v>4</v>
+        <f>(1/0.25)*0.33</f>
+        <v>1.32</v>
       </c>
       <c r="F51" s="11">
         <v>1.5</v>
@@ -30253,7 +30259,7 @@
       </c>
       <c r="I51" s="16">
         <f t="shared" si="87"/>
-        <v>1.5</v>
+        <v>0.495</v>
       </c>
       <c r="J51" s="11">
         <v>1</v>
@@ -30268,7 +30274,7 @@
       </c>
       <c r="M51" s="16">
         <f t="shared" si="88"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O51" s="12">
         <f t="shared" si="78"/>
@@ -30295,7 +30301,7 @@
       </c>
       <c r="U51" s="16">
         <f t="shared" si="90"/>
-        <v>0.2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="V51" s="11">
         <v>0.5</v>
@@ -30310,7 +30316,7 @@
       </c>
       <c r="Y51" s="16">
         <f t="shared" si="91"/>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Z51" s="11">
         <v>0.4</v>
@@ -30325,7 +30331,7 @@
       </c>
       <c r="AC51" s="16">
         <f t="shared" si="92"/>
-        <v>0.4</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -30341,8 +30347,8 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="9">
-        <f>1/0.25</f>
-        <v>4</v>
+        <f>(1/0.25)*0.33</f>
+        <v>1.32</v>
       </c>
       <c r="F52" s="11">
         <v>1</v>
@@ -30357,7 +30363,7 @@
       </c>
       <c r="I52" s="16">
         <f t="shared" si="87"/>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="J52" s="11">
         <v>0.5</v>
@@ -30372,7 +30378,7 @@
       </c>
       <c r="M52" s="16">
         <f t="shared" si="88"/>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O52" s="12">
         <f t="shared" si="78"/>
@@ -30399,7 +30405,7 @@
       </c>
       <c r="U52" s="16">
         <f t="shared" si="90"/>
-        <v>0.1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="V52" s="11">
         <v>0.3</v>
@@ -30414,7 +30420,7 @@
       </c>
       <c r="Y52" s="16">
         <f t="shared" si="91"/>
-        <v>0.3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="Z52" s="11">
         <v>0.02</v>
@@ -30429,7 +30435,7 @@
       </c>
       <c r="AC52" s="16">
         <f t="shared" si="92"/>
-        <v>0.02</v>
+        <v>6.6000000000000008E-3</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -45857,7 +45863,7 @@
       </c>
       <c r="H48">
         <f>'3_MechRemove_ModSeverity'!I48</f>
-        <v>4</v>
+        <v>1.32</v>
       </c>
       <c r="I48">
         <f>'3_MechRemove_HighSeverity'!G48</f>
@@ -45869,7 +45875,7 @@
       </c>
       <c r="K48">
         <f>'3_MechRemove_HighSeverity'!I48</f>
-        <v>4</v>
+        <v>1.32</v>
       </c>
       <c r="L48">
         <f>'3_MechRemove_LowSeverity'!J48</f>
@@ -45897,7 +45903,7 @@
       </c>
       <c r="R48">
         <f>'3_MechRemove_ModSeverity'!M48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="S48">
         <f>'3_MechRemove_HighSeverity'!K48</f>
@@ -45909,7 +45915,7 @@
       </c>
       <c r="U48">
         <f>'3_MechRemove_HighSeverity'!M48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="V48">
         <f>'3_MechRemove_LowSeverity'!N48</f>
@@ -45977,7 +45983,7 @@
       </c>
       <c r="AL48">
         <f>'3_MechRemove_ModSeverity'!U48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AM48">
         <f>'3_MechRemove_HighSeverity'!S48</f>
@@ -45989,7 +45995,7 @@
       </c>
       <c r="AO48">
         <f>'3_MechRemove_HighSeverity'!U48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AP48">
         <f>'3_MechRemove_LowSeverity'!V48</f>
@@ -46017,7 +46023,7 @@
       </c>
       <c r="AV48">
         <f>'3_MechRemove_ModSeverity'!Y48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AW48">
         <f>'3_MechRemove_HighSeverity'!W48</f>
@@ -46029,7 +46035,7 @@
       </c>
       <c r="AY48">
         <f>'3_MechRemove_HighSeverity'!Y48</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AZ48">
         <f>'3_MechRemove_LowSeverity'!Z48</f>
@@ -46057,7 +46063,7 @@
       </c>
       <c r="BF48">
         <f>'3_MechRemove_ModSeverity'!AC48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="BG48">
         <f>'3_MechRemove_HighSeverity'!AA48</f>
@@ -46069,7 +46075,7 @@
       </c>
       <c r="BI48">
         <f>'3_MechRemove_HighSeverity'!AC48</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
@@ -46103,7 +46109,7 @@
       </c>
       <c r="H49">
         <f>'3_MechRemove_ModSeverity'!I49</f>
-        <v>70</v>
+        <v>23.1</v>
       </c>
       <c r="I49">
         <f>'3_MechRemove_HighSeverity'!G49</f>
@@ -46115,7 +46121,7 @@
       </c>
       <c r="K49">
         <f>'3_MechRemove_HighSeverity'!I49</f>
-        <v>70</v>
+        <v>23.1</v>
       </c>
       <c r="L49">
         <f>'3_MechRemove_LowSeverity'!J49</f>
@@ -46143,7 +46149,7 @@
       </c>
       <c r="R49">
         <f>'3_MechRemove_ModSeverity'!M49</f>
-        <v>50</v>
+        <v>16.5</v>
       </c>
       <c r="S49">
         <f>'3_MechRemove_HighSeverity'!K49</f>
@@ -46155,7 +46161,7 @@
       </c>
       <c r="U49">
         <f>'3_MechRemove_HighSeverity'!M49</f>
-        <v>50</v>
+        <v>16.5</v>
       </c>
       <c r="V49">
         <f>'3_MechRemove_LowSeverity'!N49</f>
@@ -46223,7 +46229,7 @@
       </c>
       <c r="AL49">
         <f>'3_MechRemove_ModSeverity'!U49</f>
-        <v>30</v>
+        <v>9.9</v>
       </c>
       <c r="AM49">
         <f>'3_MechRemove_HighSeverity'!S49</f>
@@ -46235,7 +46241,7 @@
       </c>
       <c r="AO49">
         <f>'3_MechRemove_HighSeverity'!U49</f>
-        <v>30</v>
+        <v>9.9</v>
       </c>
       <c r="AP49">
         <f>'3_MechRemove_LowSeverity'!V49</f>
@@ -46263,7 +46269,7 @@
       </c>
       <c r="AV49">
         <f>'3_MechRemove_ModSeverity'!Y49</f>
-        <v>40</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="AW49">
         <f>'3_MechRemove_HighSeverity'!W49</f>
@@ -46275,7 +46281,7 @@
       </c>
       <c r="AY49">
         <f>'3_MechRemove_HighSeverity'!Y49</f>
-        <v>40</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="AZ49">
         <f>'3_MechRemove_LowSeverity'!Z49</f>
@@ -46303,7 +46309,7 @@
       </c>
       <c r="BF49">
         <f>'3_MechRemove_ModSeverity'!AC49</f>
-        <v>15</v>
+        <v>4.95</v>
       </c>
       <c r="BG49">
         <f>'3_MechRemove_HighSeverity'!AA49</f>
@@ -46315,7 +46321,7 @@
       </c>
       <c r="BI49">
         <f>'3_MechRemove_HighSeverity'!AC49</f>
-        <v>15</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
@@ -46349,7 +46355,7 @@
       </c>
       <c r="H50">
         <f>'3_MechRemove_ModSeverity'!I50</f>
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="I50">
         <f>'3_MechRemove_HighSeverity'!G50</f>
@@ -46361,7 +46367,7 @@
       </c>
       <c r="K50">
         <f>'3_MechRemove_HighSeverity'!I50</f>
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="L50">
         <f>'3_MechRemove_LowSeverity'!J50</f>
@@ -46389,7 +46395,7 @@
       </c>
       <c r="R50">
         <f>'3_MechRemove_ModSeverity'!M50</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="S50">
         <f>'3_MechRemove_HighSeverity'!K50</f>
@@ -46401,7 +46407,7 @@
       </c>
       <c r="U50">
         <f>'3_MechRemove_HighSeverity'!M50</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="V50">
         <f>'3_MechRemove_LowSeverity'!N50</f>
@@ -46469,7 +46475,7 @@
       </c>
       <c r="AL50">
         <f>'3_MechRemove_ModSeverity'!U50</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AM50">
         <f>'3_MechRemove_HighSeverity'!S50</f>
@@ -46481,7 +46487,7 @@
       </c>
       <c r="AO50">
         <f>'3_MechRemove_HighSeverity'!U50</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AP50">
         <f>'3_MechRemove_LowSeverity'!V50</f>
@@ -46509,7 +46515,7 @@
       </c>
       <c r="AV50">
         <f>'3_MechRemove_ModSeverity'!Y50</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AW50">
         <f>'3_MechRemove_HighSeverity'!W50</f>
@@ -46521,7 +46527,7 @@
       </c>
       <c r="AY50">
         <f>'3_MechRemove_HighSeverity'!Y50</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AZ50">
         <f>'3_MechRemove_LowSeverity'!Z50</f>
@@ -46549,7 +46555,7 @@
       </c>
       <c r="BF50">
         <f>'3_MechRemove_ModSeverity'!AC50</f>
-        <v>0.3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="BG50">
         <f>'3_MechRemove_HighSeverity'!AA50</f>
@@ -46561,7 +46567,7 @@
       </c>
       <c r="BI50">
         <f>'3_MechRemove_HighSeverity'!AC50</f>
-        <v>0.3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
@@ -46595,7 +46601,7 @@
       </c>
       <c r="H51">
         <f>'3_MechRemove_ModSeverity'!I51</f>
-        <v>1.5</v>
+        <v>0.495</v>
       </c>
       <c r="I51">
         <f>'3_MechRemove_HighSeverity'!G51</f>
@@ -46607,7 +46613,7 @@
       </c>
       <c r="K51">
         <f>'3_MechRemove_HighSeverity'!I51</f>
-        <v>1.5</v>
+        <v>0.495</v>
       </c>
       <c r="L51">
         <f>'3_MechRemove_LowSeverity'!J51</f>
@@ -46635,7 +46641,7 @@
       </c>
       <c r="R51">
         <f>'3_MechRemove_ModSeverity'!M51</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="S51">
         <f>'3_MechRemove_HighSeverity'!K51</f>
@@ -46647,7 +46653,7 @@
       </c>
       <c r="U51">
         <f>'3_MechRemove_HighSeverity'!M51</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="V51">
         <f>'3_MechRemove_LowSeverity'!N51</f>
@@ -46715,7 +46721,7 @@
       </c>
       <c r="AL51">
         <f>'3_MechRemove_ModSeverity'!U51</f>
-        <v>0.2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AM51">
         <f>'3_MechRemove_HighSeverity'!S51</f>
@@ -46727,7 +46733,7 @@
       </c>
       <c r="AO51">
         <f>'3_MechRemove_HighSeverity'!U51</f>
-        <v>0.2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AP51">
         <f>'3_MechRemove_LowSeverity'!V51</f>
@@ -46755,7 +46761,7 @@
       </c>
       <c r="AV51">
         <f>'3_MechRemove_ModSeverity'!Y51</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AW51">
         <f>'3_MechRemove_HighSeverity'!W51</f>
@@ -46767,7 +46773,7 @@
       </c>
       <c r="AY51">
         <f>'3_MechRemove_HighSeverity'!Y51</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AZ51">
         <f>'3_MechRemove_LowSeverity'!Z51</f>
@@ -46795,7 +46801,7 @@
       </c>
       <c r="BF51">
         <f>'3_MechRemove_ModSeverity'!AC51</f>
-        <v>0.4</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="BG51">
         <f>'3_MechRemove_HighSeverity'!AA51</f>
@@ -46807,7 +46813,7 @@
       </c>
       <c r="BI51">
         <f>'3_MechRemove_HighSeverity'!AC51</f>
-        <v>0.4</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
@@ -46841,7 +46847,7 @@
       </c>
       <c r="H52">
         <f>'3_MechRemove_ModSeverity'!I52</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="I52">
         <f>'3_MechRemove_HighSeverity'!G52</f>
@@ -46853,7 +46859,7 @@
       </c>
       <c r="K52">
         <f>'3_MechRemove_HighSeverity'!I52</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="L52">
         <f>'3_MechRemove_LowSeverity'!J52</f>
@@ -46881,7 +46887,7 @@
       </c>
       <c r="R52">
         <f>'3_MechRemove_ModSeverity'!M52</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="S52">
         <f>'3_MechRemove_HighSeverity'!K52</f>
@@ -46893,7 +46899,7 @@
       </c>
       <c r="U52">
         <f>'3_MechRemove_HighSeverity'!M52</f>
-        <v>0.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="V52">
         <f>'3_MechRemove_LowSeverity'!N52</f>
@@ -46961,7 +46967,7 @@
       </c>
       <c r="AL52">
         <f>'3_MechRemove_ModSeverity'!U52</f>
-        <v>0.1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AM52">
         <f>'3_MechRemove_HighSeverity'!S52</f>
@@ -46973,7 +46979,7 @@
       </c>
       <c r="AO52">
         <f>'3_MechRemove_HighSeverity'!U52</f>
-        <v>0.1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AP52">
         <f>'3_MechRemove_LowSeverity'!V52</f>
@@ -47001,7 +47007,7 @@
       </c>
       <c r="AV52">
         <f>'3_MechRemove_ModSeverity'!Y52</f>
-        <v>0.3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AW52">
         <f>'3_MechRemove_HighSeverity'!W52</f>
@@ -47013,7 +47019,7 @@
       </c>
       <c r="AY52">
         <f>'3_MechRemove_HighSeverity'!Y52</f>
-        <v>0.3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AZ52">
         <f>'3_MechRemove_LowSeverity'!Z52</f>
@@ -47041,7 +47047,7 @@
       </c>
       <c r="BF52">
         <f>'3_MechRemove_ModSeverity'!AC52</f>
-        <v>0.02</v>
+        <v>6.6000000000000008E-3</v>
       </c>
       <c r="BG52">
         <f>'3_MechRemove_HighSeverity'!AA52</f>
@@ -47053,7 +47059,7 @@
       </c>
       <c r="BI52">
         <f>'3_MechRemove_HighSeverity'!AC52</f>
-        <v>0.02</v>
+        <v>6.6000000000000008E-3</v>
       </c>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
